--- a/2019年计划/9-11季度计划.xlsx
+++ b/2019年计划/9-11季度计划.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="222">
   <si>
     <t>月份\目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -582,10 +582,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>洗衣服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">计划完成情况：
     学习：
       1 javaScript高级程序设计完成
@@ -768,10 +764,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>睡前锻炼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>整理衣柜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -796,10 +788,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>英语单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>英语拓展</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -840,82 +828,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>铺床 + 洗漱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6:30  -  7:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阅读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7:30  -  8:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上班 + 吃早饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8:30  -  9:40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>英语拓展学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9:40  -  11:40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12:30 -  1:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>午休</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:30  -  6:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7:00  -  7:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>洗漱 + 打扫卫生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7:40  -  8:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>英语复习 + 冥想</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8:20  -  9:40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语阅读 + 冥想</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9:40  -  10:40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:40 -  11:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>早睡早起</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -945,18 +869,6 @@
   </si>
   <si>
     <t>锻炼身体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6:00  -  6:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5:40  -  6:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舒展身体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1014,29 +926,121 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>每天英语听力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语阅读3篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起泡菜水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语听力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:30  -  7:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺床+洗漱+锻炼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:00  -  8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:30  -  9:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃早饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00 -  11:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:30 -  6:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:00  -  10:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:40 -  7:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:00 -  7:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:00 -  9:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9:20 -  10:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:20 - 10:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见潘念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语阅读 + 冥想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 英语单词复习  100%
+2 英语单词积累
+3 制作泡菜水    30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>英语阅读8页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每天英语听力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>见潘念（手链）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语阅读3篇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>起泡菜水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 英语单词复习
-2 英语单词积累
-3 制作泡菜水</t>
+    <t>5.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 修改bug     100%
+2 背诵相爱    0%
+3 制作泡菜水  100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 全部加入复习列表
+2 阅读小说
+3 复习单词</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2218,7 +2222,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2345,6 +2349,363 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2366,363 +2727,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2735,15 +2739,15 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2758,15 +2762,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3104,75 +3099,75 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>125</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:7" ht="87" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="81" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -3187,7 +3182,7 @@
     </row>
     <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
@@ -3240,8 +3235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:D14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1"/>
@@ -3268,179 +3263,236 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="33" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="A1" s="163" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="165"/>
+      <c r="F1" s="166" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
     </row>
     <row r="2" spans="1:18" ht="35.25" customHeight="1">
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="161" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="162"/>
+      <c r="D2" s="34" t="s">
+        <v>219</v>
+      </c>
       <c r="F2" s="10"/>
       <c r="G2" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="I2" s="12" t="s">
+      <c r="L2" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="M2" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>167</v>
-      </c>
       <c r="N2" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="O2" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="O2" s="13" t="s">
         <v>158</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>126</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="R2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="33" customHeight="1">
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="161" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="162"/>
+      <c r="D3" s="34" t="s">
+        <v>214</v>
+      </c>
       <c r="F3" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+        <v>130</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>197</v>
+      </c>
       <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
+      <c r="J3" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>197</v>
+      </c>
       <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
+      <c r="O3" s="16" t="s">
+        <v>197</v>
+      </c>
       <c r="R3" s="16"/>
     </row>
     <row r="4" spans="1:18" ht="33" customHeight="1">
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" s="43"/>
+      <c r="B4" s="161" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="162"/>
       <c r="D4" s="34"/>
       <c r="F4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="R4" s="16" t="s">
-        <v>126</v>
-      </c>
+      <c r="G4" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="R4" s="16"/>
     </row>
     <row r="5" spans="1:18" ht="33" customHeight="1">
       <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="34"/>
+      <c r="B5" s="161" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="162"/>
+      <c r="D5" s="34" t="s">
+        <v>215</v>
+      </c>
       <c r="F5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="G5" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>197</v>
+      </c>
       <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
+      <c r="K5" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>197</v>
+      </c>
       <c r="R5" s="16"/>
     </row>
     <row r="6" spans="1:18" ht="33" customHeight="1">
       <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="162"/>
       <c r="D6" s="34"/>
       <c r="F6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="16" t="s">
+        <v>197</v>
+      </c>
       <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="R6" s="16" t="s">
-        <v>126</v>
-      </c>
+      <c r="I6" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="R6" s="16"/>
     </row>
     <row r="7" spans="1:18" ht="33" customHeight="1">
       <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="43"/>
+      <c r="B7" s="161"/>
+      <c r="C7" s="162"/>
       <c r="D7" s="34"/>
       <c r="F7" s="17" t="s">
         <v>18</v>
@@ -3454,48 +3506,45 @@
       <c r="M7" s="16"/>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
       <c r="R7" s="16"/>
     </row>
     <row r="8" spans="1:18" ht="44.25" customHeight="1">
       <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="162"/>
       <c r="D8" s="34"/>
-      <c r="R8" s="16" t="s">
-        <v>126</v>
-      </c>
+      <c r="R8" s="16"/>
     </row>
     <row r="9" spans="1:18" ht="46.5" customHeight="1">
       <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
+      <c r="B9" s="161"/>
+      <c r="C9" s="162"/>
       <c r="D9" s="34"/>
       <c r="F9" s="10"/>
       <c r="G9" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>164</v>
-      </c>
       <c r="J9" s="13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="12"/>
@@ -3507,11 +3556,13 @@
       <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="34"/>
+      <c r="B10" s="161" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="162"/>
+      <c r="D10" s="34" t="s">
+        <v>216</v>
+      </c>
       <c r="F10" s="17" t="s">
         <v>19</v>
       </c>
@@ -3531,10 +3582,10 @@
       <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="43"/>
+      <c r="B11" s="161" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="162"/>
       <c r="D11" s="34"/>
       <c r="F11" s="15" t="s">
         <v>20</v>
@@ -3552,537 +3603,541 @@
       <c r="Q11" s="16"/>
     </row>
     <row r="12" spans="1:18" ht="33" customHeight="1">
-      <c r="A12" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
+      <c r="A12" s="153" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="153"/>
+      <c r="C12" s="153"/>
+      <c r="D12" s="153"/>
     </row>
     <row r="13" spans="1:18" ht="54.75" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="B13" s="180" t="s">
-        <v>221</v>
-      </c>
-      <c r="C13" s="181"/>
-      <c r="D13" s="182"/>
-    </row>
-    <row r="14" spans="1:18" ht="33" customHeight="1">
+        <v>130</v>
+      </c>
+      <c r="B13" s="157" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="158"/>
+      <c r="D13" s="159"/>
+    </row>
+    <row r="14" spans="1:18" ht="57.75" customHeight="1">
       <c r="A14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="69"/>
-    </row>
-    <row r="15" spans="1:18" ht="33" customHeight="1">
+      <c r="B14" s="157"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="159"/>
+    </row>
+    <row r="15" spans="1:18" ht="50.25" customHeight="1">
       <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
+      <c r="B15" s="157" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="158"/>
+      <c r="D15" s="159"/>
     </row>
     <row r="16" spans="1:18" ht="47.25" customHeight="1">
       <c r="A16" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="69"/>
-    </row>
-    <row r="17" spans="1:4" ht="33" customHeight="1">
+      <c r="B16" s="157"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="159"/>
+    </row>
+    <row r="17" spans="1:4" ht="64.5" customHeight="1">
       <c r="A17" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="67"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="69"/>
+      <c r="B17" s="157" t="s">
+        <v>221</v>
+      </c>
+      <c r="C17" s="158"/>
+      <c r="D17" s="159"/>
     </row>
     <row r="18" spans="1:4" ht="33" customHeight="1">
       <c r="A18" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="69"/>
+      <c r="B18" s="157"/>
+      <c r="C18" s="158"/>
+      <c r="D18" s="159"/>
     </row>
     <row r="19" spans="1:4" ht="33" customHeight="1">
       <c r="A19" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="69"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="159"/>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1">
-      <c r="A20" s="89" t="s">
-        <v>147</v>
-      </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
+      <c r="A20" s="160" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="160"/>
+      <c r="C20" s="160"/>
+      <c r="D20" s="160"/>
     </row>
     <row r="21" spans="1:4" ht="33" customHeight="1">
       <c r="A21" s="9">
         <v>1</v>
       </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="88"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="143"/>
     </row>
     <row r="22" spans="1:4" ht="33" customHeight="1">
       <c r="A22" s="9">
         <v>2</v>
       </c>
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="143"/>
     </row>
     <row r="23" spans="1:4" ht="33" customHeight="1">
       <c r="A23" s="9">
         <v>3</v>
       </c>
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="88"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="143"/>
     </row>
     <row r="24" spans="1:4" ht="33" customHeight="1">
       <c r="A24" s="9">
         <v>4</v>
       </c>
-      <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="143"/>
     </row>
     <row r="25" spans="1:4" ht="33" customHeight="1">
       <c r="A25" s="9">
         <v>5</v>
       </c>
-      <c r="B25" s="86"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="143"/>
     </row>
     <row r="26" spans="1:4" ht="33" customHeight="1">
       <c r="A26" s="9">
         <v>6</v>
       </c>
-      <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="143"/>
     </row>
     <row r="27" spans="1:4" ht="33" customHeight="1">
       <c r="A27" s="9">
         <v>7</v>
       </c>
-      <c r="B27" s="86"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="143"/>
     </row>
     <row r="28" spans="1:4" ht="33" customHeight="1">
       <c r="A28" s="9">
         <v>8</v>
       </c>
-      <c r="B28" s="86"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="142"/>
+      <c r="D28" s="143"/>
     </row>
     <row r="29" spans="1:4" ht="33" customHeight="1">
-      <c r="A29" s="167" t="s">
-        <v>151</v>
-      </c>
-      <c r="B29" s="167"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="167"/>
+      <c r="A29" s="144" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="144"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="144"/>
     </row>
     <row r="30" spans="1:4" ht="33" customHeight="1">
-      <c r="A30" s="90"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="92"/>
+      <c r="A30" s="125"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="127"/>
     </row>
     <row r="31" spans="1:4" ht="33" customHeight="1">
-      <c r="A31" s="93"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="95"/>
+      <c r="A31" s="128"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="130"/>
     </row>
     <row r="32" spans="1:4" ht="33" customHeight="1">
-      <c r="A32" s="93"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="95"/>
+      <c r="A32" s="128"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="130"/>
     </row>
     <row r="33" spans="1:20" ht="33" customHeight="1">
-      <c r="A33" s="93"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="95"/>
+      <c r="A33" s="128"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="130"/>
     </row>
     <row r="34" spans="1:20" ht="33" customHeight="1">
-      <c r="A34" s="93"/>
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="95"/>
+      <c r="A34" s="128"/>
+      <c r="B34" s="129"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="130"/>
     </row>
     <row r="35" spans="1:20" ht="33" customHeight="1">
-      <c r="A35" s="93"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="95"/>
+      <c r="A35" s="128"/>
+      <c r="B35" s="129"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="130"/>
     </row>
     <row r="36" spans="1:20" ht="33" customHeight="1">
-      <c r="A36" s="96"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="98"/>
+      <c r="A36" s="131"/>
+      <c r="B36" s="132"/>
+      <c r="C36" s="132"/>
+      <c r="D36" s="133"/>
     </row>
     <row r="37" spans="1:20" ht="33" customHeight="1">
-      <c r="A37" s="166" t="s">
+      <c r="A37" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="166"/>
-      <c r="C37" s="166"/>
-      <c r="D37" s="166"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
     </row>
     <row r="38" spans="1:20" ht="33" customHeight="1">
-      <c r="A38" s="105" t="s">
-        <v>154</v>
-      </c>
-      <c r="B38" s="105"/>
-      <c r="C38" s="105"/>
-      <c r="D38" s="105"/>
+      <c r="A38" s="134" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" s="134"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="134"/>
     </row>
     <row r="39" spans="1:20" ht="33" customHeight="1">
       <c r="A39" s="9">
         <v>1</v>
       </c>
-      <c r="B39" s="106"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="108"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="50"/>
       <c r="T39" s="25"/>
     </row>
     <row r="40" spans="1:20" ht="33" customHeight="1">
       <c r="A40" s="9">
         <v>2</v>
       </c>
-      <c r="B40" s="106"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="108"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="50"/>
     </row>
     <row r="41" spans="1:20" ht="33" customHeight="1">
       <c r="A41" s="9">
         <v>3</v>
       </c>
-      <c r="B41" s="106"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="108"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="50"/>
     </row>
     <row r="42" spans="1:20" ht="33" customHeight="1">
       <c r="A42" s="9">
         <v>4</v>
       </c>
-      <c r="B42" s="106"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="108"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="50"/>
     </row>
     <row r="43" spans="1:20" ht="33" customHeight="1">
       <c r="A43" s="9">
         <v>5</v>
       </c>
-      <c r="B43" s="106"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="108"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="50"/>
     </row>
     <row r="44" spans="1:20" ht="33" customHeight="1">
       <c r="A44" s="9">
         <v>6</v>
       </c>
-      <c r="B44" s="106"/>
-      <c r="C44" s="107"/>
-      <c r="D44" s="108"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="50"/>
     </row>
     <row r="45" spans="1:20" ht="33" customHeight="1">
       <c r="A45" s="9">
         <v>7</v>
       </c>
-      <c r="B45" s="121"/>
-      <c r="C45" s="122"/>
-      <c r="D45" s="123"/>
+      <c r="B45" s="118"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="120"/>
     </row>
     <row r="46" spans="1:20" ht="33" customHeight="1">
       <c r="A46" s="9">
         <v>8</v>
       </c>
-      <c r="B46" s="139"/>
-      <c r="C46" s="140"/>
-      <c r="D46" s="140"/>
+      <c r="B46" s="79"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
     </row>
     <row r="47" spans="1:20" ht="33" customHeight="1">
-      <c r="A47" s="153"/>
-      <c r="B47" s="153"/>
-      <c r="C47" s="153"/>
-      <c r="D47" s="153"/>
+      <c r="A47" s="99"/>
+      <c r="B47" s="99"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
     </row>
     <row r="48" spans="1:20" ht="33" customHeight="1">
-      <c r="A48" s="154" t="s">
-        <v>128</v>
-      </c>
-      <c r="B48" s="154"/>
-      <c r="C48" s="154"/>
-      <c r="D48" s="154"/>
+      <c r="A48" s="100" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="100"/>
+      <c r="C48" s="100"/>
+      <c r="D48" s="100"/>
     </row>
     <row r="49" spans="1:13" ht="33" customHeight="1">
       <c r="A49" s="32">
         <v>1</v>
       </c>
-      <c r="B49" s="136"/>
-      <c r="C49" s="137"/>
-      <c r="D49" s="138"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="78"/>
     </row>
     <row r="50" spans="1:13" ht="33" customHeight="1">
       <c r="A50" s="32">
         <v>2</v>
       </c>
-      <c r="B50" s="136"/>
-      <c r="C50" s="137"/>
-      <c r="D50" s="138"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="78"/>
     </row>
     <row r="51" spans="1:13" ht="33" customHeight="1">
       <c r="A51" s="32">
         <v>3</v>
       </c>
-      <c r="B51" s="136"/>
-      <c r="C51" s="137"/>
-      <c r="D51" s="138"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="78"/>
     </row>
     <row r="52" spans="1:13" ht="33" customHeight="1">
       <c r="A52" s="9">
         <v>4</v>
       </c>
-      <c r="B52" s="155"/>
-      <c r="C52" s="137"/>
-      <c r="D52" s="156"/>
+      <c r="B52" s="101"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="102"/>
     </row>
     <row r="53" spans="1:13" ht="33" customHeight="1">
       <c r="A53" s="32">
         <v>5</v>
       </c>
-      <c r="B53" s="136"/>
-      <c r="C53" s="137"/>
-      <c r="D53" s="138"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="77"/>
+      <c r="D53" s="78"/>
     </row>
     <row r="54" spans="1:13" ht="33" customHeight="1">
       <c r="A54" s="32">
         <v>6</v>
       </c>
-      <c r="B54" s="136"/>
-      <c r="C54" s="137"/>
-      <c r="D54" s="138"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="77"/>
+      <c r="D54" s="78"/>
     </row>
     <row r="55" spans="1:13" ht="33" customHeight="1">
       <c r="A55" s="32">
         <v>7</v>
       </c>
-      <c r="B55" s="136"/>
-      <c r="C55" s="137"/>
-      <c r="D55" s="138"/>
+      <c r="B55" s="76"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="78"/>
     </row>
     <row r="56" spans="1:13" ht="33" customHeight="1">
       <c r="A56" s="32">
         <v>8</v>
       </c>
-      <c r="B56" s="157"/>
-      <c r="C56" s="158"/>
-      <c r="D56" s="159"/>
+      <c r="B56" s="103"/>
+      <c r="C56" s="104"/>
+      <c r="D56" s="105"/>
     </row>
     <row r="58" spans="1:13" ht="33" customHeight="1">
-      <c r="A58" s="60" t="s">
+      <c r="A58" s="154" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="154"/>
+      <c r="C58" s="154"/>
+      <c r="D58" s="154"/>
+      <c r="E58" s="154"/>
+      <c r="F58" s="154"/>
+      <c r="G58" s="154"/>
+      <c r="H58" s="154"/>
+      <c r="I58" s="154"/>
+      <c r="J58" s="154"/>
+      <c r="K58" s="154"/>
+      <c r="L58" s="154"/>
+      <c r="M58" s="154"/>
+    </row>
+    <row r="59" spans="1:13" ht="33" customHeight="1">
+      <c r="A59" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="B58" s="60"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60"/>
-      <c r="H58" s="60"/>
-      <c r="I58" s="60"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="60"/>
-      <c r="L58" s="60"/>
-      <c r="M58" s="60"/>
-    </row>
-    <row r="59" spans="1:13" ht="33" customHeight="1">
-      <c r="A59" s="61" t="s">
+      <c r="B59" s="63"/>
+      <c r="C59" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="B59" s="62"/>
-      <c r="C59" s="61" t="s">
+      <c r="D59" s="63"/>
+      <c r="E59" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="D59" s="62"/>
-      <c r="E59" s="61" t="s">
+      <c r="F59" s="63"/>
+      <c r="H59" s="151" t="s">
         <v>136</v>
       </c>
-      <c r="F59" s="62"/>
-      <c r="H59" s="63" t="s">
+      <c r="I59" s="152"/>
+      <c r="J59" s="151" t="s">
         <v>137</v>
       </c>
-      <c r="I59" s="64"/>
-      <c r="J59" s="63" t="s">
+      <c r="K59" s="152"/>
+      <c r="L59" s="155" t="s">
         <v>138</v>
       </c>
-      <c r="K59" s="64"/>
-      <c r="L59" s="65" t="s">
+      <c r="M59" s="156"/>
+    </row>
+    <row r="60" spans="1:13" ht="33" customHeight="1">
+      <c r="A60" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="59"/>
+      <c r="C60" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="59"/>
+      <c r="E60" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" s="59"/>
+      <c r="H60" s="135"/>
+      <c r="I60" s="136"/>
+      <c r="J60" s="135"/>
+      <c r="K60" s="136"/>
+      <c r="L60" s="139"/>
+      <c r="M60" s="140"/>
+    </row>
+    <row r="61" spans="1:13" ht="33" customHeight="1">
+      <c r="A61" s="60"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="61"/>
+      <c r="H61" s="137"/>
+      <c r="I61" s="138"/>
+      <c r="J61" s="137"/>
+      <c r="K61" s="138"/>
+      <c r="L61" s="137"/>
+      <c r="M61" s="138"/>
+    </row>
+    <row r="62" spans="1:13" ht="33" customHeight="1">
+      <c r="A62" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="M59" s="66"/>
-    </row>
-    <row r="60" spans="1:13" ht="33" customHeight="1">
-      <c r="A60" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="B60" s="50"/>
-      <c r="C60" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="D60" s="50"/>
-      <c r="E60" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="F60" s="50"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="54"/>
-      <c r="J60" s="53"/>
-      <c r="K60" s="54"/>
-      <c r="L60" s="57"/>
-      <c r="M60" s="58"/>
-    </row>
-    <row r="61" spans="1:13" ht="33" customHeight="1">
-      <c r="A61" s="51"/>
-      <c r="B61" s="52"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="52"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="52"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="55"/>
-      <c r="K61" s="56"/>
-      <c r="L61" s="55"/>
-      <c r="M61" s="56"/>
-    </row>
-    <row r="62" spans="1:13" ht="33" customHeight="1">
-      <c r="A62" s="61" t="s">
+      <c r="B62" s="63"/>
+      <c r="C62" s="106" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="107"/>
+      <c r="E62" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="B62" s="62"/>
-      <c r="C62" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="D62" s="71"/>
-      <c r="E62" s="61" t="s">
+      <c r="F62" s="63"/>
+      <c r="H62" s="151" t="s">
         <v>141</v>
       </c>
-      <c r="F62" s="62"/>
-      <c r="H62" s="63" t="s">
+      <c r="I62" s="152"/>
+      <c r="J62" s="145" t="s">
         <v>142</v>
       </c>
-      <c r="I62" s="64"/>
-      <c r="J62" s="76" t="s">
+      <c r="K62" s="146"/>
+      <c r="L62" s="151" t="s">
+        <v>140</v>
+      </c>
+      <c r="M62" s="152"/>
+    </row>
+    <row r="63" spans="1:13" ht="33" customHeight="1">
+      <c r="A63" s="58"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="108"/>
+      <c r="D63" s="109"/>
+      <c r="E63" s="121"/>
+      <c r="F63" s="122"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="135"/>
+      <c r="I63" s="136"/>
+      <c r="J63" s="147"/>
+      <c r="K63" s="148"/>
+      <c r="L63" s="135"/>
+      <c r="M63" s="136"/>
+    </row>
+    <row r="64" spans="1:13" ht="33" customHeight="1">
+      <c r="A64" s="60"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="110"/>
+      <c r="D64" s="111"/>
+      <c r="E64" s="123"/>
+      <c r="F64" s="124"/>
+      <c r="H64" s="137"/>
+      <c r="I64" s="138"/>
+      <c r="J64" s="149"/>
+      <c r="K64" s="150"/>
+      <c r="L64" s="137"/>
+      <c r="M64" s="138"/>
+    </row>
+    <row r="65" spans="1:13" ht="33" customHeight="1">
+      <c r="A65" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="K62" s="77"/>
-      <c r="L62" s="63" t="s">
-        <v>141</v>
-      </c>
-      <c r="M62" s="64"/>
-    </row>
-    <row r="63" spans="1:13" ht="33" customHeight="1">
-      <c r="A63" s="49"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="72"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="82"/>
-      <c r="F63" s="83"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="78"/>
-      <c r="K63" s="79"/>
-      <c r="L63" s="53"/>
-      <c r="M63" s="54"/>
-    </row>
-    <row r="64" spans="1:13" ht="33" customHeight="1">
-      <c r="A64" s="51"/>
-      <c r="B64" s="52"/>
-      <c r="C64" s="74"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="84"/>
-      <c r="F64" s="85"/>
-      <c r="H64" s="55"/>
-      <c r="I64" s="56"/>
-      <c r="J64" s="80"/>
-      <c r="K64" s="81"/>
-      <c r="L64" s="55"/>
-      <c r="M64" s="56"/>
-    </row>
-    <row r="65" spans="1:13" ht="33" customHeight="1">
-      <c r="A65" s="61" t="s">
+      <c r="B65" s="63"/>
+      <c r="C65" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="B65" s="62"/>
-      <c r="C65" s="61" t="s">
+      <c r="D65" s="63"/>
+      <c r="E65" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="D65" s="62"/>
-      <c r="E65" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="F65" s="62"/>
-      <c r="H65" s="63" t="s">
+      <c r="F65" s="63"/>
+      <c r="H65" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="I65" s="64"/>
-      <c r="J65" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="K65" s="64"/>
-      <c r="L65" s="63" t="s">
+      <c r="I65" s="152"/>
+      <c r="J65" s="151" t="s">
+        <v>144</v>
+      </c>
+      <c r="K65" s="152"/>
+      <c r="L65" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="M65" s="64"/>
+      <c r="M65" s="152"/>
     </row>
     <row r="66" spans="1:13" ht="33" customHeight="1">
-      <c r="A66" s="49"/>
-      <c r="B66" s="50"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="50"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="50"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="54"/>
-      <c r="J66" s="53"/>
-      <c r="K66" s="54"/>
-      <c r="L66" s="53"/>
-      <c r="M66" s="54"/>
+      <c r="A66" s="58"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="58"/>
+      <c r="F66" s="59"/>
+      <c r="H66" s="135"/>
+      <c r="I66" s="136"/>
+      <c r="J66" s="135"/>
+      <c r="K66" s="136"/>
+      <c r="L66" s="135"/>
+      <c r="M66" s="136"/>
     </row>
     <row r="67" spans="1:13" ht="33" customHeight="1">
-      <c r="A67" s="51"/>
-      <c r="B67" s="52"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="52"/>
-      <c r="E67" s="51"/>
-      <c r="F67" s="52"/>
-      <c r="H67" s="55"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="55"/>
-      <c r="K67" s="56"/>
-      <c r="L67" s="55"/>
-      <c r="M67" s="56"/>
+      <c r="A67" s="60"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="60"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="60"/>
+      <c r="F67" s="61"/>
+      <c r="H67" s="137"/>
+      <c r="I67" s="138"/>
+      <c r="J67" s="137"/>
+      <c r="K67" s="138"/>
+      <c r="L67" s="137"/>
+      <c r="M67" s="138"/>
     </row>
     <row r="68" spans="1:13" ht="33" customHeight="1">
       <c r="A68" s="8"/>
@@ -4090,172 +4145,172 @@
       <c r="D68" s="8"/>
     </row>
     <row r="69" spans="1:13" ht="33" customHeight="1">
-      <c r="A69" s="61" t="s">
+      <c r="A69" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="63"/>
+      <c r="C69" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="B69" s="62"/>
-      <c r="C69" s="61" t="s">
+      <c r="D69" s="63"/>
+      <c r="E69" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F69" s="63"/>
+      <c r="H69" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="I69" s="63"/>
+      <c r="J69" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="K69" s="63"/>
+      <c r="L69" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="D69" s="62"/>
-      <c r="E69" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="F69" s="62"/>
-      <c r="H69" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="I69" s="62"/>
-      <c r="J69" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="K69" s="62"/>
-      <c r="L69" s="61" t="s">
-        <v>139</v>
-      </c>
-      <c r="M69" s="62"/>
+      <c r="M69" s="63"/>
     </row>
     <row r="70" spans="1:13" ht="33" customHeight="1">
-      <c r="A70" s="49" t="s">
+      <c r="A70" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B70" s="50"/>
-      <c r="C70" s="49" t="s">
+      <c r="B70" s="59"/>
+      <c r="C70" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D70" s="50"/>
-      <c r="E70" s="49" t="s">
+      <c r="D70" s="59"/>
+      <c r="E70" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="F70" s="50"/>
-      <c r="H70" s="49"/>
-      <c r="I70" s="50"/>
-      <c r="J70" s="49"/>
-      <c r="K70" s="50"/>
-      <c r="L70" s="49"/>
-      <c r="M70" s="50"/>
+      <c r="F70" s="59"/>
+      <c r="H70" s="58"/>
+      <c r="I70" s="59"/>
+      <c r="J70" s="58"/>
+      <c r="K70" s="59"/>
+      <c r="L70" s="58"/>
+      <c r="M70" s="59"/>
     </row>
     <row r="71" spans="1:13" ht="33" customHeight="1">
-      <c r="A71" s="51"/>
-      <c r="B71" s="52"/>
-      <c r="C71" s="51"/>
-      <c r="D71" s="52"/>
-      <c r="E71" s="51"/>
-      <c r="F71" s="52"/>
-      <c r="H71" s="51"/>
-      <c r="I71" s="52"/>
-      <c r="J71" s="51"/>
-      <c r="K71" s="52"/>
-      <c r="L71" s="51"/>
-      <c r="M71" s="52"/>
+      <c r="A71" s="60"/>
+      <c r="B71" s="61"/>
+      <c r="C71" s="60"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="61"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="61"/>
+      <c r="J71" s="60"/>
+      <c r="K71" s="61"/>
+      <c r="L71" s="60"/>
+      <c r="M71" s="61"/>
     </row>
     <row r="72" spans="1:13" ht="33" customHeight="1">
-      <c r="A72" s="61" t="s">
+      <c r="A72" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" s="63"/>
+      <c r="C72" s="106" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72" s="107"/>
+      <c r="E72" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="B72" s="62"/>
-      <c r="C72" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="D72" s="71"/>
-      <c r="E72" s="61" t="s">
+      <c r="F72" s="63"/>
+      <c r="H72" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="I72" s="63"/>
+      <c r="J72" s="106" t="s">
         <v>149</v>
       </c>
-      <c r="F72" s="62"/>
-      <c r="H72" s="61" t="s">
+      <c r="K72" s="107"/>
+      <c r="L72" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="I72" s="62"/>
-      <c r="J72" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="K72" s="71"/>
-      <c r="L72" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="M72" s="62"/>
+      <c r="M72" s="63"/>
     </row>
     <row r="73" spans="1:13" ht="33" customHeight="1">
-      <c r="A73" s="49"/>
-      <c r="B73" s="50"/>
-      <c r="C73" s="72"/>
-      <c r="D73" s="73"/>
-      <c r="E73" s="82"/>
-      <c r="F73" s="83"/>
-      <c r="H73" s="49"/>
-      <c r="I73" s="50"/>
-      <c r="J73" s="72"/>
-      <c r="K73" s="73"/>
-      <c r="L73" s="82"/>
-      <c r="M73" s="83"/>
+      <c r="A73" s="58"/>
+      <c r="B73" s="59"/>
+      <c r="C73" s="108"/>
+      <c r="D73" s="109"/>
+      <c r="E73" s="121"/>
+      <c r="F73" s="122"/>
+      <c r="H73" s="58"/>
+      <c r="I73" s="59"/>
+      <c r="J73" s="108"/>
+      <c r="K73" s="109"/>
+      <c r="L73" s="121"/>
+      <c r="M73" s="122"/>
     </row>
     <row r="74" spans="1:13" ht="33" customHeight="1">
-      <c r="A74" s="51"/>
-      <c r="B74" s="52"/>
-      <c r="C74" s="74"/>
-      <c r="D74" s="75"/>
-      <c r="E74" s="84"/>
-      <c r="F74" s="85"/>
-      <c r="H74" s="51"/>
-      <c r="I74" s="52"/>
-      <c r="J74" s="74"/>
-      <c r="K74" s="75"/>
-      <c r="L74" s="84"/>
-      <c r="M74" s="85"/>
+      <c r="A74" s="60"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="110"/>
+      <c r="D74" s="111"/>
+      <c r="E74" s="123"/>
+      <c r="F74" s="124"/>
+      <c r="H74" s="60"/>
+      <c r="I74" s="61"/>
+      <c r="J74" s="110"/>
+      <c r="K74" s="111"/>
+      <c r="L74" s="123"/>
+      <c r="M74" s="124"/>
     </row>
     <row r="75" spans="1:13" ht="33" customHeight="1">
-      <c r="A75" s="61" t="s">
+      <c r="A75" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" s="63"/>
+      <c r="C75" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="B75" s="62"/>
-      <c r="C75" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="D75" s="62"/>
-      <c r="E75" s="61" t="s">
+      <c r="D75" s="63"/>
+      <c r="E75" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="F75" s="62"/>
-      <c r="H75" s="61" t="s">
+      <c r="F75" s="63"/>
+      <c r="H75" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="I75" s="63"/>
+      <c r="J75" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="I75" s="62"/>
-      <c r="J75" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="K75" s="62"/>
-      <c r="L75" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="M75" s="62"/>
+      <c r="K75" s="63"/>
+      <c r="L75" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="M75" s="63"/>
     </row>
     <row r="76" spans="1:13" ht="33" customHeight="1">
-      <c r="A76" s="49"/>
-      <c r="B76" s="50"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="50"/>
-      <c r="H76" s="49"/>
-      <c r="I76" s="50"/>
-      <c r="J76" s="49"/>
-      <c r="K76" s="50"/>
-      <c r="L76" s="49"/>
-      <c r="M76" s="50"/>
+      <c r="A76" s="58"/>
+      <c r="B76" s="59"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="58"/>
+      <c r="F76" s="59"/>
+      <c r="H76" s="58"/>
+      <c r="I76" s="59"/>
+      <c r="J76" s="58"/>
+      <c r="K76" s="59"/>
+      <c r="L76" s="58"/>
+      <c r="M76" s="59"/>
     </row>
     <row r="77" spans="1:13" ht="33" customHeight="1">
-      <c r="A77" s="51"/>
-      <c r="B77" s="52"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="52"/>
-      <c r="E77" s="51"/>
-      <c r="F77" s="52"/>
-      <c r="H77" s="51"/>
-      <c r="I77" s="52"/>
-      <c r="J77" s="51"/>
-      <c r="K77" s="52"/>
-      <c r="L77" s="51"/>
-      <c r="M77" s="52"/>
+      <c r="A77" s="60"/>
+      <c r="B77" s="61"/>
+      <c r="C77" s="60"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="61"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="61"/>
+      <c r="J77" s="60"/>
+      <c r="K77" s="61"/>
+      <c r="L77" s="60"/>
+      <c r="M77" s="61"/>
     </row>
     <row r="78" spans="1:13" ht="33" customHeight="1">
       <c r="A78" s="8"/>
@@ -4263,166 +4318,166 @@
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:13" ht="33" customHeight="1">
-      <c r="A79" s="61" t="s">
-        <v>134</v>
-      </c>
-      <c r="B79" s="62"/>
-      <c r="C79" s="61" t="s">
+      <c r="A79" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="B79" s="63"/>
+      <c r="C79" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="D79" s="62"/>
-      <c r="E79" s="61" t="s">
+      <c r="D79" s="63"/>
+      <c r="E79" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="F79" s="63"/>
+      <c r="H79" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="I79" s="52"/>
+      <c r="J79" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="K79" s="52"/>
+      <c r="L79" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="M79" s="52"/>
+    </row>
+    <row r="80" spans="1:13" ht="33" customHeight="1">
+      <c r="A80" s="58"/>
+      <c r="B80" s="59"/>
+      <c r="C80" s="58"/>
+      <c r="D80" s="59"/>
+      <c r="E80" s="58"/>
+      <c r="F80" s="59"/>
+      <c r="H80" s="53"/>
+      <c r="I80" s="54"/>
+      <c r="J80" s="53"/>
+      <c r="K80" s="54"/>
+      <c r="L80" s="53"/>
+      <c r="M80" s="54"/>
+    </row>
+    <row r="81" spans="1:13" ht="33" customHeight="1">
+      <c r="A81" s="60"/>
+      <c r="B81" s="61"/>
+      <c r="C81" s="60"/>
+      <c r="D81" s="61"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="61"/>
+      <c r="H81" s="55"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="55"/>
+      <c r="K81" s="56"/>
+      <c r="L81" s="55"/>
+      <c r="M81" s="56"/>
+    </row>
+    <row r="82" spans="1:13" ht="33" customHeight="1">
+      <c r="A82" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="F79" s="62"/>
-      <c r="H79" s="99" t="s">
-        <v>134</v>
-      </c>
-      <c r="I79" s="100"/>
-      <c r="J79" s="99" t="s">
-        <v>116</v>
-      </c>
-      <c r="K79" s="100"/>
-      <c r="L79" s="99" t="s">
+      <c r="B82" s="63"/>
+      <c r="C82" s="106" t="s">
+        <v>152</v>
+      </c>
+      <c r="D82" s="107"/>
+      <c r="E82" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="F82" s="63"/>
+      <c r="H82" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="M79" s="100"/>
-    </row>
-    <row r="80" spans="1:13" ht="33" customHeight="1">
-      <c r="A80" s="49"/>
-      <c r="B80" s="50"/>
-      <c r="C80" s="49"/>
-      <c r="D80" s="50"/>
-      <c r="E80" s="49"/>
-      <c r="F80" s="50"/>
-      <c r="H80" s="101"/>
-      <c r="I80" s="102"/>
-      <c r="J80" s="101"/>
-      <c r="K80" s="102"/>
-      <c r="L80" s="101"/>
-      <c r="M80" s="102"/>
-    </row>
-    <row r="81" spans="1:13" ht="33" customHeight="1">
-      <c r="A81" s="51"/>
-      <c r="B81" s="52"/>
-      <c r="C81" s="51"/>
-      <c r="D81" s="52"/>
-      <c r="E81" s="51"/>
-      <c r="F81" s="52"/>
-      <c r="H81" s="103"/>
-      <c r="I81" s="104"/>
-      <c r="J81" s="103"/>
-      <c r="K81" s="104"/>
-      <c r="L81" s="103"/>
-      <c r="M81" s="104"/>
-    </row>
-    <row r="82" spans="1:13" ht="33" customHeight="1">
-      <c r="A82" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="B82" s="62"/>
-      <c r="C82" s="70" t="s">
-        <v>153</v>
-      </c>
-      <c r="D82" s="71"/>
-      <c r="E82" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="F82" s="62"/>
-      <c r="H82" s="99" t="s">
-        <v>140</v>
-      </c>
-      <c r="I82" s="100"/>
-      <c r="J82" s="70" t="s">
+      <c r="I82" s="52"/>
+      <c r="J82" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="K82" s="71"/>
-      <c r="L82" s="99" t="s">
-        <v>149</v>
-      </c>
-      <c r="M82" s="100"/>
+      <c r="K82" s="107"/>
+      <c r="L82" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="M82" s="52"/>
     </row>
     <row r="83" spans="1:13" ht="33" customHeight="1">
-      <c r="A83" s="49"/>
-      <c r="B83" s="50"/>
-      <c r="C83" s="72"/>
-      <c r="D83" s="73"/>
-      <c r="E83" s="82"/>
-      <c r="F83" s="83"/>
-      <c r="H83" s="101"/>
-      <c r="I83" s="102"/>
-      <c r="J83" s="72"/>
-      <c r="K83" s="73"/>
-      <c r="L83" s="101"/>
-      <c r="M83" s="102"/>
+      <c r="A83" s="58"/>
+      <c r="B83" s="59"/>
+      <c r="C83" s="108"/>
+      <c r="D83" s="109"/>
+      <c r="E83" s="121"/>
+      <c r="F83" s="122"/>
+      <c r="H83" s="53"/>
+      <c r="I83" s="54"/>
+      <c r="J83" s="108"/>
+      <c r="K83" s="109"/>
+      <c r="L83" s="53"/>
+      <c r="M83" s="54"/>
     </row>
     <row r="84" spans="1:13" ht="33" customHeight="1">
-      <c r="A84" s="51"/>
-      <c r="B84" s="52"/>
-      <c r="C84" s="74"/>
-      <c r="D84" s="75"/>
-      <c r="E84" s="84"/>
-      <c r="F84" s="85"/>
-      <c r="H84" s="103"/>
-      <c r="I84" s="104"/>
-      <c r="J84" s="74"/>
-      <c r="K84" s="75"/>
-      <c r="L84" s="103"/>
-      <c r="M84" s="104"/>
+      <c r="A84" s="60"/>
+      <c r="B84" s="61"/>
+      <c r="C84" s="110"/>
+      <c r="D84" s="111"/>
+      <c r="E84" s="123"/>
+      <c r="F84" s="124"/>
+      <c r="H84" s="55"/>
+      <c r="I84" s="56"/>
+      <c r="J84" s="110"/>
+      <c r="K84" s="111"/>
+      <c r="L84" s="55"/>
+      <c r="M84" s="56"/>
     </row>
     <row r="85" spans="1:13" ht="33" customHeight="1">
-      <c r="A85" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="B85" s="62"/>
-      <c r="C85" s="61" t="s">
+      <c r="A85" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" s="63"/>
+      <c r="C85" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="62"/>
-      <c r="E85" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="F85" s="62"/>
-      <c r="H85" s="99" t="s">
-        <v>155</v>
-      </c>
-      <c r="I85" s="100"/>
-      <c r="J85" s="99" t="s">
+      <c r="D85" s="63"/>
+      <c r="E85" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="F85" s="63"/>
+      <c r="H85" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="I85" s="52"/>
+      <c r="J85" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="K85" s="100"/>
-      <c r="L85" s="99" t="s">
-        <v>146</v>
-      </c>
-      <c r="M85" s="100"/>
+      <c r="K85" s="52"/>
+      <c r="L85" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="M85" s="52"/>
     </row>
     <row r="86" spans="1:13" ht="33" customHeight="1">
-      <c r="A86" s="49"/>
-      <c r="B86" s="50"/>
-      <c r="C86" s="49"/>
-      <c r="D86" s="50"/>
-      <c r="E86" s="49"/>
-      <c r="F86" s="50"/>
-      <c r="H86" s="101"/>
-      <c r="I86" s="102"/>
-      <c r="J86" s="101"/>
-      <c r="K86" s="102"/>
-      <c r="L86" s="101"/>
-      <c r="M86" s="102"/>
+      <c r="A86" s="58"/>
+      <c r="B86" s="59"/>
+      <c r="C86" s="58"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="58"/>
+      <c r="F86" s="59"/>
+      <c r="H86" s="53"/>
+      <c r="I86" s="54"/>
+      <c r="J86" s="53"/>
+      <c r="K86" s="54"/>
+      <c r="L86" s="53"/>
+      <c r="M86" s="54"/>
     </row>
     <row r="87" spans="1:13" ht="33" customHeight="1">
-      <c r="A87" s="51"/>
-      <c r="B87" s="52"/>
-      <c r="C87" s="51"/>
-      <c r="D87" s="52"/>
-      <c r="E87" s="51"/>
-      <c r="F87" s="52"/>
-      <c r="H87" s="103"/>
-      <c r="I87" s="104"/>
-      <c r="J87" s="103"/>
-      <c r="K87" s="104"/>
-      <c r="L87" s="103"/>
-      <c r="M87" s="104"/>
+      <c r="A87" s="60"/>
+      <c r="B87" s="61"/>
+      <c r="C87" s="60"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="61"/>
+      <c r="H87" s="55"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="55"/>
+      <c r="K87" s="56"/>
+      <c r="L87" s="55"/>
+      <c r="M87" s="56"/>
     </row>
     <row r="88" spans="1:13" ht="33" customHeight="1">
       <c r="A88" s="8"/>
@@ -4430,107 +4485,216 @@
       <c r="D88" s="8"/>
     </row>
     <row r="89" spans="1:13" ht="33" customHeight="1">
-      <c r="A89" s="99" t="s">
-        <v>134</v>
-      </c>
-      <c r="B89" s="100"/>
-      <c r="C89" s="109" t="s">
+      <c r="A89" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="B89" s="52"/>
+      <c r="C89" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="D89" s="110"/>
-      <c r="E89" s="115" t="s">
+      <c r="D89" s="82"/>
+      <c r="E89" s="112" t="s">
+        <v>138</v>
+      </c>
+      <c r="F89" s="113"/>
+    </row>
+    <row r="90" spans="1:13" ht="33" customHeight="1">
+      <c r="A90" s="53"/>
+      <c r="B90" s="54"/>
+      <c r="C90" s="83"/>
+      <c r="D90" s="84"/>
+      <c r="E90" s="114"/>
+      <c r="F90" s="115"/>
+    </row>
+    <row r="91" spans="1:13" ht="33" customHeight="1">
+      <c r="A91" s="55"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="85"/>
+      <c r="D91" s="86"/>
+      <c r="E91" s="116"/>
+      <c r="F91" s="117"/>
+    </row>
+    <row r="92" spans="1:13" ht="33" customHeight="1">
+      <c r="A92" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="F89" s="116"/>
-    </row>
-    <row r="90" spans="1:13" ht="33" customHeight="1">
-      <c r="A90" s="101"/>
-      <c r="B90" s="102"/>
-      <c r="C90" s="111"/>
-      <c r="D90" s="112"/>
-      <c r="E90" s="117"/>
-      <c r="F90" s="118"/>
-    </row>
-    <row r="91" spans="1:13" ht="33" customHeight="1">
-      <c r="A91" s="103"/>
-      <c r="B91" s="104"/>
-      <c r="C91" s="113"/>
-      <c r="D91" s="114"/>
-      <c r="E91" s="119"/>
-      <c r="F91" s="120"/>
-    </row>
-    <row r="92" spans="1:13" ht="33" customHeight="1">
-      <c r="A92" s="109" t="s">
-        <v>140</v>
-      </c>
-      <c r="B92" s="110"/>
-      <c r="C92" s="141" t="s">
-        <v>156</v>
-      </c>
-      <c r="D92" s="142"/>
-      <c r="E92" s="147" t="s">
-        <v>149</v>
-      </c>
-      <c r="F92" s="148"/>
+      <c r="B92" s="82"/>
+      <c r="C92" s="87" t="s">
+        <v>155</v>
+      </c>
+      <c r="D92" s="88"/>
+      <c r="E92" s="93" t="s">
+        <v>148</v>
+      </c>
+      <c r="F92" s="94"/>
     </row>
     <row r="93" spans="1:13" ht="33" customHeight="1">
-      <c r="A93" s="111"/>
-      <c r="B93" s="112"/>
-      <c r="C93" s="143"/>
-      <c r="D93" s="144"/>
-      <c r="E93" s="149"/>
-      <c r="F93" s="150"/>
+      <c r="A93" s="83"/>
+      <c r="B93" s="84"/>
+      <c r="C93" s="89"/>
+      <c r="D93" s="90"/>
+      <c r="E93" s="95"/>
+      <c r="F93" s="96"/>
     </row>
     <row r="94" spans="1:13" ht="33" customHeight="1">
-      <c r="A94" s="113"/>
-      <c r="B94" s="114"/>
-      <c r="C94" s="145"/>
-      <c r="D94" s="146"/>
-      <c r="E94" s="151"/>
-      <c r="F94" s="152"/>
+      <c r="A94" s="85"/>
+      <c r="B94" s="86"/>
+      <c r="C94" s="91"/>
+      <c r="D94" s="92"/>
+      <c r="E94" s="97"/>
+      <c r="F94" s="98"/>
     </row>
     <row r="95" spans="1:13" ht="33" customHeight="1">
-      <c r="A95" s="160" t="s">
-        <v>155</v>
-      </c>
-      <c r="B95" s="161"/>
-      <c r="C95" s="124" t="s">
+      <c r="A95" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="B95" s="43"/>
+      <c r="C95" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="D95" s="125"/>
-      <c r="E95" s="130" t="s">
-        <v>146</v>
-      </c>
-      <c r="F95" s="131"/>
+      <c r="D95" s="65"/>
+      <c r="E95" s="70" t="s">
+        <v>145</v>
+      </c>
+      <c r="F95" s="71"/>
     </row>
     <row r="96" spans="1:13" ht="33" customHeight="1">
-      <c r="A96" s="162"/>
-      <c r="B96" s="163"/>
-      <c r="C96" s="126"/>
-      <c r="D96" s="127"/>
-      <c r="E96" s="132"/>
-      <c r="F96" s="133"/>
+      <c r="A96" s="44"/>
+      <c r="B96" s="45"/>
+      <c r="C96" s="66"/>
+      <c r="D96" s="67"/>
+      <c r="E96" s="72"/>
+      <c r="F96" s="73"/>
     </row>
     <row r="97" spans="1:6" ht="33" customHeight="1">
-      <c r="A97" s="164"/>
-      <c r="B97" s="165"/>
-      <c r="C97" s="128"/>
-      <c r="D97" s="129"/>
-      <c r="E97" s="134"/>
-      <c r="F97" s="135"/>
+      <c r="A97" s="46"/>
+      <c r="B97" s="47"/>
+      <c r="C97" s="68"/>
+      <c r="D97" s="69"/>
+      <c r="E97" s="74"/>
+      <c r="F97" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="155">
-    <mergeCell ref="A95:B97"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A89:B91"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A83:B84"/>
-    <mergeCell ref="A73:B74"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A60:B61"/>
-    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:R1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A58:M58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="A66:B67"/>
+    <mergeCell ref="C66:D67"/>
+    <mergeCell ref="E66:F67"/>
+    <mergeCell ref="H66:I67"/>
+    <mergeCell ref="J66:K67"/>
+    <mergeCell ref="J72:K74"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A70:B71"/>
+    <mergeCell ref="C70:D71"/>
+    <mergeCell ref="E70:F71"/>
+    <mergeCell ref="H70:I71"/>
+    <mergeCell ref="J70:K71"/>
+    <mergeCell ref="E73:F74"/>
+    <mergeCell ref="H73:I74"/>
+    <mergeCell ref="L73:M74"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="L66:M67"/>
+    <mergeCell ref="J62:K64"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="A63:B64"/>
+    <mergeCell ref="E63:F64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="A30:D36"/>
+    <mergeCell ref="A76:B77"/>
+    <mergeCell ref="C76:D77"/>
+    <mergeCell ref="E76:F77"/>
+    <mergeCell ref="H76:I77"/>
+    <mergeCell ref="J76:K77"/>
+    <mergeCell ref="L76:M77"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="L70:M71"/>
+    <mergeCell ref="H63:I64"/>
+    <mergeCell ref="L63:M64"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="E60:F61"/>
+    <mergeCell ref="H60:I61"/>
+    <mergeCell ref="J60:K61"/>
+    <mergeCell ref="L60:M61"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D74"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H82:I84"/>
+    <mergeCell ref="J82:K84"/>
+    <mergeCell ref="L82:M84"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="H79:I81"/>
+    <mergeCell ref="J79:K81"/>
+    <mergeCell ref="L79:M81"/>
+    <mergeCell ref="A80:B81"/>
+    <mergeCell ref="C80:D81"/>
+    <mergeCell ref="E80:F81"/>
+    <mergeCell ref="E83:F84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D84"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="C89:D91"/>
+    <mergeCell ref="E89:F91"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="C62:D64"/>
+    <mergeCell ref="E62:F62"/>
     <mergeCell ref="H85:I87"/>
     <mergeCell ref="J85:K87"/>
     <mergeCell ref="L85:M87"/>
@@ -4555,127 +4719,18 @@
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B49:D49"/>
+    <mergeCell ref="A95:B97"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A89:B91"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A83:B84"/>
+    <mergeCell ref="A73:B74"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A60:B61"/>
+    <mergeCell ref="A75:B75"/>
     <mergeCell ref="A85:B85"/>
     <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D84"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="C89:D91"/>
-    <mergeCell ref="E89:F91"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="H82:I84"/>
-    <mergeCell ref="J82:K84"/>
-    <mergeCell ref="L82:M84"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="H79:I81"/>
-    <mergeCell ref="J79:K81"/>
-    <mergeCell ref="L79:M81"/>
-    <mergeCell ref="A80:B81"/>
-    <mergeCell ref="C80:D81"/>
-    <mergeCell ref="E80:F81"/>
-    <mergeCell ref="E83:F84"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="A30:D36"/>
-    <mergeCell ref="A76:B77"/>
-    <mergeCell ref="C76:D77"/>
-    <mergeCell ref="E76:F77"/>
-    <mergeCell ref="H76:I77"/>
-    <mergeCell ref="J76:K77"/>
-    <mergeCell ref="L76:M77"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="L70:M71"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D74"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="J72:K74"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A70:B71"/>
-    <mergeCell ref="C70:D71"/>
-    <mergeCell ref="E70:F71"/>
-    <mergeCell ref="H70:I71"/>
-    <mergeCell ref="J70:K71"/>
-    <mergeCell ref="E73:F74"/>
-    <mergeCell ref="H73:I74"/>
-    <mergeCell ref="L73:M74"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="L66:M67"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="A66:B67"/>
-    <mergeCell ref="C66:D67"/>
-    <mergeCell ref="E66:F67"/>
-    <mergeCell ref="H66:I67"/>
-    <mergeCell ref="J66:K67"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D64"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="J62:K64"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="A63:B64"/>
-    <mergeCell ref="E63:F64"/>
-    <mergeCell ref="H63:I64"/>
-    <mergeCell ref="L63:M64"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="E60:F61"/>
-    <mergeCell ref="H60:I61"/>
-    <mergeCell ref="J60:K61"/>
-    <mergeCell ref="L60:M61"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A58:M58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:R1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4684,10 +4739,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -4699,114 +4754,98 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24.95" customHeight="1">
       <c r="A1" s="27" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="24.95" customHeight="1">
       <c r="A2" s="36" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="24.95" customHeight="1">
       <c r="A3" s="36" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="24.95" customHeight="1">
       <c r="A4" s="36" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="24.95" customHeight="1">
       <c r="A5" s="36" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="24.95" customHeight="1">
       <c r="A6" s="36" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="24.95" customHeight="1">
       <c r="A7" s="36" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="24.95" customHeight="1">
       <c r="A8" s="36" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="24.95" customHeight="1">
       <c r="A9" s="36" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="24.95" customHeight="1">
       <c r="A10" s="36" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="24.95" customHeight="1">
       <c r="A11" s="36" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="24.95" customHeight="1">
       <c r="A12" s="36" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A13" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A14" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -4843,12 +4882,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="33" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="165"/>
       <c r="F1" s="169" t="s">
         <v>3</v>
       </c>
@@ -4868,12 +4907,12 @@
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="162"/>
       <c r="D2" s="168"/>
       <c r="F2" s="10"/>
       <c r="G2" s="11" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>4</v>
@@ -4910,8 +4949,8 @@
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="162"/>
       <c r="D3" s="168"/>
       <c r="F3" s="15" t="s">
         <v>14</v>
@@ -4932,8 +4971,8 @@
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="162"/>
       <c r="D4" s="168"/>
       <c r="F4" s="17" t="s">
         <v>15</v>
@@ -4954,8 +4993,8 @@
       <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="162"/>
       <c r="D5" s="168"/>
       <c r="F5" s="17" t="s">
         <v>16</v>
@@ -4976,8 +5015,8 @@
       <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="162"/>
       <c r="D6" s="168"/>
       <c r="F6" s="17" t="s">
         <v>17</v>
@@ -4998,8 +5037,8 @@
       <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="43"/>
+      <c r="B7" s="161"/>
+      <c r="C7" s="162"/>
       <c r="D7" s="168"/>
       <c r="F7" s="17" t="s">
         <v>18</v>
@@ -5020,8 +5059,8 @@
       <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="162"/>
       <c r="D8" s="168"/>
       <c r="F8" s="17" t="s">
         <v>19</v>
@@ -5042,8 +5081,8 @@
       <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
+      <c r="B9" s="161"/>
+      <c r="C9" s="162"/>
       <c r="D9" s="168"/>
       <c r="F9" s="15" t="s">
         <v>20</v>
@@ -5064,41 +5103,41 @@
       <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
+      <c r="B10" s="161"/>
+      <c r="C10" s="162"/>
       <c r="D10" s="168"/>
     </row>
     <row r="11" spans="1:18" s="20" customFormat="1" ht="33" customHeight="1">
       <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
+      <c r="B11" s="161"/>
+      <c r="C11" s="162"/>
       <c r="D11" s="168"/>
       <c r="P11" s="16"/>
     </row>
     <row r="12" spans="1:18" ht="33" customHeight="1">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="F12" s="60" t="s">
+      <c r="B12" s="153"/>
+      <c r="C12" s="153"/>
+      <c r="D12" s="153"/>
+      <c r="F12" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="154"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="154"/>
+      <c r="N12" s="154"/>
+      <c r="O12" s="154"/>
+      <c r="P12" s="154"/>
+      <c r="Q12" s="154"/>
+      <c r="R12" s="154"/>
     </row>
     <row r="13" spans="1:18" ht="33" customHeight="1">
       <c r="A13" s="21" t="s">
@@ -5107,30 +5146,30 @@
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="62"/>
-      <c r="H13" s="61" t="s">
+      <c r="G13" s="63"/>
+      <c r="H13" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="62"/>
-      <c r="J13" s="61" t="s">
+      <c r="I13" s="63"/>
+      <c r="J13" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="62"/>
-      <c r="M13" s="63" t="s">
+      <c r="K13" s="63"/>
+      <c r="M13" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="64"/>
-      <c r="O13" s="63" t="s">
+      <c r="N13" s="152"/>
+      <c r="O13" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="65" t="s">
+      <c r="P13" s="152"/>
+      <c r="Q13" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="R13" s="66"/>
+      <c r="R13" s="156"/>
     </row>
     <row r="14" spans="1:18" ht="33" customHeight="1">
       <c r="A14" s="21" t="s">
@@ -5139,24 +5178,24 @@
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="50"/>
-      <c r="H14" s="49" t="s">
+      <c r="G14" s="59"/>
+      <c r="H14" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="50"/>
-      <c r="J14" s="49" t="s">
+      <c r="I14" s="59"/>
+      <c r="J14" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="50"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="58"/>
+      <c r="K14" s="59"/>
+      <c r="M14" s="135"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="135"/>
+      <c r="P14" s="136"/>
+      <c r="Q14" s="139"/>
+      <c r="R14" s="140"/>
     </row>
     <row r="15" spans="1:18" ht="33" customHeight="1">
       <c r="A15" s="21" t="s">
@@ -5165,18 +5204,18 @@
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="52"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="56"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="61"/>
+      <c r="M15" s="137"/>
+      <c r="N15" s="138"/>
+      <c r="O15" s="137"/>
+      <c r="P15" s="138"/>
+      <c r="Q15" s="137"/>
+      <c r="R15" s="138"/>
     </row>
     <row r="16" spans="1:18" ht="33" customHeight="1">
       <c r="A16" s="21" t="s">
@@ -5185,30 +5224,30 @@
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
-      <c r="F16" s="61" t="s">
+      <c r="F16" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="70" t="s">
+      <c r="G16" s="63"/>
+      <c r="H16" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="71"/>
-      <c r="J16" s="61" t="s">
+      <c r="I16" s="107"/>
+      <c r="J16" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="62"/>
-      <c r="M16" s="63" t="s">
+      <c r="K16" s="63"/>
+      <c r="M16" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="N16" s="64"/>
-      <c r="O16" s="76" t="s">
+      <c r="N16" s="152"/>
+      <c r="O16" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="63" t="s">
+      <c r="P16" s="146"/>
+      <c r="Q16" s="151" t="s">
         <v>32</v>
       </c>
-      <c r="R16" s="64"/>
+      <c r="R16" s="152"/>
     </row>
     <row r="17" spans="1:18" ht="33" customHeight="1">
       <c r="A17" s="21" t="s">
@@ -5217,19 +5256,19 @@
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="83"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="121"/>
+      <c r="K17" s="122"/>
       <c r="L17" s="23"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="78"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="54"/>
+      <c r="M17" s="135"/>
+      <c r="N17" s="136"/>
+      <c r="O17" s="147"/>
+      <c r="P17" s="148"/>
+      <c r="Q17" s="135"/>
+      <c r="R17" s="136"/>
     </row>
     <row r="18" spans="1:18" ht="33" customHeight="1">
       <c r="A18" s="21" t="s">
@@ -5238,18 +5277,18 @@
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="85"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="80"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="56"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="124"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="138"/>
+      <c r="O18" s="149"/>
+      <c r="P18" s="150"/>
+      <c r="Q18" s="137"/>
+      <c r="R18" s="138"/>
     </row>
     <row r="19" spans="1:18" ht="33" customHeight="1">
       <c r="A19" s="21" t="s">
@@ -5258,667 +5297,712 @@
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
-      <c r="F19" s="61" t="s">
+      <c r="F19" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="62"/>
-      <c r="H19" s="61" t="s">
+      <c r="G19" s="63"/>
+      <c r="H19" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="62"/>
-      <c r="J19" s="61" t="s">
+      <c r="I19" s="63"/>
+      <c r="J19" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="K19" s="62"/>
-      <c r="M19" s="63" t="s">
+      <c r="K19" s="63"/>
+      <c r="M19" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="N19" s="64"/>
-      <c r="O19" s="63" t="s">
+      <c r="N19" s="152"/>
+      <c r="O19" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="63" t="s">
+      <c r="P19" s="152"/>
+      <c r="Q19" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="R19" s="64"/>
+      <c r="R19" s="152"/>
     </row>
     <row r="20" spans="1:18" ht="33" customHeight="1">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="50"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="54"/>
+      <c r="B20" s="160"/>
+      <c r="C20" s="160"/>
+      <c r="D20" s="160"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
+      <c r="M20" s="135"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="135"/>
+      <c r="P20" s="136"/>
+      <c r="Q20" s="135"/>
+      <c r="R20" s="136"/>
     </row>
     <row r="21" spans="1:18" ht="33" customHeight="1">
       <c r="A21" s="9">
         <v>1</v>
       </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="88"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="52"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="56"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="143"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="61"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="138"/>
+      <c r="O21" s="137"/>
+      <c r="P21" s="138"/>
+      <c r="Q21" s="137"/>
+      <c r="R21" s="138"/>
     </row>
     <row r="22" spans="1:18" ht="33" customHeight="1">
       <c r="A22" s="9">
         <v>2</v>
       </c>
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="143"/>
     </row>
     <row r="23" spans="1:18" ht="33" customHeight="1">
       <c r="A23" s="9">
         <v>3</v>
       </c>
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="88"/>
-      <c r="F23" s="61" t="s">
+      <c r="B23" s="141"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="143"/>
+      <c r="F23" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="62"/>
-      <c r="H23" s="61" t="s">
+      <c r="G23" s="63"/>
+      <c r="H23" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="62"/>
-      <c r="J23" s="61" t="s">
+      <c r="I23" s="63"/>
+      <c r="J23" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="K23" s="62"/>
-      <c r="M23" s="61" t="s">
+      <c r="K23" s="63"/>
+      <c r="M23" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="62"/>
-      <c r="O23" s="61" t="s">
+      <c r="N23" s="63"/>
+      <c r="O23" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="61" t="s">
+      <c r="P23" s="63"/>
+      <c r="Q23" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="R23" s="62"/>
+      <c r="R23" s="63"/>
     </row>
     <row r="24" spans="1:18" ht="33" customHeight="1">
       <c r="A24" s="9">
         <v>4</v>
       </c>
-      <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88"/>
-      <c r="F24" s="49" t="s">
+      <c r="B24" s="141"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="143"/>
+      <c r="F24" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="50"/>
-      <c r="H24" s="49" t="s">
+      <c r="G24" s="59"/>
+      <c r="H24" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="I24" s="50"/>
-      <c r="J24" s="49" t="s">
+      <c r="I24" s="59"/>
+      <c r="J24" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="K24" s="50"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="50"/>
+      <c r="K24" s="59"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="59"/>
     </row>
     <row r="25" spans="1:18" ht="33" customHeight="1">
       <c r="A25" s="9">
         <v>5</v>
       </c>
-      <c r="B25" s="86"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="52"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="52"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="143"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="61"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="61"/>
     </row>
     <row r="26" spans="1:18" ht="33" customHeight="1">
       <c r="A26" s="9">
         <v>6</v>
       </c>
-      <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
-      <c r="F26" s="61" t="s">
+      <c r="B26" s="141"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="143"/>
+      <c r="F26" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="62"/>
-      <c r="H26" s="70" t="s">
+      <c r="G26" s="63"/>
+      <c r="H26" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="I26" s="71"/>
-      <c r="J26" s="61" t="s">
+      <c r="I26" s="107"/>
+      <c r="J26" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="K26" s="62"/>
-      <c r="M26" s="61" t="s">
+      <c r="K26" s="63"/>
+      <c r="M26" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="N26" s="62"/>
-      <c r="O26" s="70" t="s">
+      <c r="N26" s="63"/>
+      <c r="O26" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="61" t="s">
+      <c r="P26" s="107"/>
+      <c r="Q26" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="R26" s="62"/>
+      <c r="R26" s="63"/>
     </row>
     <row r="27" spans="1:18" ht="33" customHeight="1">
       <c r="A27" s="9">
         <v>7</v>
       </c>
-      <c r="B27" s="86"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="83"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="82"/>
-      <c r="R27" s="83"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="143"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="121"/>
+      <c r="K27" s="122"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="108"/>
+      <c r="P27" s="109"/>
+      <c r="Q27" s="121"/>
+      <c r="R27" s="122"/>
     </row>
     <row r="28" spans="1:18" ht="33" customHeight="1">
       <c r="A28" s="9">
         <v>8</v>
       </c>
-      <c r="B28" s="86"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="85"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="74"/>
-      <c r="P28" s="75"/>
-      <c r="Q28" s="84"/>
-      <c r="R28" s="85"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="142"/>
+      <c r="D28" s="143"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="124"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="110"/>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="123"/>
+      <c r="R28" s="124"/>
     </row>
     <row r="29" spans="1:18" ht="33" customHeight="1">
-      <c r="A29" s="167" t="s">
+      <c r="A29" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="167"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="167"/>
-      <c r="F29" s="61" t="s">
+      <c r="B29" s="144"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="144"/>
+      <c r="F29" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="62"/>
-      <c r="H29" s="61" t="s">
+      <c r="G29" s="63"/>
+      <c r="H29" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="I29" s="62"/>
-      <c r="J29" s="61" t="s">
+      <c r="I29" s="63"/>
+      <c r="J29" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="K29" s="62"/>
-      <c r="M29" s="61" t="s">
+      <c r="K29" s="63"/>
+      <c r="M29" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="N29" s="62"/>
-      <c r="O29" s="61" t="s">
+      <c r="N29" s="63"/>
+      <c r="O29" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="61" t="s">
+      <c r="P29" s="63"/>
+      <c r="Q29" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="R29" s="62"/>
+      <c r="R29" s="63"/>
     </row>
     <row r="30" spans="1:18" ht="33" customHeight="1">
-      <c r="A30" s="90"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="92"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="50"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="50"/>
+      <c r="A30" s="125"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="127"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="59"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="59"/>
     </row>
     <row r="31" spans="1:18" ht="33" customHeight="1">
-      <c r="A31" s="93"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="95"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="52"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="52"/>
+      <c r="A31" s="128"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="130"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="61"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="60"/>
+      <c r="R31" s="61"/>
     </row>
     <row r="32" spans="1:18" ht="33" customHeight="1">
-      <c r="A32" s="93"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="95"/>
+      <c r="A32" s="128"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="130"/>
     </row>
     <row r="33" spans="1:20" ht="33" customHeight="1">
-      <c r="A33" s="93"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="95"/>
-      <c r="F33" s="61" t="s">
+      <c r="A33" s="128"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="130"/>
+      <c r="F33" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="62"/>
-      <c r="H33" s="61" t="s">
+      <c r="G33" s="63"/>
+      <c r="H33" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="I33" s="62"/>
-      <c r="J33" s="61" t="s">
+      <c r="I33" s="63"/>
+      <c r="J33" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="K33" s="62"/>
-      <c r="M33" s="99" t="s">
+      <c r="K33" s="63"/>
+      <c r="M33" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="100"/>
-      <c r="O33" s="99" t="s">
+      <c r="N33" s="52"/>
+      <c r="O33" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P33" s="100"/>
-      <c r="Q33" s="99" t="s">
+      <c r="P33" s="52"/>
+      <c r="Q33" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="R33" s="100"/>
+      <c r="R33" s="52"/>
     </row>
     <row r="34" spans="1:20" ht="33" customHeight="1">
-      <c r="A34" s="93"/>
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="95"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="50"/>
-      <c r="M34" s="101"/>
-      <c r="N34" s="102"/>
-      <c r="O34" s="101"/>
-      <c r="P34" s="102"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="102"/>
+      <c r="A34" s="128"/>
+      <c r="B34" s="129"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="130"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="59"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="54"/>
     </row>
     <row r="35" spans="1:20" ht="33" customHeight="1">
-      <c r="A35" s="93"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="95"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="52"/>
-      <c r="M35" s="103"/>
-      <c r="N35" s="104"/>
-      <c r="O35" s="103"/>
-      <c r="P35" s="104"/>
-      <c r="Q35" s="103"/>
-      <c r="R35" s="104"/>
+      <c r="A35" s="128"/>
+      <c r="B35" s="129"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="130"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="61"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="56"/>
     </row>
     <row r="36" spans="1:20" ht="33" customHeight="1">
-      <c r="A36" s="96"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="98"/>
-      <c r="F36" s="61" t="s">
+      <c r="A36" s="131"/>
+      <c r="B36" s="132"/>
+      <c r="C36" s="132"/>
+      <c r="D36" s="133"/>
+      <c r="F36" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="G36" s="62"/>
-      <c r="H36" s="70" t="s">
+      <c r="G36" s="63"/>
+      <c r="H36" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="I36" s="71"/>
-      <c r="J36" s="61" t="s">
+      <c r="I36" s="107"/>
+      <c r="J36" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="K36" s="62"/>
-      <c r="M36" s="99" t="s">
+      <c r="K36" s="63"/>
+      <c r="M36" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="N36" s="100"/>
-      <c r="O36" s="70" t="s">
+      <c r="N36" s="52"/>
+      <c r="O36" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="99" t="s">
+      <c r="P36" s="107"/>
+      <c r="Q36" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="R36" s="100"/>
+      <c r="R36" s="52"/>
     </row>
     <row r="37" spans="1:20" ht="33" customHeight="1">
       <c r="A37" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="49"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="83"/>
-      <c r="M37" s="101"/>
-      <c r="N37" s="102"/>
-      <c r="O37" s="72"/>
-      <c r="P37" s="73"/>
-      <c r="Q37" s="101"/>
-      <c r="R37" s="102"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="109"/>
+      <c r="J37" s="121"/>
+      <c r="K37" s="122"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="108"/>
+      <c r="P37" s="109"/>
+      <c r="Q37" s="53"/>
+      <c r="R37" s="54"/>
     </row>
     <row r="38" spans="1:20" ht="33" customHeight="1">
-      <c r="A38" s="105" t="s">
+      <c r="A38" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="105"/>
-      <c r="C38" s="105"/>
-      <c r="D38" s="105"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="84"/>
-      <c r="K38" s="85"/>
-      <c r="M38" s="103"/>
-      <c r="N38" s="104"/>
-      <c r="O38" s="74"/>
-      <c r="P38" s="75"/>
-      <c r="Q38" s="103"/>
-      <c r="R38" s="104"/>
+      <c r="B38" s="134"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="134"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="111"/>
+      <c r="J38" s="123"/>
+      <c r="K38" s="124"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="110"/>
+      <c r="P38" s="111"/>
+      <c r="Q38" s="55"/>
+      <c r="R38" s="56"/>
     </row>
     <row r="39" spans="1:20" ht="33" customHeight="1">
       <c r="A39" s="9">
         <v>1</v>
       </c>
-      <c r="B39" s="106"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="108"/>
-      <c r="F39" s="61" t="s">
+      <c r="B39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="50"/>
+      <c r="F39" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="62"/>
-      <c r="H39" s="61" t="s">
+      <c r="G39" s="63"/>
+      <c r="H39" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="I39" s="62"/>
-      <c r="J39" s="61" t="s">
+      <c r="I39" s="63"/>
+      <c r="J39" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="K39" s="62"/>
-      <c r="M39" s="99" t="s">
+      <c r="K39" s="63"/>
+      <c r="M39" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="N39" s="100"/>
-      <c r="O39" s="99" t="s">
+      <c r="N39" s="52"/>
+      <c r="O39" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="P39" s="100"/>
-      <c r="Q39" s="99" t="s">
+      <c r="P39" s="52"/>
+      <c r="Q39" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="R39" s="100"/>
+      <c r="R39" s="52"/>
       <c r="T39" s="25"/>
     </row>
     <row r="40" spans="1:20" ht="33" customHeight="1">
       <c r="A40" s="9">
         <v>2</v>
       </c>
-      <c r="B40" s="106"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="108"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="50"/>
-      <c r="M40" s="101"/>
-      <c r="N40" s="102"/>
-      <c r="O40" s="101"/>
-      <c r="P40" s="102"/>
-      <c r="Q40" s="101"/>
-      <c r="R40" s="102"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="50"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="59"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="53"/>
+      <c r="R40" s="54"/>
     </row>
     <row r="41" spans="1:20" ht="33" customHeight="1">
       <c r="A41" s="9">
         <v>3</v>
       </c>
-      <c r="B41" s="106"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="108"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="52"/>
-      <c r="M41" s="103"/>
-      <c r="N41" s="104"/>
-      <c r="O41" s="103"/>
-      <c r="P41" s="104"/>
-      <c r="Q41" s="103"/>
-      <c r="R41" s="104"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="50"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="61"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="55"/>
+      <c r="P41" s="56"/>
+      <c r="Q41" s="55"/>
+      <c r="R41" s="56"/>
     </row>
     <row r="42" spans="1:20" ht="33" customHeight="1">
       <c r="A42" s="9">
         <v>4</v>
       </c>
-      <c r="B42" s="106"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="108"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="50"/>
     </row>
     <row r="43" spans="1:20" ht="33" customHeight="1">
       <c r="A43" s="9">
         <v>5</v>
       </c>
-      <c r="B43" s="106"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="108"/>
-      <c r="F43" s="99" t="s">
+      <c r="B43" s="48"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="50"/>
+      <c r="F43" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="G43" s="100"/>
-      <c r="H43" s="109" t="s">
+      <c r="G43" s="52"/>
+      <c r="H43" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="I43" s="110"/>
-      <c r="J43" s="115" t="s">
+      <c r="I43" s="82"/>
+      <c r="J43" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="K43" s="116"/>
+      <c r="K43" s="113"/>
     </row>
     <row r="44" spans="1:20" ht="33" customHeight="1">
       <c r="A44" s="9">
         <v>6</v>
       </c>
-      <c r="B44" s="106"/>
-      <c r="C44" s="107"/>
-      <c r="D44" s="108"/>
-      <c r="F44" s="101"/>
-      <c r="G44" s="102"/>
-      <c r="H44" s="111"/>
-      <c r="I44" s="112"/>
-      <c r="J44" s="117"/>
-      <c r="K44" s="118"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="50"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="84"/>
+      <c r="J44" s="114"/>
+      <c r="K44" s="115"/>
     </row>
     <row r="45" spans="1:20" ht="33" customHeight="1">
       <c r="A45" s="9">
         <v>7</v>
       </c>
-      <c r="B45" s="121"/>
-      <c r="C45" s="122"/>
-      <c r="D45" s="123"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="104"/>
-      <c r="H45" s="113"/>
-      <c r="I45" s="114"/>
-      <c r="J45" s="119"/>
-      <c r="K45" s="120"/>
+      <c r="B45" s="118"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="120"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="86"/>
+      <c r="J45" s="116"/>
+      <c r="K45" s="117"/>
     </row>
     <row r="46" spans="1:20" ht="33" customHeight="1">
       <c r="A46" s="9">
         <v>8</v>
       </c>
-      <c r="B46" s="139"/>
-      <c r="C46" s="140"/>
-      <c r="D46" s="140"/>
-      <c r="F46" s="109" t="s">
+      <c r="B46" s="79"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
+      <c r="F46" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="G46" s="110"/>
-      <c r="H46" s="141" t="s">
+      <c r="G46" s="82"/>
+      <c r="H46" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="I46" s="142"/>
-      <c r="J46" s="147" t="s">
+      <c r="I46" s="88"/>
+      <c r="J46" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="K46" s="148"/>
+      <c r="K46" s="94"/>
     </row>
     <row r="47" spans="1:20" ht="33" customHeight="1">
-      <c r="F47" s="111"/>
-      <c r="G47" s="112"/>
-      <c r="H47" s="143"/>
-      <c r="I47" s="144"/>
-      <c r="J47" s="149"/>
-      <c r="K47" s="150"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="89"/>
+      <c r="I47" s="90"/>
+      <c r="J47" s="95"/>
+      <c r="K47" s="96"/>
     </row>
     <row r="48" spans="1:20" ht="33" customHeight="1">
-      <c r="F48" s="113"/>
-      <c r="G48" s="114"/>
-      <c r="H48" s="145"/>
-      <c r="I48" s="146"/>
-      <c r="J48" s="151"/>
-      <c r="K48" s="152"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="86"/>
+      <c r="H48" s="91"/>
+      <c r="I48" s="92"/>
+      <c r="J48" s="97"/>
+      <c r="K48" s="98"/>
     </row>
     <row r="49" spans="6:11" ht="33" customHeight="1">
-      <c r="F49" s="160" t="s">
+      <c r="F49" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="G49" s="161"/>
-      <c r="H49" s="124" t="s">
+      <c r="G49" s="43"/>
+      <c r="H49" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="I49" s="125"/>
-      <c r="J49" s="130" t="s">
+      <c r="I49" s="65"/>
+      <c r="J49" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="K49" s="131"/>
+      <c r="K49" s="71"/>
     </row>
     <row r="50" spans="6:11" ht="33" customHeight="1">
-      <c r="F50" s="162"/>
-      <c r="G50" s="163"/>
-      <c r="H50" s="126"/>
-      <c r="I50" s="127"/>
-      <c r="J50" s="132"/>
-      <c r="K50" s="133"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="72"/>
+      <c r="K50" s="73"/>
     </row>
     <row r="51" spans="6:11" ht="33" customHeight="1">
-      <c r="F51" s="164"/>
-      <c r="G51" s="165"/>
-      <c r="H51" s="128"/>
-      <c r="I51" s="129"/>
-      <c r="J51" s="134"/>
-      <c r="K51" s="135"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="F46:G48"/>
-    <mergeCell ref="H46:I48"/>
-    <mergeCell ref="J46:K48"/>
-    <mergeCell ref="F49:G51"/>
-    <mergeCell ref="H49:I51"/>
-    <mergeCell ref="J49:K51"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="F43:G45"/>
-    <mergeCell ref="H43:I45"/>
-    <mergeCell ref="J43:K45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="F40:G41"/>
-    <mergeCell ref="H40:I41"/>
-    <mergeCell ref="J40:K41"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M33:N35"/>
-    <mergeCell ref="O33:P35"/>
-    <mergeCell ref="Q33:R35"/>
-    <mergeCell ref="F34:G35"/>
-    <mergeCell ref="H34:I35"/>
-    <mergeCell ref="J34:K35"/>
-    <mergeCell ref="O39:P41"/>
-    <mergeCell ref="Q39:R41"/>
-    <mergeCell ref="M39:N41"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:Q1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F14:G15"/>
+    <mergeCell ref="H14:I15"/>
+    <mergeCell ref="J14:K15"/>
+    <mergeCell ref="M14:N15"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="F12:R12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I18"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P18"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="F17:G18"/>
+    <mergeCell ref="J17:K18"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="Q17:R18"/>
+    <mergeCell ref="Q20:R21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="F20:G21"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="J20:K21"/>
+    <mergeCell ref="M20:N21"/>
+    <mergeCell ref="O20:P21"/>
+    <mergeCell ref="Q24:R25"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I28"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P28"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="J24:K25"/>
+    <mergeCell ref="M24:N25"/>
+    <mergeCell ref="O24:P25"/>
+    <mergeCell ref="F27:G28"/>
+    <mergeCell ref="J27:K28"/>
+    <mergeCell ref="M27:N28"/>
+    <mergeCell ref="Q27:R28"/>
+    <mergeCell ref="B28:D28"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="H29:I29"/>
@@ -5943,85 +6027,40 @@
     <mergeCell ref="F37:G38"/>
     <mergeCell ref="J37:K38"/>
     <mergeCell ref="H33:I33"/>
-    <mergeCell ref="Q24:R25"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I28"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P28"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="J24:K25"/>
-    <mergeCell ref="M24:N25"/>
-    <mergeCell ref="O24:P25"/>
-    <mergeCell ref="F27:G28"/>
-    <mergeCell ref="J27:K28"/>
-    <mergeCell ref="M27:N28"/>
-    <mergeCell ref="Q27:R28"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="Q20:R21"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="F20:G21"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="J20:K21"/>
-    <mergeCell ref="M20:N21"/>
-    <mergeCell ref="O20:P21"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I18"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P18"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="F17:G18"/>
-    <mergeCell ref="J17:K18"/>
-    <mergeCell ref="M17:N18"/>
-    <mergeCell ref="Q17:R18"/>
-    <mergeCell ref="F14:G15"/>
-    <mergeCell ref="H14:I15"/>
-    <mergeCell ref="J14:K15"/>
-    <mergeCell ref="M14:N15"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="F12:R12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:Q1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M33:N35"/>
+    <mergeCell ref="O33:P35"/>
+    <mergeCell ref="Q33:R35"/>
+    <mergeCell ref="F34:G35"/>
+    <mergeCell ref="H34:I35"/>
+    <mergeCell ref="J34:K35"/>
+    <mergeCell ref="O39:P41"/>
+    <mergeCell ref="Q39:R41"/>
+    <mergeCell ref="M39:N41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="F40:G41"/>
+    <mergeCell ref="H40:I41"/>
+    <mergeCell ref="J40:K41"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="F46:G48"/>
+    <mergeCell ref="H46:I48"/>
+    <mergeCell ref="J46:K48"/>
+    <mergeCell ref="F49:G51"/>
+    <mergeCell ref="H49:I51"/>
+    <mergeCell ref="J49:K51"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="F43:G45"/>
+    <mergeCell ref="H43:I45"/>
+    <mergeCell ref="J43:K45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6060,13 +6099,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="174" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="173">
+      <c r="C2" s="172">
         <v>1</v>
       </c>
       <c r="D2" s="176">
@@ -6078,11 +6117,11 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1">
-      <c r="A3" s="172"/>
+      <c r="A3" s="174"/>
       <c r="B3" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="174"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="177"/>
       <c r="E3" s="30"/>
       <c r="G3" t="s">
@@ -6090,11 +6129,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1">
-      <c r="A4" s="172"/>
+      <c r="A4" s="174"/>
       <c r="B4" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="174"/>
+      <c r="C4" s="173"/>
       <c r="D4" s="178"/>
       <c r="E4" s="30"/>
       <c r="G4" t="s">
@@ -6106,7 +6145,7 @@
       <c r="B5" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="174"/>
+      <c r="C5" s="173"/>
       <c r="D5" s="28"/>
       <c r="E5" s="30"/>
       <c r="G5" t="s">
@@ -6120,7 +6159,7 @@
       <c r="B6" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="174">
+      <c r="C6" s="173">
         <v>2</v>
       </c>
       <c r="D6" s="28"/>
@@ -6130,11 +6169,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1">
-      <c r="A7" s="172"/>
+      <c r="A7" s="174"/>
       <c r="B7" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="174"/>
+      <c r="C7" s="173"/>
       <c r="D7" s="28"/>
       <c r="E7" s="30"/>
       <c r="G7" t="s">
@@ -6142,11 +6181,11 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1">
-      <c r="A8" s="172"/>
+      <c r="A8" s="174"/>
       <c r="B8" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="174">
+      <c r="C8" s="173">
         <v>3</v>
       </c>
       <c r="D8" s="28"/>
@@ -6156,11 +6195,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1">
-      <c r="A9" s="172"/>
+      <c r="A9" s="174"/>
       <c r="B9" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="174"/>
+      <c r="C9" s="173"/>
       <c r="D9" s="28"/>
       <c r="E9" s="30"/>
       <c r="G9" t="s">
@@ -6168,62 +6207,62 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1">
-      <c r="A10" s="172"/>
+      <c r="A10" s="174"/>
       <c r="B10" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="174">
+      <c r="C10" s="173">
         <v>4</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="30"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1">
-      <c r="A11" s="172"/>
+      <c r="A11" s="174"/>
       <c r="B11" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="174"/>
+      <c r="C11" s="173"/>
       <c r="D11" s="28"/>
       <c r="E11" s="30"/>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1">
-      <c r="A12" s="172"/>
+      <c r="A12" s="174"/>
       <c r="B12" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="174">
+      <c r="C12" s="173">
         <v>5</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="30"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1">
-      <c r="A13" s="172"/>
+      <c r="A13" s="174"/>
       <c r="B13" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="174"/>
+      <c r="C13" s="173"/>
       <c r="D13" s="28"/>
       <c r="E13" s="30"/>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1">
-      <c r="A14" s="172"/>
+      <c r="A14" s="174"/>
       <c r="B14" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="174" t="s">
+      <c r="C14" s="173" t="s">
         <v>113</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="30"/>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1">
-      <c r="A15" s="172"/>
+      <c r="A15" s="174"/>
       <c r="B15" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="174"/>
+      <c r="C15" s="173"/>
       <c r="D15" s="28"/>
       <c r="E15" s="30"/>
     </row>
@@ -6232,107 +6271,107 @@
       <c r="B16" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="174"/>
+      <c r="C16" s="173"/>
       <c r="D16" s="28"/>
       <c r="E16" s="30"/>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="172" t="s">
+      <c r="A17" s="174" t="s">
         <v>112</v>
       </c>
       <c r="B17" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="174">
+      <c r="C17" s="173">
         <v>8</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="30"/>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="172"/>
+      <c r="A18" s="174"/>
       <c r="B18" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="174"/>
+      <c r="C18" s="173"/>
       <c r="D18" s="28"/>
       <c r="E18" s="30"/>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="A19" s="172"/>
+      <c r="A19" s="174"/>
       <c r="B19" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="174" t="s">
+      <c r="C19" s="173" t="s">
         <v>114</v>
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="30"/>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
-      <c r="A20" s="172"/>
+      <c r="A20" s="174"/>
       <c r="B20" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="174"/>
+      <c r="C20" s="173"/>
       <c r="D20" s="28"/>
       <c r="E20" s="30"/>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1">
-      <c r="A21" s="172"/>
+      <c r="A21" s="174"/>
       <c r="B21" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="174"/>
+      <c r="C21" s="173"/>
       <c r="D21" s="28"/>
       <c r="E21" s="30"/>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1">
-      <c r="A22" s="172" t="s">
+      <c r="A22" s="174" t="s">
         <v>88</v>
       </c>
       <c r="B22" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="174" t="s">
+      <c r="C22" s="173" t="s">
         <v>115</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="30"/>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1">
-      <c r="A23" s="172"/>
+      <c r="A23" s="174"/>
       <c r="B23" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="174"/>
+      <c r="C23" s="173"/>
       <c r="D23" s="28"/>
       <c r="E23" s="30"/>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1">
-      <c r="A24" s="172"/>
+      <c r="A24" s="174"/>
       <c r="B24" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="174"/>
+      <c r="C24" s="173"/>
       <c r="D24" s="28"/>
       <c r="E24" s="30"/>
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1">
-      <c r="A25" s="172"/>
+      <c r="A25" s="174"/>
       <c r="B25" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="174"/>
+      <c r="C25" s="173"/>
       <c r="D25" s="28"/>
       <c r="E25" s="30"/>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1">
-      <c r="A26" s="172"/>
+      <c r="A26" s="174"/>
       <c r="B26" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="174"/>
+      <c r="C26" s="173"/>
       <c r="D26" s="28"/>
       <c r="E26" s="30"/>
     </row>
@@ -6345,7 +6384,7 @@
       <c r="E27" s="30"/>
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1">
-      <c r="A28" s="172" t="s">
+      <c r="A28" s="174" t="s">
         <v>102</v>
       </c>
       <c r="B28" s="28" t="s">
@@ -6355,7 +6394,7 @@
       <c r="E28" s="30"/>
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1">
-      <c r="A29" s="172"/>
+      <c r="A29" s="174"/>
       <c r="B29" s="28" t="s">
         <v>91</v>
       </c>
@@ -6363,7 +6402,7 @@
       <c r="E29" s="30"/>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1">
-      <c r="A30" s="172"/>
+      <c r="A30" s="174"/>
       <c r="B30" s="28" t="s">
         <v>92</v>
       </c>
@@ -6371,7 +6410,7 @@
       <c r="E30" s="30"/>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1">
-      <c r="A31" s="172"/>
+      <c r="A31" s="174"/>
       <c r="B31" s="28" t="s">
         <v>93</v>
       </c>
@@ -6379,7 +6418,7 @@
       <c r="E31" s="30"/>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1">
-      <c r="A32" s="172"/>
+      <c r="A32" s="174"/>
       <c r="B32" s="28" t="s">
         <v>94</v>
       </c>
@@ -6387,7 +6426,7 @@
       <c r="E32" s="30"/>
     </row>
     <row r="33" spans="1:5" ht="30" customHeight="1">
-      <c r="A33" s="172"/>
+      <c r="A33" s="174"/>
       <c r="B33" s="28" t="s">
         <v>95</v>
       </c>
@@ -6395,7 +6434,7 @@
       <c r="E33" s="30"/>
     </row>
     <row r="34" spans="1:5" ht="30" customHeight="1">
-      <c r="A34" s="172"/>
+      <c r="A34" s="174"/>
       <c r="B34" s="28" t="s">
         <v>96</v>
       </c>
@@ -6403,7 +6442,7 @@
       <c r="E34" s="30"/>
     </row>
     <row r="35" spans="1:5" ht="30" customHeight="1">
-      <c r="A35" s="172"/>
+      <c r="A35" s="174"/>
       <c r="B35" s="28" t="s">
         <v>97</v>
       </c>
@@ -6411,7 +6450,7 @@
       <c r="E35" s="30"/>
     </row>
     <row r="36" spans="1:5" ht="30" customHeight="1">
-      <c r="A36" s="172"/>
+      <c r="A36" s="174"/>
       <c r="B36" s="28" t="s">
         <v>98</v>
       </c>
@@ -6419,7 +6458,7 @@
       <c r="E36" s="30"/>
     </row>
     <row r="37" spans="1:5" ht="30" customHeight="1">
-      <c r="A37" s="172"/>
+      <c r="A37" s="174"/>
       <c r="B37" s="28" t="s">
         <v>99</v>
       </c>
@@ -6427,7 +6466,7 @@
       <c r="E37" s="30"/>
     </row>
     <row r="38" spans="1:5" ht="30" customHeight="1">
-      <c r="A38" s="172"/>
+      <c r="A38" s="174"/>
       <c r="B38" s="28" t="s">
         <v>100</v>
       </c>
@@ -6435,7 +6474,7 @@
       <c r="E38" s="30"/>
     </row>
     <row r="39" spans="1:5" ht="30" customHeight="1">
-      <c r="A39" s="172"/>
+      <c r="A39" s="174"/>
       <c r="B39" s="28" t="s">
         <v>101</v>
       </c>
@@ -6443,7 +6482,7 @@
       <c r="E39" s="30"/>
     </row>
     <row r="40" spans="1:5" ht="30" customHeight="1">
-      <c r="A40" s="172" t="s">
+      <c r="A40" s="174" t="s">
         <v>108</v>
       </c>
       <c r="B40" s="28" t="s">
@@ -6453,7 +6492,7 @@
       <c r="E40" s="30"/>
     </row>
     <row r="41" spans="1:5" ht="30" customHeight="1">
-      <c r="A41" s="172"/>
+      <c r="A41" s="174"/>
       <c r="B41" s="28" t="s">
         <v>104</v>
       </c>
@@ -6461,7 +6500,7 @@
       <c r="E41" s="30"/>
     </row>
     <row r="42" spans="1:5" ht="30" customHeight="1">
-      <c r="A42" s="172"/>
+      <c r="A42" s="174"/>
       <c r="B42" s="28" t="s">
         <v>105</v>
       </c>
@@ -6469,7 +6508,7 @@
       <c r="E42" s="30"/>
     </row>
     <row r="43" spans="1:5" ht="30" customHeight="1">
-      <c r="A43" s="172"/>
+      <c r="A43" s="174"/>
       <c r="B43" s="28" t="s">
         <v>106</v>
       </c>
@@ -6510,7 +6549,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="A2:A5"/>
@@ -6527,6 +6565,7 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C19:C21"/>
     <mergeCell ref="C22:C26"/>
+    <mergeCell ref="A17:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2019年计划/9-11季度计划.xlsx
+++ b/2019年计划/9-11季度计划.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="9-11月季度计划" sheetId="1" r:id="rId1"/>
     <sheet name="9.2-9.8周计划" sheetId="6" r:id="rId2"/>
-    <sheet name="一天作息" sheetId="7" r:id="rId3"/>
-    <sheet name="模板" sheetId="3" r:id="rId4"/>
-    <sheet name="Angular学习挑战打卡表" sheetId="4" r:id="rId5"/>
+    <sheet name="9.9-9.15" sheetId="8" r:id="rId3"/>
+    <sheet name="一天作息" sheetId="7" r:id="rId4"/>
+    <sheet name="模板" sheetId="3" r:id="rId5"/>
+    <sheet name="Angular学习挑战打卡表" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="225">
   <si>
     <t>月份\目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -832,10 +833,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>洗漱 + 打扫卫生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>英语复习 + 冥想</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -978,18 +975,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6:40 -  7:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7:00 -  7:40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8:00 -  9:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 9:20 -  10:20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1041,14 +1026,69 @@
     <t>1 全部加入复习列表
 2 阅读小说
 3 复习单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语阅读10页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作：没问题
+学习：
+     1 英语阅读1.5页未完成
+     2 英语听力没有按计划执行
+     3 晚上学习时间需调整
+     4 会因为潘念影响晚上学习
+生活：
+     1 会因为潘念影响晚上作息 
+     2 晚餐饮食习惯会影响晚上学习
+     3 会因为看直播耽误学习时间
+     4 会因为小电影耽误学习和影响作息
+综上，需要解决问题：
+     1 调整一天作息
+     2 调整英语学习方法
+     3 潘念影响作息和学习
+     4 调整晚餐饮食习惯
+     5 直播影响学习
+     6 小电影影响学习和作息 
+     7 上班空闲时间利用率不高
+措施：
+     1 见一天作息
+     2 见英语学习方法
+     3 坚决执行一天的计划安排，摒除各种干扰
+     4 天猫超市采购2天的主食，店铺买每天补充项
+     5 坚决执行一天的计划安排
+     6 清空历史记录和下载内容，卸载软件
+     7 每天早上做好当天的学习目标，坚决执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:40 -  7:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7:30 -  8:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8:10 -  9:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗漱 + 打扫卫生+吃饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 英语学习调整
+2 英语听力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="31">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2222,7 +2262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2337,6 +2377,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2739,14 +2782,14 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2781,7 +2824,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2823,7 +2866,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2855,9 +2898,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2889,6 +2933,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3064,161 +3109,161 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="27.625" customWidth="1"/>
-    <col min="3" max="3" width="30.375" customWidth="1"/>
-    <col min="4" max="4" width="30.75" customWidth="1"/>
-    <col min="5" max="5" width="23.625" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="24.625" customWidth="1"/>
-    <col min="8" max="32" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="2" max="2" width="27.6328125" customWidth="1"/>
+    <col min="3" max="3" width="30.36328125" customWidth="1"/>
+    <col min="4" max="4" width="30.7265625" customWidth="1"/>
+    <col min="5" max="5" width="23.6328125" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" customWidth="1"/>
+    <col min="7" max="7" width="24.6328125" customWidth="1"/>
+    <col min="8" max="32" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45" customHeight="1">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-    </row>
-    <row r="2" spans="1:7" ht="39.75" customHeight="1">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+    </row>
+    <row r="2" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>125</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="G2" s="26"/>
     </row>
-    <row r="3" spans="1:7" ht="87" customHeight="1">
+    <row r="3" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>187</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="75" customHeight="1">
+    <row r="4" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>187</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="81" customHeight="1">
+    <row r="5" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>192</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1"/>
-    <row r="7" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="38" t="s">
+    <row r="6" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-    </row>
-    <row r="8" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A8" s="40" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+    </row>
+    <row r="8" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-    </row>
-    <row r="9" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-    </row>
-    <row r="10" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-    </row>
-    <row r="11" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-    </row>
-    <row r="12" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-    </row>
-    <row r="13" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-    </row>
-    <row r="14" spans="1:7" ht="151.5" customHeight="1">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-    </row>
-    <row r="15" spans="1:7" ht="39.950000000000003" customHeight="1"/>
-    <row r="16" spans="1:7" ht="39.950000000000003" customHeight="1"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+    </row>
+    <row r="9" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+    </row>
+    <row r="10" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+    </row>
+    <row r="11" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+    </row>
+    <row r="12" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+    </row>
+    <row r="13" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+    </row>
+    <row r="14" spans="1:7" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+    </row>
+    <row r="15" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A7:C7"/>
@@ -3232,69 +3277,69 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:D17"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="33" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="33" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="8" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="8" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="8" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="8" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="10.625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="11.125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="13.125" style="8" customWidth="1"/>
-    <col min="14" max="14" width="10.875" style="8" customWidth="1"/>
-    <col min="15" max="15" width="10.375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="23.90625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.26953125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="9.90625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="10.6328125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="13.08984375" style="8" customWidth="1"/>
+    <col min="14" max="14" width="10.90625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="10.36328125" style="8" customWidth="1"/>
     <col min="16" max="16" width="12" style="8" customWidth="1"/>
     <col min="17" max="17" width="11" style="8" customWidth="1"/>
-    <col min="18" max="18" width="11.125" style="8" customWidth="1"/>
+    <col min="18" max="18" width="11.08984375" style="8" customWidth="1"/>
     <col min="19" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="33" customHeight="1">
-      <c r="A1" s="163" t="s">
+    <row r="1" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="164" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="165"/>
-      <c r="F1" s="166" t="s">
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="166"/>
+      <c r="F1" s="167" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="167"/>
-      <c r="O1" s="167"/>
-      <c r="P1" s="167"/>
-      <c r="Q1" s="167"/>
-      <c r="R1" s="167"/>
-    </row>
-    <row r="2" spans="1:18" ht="35.25" customHeight="1">
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+    </row>
+    <row r="2" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="161" t="s">
-        <v>218</v>
-      </c>
-      <c r="C2" s="162"/>
+      <c r="B2" s="162" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="163"/>
       <c r="D2" s="34" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="12" t="s">
@@ -3307,7 +3352,7 @@
         <v>162</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>163</v>
@@ -3329,170 +3374,170 @@
       </c>
       <c r="R2" s="13"/>
     </row>
-    <row r="3" spans="1:18" ht="33" customHeight="1">
+    <row r="3" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="161" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="162"/>
+      <c r="B3" s="162" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="163"/>
       <c r="D3" s="34" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>130</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N3" s="16"/>
       <c r="O3" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R3" s="16"/>
     </row>
-    <row r="4" spans="1:18" ht="33" customHeight="1">
+    <row r="4" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="161" t="s">
-        <v>212</v>
-      </c>
-      <c r="C4" s="162"/>
+      <c r="B4" s="162" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="163"/>
       <c r="D4" s="34"/>
       <c r="F4" s="17" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R4" s="16"/>
     </row>
-    <row r="5" spans="1:18" ht="33" customHeight="1">
+    <row r="5" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="161" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" s="162"/>
+      <c r="B5" s="162" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="163"/>
       <c r="D5" s="34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R5" s="16"/>
     </row>
-    <row r="6" spans="1:18" ht="33" customHeight="1">
+    <row r="6" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="161"/>
-      <c r="C6" s="162"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="163"/>
       <c r="D6" s="34"/>
       <c r="F6" s="17" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R6" s="16"/>
     </row>
-    <row r="7" spans="1:18" ht="33" customHeight="1">
+    <row r="7" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="161"/>
-      <c r="C7" s="162"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="163"/>
       <c r="D7" s="34"/>
       <c r="F7" s="17" t="s">
         <v>18</v>
@@ -3508,21 +3553,21 @@
       <c r="O7" s="16"/>
       <c r="R7" s="16"/>
     </row>
-    <row r="8" spans="1:18" ht="44.25" customHeight="1">
+    <row r="8" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="161"/>
-      <c r="C8" s="162"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="163"/>
       <c r="D8" s="34"/>
       <c r="R8" s="16"/>
     </row>
-    <row r="9" spans="1:18" ht="46.5" customHeight="1">
+    <row r="9" spans="1:18" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="161"/>
-      <c r="C9" s="162"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="163"/>
       <c r="D9" s="34"/>
       <c r="F9" s="10"/>
       <c r="G9" s="12" t="s">
@@ -3552,16 +3597,16 @@
       <c r="Q9" s="13"/>
       <c r="R9" s="16"/>
     </row>
-    <row r="10" spans="1:18" s="20" customFormat="1" ht="33" customHeight="1">
+    <row r="10" spans="1:18" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10" s="161" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" s="162"/>
+      <c r="B10" s="162" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="163"/>
       <c r="D10" s="34" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>19</v>
@@ -3578,14 +3623,14 @@
       <c r="P10" s="16"/>
       <c r="Q10" s="8"/>
     </row>
-    <row r="11" spans="1:18" s="20" customFormat="1" ht="33" customHeight="1">
+    <row r="11" spans="1:18" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="161" t="s">
+      <c r="B11" s="162" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="162"/>
+      <c r="C11" s="163"/>
       <c r="D11" s="34"/>
       <c r="F11" s="15" t="s">
         <v>20</v>
@@ -3602,977 +3647,979 @@
       <c r="P11" s="18"/>
       <c r="Q11" s="16"/>
     </row>
-    <row r="12" spans="1:18" ht="33" customHeight="1">
-      <c r="A12" s="153" t="s">
+    <row r="12" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="154" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="153"/>
-      <c r="C12" s="153"/>
-      <c r="D12" s="153"/>
-    </row>
-    <row r="13" spans="1:18" ht="54.75" customHeight="1">
+      <c r="B12" s="154"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="154"/>
+    </row>
+    <row r="13" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="B13" s="157" t="s">
-        <v>217</v>
-      </c>
-      <c r="C13" s="158"/>
-      <c r="D13" s="159"/>
-    </row>
-    <row r="14" spans="1:18" ht="57.75" customHeight="1">
+      <c r="B13" s="158" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="159"/>
+      <c r="D13" s="160"/>
+    </row>
+    <row r="14" spans="1:18" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="157"/>
-      <c r="C14" s="158"/>
-      <c r="D14" s="159"/>
-    </row>
-    <row r="15" spans="1:18" ht="50.25" customHeight="1">
+      <c r="B14" s="158"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="160"/>
+    </row>
+    <row r="15" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="157" t="s">
-        <v>220</v>
-      </c>
-      <c r="C15" s="158"/>
-      <c r="D15" s="159"/>
-    </row>
-    <row r="16" spans="1:18" ht="47.25" customHeight="1">
+      <c r="B15" s="158" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" s="159"/>
+      <c r="D15" s="160"/>
+    </row>
+    <row r="16" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="157"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="159"/>
-    </row>
-    <row r="17" spans="1:4" ht="64.5" customHeight="1">
+      <c r="B16" s="158"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="160"/>
+    </row>
+    <row r="17" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="157" t="s">
-        <v>221</v>
-      </c>
-      <c r="C17" s="158"/>
-      <c r="D17" s="159"/>
-    </row>
-    <row r="18" spans="1:4" ht="33" customHeight="1">
+      <c r="B17" s="158" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" s="159"/>
+      <c r="D17" s="160"/>
+    </row>
+    <row r="18" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="157"/>
-      <c r="C18" s="158"/>
-      <c r="D18" s="159"/>
-    </row>
-    <row r="19" spans="1:4" ht="33" customHeight="1">
+      <c r="B18" s="158"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="160"/>
+    </row>
+    <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="157"/>
-      <c r="C19" s="158"/>
-      <c r="D19" s="159"/>
-    </row>
-    <row r="20" spans="1:4" ht="33" customHeight="1">
-      <c r="A20" s="160" t="s">
+      <c r="B19" s="158"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="160"/>
+    </row>
+    <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="161" t="s">
         <v>146</v>
       </c>
-      <c r="B20" s="160"/>
-      <c r="C20" s="160"/>
-      <c r="D20" s="160"/>
-    </row>
-    <row r="21" spans="1:4" ht="33" customHeight="1">
+      <c r="B20" s="161"/>
+      <c r="C20" s="161"/>
+      <c r="D20" s="161"/>
+    </row>
+    <row r="21" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>1</v>
       </c>
-      <c r="B21" s="141"/>
-      <c r="C21" s="142"/>
-      <c r="D21" s="143"/>
-    </row>
-    <row r="22" spans="1:4" ht="33" customHeight="1">
+      <c r="B21" s="142"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="144"/>
+    </row>
+    <row r="22" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>2</v>
       </c>
-      <c r="B22" s="141"/>
-      <c r="C22" s="142"/>
-      <c r="D22" s="143"/>
-    </row>
-    <row r="23" spans="1:4" ht="33" customHeight="1">
+      <c r="B22" s="142"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="144"/>
+    </row>
+    <row r="23" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>3</v>
       </c>
-      <c r="B23" s="141"/>
-      <c r="C23" s="142"/>
-      <c r="D23" s="143"/>
-    </row>
-    <row r="24" spans="1:4" ht="33" customHeight="1">
+      <c r="B23" s="142"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="144"/>
+    </row>
+    <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>4</v>
       </c>
-      <c r="B24" s="141"/>
-      <c r="C24" s="142"/>
-      <c r="D24" s="143"/>
-    </row>
-    <row r="25" spans="1:4" ht="33" customHeight="1">
+      <c r="B24" s="142"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="144"/>
+    </row>
+    <row r="25" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>5</v>
       </c>
-      <c r="B25" s="141"/>
-      <c r="C25" s="142"/>
-      <c r="D25" s="143"/>
-    </row>
-    <row r="26" spans="1:4" ht="33" customHeight="1">
+      <c r="B25" s="142"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="144"/>
+    </row>
+    <row r="26" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>6</v>
       </c>
-      <c r="B26" s="141"/>
-      <c r="C26" s="142"/>
-      <c r="D26" s="143"/>
-    </row>
-    <row r="27" spans="1:4" ht="33" customHeight="1">
+      <c r="B26" s="142"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="144"/>
+    </row>
+    <row r="27" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>7</v>
       </c>
-      <c r="B27" s="141"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="143"/>
-    </row>
-    <row r="28" spans="1:4" ht="33" customHeight="1">
+      <c r="B27" s="142"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="144"/>
+    </row>
+    <row r="28" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>8</v>
       </c>
-      <c r="B28" s="141"/>
-      <c r="C28" s="142"/>
-      <c r="D28" s="143"/>
-    </row>
-    <row r="29" spans="1:4" ht="33" customHeight="1">
-      <c r="A29" s="144" t="s">
+      <c r="B28" s="142"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="144"/>
+    </row>
+    <row r="29" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="145" t="s">
         <v>150</v>
       </c>
-      <c r="B29" s="144"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="144"/>
-    </row>
-    <row r="30" spans="1:4" ht="33" customHeight="1">
-      <c r="A30" s="125"/>
-      <c r="B30" s="126"/>
-      <c r="C30" s="126"/>
-      <c r="D30" s="127"/>
-    </row>
-    <row r="31" spans="1:4" ht="33" customHeight="1">
-      <c r="A31" s="128"/>
-      <c r="B31" s="129"/>
-      <c r="C31" s="129"/>
-      <c r="D31" s="130"/>
-    </row>
-    <row r="32" spans="1:4" ht="33" customHeight="1">
-      <c r="A32" s="128"/>
-      <c r="B32" s="129"/>
-      <c r="C32" s="129"/>
-      <c r="D32" s="130"/>
-    </row>
-    <row r="33" spans="1:20" ht="33" customHeight="1">
-      <c r="A33" s="128"/>
-      <c r="B33" s="129"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="130"/>
-    </row>
-    <row r="34" spans="1:20" ht="33" customHeight="1">
-      <c r="A34" s="128"/>
-      <c r="B34" s="129"/>
-      <c r="C34" s="129"/>
-      <c r="D34" s="130"/>
-    </row>
-    <row r="35" spans="1:20" ht="33" customHeight="1">
-      <c r="A35" s="128"/>
-      <c r="B35" s="129"/>
-      <c r="C35" s="129"/>
-      <c r="D35" s="130"/>
-    </row>
-    <row r="36" spans="1:20" ht="33" customHeight="1">
-      <c r="A36" s="131"/>
-      <c r="B36" s="132"/>
-      <c r="C36" s="132"/>
-      <c r="D36" s="133"/>
-    </row>
-    <row r="37" spans="1:20" ht="33" customHeight="1">
-      <c r="A37" s="57" t="s">
+      <c r="B29" s="145"/>
+      <c r="C29" s="145"/>
+      <c r="D29" s="145"/>
+    </row>
+    <row r="30" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="126" t="s">
+        <v>219</v>
+      </c>
+      <c r="B30" s="127"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="128"/>
+    </row>
+    <row r="31" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="129"/>
+      <c r="B31" s="130"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="131"/>
+    </row>
+    <row r="32" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="129"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="131"/>
+    </row>
+    <row r="33" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="129"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="131"/>
+    </row>
+    <row r="34" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="129"/>
+      <c r="B34" s="130"/>
+      <c r="C34" s="130"/>
+      <c r="D34" s="131"/>
+    </row>
+    <row r="35" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="129"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="131"/>
+    </row>
+    <row r="36" spans="1:20" ht="257" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="132"/>
+      <c r="B36" s="133"/>
+      <c r="C36" s="133"/>
+      <c r="D36" s="134"/>
+    </row>
+    <row r="37" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-    </row>
-    <row r="38" spans="1:20" ht="33" customHeight="1">
-      <c r="A38" s="134" t="s">
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+    </row>
+    <row r="38" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="135" t="s">
         <v>153</v>
       </c>
-      <c r="B38" s="134"/>
-      <c r="C38" s="134"/>
-      <c r="D38" s="134"/>
-    </row>
-    <row r="39" spans="1:20" ht="33" customHeight="1">
+      <c r="B38" s="135"/>
+      <c r="C38" s="135"/>
+      <c r="D38" s="135"/>
+    </row>
+    <row r="39" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>1</v>
       </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="50"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="51"/>
       <c r="T39" s="25"/>
     </row>
-    <row r="40" spans="1:20" ht="33" customHeight="1">
+    <row r="40" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>2</v>
       </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="50"/>
-    </row>
-    <row r="41" spans="1:20" ht="33" customHeight="1">
+      <c r="B40" s="49"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="51"/>
+    </row>
+    <row r="41" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>3</v>
       </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="50"/>
-    </row>
-    <row r="42" spans="1:20" ht="33" customHeight="1">
+      <c r="B41" s="49"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="51"/>
+    </row>
+    <row r="42" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>4</v>
       </c>
-      <c r="B42" s="48"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="50"/>
-    </row>
-    <row r="43" spans="1:20" ht="33" customHeight="1">
+      <c r="B42" s="49"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="51"/>
+    </row>
+    <row r="43" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>5</v>
       </c>
-      <c r="B43" s="48"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="50"/>
-    </row>
-    <row r="44" spans="1:20" ht="33" customHeight="1">
+      <c r="B43" s="49"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="51"/>
+    </row>
+    <row r="44" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>6</v>
       </c>
-      <c r="B44" s="48"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="50"/>
-    </row>
-    <row r="45" spans="1:20" ht="33" customHeight="1">
+      <c r="B44" s="49"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="51"/>
+    </row>
+    <row r="45" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>7</v>
       </c>
-      <c r="B45" s="118"/>
-      <c r="C45" s="119"/>
-      <c r="D45" s="120"/>
-    </row>
-    <row r="46" spans="1:20" ht="33" customHeight="1">
+      <c r="B45" s="119"/>
+      <c r="C45" s="120"/>
+      <c r="D45" s="121"/>
+    </row>
+    <row r="46" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>8</v>
       </c>
-      <c r="B46" s="79"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
-    </row>
-    <row r="47" spans="1:20" ht="33" customHeight="1">
-      <c r="A47" s="99"/>
-      <c r="B47" s="99"/>
-      <c r="C47" s="99"/>
-      <c r="D47" s="99"/>
-    </row>
-    <row r="48" spans="1:20" ht="33" customHeight="1">
-      <c r="A48" s="100" t="s">
+      <c r="B46" s="80"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="81"/>
+    </row>
+    <row r="47" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="100"/>
+      <c r="B47" s="100"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="100"/>
+    </row>
+    <row r="48" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="B48" s="100"/>
-      <c r="C48" s="100"/>
-      <c r="D48" s="100"/>
-    </row>
-    <row r="49" spans="1:13" ht="33" customHeight="1">
+      <c r="B48" s="101"/>
+      <c r="C48" s="101"/>
+      <c r="D48" s="101"/>
+    </row>
+    <row r="49" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="32">
         <v>1</v>
       </c>
-      <c r="B49" s="76"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="78"/>
-    </row>
-    <row r="50" spans="1:13" ht="33" customHeight="1">
+      <c r="B49" s="77"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="79"/>
+    </row>
+    <row r="50" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="32">
         <v>2</v>
       </c>
-      <c r="B50" s="76"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="78"/>
-    </row>
-    <row r="51" spans="1:13" ht="33" customHeight="1">
+      <c r="B50" s="77"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="79"/>
+    </row>
+    <row r="51" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="32">
         <v>3</v>
       </c>
-      <c r="B51" s="76"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="78"/>
-    </row>
-    <row r="52" spans="1:13" ht="33" customHeight="1">
+      <c r="B51" s="77"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="79"/>
+    </row>
+    <row r="52" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>4</v>
       </c>
-      <c r="B52" s="101"/>
-      <c r="C52" s="77"/>
-      <c r="D52" s="102"/>
-    </row>
-    <row r="53" spans="1:13" ht="33" customHeight="1">
+      <c r="B52" s="102"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="103"/>
+    </row>
+    <row r="53" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="32">
         <v>5</v>
       </c>
-      <c r="B53" s="76"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="78"/>
-    </row>
-    <row r="54" spans="1:13" ht="33" customHeight="1">
+      <c r="B53" s="77"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="79"/>
+    </row>
+    <row r="54" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32">
         <v>6</v>
       </c>
-      <c r="B54" s="76"/>
-      <c r="C54" s="77"/>
-      <c r="D54" s="78"/>
-    </row>
-    <row r="55" spans="1:13" ht="33" customHeight="1">
+      <c r="B54" s="77"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="79"/>
+    </row>
+    <row r="55" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32">
         <v>7</v>
       </c>
-      <c r="B55" s="76"/>
-      <c r="C55" s="77"/>
-      <c r="D55" s="78"/>
-    </row>
-    <row r="56" spans="1:13" ht="33" customHeight="1">
+      <c r="B55" s="77"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="79"/>
+    </row>
+    <row r="56" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="32">
         <v>8</v>
       </c>
-      <c r="B56" s="103"/>
-      <c r="C56" s="104"/>
-      <c r="D56" s="105"/>
-    </row>
-    <row r="58" spans="1:13" ht="33" customHeight="1">
-      <c r="A58" s="154" t="s">
+      <c r="B56" s="104"/>
+      <c r="C56" s="105"/>
+      <c r="D56" s="106"/>
+    </row>
+    <row r="58" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="155" t="s">
         <v>132</v>
       </c>
-      <c r="B58" s="154"/>
-      <c r="C58" s="154"/>
-      <c r="D58" s="154"/>
-      <c r="E58" s="154"/>
-      <c r="F58" s="154"/>
-      <c r="G58" s="154"/>
-      <c r="H58" s="154"/>
-      <c r="I58" s="154"/>
-      <c r="J58" s="154"/>
-      <c r="K58" s="154"/>
-      <c r="L58" s="154"/>
-      <c r="M58" s="154"/>
-    </row>
-    <row r="59" spans="1:13" ht="33" customHeight="1">
-      <c r="A59" s="62" t="s">
+      <c r="B58" s="155"/>
+      <c r="C58" s="155"/>
+      <c r="D58" s="155"/>
+      <c r="E58" s="155"/>
+      <c r="F58" s="155"/>
+      <c r="G58" s="155"/>
+      <c r="H58" s="155"/>
+      <c r="I58" s="155"/>
+      <c r="J58" s="155"/>
+      <c r="K58" s="155"/>
+      <c r="L58" s="155"/>
+      <c r="M58" s="155"/>
+    </row>
+    <row r="59" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="B59" s="63"/>
-      <c r="C59" s="62" t="s">
+      <c r="B59" s="64"/>
+      <c r="C59" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="D59" s="63"/>
-      <c r="E59" s="62" t="s">
+      <c r="D59" s="64"/>
+      <c r="E59" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="F59" s="63"/>
-      <c r="H59" s="151" t="s">
+      <c r="F59" s="64"/>
+      <c r="H59" s="152" t="s">
         <v>136</v>
       </c>
-      <c r="I59" s="152"/>
-      <c r="J59" s="151" t="s">
+      <c r="I59" s="153"/>
+      <c r="J59" s="152" t="s">
         <v>137</v>
       </c>
-      <c r="K59" s="152"/>
-      <c r="L59" s="155" t="s">
+      <c r="K59" s="153"/>
+      <c r="L59" s="156" t="s">
         <v>138</v>
       </c>
-      <c r="M59" s="156"/>
-    </row>
-    <row r="60" spans="1:13" ht="33" customHeight="1">
-      <c r="A60" s="58" t="s">
+      <c r="M59" s="157"/>
+    </row>
+    <row r="60" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="59"/>
-      <c r="C60" s="58" t="s">
+      <c r="B60" s="60"/>
+      <c r="C60" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="D60" s="59"/>
-      <c r="E60" s="58" t="s">
+      <c r="D60" s="60"/>
+      <c r="E60" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="F60" s="59"/>
-      <c r="H60" s="135"/>
-      <c r="I60" s="136"/>
-      <c r="J60" s="135"/>
-      <c r="K60" s="136"/>
-      <c r="L60" s="139"/>
-      <c r="M60" s="140"/>
-    </row>
-    <row r="61" spans="1:13" ht="33" customHeight="1">
-      <c r="A61" s="60"/>
-      <c r="B61" s="61"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="61"/>
-      <c r="H61" s="137"/>
-      <c r="I61" s="138"/>
-      <c r="J61" s="137"/>
-      <c r="K61" s="138"/>
-      <c r="L61" s="137"/>
-      <c r="M61" s="138"/>
-    </row>
-    <row r="62" spans="1:13" ht="33" customHeight="1">
-      <c r="A62" s="62" t="s">
+      <c r="F60" s="60"/>
+      <c r="H60" s="136"/>
+      <c r="I60" s="137"/>
+      <c r="J60" s="136"/>
+      <c r="K60" s="137"/>
+      <c r="L60" s="140"/>
+      <c r="M60" s="141"/>
+    </row>
+    <row r="61" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="61"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="62"/>
+      <c r="H61" s="138"/>
+      <c r="I61" s="139"/>
+      <c r="J61" s="138"/>
+      <c r="K61" s="139"/>
+      <c r="L61" s="138"/>
+      <c r="M61" s="139"/>
+    </row>
+    <row r="62" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="B62" s="63"/>
-      <c r="C62" s="106" t="s">
+      <c r="B62" s="64"/>
+      <c r="C62" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="107"/>
-      <c r="E62" s="62" t="s">
+      <c r="D62" s="108"/>
+      <c r="E62" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="F62" s="63"/>
-      <c r="H62" s="151" t="s">
+      <c r="F62" s="64"/>
+      <c r="H62" s="152" t="s">
         <v>141</v>
       </c>
-      <c r="I62" s="152"/>
-      <c r="J62" s="145" t="s">
+      <c r="I62" s="153"/>
+      <c r="J62" s="146" t="s">
         <v>142</v>
       </c>
-      <c r="K62" s="146"/>
-      <c r="L62" s="151" t="s">
+      <c r="K62" s="147"/>
+      <c r="L62" s="152" t="s">
         <v>140</v>
       </c>
-      <c r="M62" s="152"/>
-    </row>
-    <row r="63" spans="1:13" ht="33" customHeight="1">
-      <c r="A63" s="58"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="108"/>
-      <c r="D63" s="109"/>
-      <c r="E63" s="121"/>
-      <c r="F63" s="122"/>
+      <c r="M62" s="153"/>
+    </row>
+    <row r="63" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="59"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="109"/>
+      <c r="D63" s="110"/>
+      <c r="E63" s="122"/>
+      <c r="F63" s="123"/>
       <c r="G63" s="23"/>
-      <c r="H63" s="135"/>
-      <c r="I63" s="136"/>
-      <c r="J63" s="147"/>
-      <c r="K63" s="148"/>
-      <c r="L63" s="135"/>
-      <c r="M63" s="136"/>
-    </row>
-    <row r="64" spans="1:13" ht="33" customHeight="1">
-      <c r="A64" s="60"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="110"/>
-      <c r="D64" s="111"/>
-      <c r="E64" s="123"/>
-      <c r="F64" s="124"/>
-      <c r="H64" s="137"/>
-      <c r="I64" s="138"/>
-      <c r="J64" s="149"/>
-      <c r="K64" s="150"/>
-      <c r="L64" s="137"/>
-      <c r="M64" s="138"/>
-    </row>
-    <row r="65" spans="1:13" ht="33" customHeight="1">
-      <c r="A65" s="62" t="s">
+      <c r="H63" s="136"/>
+      <c r="I63" s="137"/>
+      <c r="J63" s="148"/>
+      <c r="K63" s="149"/>
+      <c r="L63" s="136"/>
+      <c r="M63" s="137"/>
+    </row>
+    <row r="64" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="61"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="111"/>
+      <c r="D64" s="112"/>
+      <c r="E64" s="124"/>
+      <c r="F64" s="125"/>
+      <c r="H64" s="138"/>
+      <c r="I64" s="139"/>
+      <c r="J64" s="150"/>
+      <c r="K64" s="151"/>
+      <c r="L64" s="138"/>
+      <c r="M64" s="139"/>
+    </row>
+    <row r="65" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="B65" s="63"/>
-      <c r="C65" s="62" t="s">
+      <c r="B65" s="64"/>
+      <c r="C65" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="D65" s="63"/>
-      <c r="E65" s="62" t="s">
+      <c r="D65" s="64"/>
+      <c r="E65" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="F65" s="63"/>
-      <c r="H65" s="151" t="s">
+      <c r="F65" s="64"/>
+      <c r="H65" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="I65" s="152"/>
-      <c r="J65" s="151" t="s">
+      <c r="I65" s="153"/>
+      <c r="J65" s="152" t="s">
         <v>144</v>
       </c>
-      <c r="K65" s="152"/>
-      <c r="L65" s="151" t="s">
+      <c r="K65" s="153"/>
+      <c r="L65" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="M65" s="152"/>
-    </row>
-    <row r="66" spans="1:13" ht="33" customHeight="1">
-      <c r="A66" s="58"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="58"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="58"/>
-      <c r="F66" s="59"/>
-      <c r="H66" s="135"/>
-      <c r="I66" s="136"/>
-      <c r="J66" s="135"/>
-      <c r="K66" s="136"/>
-      <c r="L66" s="135"/>
-      <c r="M66" s="136"/>
-    </row>
-    <row r="67" spans="1:13" ht="33" customHeight="1">
-      <c r="A67" s="60"/>
-      <c r="B67" s="61"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="60"/>
-      <c r="F67" s="61"/>
-      <c r="H67" s="137"/>
-      <c r="I67" s="138"/>
-      <c r="J67" s="137"/>
-      <c r="K67" s="138"/>
-      <c r="L67" s="137"/>
-      <c r="M67" s="138"/>
-    </row>
-    <row r="68" spans="1:13" ht="33" customHeight="1">
+      <c r="M65" s="153"/>
+    </row>
+    <row r="66" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="59"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="60"/>
+      <c r="H66" s="136"/>
+      <c r="I66" s="137"/>
+      <c r="J66" s="136"/>
+      <c r="K66" s="137"/>
+      <c r="L66" s="136"/>
+      <c r="M66" s="137"/>
+    </row>
+    <row r="67" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="61"/>
+      <c r="B67" s="62"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="62"/>
+      <c r="H67" s="138"/>
+      <c r="I67" s="139"/>
+      <c r="J67" s="138"/>
+      <c r="K67" s="139"/>
+      <c r="L67" s="138"/>
+      <c r="M67" s="139"/>
+    </row>
+    <row r="68" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="D68" s="8"/>
     </row>
-    <row r="69" spans="1:13" ht="33" customHeight="1">
-      <c r="A69" s="62" t="s">
+    <row r="69" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="63"/>
-      <c r="C69" s="62" t="s">
+      <c r="B69" s="64"/>
+      <c r="C69" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="D69" s="63"/>
-      <c r="E69" s="62" t="s">
+      <c r="D69" s="64"/>
+      <c r="E69" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="F69" s="63"/>
-      <c r="H69" s="62" t="s">
+      <c r="F69" s="64"/>
+      <c r="H69" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="I69" s="63"/>
-      <c r="J69" s="62" t="s">
+      <c r="I69" s="64"/>
+      <c r="J69" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="K69" s="63"/>
-      <c r="L69" s="62" t="s">
+      <c r="K69" s="64"/>
+      <c r="L69" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="M69" s="63"/>
-    </row>
-    <row r="70" spans="1:13" ht="33" customHeight="1">
-      <c r="A70" s="58" t="s">
+      <c r="M69" s="64"/>
+    </row>
+    <row r="70" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B70" s="59"/>
-      <c r="C70" s="58" t="s">
+      <c r="B70" s="60"/>
+      <c r="C70" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="D70" s="59"/>
-      <c r="E70" s="58" t="s">
+      <c r="D70" s="60"/>
+      <c r="E70" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="F70" s="59"/>
-      <c r="H70" s="58"/>
-      <c r="I70" s="59"/>
-      <c r="J70" s="58"/>
-      <c r="K70" s="59"/>
-      <c r="L70" s="58"/>
-      <c r="M70" s="59"/>
-    </row>
-    <row r="71" spans="1:13" ht="33" customHeight="1">
-      <c r="A71" s="60"/>
-      <c r="B71" s="61"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="60"/>
-      <c r="F71" s="61"/>
-      <c r="H71" s="60"/>
-      <c r="I71" s="61"/>
-      <c r="J71" s="60"/>
-      <c r="K71" s="61"/>
-      <c r="L71" s="60"/>
-      <c r="M71" s="61"/>
-    </row>
-    <row r="72" spans="1:13" ht="33" customHeight="1">
-      <c r="A72" s="62" t="s">
+      <c r="F70" s="60"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="60"/>
+      <c r="J70" s="59"/>
+      <c r="K70" s="60"/>
+      <c r="L70" s="59"/>
+      <c r="M70" s="60"/>
+    </row>
+    <row r="71" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="61"/>
+      <c r="B71" s="62"/>
+      <c r="C71" s="61"/>
+      <c r="D71" s="62"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="62"/>
+      <c r="H71" s="61"/>
+      <c r="I71" s="62"/>
+      <c r="J71" s="61"/>
+      <c r="K71" s="62"/>
+      <c r="L71" s="61"/>
+      <c r="M71" s="62"/>
+    </row>
+    <row r="72" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="B72" s="63"/>
-      <c r="C72" s="106" t="s">
+      <c r="B72" s="64"/>
+      <c r="C72" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="D72" s="107"/>
-      <c r="E72" s="62" t="s">
+      <c r="D72" s="108"/>
+      <c r="E72" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="F72" s="63"/>
-      <c r="H72" s="62" t="s">
+      <c r="F72" s="64"/>
+      <c r="H72" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="I72" s="63"/>
-      <c r="J72" s="106" t="s">
+      <c r="I72" s="64"/>
+      <c r="J72" s="107" t="s">
         <v>149</v>
       </c>
-      <c r="K72" s="107"/>
-      <c r="L72" s="62" t="s">
+      <c r="K72" s="108"/>
+      <c r="L72" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="M72" s="63"/>
-    </row>
-    <row r="73" spans="1:13" ht="33" customHeight="1">
-      <c r="A73" s="58"/>
-      <c r="B73" s="59"/>
-      <c r="C73" s="108"/>
-      <c r="D73" s="109"/>
-      <c r="E73" s="121"/>
-      <c r="F73" s="122"/>
-      <c r="H73" s="58"/>
-      <c r="I73" s="59"/>
-      <c r="J73" s="108"/>
-      <c r="K73" s="109"/>
-      <c r="L73" s="121"/>
-      <c r="M73" s="122"/>
-    </row>
-    <row r="74" spans="1:13" ht="33" customHeight="1">
-      <c r="A74" s="60"/>
-      <c r="B74" s="61"/>
-      <c r="C74" s="110"/>
-      <c r="D74" s="111"/>
-      <c r="E74" s="123"/>
-      <c r="F74" s="124"/>
-      <c r="H74" s="60"/>
-      <c r="I74" s="61"/>
-      <c r="J74" s="110"/>
-      <c r="K74" s="111"/>
-      <c r="L74" s="123"/>
-      <c r="M74" s="124"/>
-    </row>
-    <row r="75" spans="1:13" ht="33" customHeight="1">
-      <c r="A75" s="62" t="s">
+      <c r="M72" s="64"/>
+    </row>
+    <row r="73" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="59"/>
+      <c r="B73" s="60"/>
+      <c r="C73" s="109"/>
+      <c r="D73" s="110"/>
+      <c r="E73" s="122"/>
+      <c r="F73" s="123"/>
+      <c r="H73" s="59"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="109"/>
+      <c r="K73" s="110"/>
+      <c r="L73" s="122"/>
+      <c r="M73" s="123"/>
+    </row>
+    <row r="74" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="61"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="111"/>
+      <c r="D74" s="112"/>
+      <c r="E74" s="124"/>
+      <c r="F74" s="125"/>
+      <c r="H74" s="61"/>
+      <c r="I74" s="62"/>
+      <c r="J74" s="111"/>
+      <c r="K74" s="112"/>
+      <c r="L74" s="124"/>
+      <c r="M74" s="125"/>
+    </row>
+    <row r="75" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="B75" s="63"/>
-      <c r="C75" s="62" t="s">
+      <c r="B75" s="64"/>
+      <c r="C75" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="D75" s="63"/>
-      <c r="E75" s="62" t="s">
+      <c r="D75" s="64"/>
+      <c r="E75" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="F75" s="63"/>
-      <c r="H75" s="62" t="s">
+      <c r="F75" s="64"/>
+      <c r="H75" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="I75" s="63"/>
-      <c r="J75" s="62" t="s">
+      <c r="I75" s="64"/>
+      <c r="J75" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="K75" s="63"/>
-      <c r="L75" s="62" t="s">
+      <c r="K75" s="64"/>
+      <c r="L75" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="M75" s="63"/>
-    </row>
-    <row r="76" spans="1:13" ht="33" customHeight="1">
-      <c r="A76" s="58"/>
-      <c r="B76" s="59"/>
-      <c r="C76" s="58"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="58"/>
-      <c r="F76" s="59"/>
-      <c r="H76" s="58"/>
-      <c r="I76" s="59"/>
-      <c r="J76" s="58"/>
-      <c r="K76" s="59"/>
-      <c r="L76" s="58"/>
-      <c r="M76" s="59"/>
-    </row>
-    <row r="77" spans="1:13" ht="33" customHeight="1">
-      <c r="A77" s="60"/>
-      <c r="B77" s="61"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="60"/>
-      <c r="F77" s="61"/>
-      <c r="H77" s="60"/>
-      <c r="I77" s="61"/>
-      <c r="J77" s="60"/>
-      <c r="K77" s="61"/>
-      <c r="L77" s="60"/>
-      <c r="M77" s="61"/>
-    </row>
-    <row r="78" spans="1:13" ht="33" customHeight="1">
+      <c r="M75" s="64"/>
+    </row>
+    <row r="76" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="59"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="60"/>
+      <c r="H76" s="59"/>
+      <c r="I76" s="60"/>
+      <c r="J76" s="59"/>
+      <c r="K76" s="60"/>
+      <c r="L76" s="59"/>
+      <c r="M76" s="60"/>
+    </row>
+    <row r="77" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="61"/>
+      <c r="B77" s="62"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="62"/>
+      <c r="H77" s="61"/>
+      <c r="I77" s="62"/>
+      <c r="J77" s="61"/>
+      <c r="K77" s="62"/>
+      <c r="L77" s="61"/>
+      <c r="M77" s="62"/>
+    </row>
+    <row r="78" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="D78" s="8"/>
     </row>
-    <row r="79" spans="1:13" ht="33" customHeight="1">
-      <c r="A79" s="62" t="s">
+    <row r="79" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="B79" s="63"/>
-      <c r="C79" s="62" t="s">
+      <c r="B79" s="64"/>
+      <c r="C79" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="D79" s="63"/>
-      <c r="E79" s="62" t="s">
+      <c r="D79" s="64"/>
+      <c r="E79" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="F79" s="63"/>
-      <c r="H79" s="51" t="s">
+      <c r="F79" s="64"/>
+      <c r="H79" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="I79" s="52"/>
-      <c r="J79" s="51" t="s">
+      <c r="I79" s="53"/>
+      <c r="J79" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="K79" s="52"/>
-      <c r="L79" s="51" t="s">
+      <c r="K79" s="53"/>
+      <c r="L79" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="M79" s="52"/>
-    </row>
-    <row r="80" spans="1:13" ht="33" customHeight="1">
-      <c r="A80" s="58"/>
-      <c r="B80" s="59"/>
-      <c r="C80" s="58"/>
-      <c r="D80" s="59"/>
-      <c r="E80" s="58"/>
-      <c r="F80" s="59"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="54"/>
-      <c r="J80" s="53"/>
-      <c r="K80" s="54"/>
-      <c r="L80" s="53"/>
-      <c r="M80" s="54"/>
-    </row>
-    <row r="81" spans="1:13" ht="33" customHeight="1">
-      <c r="A81" s="60"/>
-      <c r="B81" s="61"/>
-      <c r="C81" s="60"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="60"/>
-      <c r="F81" s="61"/>
-      <c r="H81" s="55"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="55"/>
-      <c r="K81" s="56"/>
-      <c r="L81" s="55"/>
-      <c r="M81" s="56"/>
-    </row>
-    <row r="82" spans="1:13" ht="33" customHeight="1">
-      <c r="A82" s="62" t="s">
+      <c r="M79" s="53"/>
+    </row>
+    <row r="80" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="59"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="59"/>
+      <c r="D80" s="60"/>
+      <c r="E80" s="59"/>
+      <c r="F80" s="60"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="55"/>
+      <c r="J80" s="54"/>
+      <c r="K80" s="55"/>
+      <c r="L80" s="54"/>
+      <c r="M80" s="55"/>
+    </row>
+    <row r="81" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="61"/>
+      <c r="B81" s="62"/>
+      <c r="C81" s="61"/>
+      <c r="D81" s="62"/>
+      <c r="E81" s="61"/>
+      <c r="F81" s="62"/>
+      <c r="H81" s="56"/>
+      <c r="I81" s="57"/>
+      <c r="J81" s="56"/>
+      <c r="K81" s="57"/>
+      <c r="L81" s="56"/>
+      <c r="M81" s="57"/>
+    </row>
+    <row r="82" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="B82" s="63"/>
-      <c r="C82" s="106" t="s">
+      <c r="B82" s="64"/>
+      <c r="C82" s="107" t="s">
         <v>152</v>
       </c>
-      <c r="D82" s="107"/>
-      <c r="E82" s="62" t="s">
+      <c r="D82" s="108"/>
+      <c r="E82" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="F82" s="63"/>
-      <c r="H82" s="51" t="s">
+      <c r="F82" s="64"/>
+      <c r="H82" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="I82" s="52"/>
-      <c r="J82" s="106" t="s">
+      <c r="I82" s="53"/>
+      <c r="J82" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="K82" s="107"/>
-      <c r="L82" s="51" t="s">
+      <c r="K82" s="108"/>
+      <c r="L82" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="M82" s="52"/>
-    </row>
-    <row r="83" spans="1:13" ht="33" customHeight="1">
-      <c r="A83" s="58"/>
-      <c r="B83" s="59"/>
-      <c r="C83" s="108"/>
-      <c r="D83" s="109"/>
-      <c r="E83" s="121"/>
-      <c r="F83" s="122"/>
-      <c r="H83" s="53"/>
-      <c r="I83" s="54"/>
-      <c r="J83" s="108"/>
-      <c r="K83" s="109"/>
-      <c r="L83" s="53"/>
-      <c r="M83" s="54"/>
-    </row>
-    <row r="84" spans="1:13" ht="33" customHeight="1">
-      <c r="A84" s="60"/>
-      <c r="B84" s="61"/>
-      <c r="C84" s="110"/>
-      <c r="D84" s="111"/>
-      <c r="E84" s="123"/>
-      <c r="F84" s="124"/>
-      <c r="H84" s="55"/>
-      <c r="I84" s="56"/>
-      <c r="J84" s="110"/>
-      <c r="K84" s="111"/>
-      <c r="L84" s="55"/>
-      <c r="M84" s="56"/>
-    </row>
-    <row r="85" spans="1:13" ht="33" customHeight="1">
-      <c r="A85" s="62" t="s">
+      <c r="M82" s="53"/>
+    </row>
+    <row r="83" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="59"/>
+      <c r="B83" s="60"/>
+      <c r="C83" s="109"/>
+      <c r="D83" s="110"/>
+      <c r="E83" s="122"/>
+      <c r="F83" s="123"/>
+      <c r="H83" s="54"/>
+      <c r="I83" s="55"/>
+      <c r="J83" s="109"/>
+      <c r="K83" s="110"/>
+      <c r="L83" s="54"/>
+      <c r="M83" s="55"/>
+    </row>
+    <row r="84" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="61"/>
+      <c r="B84" s="62"/>
+      <c r="C84" s="111"/>
+      <c r="D84" s="112"/>
+      <c r="E84" s="124"/>
+      <c r="F84" s="125"/>
+      <c r="H84" s="56"/>
+      <c r="I84" s="57"/>
+      <c r="J84" s="111"/>
+      <c r="K84" s="112"/>
+      <c r="L84" s="56"/>
+      <c r="M84" s="57"/>
+    </row>
+    <row r="85" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="B85" s="63"/>
-      <c r="C85" s="62" t="s">
+      <c r="B85" s="64"/>
+      <c r="C85" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="63"/>
-      <c r="E85" s="62" t="s">
+      <c r="D85" s="64"/>
+      <c r="E85" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="F85" s="63"/>
-      <c r="H85" s="51" t="s">
+      <c r="F85" s="64"/>
+      <c r="H85" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="I85" s="52"/>
-      <c r="J85" s="51" t="s">
+      <c r="I85" s="53"/>
+      <c r="J85" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="K85" s="52"/>
-      <c r="L85" s="51" t="s">
+      <c r="K85" s="53"/>
+      <c r="L85" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="M85" s="52"/>
-    </row>
-    <row r="86" spans="1:13" ht="33" customHeight="1">
-      <c r="A86" s="58"/>
-      <c r="B86" s="59"/>
-      <c r="C86" s="58"/>
-      <c r="D86" s="59"/>
-      <c r="E86" s="58"/>
-      <c r="F86" s="59"/>
-      <c r="H86" s="53"/>
-      <c r="I86" s="54"/>
-      <c r="J86" s="53"/>
-      <c r="K86" s="54"/>
-      <c r="L86" s="53"/>
-      <c r="M86" s="54"/>
-    </row>
-    <row r="87" spans="1:13" ht="33" customHeight="1">
-      <c r="A87" s="60"/>
-      <c r="B87" s="61"/>
-      <c r="C87" s="60"/>
-      <c r="D87" s="61"/>
-      <c r="E87" s="60"/>
-      <c r="F87" s="61"/>
-      <c r="H87" s="55"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="55"/>
-      <c r="K87" s="56"/>
-      <c r="L87" s="55"/>
-      <c r="M87" s="56"/>
-    </row>
-    <row r="88" spans="1:13" ht="33" customHeight="1">
+      <c r="M85" s="53"/>
+    </row>
+    <row r="86" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="59"/>
+      <c r="B86" s="60"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="60"/>
+      <c r="E86" s="59"/>
+      <c r="F86" s="60"/>
+      <c r="H86" s="54"/>
+      <c r="I86" s="55"/>
+      <c r="J86" s="54"/>
+      <c r="K86" s="55"/>
+      <c r="L86" s="54"/>
+      <c r="M86" s="55"/>
+    </row>
+    <row r="87" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="61"/>
+      <c r="B87" s="62"/>
+      <c r="C87" s="61"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="61"/>
+      <c r="F87" s="62"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="57"/>
+      <c r="J87" s="56"/>
+      <c r="K87" s="57"/>
+      <c r="L87" s="56"/>
+      <c r="M87" s="57"/>
+    </row>
+    <row r="88" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="D88" s="8"/>
     </row>
-    <row r="89" spans="1:13" ht="33" customHeight="1">
-      <c r="A89" s="51" t="s">
+    <row r="89" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="B89" s="52"/>
-      <c r="C89" s="81" t="s">
+      <c r="B89" s="53"/>
+      <c r="C89" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="D89" s="82"/>
-      <c r="E89" s="112" t="s">
+      <c r="D89" s="83"/>
+      <c r="E89" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="F89" s="113"/>
-    </row>
-    <row r="90" spans="1:13" ht="33" customHeight="1">
-      <c r="A90" s="53"/>
-      <c r="B90" s="54"/>
-      <c r="C90" s="83"/>
-      <c r="D90" s="84"/>
-      <c r="E90" s="114"/>
-      <c r="F90" s="115"/>
-    </row>
-    <row r="91" spans="1:13" ht="33" customHeight="1">
-      <c r="A91" s="55"/>
-      <c r="B91" s="56"/>
-      <c r="C91" s="85"/>
-      <c r="D91" s="86"/>
-      <c r="E91" s="116"/>
-      <c r="F91" s="117"/>
-    </row>
-    <row r="92" spans="1:13" ht="33" customHeight="1">
-      <c r="A92" s="81" t="s">
+      <c r="F89" s="114"/>
+    </row>
+    <row r="90" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="54"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="84"/>
+      <c r="D90" s="85"/>
+      <c r="E90" s="115"/>
+      <c r="F90" s="116"/>
+    </row>
+    <row r="91" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="56"/>
+      <c r="B91" s="57"/>
+      <c r="C91" s="86"/>
+      <c r="D91" s="87"/>
+      <c r="E91" s="117"/>
+      <c r="F91" s="118"/>
+    </row>
+    <row r="92" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="B92" s="82"/>
-      <c r="C92" s="87" t="s">
+      <c r="B92" s="83"/>
+      <c r="C92" s="88" t="s">
         <v>155</v>
       </c>
-      <c r="D92" s="88"/>
-      <c r="E92" s="93" t="s">
+      <c r="D92" s="89"/>
+      <c r="E92" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="F92" s="94"/>
-    </row>
-    <row r="93" spans="1:13" ht="33" customHeight="1">
-      <c r="A93" s="83"/>
-      <c r="B93" s="84"/>
-      <c r="C93" s="89"/>
-      <c r="D93" s="90"/>
-      <c r="E93" s="95"/>
-      <c r="F93" s="96"/>
-    </row>
-    <row r="94" spans="1:13" ht="33" customHeight="1">
-      <c r="A94" s="85"/>
-      <c r="B94" s="86"/>
-      <c r="C94" s="91"/>
-      <c r="D94" s="92"/>
-      <c r="E94" s="97"/>
-      <c r="F94" s="98"/>
-    </row>
-    <row r="95" spans="1:13" ht="33" customHeight="1">
-      <c r="A95" s="42" t="s">
+      <c r="F92" s="95"/>
+    </row>
+    <row r="93" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="84"/>
+      <c r="B93" s="85"/>
+      <c r="C93" s="90"/>
+      <c r="D93" s="91"/>
+      <c r="E93" s="96"/>
+      <c r="F93" s="97"/>
+    </row>
+    <row r="94" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="86"/>
+      <c r="B94" s="87"/>
+      <c r="C94" s="92"/>
+      <c r="D94" s="93"/>
+      <c r="E94" s="98"/>
+      <c r="F94" s="99"/>
+    </row>
+    <row r="95" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="B95" s="43"/>
-      <c r="C95" s="64" t="s">
+      <c r="B95" s="44"/>
+      <c r="C95" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="D95" s="65"/>
-      <c r="E95" s="70" t="s">
+      <c r="D95" s="66"/>
+      <c r="E95" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="F95" s="71"/>
-    </row>
-    <row r="96" spans="1:13" ht="33" customHeight="1">
-      <c r="A96" s="44"/>
-      <c r="B96" s="45"/>
-      <c r="C96" s="66"/>
-      <c r="D96" s="67"/>
-      <c r="E96" s="72"/>
-      <c r="F96" s="73"/>
-    </row>
-    <row r="97" spans="1:6" ht="33" customHeight="1">
-      <c r="A97" s="46"/>
-      <c r="B97" s="47"/>
-      <c r="C97" s="68"/>
-      <c r="D97" s="69"/>
-      <c r="E97" s="74"/>
-      <c r="F97" s="75"/>
+      <c r="F95" s="72"/>
+    </row>
+    <row r="96" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="45"/>
+      <c r="B96" s="46"/>
+      <c r="C96" s="67"/>
+      <c r="D96" s="68"/>
+      <c r="E96" s="73"/>
+      <c r="F96" s="74"/>
+    </row>
+    <row r="97" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="47"/>
+      <c r="B97" s="48"/>
+      <c r="C97" s="69"/>
+      <c r="D97" s="70"/>
+      <c r="E97" s="75"/>
+      <c r="F97" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="155">
@@ -4738,21 +4785,1446 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" style="38" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="23.90625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.26953125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="9.90625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="10.6328125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="13.08984375" style="8" customWidth="1"/>
+    <col min="14" max="14" width="10.90625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="10.36328125" style="8" customWidth="1"/>
+    <col min="16" max="16" width="12" style="8" customWidth="1"/>
+    <col min="17" max="17" width="11" style="8" customWidth="1"/>
+    <col min="18" max="18" width="11.08984375" style="8" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="164" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="166"/>
+      <c r="F1" s="167" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+    </row>
+    <row r="2" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="162" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="163"/>
+      <c r="D2" s="34"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="R2" s="13"/>
+    </row>
+    <row r="3" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="162" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="163"/>
+      <c r="D3" s="34"/>
+      <c r="F3" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="R3" s="16"/>
+    </row>
+    <row r="4" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="162" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="163"/>
+      <c r="D4" s="34"/>
+      <c r="F4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="R4" s="16"/>
+    </row>
+    <row r="5" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="162"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="34"/>
+      <c r="F5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="R5" s="16"/>
+    </row>
+    <row r="6" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="162"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="34"/>
+      <c r="F6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="R6" s="16"/>
+    </row>
+    <row r="7" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="162"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="34"/>
+      <c r="F7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="R7" s="16"/>
+    </row>
+    <row r="8" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="162"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="34"/>
+      <c r="R8" s="16"/>
+    </row>
+    <row r="9" spans="1:18" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="162"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="34"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="16"/>
+    </row>
+    <row r="10" spans="1:18" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>9</v>
+      </c>
+      <c r="B10" s="162"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="34"/>
+      <c r="F10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="8"/>
+    </row>
+    <row r="11" spans="1:18" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
+        <v>10</v>
+      </c>
+      <c r="B11" s="162"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="34"/>
+      <c r="F11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="16"/>
+    </row>
+    <row r="12" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="154" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="154"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="154"/>
+    </row>
+    <row r="13" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="158" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="159"/>
+      <c r="D13" s="160"/>
+    </row>
+    <row r="14" spans="1:18" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="158"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="160"/>
+    </row>
+    <row r="15" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="158"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="160"/>
+    </row>
+    <row r="16" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="158"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="160"/>
+    </row>
+    <row r="17" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="158"/>
+      <c r="C17" s="159"/>
+      <c r="D17" s="160"/>
+    </row>
+    <row r="18" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="158"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="160"/>
+    </row>
+    <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="158"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="160"/>
+    </row>
+    <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="161" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="161"/>
+      <c r="C20" s="161"/>
+      <c r="D20" s="161"/>
+    </row>
+    <row r="21" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>1</v>
+      </c>
+      <c r="B21" s="142"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="144"/>
+    </row>
+    <row r="22" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>2</v>
+      </c>
+      <c r="B22" s="142"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="144"/>
+    </row>
+    <row r="23" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>3</v>
+      </c>
+      <c r="B23" s="142"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="144"/>
+    </row>
+    <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>4</v>
+      </c>
+      <c r="B24" s="142"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="144"/>
+    </row>
+    <row r="25" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>5</v>
+      </c>
+      <c r="B25" s="142"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="144"/>
+    </row>
+    <row r="26" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>6</v>
+      </c>
+      <c r="B26" s="142"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="144"/>
+    </row>
+    <row r="27" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>7</v>
+      </c>
+      <c r="B27" s="142"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="144"/>
+    </row>
+    <row r="28" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>8</v>
+      </c>
+      <c r="B28" s="142"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="144"/>
+    </row>
+    <row r="29" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="145" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="145"/>
+      <c r="C29" s="145"/>
+      <c r="D29" s="145"/>
+    </row>
+    <row r="30" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="126"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="128"/>
+    </row>
+    <row r="31" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="129"/>
+      <c r="B31" s="130"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="131"/>
+    </row>
+    <row r="32" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="129"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="131"/>
+    </row>
+    <row r="33" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="129"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="131"/>
+    </row>
+    <row r="34" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="129"/>
+      <c r="B34" s="130"/>
+      <c r="C34" s="130"/>
+      <c r="D34" s="131"/>
+    </row>
+    <row r="35" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="129"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="131"/>
+    </row>
+    <row r="36" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="132"/>
+      <c r="B36" s="133"/>
+      <c r="C36" s="133"/>
+      <c r="D36" s="134"/>
+    </row>
+    <row r="37" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+    </row>
+    <row r="38" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="135" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" s="135"/>
+      <c r="C38" s="135"/>
+      <c r="D38" s="135"/>
+    </row>
+    <row r="39" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>1</v>
+      </c>
+      <c r="B39" s="49"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="51"/>
+      <c r="T39" s="25"/>
+    </row>
+    <row r="40" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>2</v>
+      </c>
+      <c r="B40" s="49"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="51"/>
+    </row>
+    <row r="41" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>3</v>
+      </c>
+      <c r="B41" s="49"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="51"/>
+    </row>
+    <row r="42" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>4</v>
+      </c>
+      <c r="B42" s="49"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="51"/>
+    </row>
+    <row r="43" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>5</v>
+      </c>
+      <c r="B43" s="49"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="51"/>
+    </row>
+    <row r="44" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>6</v>
+      </c>
+      <c r="B44" s="49"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="51"/>
+    </row>
+    <row r="45" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>7</v>
+      </c>
+      <c r="B45" s="119"/>
+      <c r="C45" s="120"/>
+      <c r="D45" s="121"/>
+    </row>
+    <row r="46" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>8</v>
+      </c>
+      <c r="B46" s="80"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="81"/>
+    </row>
+    <row r="47" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="100"/>
+      <c r="B47" s="100"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="100"/>
+    </row>
+    <row r="48" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="101" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="101"/>
+      <c r="C48" s="101"/>
+      <c r="D48" s="101"/>
+    </row>
+    <row r="49" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="32">
+        <v>1</v>
+      </c>
+      <c r="B49" s="77"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="79"/>
+    </row>
+    <row r="50" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="32">
+        <v>2</v>
+      </c>
+      <c r="B50" s="77"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="79"/>
+    </row>
+    <row r="51" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="32">
+        <v>3</v>
+      </c>
+      <c r="B51" s="77"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="79"/>
+    </row>
+    <row r="52" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>4</v>
+      </c>
+      <c r="B52" s="102"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="103"/>
+    </row>
+    <row r="53" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="32">
+        <v>5</v>
+      </c>
+      <c r="B53" s="77"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="79"/>
+    </row>
+    <row r="54" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="32">
+        <v>6</v>
+      </c>
+      <c r="B54" s="77"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="79"/>
+    </row>
+    <row r="55" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="32">
+        <v>7</v>
+      </c>
+      <c r="B55" s="77"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="79"/>
+    </row>
+    <row r="56" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="32">
+        <v>8</v>
+      </c>
+      <c r="B56" s="104"/>
+      <c r="C56" s="105"/>
+      <c r="D56" s="106"/>
+    </row>
+    <row r="58" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="155" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="155"/>
+      <c r="C58" s="155"/>
+      <c r="D58" s="155"/>
+      <c r="E58" s="155"/>
+      <c r="F58" s="155"/>
+      <c r="G58" s="155"/>
+      <c r="H58" s="155"/>
+      <c r="I58" s="155"/>
+      <c r="J58" s="155"/>
+      <c r="K58" s="155"/>
+      <c r="L58" s="155"/>
+      <c r="M58" s="155"/>
+    </row>
+    <row r="59" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="64"/>
+      <c r="C59" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" s="64"/>
+      <c r="E59" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="F59" s="64"/>
+      <c r="H59" s="152" t="s">
+        <v>136</v>
+      </c>
+      <c r="I59" s="153"/>
+      <c r="J59" s="152" t="s">
+        <v>137</v>
+      </c>
+      <c r="K59" s="153"/>
+      <c r="L59" s="156" t="s">
+        <v>138</v>
+      </c>
+      <c r="M59" s="157"/>
+    </row>
+    <row r="60" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="60"/>
+      <c r="C60" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="60"/>
+      <c r="E60" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" s="60"/>
+      <c r="H60" s="136"/>
+      <c r="I60" s="137"/>
+      <c r="J60" s="136"/>
+      <c r="K60" s="137"/>
+      <c r="L60" s="140"/>
+      <c r="M60" s="141"/>
+    </row>
+    <row r="61" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="61"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="62"/>
+      <c r="H61" s="138"/>
+      <c r="I61" s="139"/>
+      <c r="J61" s="138"/>
+      <c r="K61" s="139"/>
+      <c r="L61" s="138"/>
+      <c r="M61" s="139"/>
+    </row>
+    <row r="62" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62" s="64"/>
+      <c r="C62" s="107" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="108"/>
+      <c r="E62" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="F62" s="64"/>
+      <c r="H62" s="152" t="s">
+        <v>141</v>
+      </c>
+      <c r="I62" s="153"/>
+      <c r="J62" s="146" t="s">
+        <v>142</v>
+      </c>
+      <c r="K62" s="147"/>
+      <c r="L62" s="152" t="s">
+        <v>140</v>
+      </c>
+      <c r="M62" s="153"/>
+    </row>
+    <row r="63" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="59"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="109"/>
+      <c r="D63" s="110"/>
+      <c r="E63" s="122"/>
+      <c r="F63" s="123"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="136"/>
+      <c r="I63" s="137"/>
+      <c r="J63" s="148"/>
+      <c r="K63" s="149"/>
+      <c r="L63" s="136"/>
+      <c r="M63" s="137"/>
+    </row>
+    <row r="64" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="61"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="111"/>
+      <c r="D64" s="112"/>
+      <c r="E64" s="124"/>
+      <c r="F64" s="125"/>
+      <c r="H64" s="138"/>
+      <c r="I64" s="139"/>
+      <c r="J64" s="150"/>
+      <c r="K64" s="151"/>
+      <c r="L64" s="138"/>
+      <c r="M64" s="139"/>
+    </row>
+    <row r="65" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" s="64"/>
+      <c r="C65" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" s="64"/>
+      <c r="E65" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="F65" s="64"/>
+      <c r="H65" s="152" t="s">
+        <v>38</v>
+      </c>
+      <c r="I65" s="153"/>
+      <c r="J65" s="152" t="s">
+        <v>144</v>
+      </c>
+      <c r="K65" s="153"/>
+      <c r="L65" s="152" t="s">
+        <v>39</v>
+      </c>
+      <c r="M65" s="153"/>
+    </row>
+    <row r="66" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="59"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="60"/>
+      <c r="H66" s="136"/>
+      <c r="I66" s="137"/>
+      <c r="J66" s="136"/>
+      <c r="K66" s="137"/>
+      <c r="L66" s="136"/>
+      <c r="M66" s="137"/>
+    </row>
+    <row r="67" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="61"/>
+      <c r="B67" s="62"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="62"/>
+      <c r="H67" s="138"/>
+      <c r="I67" s="139"/>
+      <c r="J67" s="138"/>
+      <c r="K67" s="139"/>
+      <c r="L67" s="138"/>
+      <c r="M67" s="139"/>
+    </row>
+    <row r="68" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="D68" s="8"/>
+    </row>
+    <row r="69" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="64"/>
+      <c r="C69" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="D69" s="64"/>
+      <c r="E69" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="F69" s="64"/>
+      <c r="H69" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="I69" s="64"/>
+      <c r="J69" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="K69" s="64"/>
+      <c r="L69" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="M69" s="64"/>
+    </row>
+    <row r="70" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B70" s="60"/>
+      <c r="C70" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="60"/>
+      <c r="E70" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="60"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="60"/>
+      <c r="J70" s="59"/>
+      <c r="K70" s="60"/>
+      <c r="L70" s="59"/>
+      <c r="M70" s="60"/>
+    </row>
+    <row r="71" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="61"/>
+      <c r="B71" s="62"/>
+      <c r="C71" s="61"/>
+      <c r="D71" s="62"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="62"/>
+      <c r="H71" s="61"/>
+      <c r="I71" s="62"/>
+      <c r="J71" s="61"/>
+      <c r="K71" s="62"/>
+      <c r="L71" s="61"/>
+      <c r="M71" s="62"/>
+    </row>
+    <row r="72" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" s="64"/>
+      <c r="C72" s="107" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72" s="108"/>
+      <c r="E72" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="F72" s="64"/>
+      <c r="H72" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="I72" s="64"/>
+      <c r="J72" s="107" t="s">
+        <v>149</v>
+      </c>
+      <c r="K72" s="108"/>
+      <c r="L72" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="M72" s="64"/>
+    </row>
+    <row r="73" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="59"/>
+      <c r="B73" s="60"/>
+      <c r="C73" s="109"/>
+      <c r="D73" s="110"/>
+      <c r="E73" s="122"/>
+      <c r="F73" s="123"/>
+      <c r="H73" s="59"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="109"/>
+      <c r="K73" s="110"/>
+      <c r="L73" s="122"/>
+      <c r="M73" s="123"/>
+    </row>
+    <row r="74" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="61"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="111"/>
+      <c r="D74" s="112"/>
+      <c r="E74" s="124"/>
+      <c r="F74" s="125"/>
+      <c r="H74" s="61"/>
+      <c r="I74" s="62"/>
+      <c r="J74" s="111"/>
+      <c r="K74" s="112"/>
+      <c r="L74" s="124"/>
+      <c r="M74" s="125"/>
+    </row>
+    <row r="75" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" s="64"/>
+      <c r="C75" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="D75" s="64"/>
+      <c r="E75" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="F75" s="64"/>
+      <c r="H75" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="I75" s="64"/>
+      <c r="J75" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="K75" s="64"/>
+      <c r="L75" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="M75" s="64"/>
+    </row>
+    <row r="76" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="59"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="60"/>
+      <c r="H76" s="59"/>
+      <c r="I76" s="60"/>
+      <c r="J76" s="59"/>
+      <c r="K76" s="60"/>
+      <c r="L76" s="59"/>
+      <c r="M76" s="60"/>
+    </row>
+    <row r="77" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="61"/>
+      <c r="B77" s="62"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="62"/>
+      <c r="H77" s="61"/>
+      <c r="I77" s="62"/>
+      <c r="J77" s="61"/>
+      <c r="K77" s="62"/>
+      <c r="L77" s="61"/>
+      <c r="M77" s="62"/>
+    </row>
+    <row r="78" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="D78" s="8"/>
+    </row>
+    <row r="79" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="B79" s="64"/>
+      <c r="C79" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="D79" s="64"/>
+      <c r="E79" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="F79" s="64"/>
+      <c r="H79" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="I79" s="53"/>
+      <c r="J79" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="K79" s="53"/>
+      <c r="L79" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="M79" s="53"/>
+    </row>
+    <row r="80" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="59"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="59"/>
+      <c r="D80" s="60"/>
+      <c r="E80" s="59"/>
+      <c r="F80" s="60"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="55"/>
+      <c r="J80" s="54"/>
+      <c r="K80" s="55"/>
+      <c r="L80" s="54"/>
+      <c r="M80" s="55"/>
+    </row>
+    <row r="81" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="61"/>
+      <c r="B81" s="62"/>
+      <c r="C81" s="61"/>
+      <c r="D81" s="62"/>
+      <c r="E81" s="61"/>
+      <c r="F81" s="62"/>
+      <c r="H81" s="56"/>
+      <c r="I81" s="57"/>
+      <c r="J81" s="56"/>
+      <c r="K81" s="57"/>
+      <c r="L81" s="56"/>
+      <c r="M81" s="57"/>
+    </row>
+    <row r="82" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="B82" s="64"/>
+      <c r="C82" s="107" t="s">
+        <v>152</v>
+      </c>
+      <c r="D82" s="108"/>
+      <c r="E82" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="F82" s="64"/>
+      <c r="H82" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="I82" s="53"/>
+      <c r="J82" s="107" t="s">
+        <v>49</v>
+      </c>
+      <c r="K82" s="108"/>
+      <c r="L82" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="M82" s="53"/>
+    </row>
+    <row r="83" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="59"/>
+      <c r="B83" s="60"/>
+      <c r="C83" s="109"/>
+      <c r="D83" s="110"/>
+      <c r="E83" s="122"/>
+      <c r="F83" s="123"/>
+      <c r="H83" s="54"/>
+      <c r="I83" s="55"/>
+      <c r="J83" s="109"/>
+      <c r="K83" s="110"/>
+      <c r="L83" s="54"/>
+      <c r="M83" s="55"/>
+    </row>
+    <row r="84" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="61"/>
+      <c r="B84" s="62"/>
+      <c r="C84" s="111"/>
+      <c r="D84" s="112"/>
+      <c r="E84" s="124"/>
+      <c r="F84" s="125"/>
+      <c r="H84" s="56"/>
+      <c r="I84" s="57"/>
+      <c r="J84" s="111"/>
+      <c r="K84" s="112"/>
+      <c r="L84" s="56"/>
+      <c r="M84" s="57"/>
+    </row>
+    <row r="85" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" s="64"/>
+      <c r="C85" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="D85" s="64"/>
+      <c r="E85" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="F85" s="64"/>
+      <c r="H85" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="I85" s="53"/>
+      <c r="J85" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="K85" s="53"/>
+      <c r="L85" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="M85" s="53"/>
+    </row>
+    <row r="86" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="59"/>
+      <c r="B86" s="60"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="60"/>
+      <c r="E86" s="59"/>
+      <c r="F86" s="60"/>
+      <c r="H86" s="54"/>
+      <c r="I86" s="55"/>
+      <c r="J86" s="54"/>
+      <c r="K86" s="55"/>
+      <c r="L86" s="54"/>
+      <c r="M86" s="55"/>
+    </row>
+    <row r="87" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="61"/>
+      <c r="B87" s="62"/>
+      <c r="C87" s="61"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="61"/>
+      <c r="F87" s="62"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="57"/>
+      <c r="J87" s="56"/>
+      <c r="K87" s="57"/>
+      <c r="L87" s="56"/>
+      <c r="M87" s="57"/>
+    </row>
+    <row r="88" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="D88" s="8"/>
+    </row>
+    <row r="89" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="B89" s="53"/>
+      <c r="C89" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="D89" s="83"/>
+      <c r="E89" s="113" t="s">
+        <v>138</v>
+      </c>
+      <c r="F89" s="114"/>
+    </row>
+    <row r="90" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="54"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="84"/>
+      <c r="D90" s="85"/>
+      <c r="E90" s="115"/>
+      <c r="F90" s="116"/>
+    </row>
+    <row r="91" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="56"/>
+      <c r="B91" s="57"/>
+      <c r="C91" s="86"/>
+      <c r="D91" s="87"/>
+      <c r="E91" s="117"/>
+      <c r="F91" s="118"/>
+    </row>
+    <row r="92" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="B92" s="83"/>
+      <c r="C92" s="88" t="s">
+        <v>155</v>
+      </c>
+      <c r="D92" s="89"/>
+      <c r="E92" s="94" t="s">
+        <v>148</v>
+      </c>
+      <c r="F92" s="95"/>
+    </row>
+    <row r="93" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="84"/>
+      <c r="B93" s="85"/>
+      <c r="C93" s="90"/>
+      <c r="D93" s="91"/>
+      <c r="E93" s="96"/>
+      <c r="F93" s="97"/>
+    </row>
+    <row r="94" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="86"/>
+      <c r="B94" s="87"/>
+      <c r="C94" s="92"/>
+      <c r="D94" s="93"/>
+      <c r="E94" s="98"/>
+      <c r="F94" s="99"/>
+    </row>
+    <row r="95" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="B95" s="44"/>
+      <c r="C95" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="D95" s="66"/>
+      <c r="E95" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="F95" s="72"/>
+    </row>
+    <row r="96" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="45"/>
+      <c r="B96" s="46"/>
+      <c r="C96" s="67"/>
+      <c r="D96" s="68"/>
+      <c r="E96" s="73"/>
+      <c r="F96" s="74"/>
+    </row>
+    <row r="97" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="47"/>
+      <c r="B97" s="48"/>
+      <c r="C97" s="69"/>
+      <c r="D97" s="70"/>
+      <c r="E97" s="75"/>
+      <c r="F97" s="76"/>
+    </row>
+  </sheetData>
+  <mergeCells count="155">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:R1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A30:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A60:B61"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="E60:F61"/>
+    <mergeCell ref="H60:I61"/>
+    <mergeCell ref="J60:K61"/>
+    <mergeCell ref="L60:M61"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="A58:M58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D64"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="J62:K64"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="A63:B64"/>
+    <mergeCell ref="E63:F64"/>
+    <mergeCell ref="H63:I64"/>
+    <mergeCell ref="L63:M64"/>
+    <mergeCell ref="A66:B67"/>
+    <mergeCell ref="C66:D67"/>
+    <mergeCell ref="E66:F67"/>
+    <mergeCell ref="H66:I67"/>
+    <mergeCell ref="J66:K67"/>
+    <mergeCell ref="L66:M67"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="A70:B71"/>
+    <mergeCell ref="C70:D71"/>
+    <mergeCell ref="E70:F71"/>
+    <mergeCell ref="H70:I71"/>
+    <mergeCell ref="J70:K71"/>
+    <mergeCell ref="L70:M71"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D74"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="J72:K74"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="A73:B74"/>
+    <mergeCell ref="E73:F74"/>
+    <mergeCell ref="H73:I74"/>
+    <mergeCell ref="L73:M74"/>
+    <mergeCell ref="A76:B77"/>
+    <mergeCell ref="C76:D77"/>
+    <mergeCell ref="E76:F77"/>
+    <mergeCell ref="H76:I77"/>
+    <mergeCell ref="J76:K77"/>
+    <mergeCell ref="L76:M77"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D84"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="H82:I84"/>
+    <mergeCell ref="J82:K84"/>
+    <mergeCell ref="L82:M84"/>
+    <mergeCell ref="A83:B84"/>
+    <mergeCell ref="E83:F84"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="H79:I81"/>
+    <mergeCell ref="J79:K81"/>
+    <mergeCell ref="L79:M81"/>
+    <mergeCell ref="A80:B81"/>
+    <mergeCell ref="C80:D81"/>
+    <mergeCell ref="E80:F81"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="H85:I87"/>
+    <mergeCell ref="J85:K87"/>
+    <mergeCell ref="L85:M87"/>
+    <mergeCell ref="A86:B87"/>
+    <mergeCell ref="C86:D87"/>
+    <mergeCell ref="E86:F87"/>
+    <mergeCell ref="A95:B97"/>
+    <mergeCell ref="C95:D97"/>
+    <mergeCell ref="E95:F97"/>
+    <mergeCell ref="A89:B91"/>
+    <mergeCell ref="C89:D91"/>
+    <mergeCell ref="E89:F91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:D94"/>
+    <mergeCell ref="E92:F94"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.25" customWidth="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" customWidth="1"/>
+    <col min="3" max="3" width="11.08984375" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24.95" customHeight="1">
+    <row r="1" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>171</v>
       </c>
@@ -4760,92 +6232,92 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="24.95" customHeight="1">
+    <row r="2" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="36" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A3" s="36" t="s">
-        <v>201</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="24.95" customHeight="1">
+    <row r="4" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="24.95" customHeight="1">
+    </row>
+    <row r="5" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="24.95" customHeight="1">
+    <row r="6" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A7" s="36" t="s">
-        <v>205</v>
-      </c>
       <c r="B7" s="36" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="24.95" customHeight="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A9" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A10" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A11" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A12" s="36" t="s">
-        <v>211</v>
-      </c>
       <c r="B12" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4855,64 +6327,64 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="B11" sqref="B11:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="24" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="8" customWidth="1"/>
-    <col min="7" max="7" width="12.25" style="8" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="23.90625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9.08984375" style="8" customWidth="1"/>
     <col min="9" max="9" width="10" style="8" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="11.125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="9.90625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" style="8" customWidth="1"/>
     <col min="13" max="13" width="10" style="8" customWidth="1"/>
     <col min="14" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="33" customHeight="1">
-      <c r="A1" s="163" t="s">
+    <row r="1" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="165"/>
-      <c r="F1" s="169" t="s">
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="166"/>
+      <c r="F1" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170"/>
-      <c r="M1" s="170"/>
-      <c r="N1" s="170"/>
-      <c r="O1" s="170"/>
-      <c r="P1" s="170"/>
-      <c r="Q1" s="171"/>
-    </row>
-    <row r="2" spans="1:18" ht="35.25" customHeight="1">
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="172"/>
+    </row>
+    <row r="2" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="168"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="169"/>
       <c r="F2" s="10"/>
       <c r="G2" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>4</v>
@@ -4945,13 +6417,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="33" customHeight="1">
+    <row r="3" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="168"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="169"/>
       <c r="F3" s="15" t="s">
         <v>14</v>
       </c>
@@ -4967,13 +6439,13 @@
       <c r="P3" s="16"/>
       <c r="Q3" s="16"/>
     </row>
-    <row r="4" spans="1:18" ht="33" customHeight="1">
+    <row r="4" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="161"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="168"/>
+      <c r="B4" s="162"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="169"/>
       <c r="F4" s="17" t="s">
         <v>15</v>
       </c>
@@ -4989,13 +6461,13 @@
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
     </row>
-    <row r="5" spans="1:18" ht="33" customHeight="1">
+    <row r="5" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="161"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="168"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="169"/>
       <c r="F5" s="17" t="s">
         <v>16</v>
       </c>
@@ -5011,13 +6483,13 @@
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
     </row>
-    <row r="6" spans="1:18" ht="33" customHeight="1">
+    <row r="6" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="161"/>
-      <c r="C6" s="162"/>
-      <c r="D6" s="168"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="169"/>
       <c r="F6" s="17" t="s">
         <v>17</v>
       </c>
@@ -5033,13 +6505,13 @@
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
     </row>
-    <row r="7" spans="1:18" ht="33" customHeight="1">
+    <row r="7" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="161"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="168"/>
+      <c r="B7" s="162"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="169"/>
       <c r="F7" s="17" t="s">
         <v>18</v>
       </c>
@@ -5055,13 +6527,13 @@
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
     </row>
-    <row r="8" spans="1:18" ht="33" customHeight="1">
+    <row r="8" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="161"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="168"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="169"/>
       <c r="F8" s="17" t="s">
         <v>19</v>
       </c>
@@ -5077,13 +6549,13 @@
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
     </row>
-    <row r="9" spans="1:18" ht="33" customHeight="1">
+    <row r="9" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="161"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="168"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="169"/>
       <c r="F9" s="15" t="s">
         <v>20</v>
       </c>
@@ -5099,828 +6571,828 @@
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
     </row>
-    <row r="10" spans="1:18" s="20" customFormat="1" ht="33" customHeight="1">
+    <row r="10" spans="1:18" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10" s="161"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="168"/>
-    </row>
-    <row r="11" spans="1:18" s="20" customFormat="1" ht="33" customHeight="1">
+      <c r="B10" s="162"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="169"/>
+    </row>
+    <row r="11" spans="1:18" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="161"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="168"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="169"/>
       <c r="P11" s="16"/>
     </row>
-    <row r="12" spans="1:18" ht="33" customHeight="1">
-      <c r="A12" s="153" t="s">
+    <row r="12" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="153"/>
-      <c r="C12" s="153"/>
-      <c r="D12" s="153"/>
-      <c r="F12" s="154" t="s">
+      <c r="B12" s="154"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="154"/>
+      <c r="F12" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="154"/>
-      <c r="H12" s="154"/>
-      <c r="I12" s="154"/>
-      <c r="J12" s="154"/>
-      <c r="K12" s="154"/>
-      <c r="L12" s="154"/>
-      <c r="M12" s="154"/>
-      <c r="N12" s="154"/>
-      <c r="O12" s="154"/>
-      <c r="P12" s="154"/>
-      <c r="Q12" s="154"/>
-      <c r="R12" s="154"/>
-    </row>
-    <row r="13" spans="1:18" ht="33" customHeight="1">
+      <c r="G12" s="155"/>
+      <c r="H12" s="155"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="155"/>
+      <c r="K12" s="155"/>
+      <c r="L12" s="155"/>
+      <c r="M12" s="155"/>
+      <c r="N12" s="155"/>
+      <c r="O12" s="155"/>
+      <c r="P12" s="155"/>
+      <c r="Q12" s="155"/>
+      <c r="R12" s="155"/>
+    </row>
+    <row r="13" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
-      <c r="F13" s="62" t="s">
+      <c r="F13" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="63"/>
-      <c r="H13" s="62" t="s">
+      <c r="G13" s="64"/>
+      <c r="H13" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="63"/>
-      <c r="J13" s="62" t="s">
+      <c r="I13" s="64"/>
+      <c r="J13" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="63"/>
-      <c r="M13" s="151" t="s">
+      <c r="K13" s="64"/>
+      <c r="M13" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="152"/>
-      <c r="O13" s="151" t="s">
+      <c r="N13" s="153"/>
+      <c r="O13" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="P13" s="152"/>
-      <c r="Q13" s="155" t="s">
+      <c r="P13" s="153"/>
+      <c r="Q13" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="R13" s="156"/>
-    </row>
-    <row r="14" spans="1:18" ht="33" customHeight="1">
+      <c r="R13" s="157"/>
+    </row>
+    <row r="14" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
-      <c r="F14" s="58" t="s">
+      <c r="F14" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="59"/>
-      <c r="H14" s="58" t="s">
+      <c r="G14" s="60"/>
+      <c r="H14" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="59"/>
-      <c r="J14" s="58" t="s">
+      <c r="I14" s="60"/>
+      <c r="J14" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="59"/>
-      <c r="M14" s="135"/>
-      <c r="N14" s="136"/>
-      <c r="O14" s="135"/>
-      <c r="P14" s="136"/>
-      <c r="Q14" s="139"/>
-      <c r="R14" s="140"/>
-    </row>
-    <row r="15" spans="1:18" ht="33" customHeight="1">
+      <c r="K14" s="60"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="137"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="137"/>
+      <c r="Q14" s="140"/>
+      <c r="R14" s="141"/>
+    </row>
+    <row r="15" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="61"/>
-      <c r="M15" s="137"/>
-      <c r="N15" s="138"/>
-      <c r="O15" s="137"/>
-      <c r="P15" s="138"/>
-      <c r="Q15" s="137"/>
-      <c r="R15" s="138"/>
-    </row>
-    <row r="16" spans="1:18" ht="33" customHeight="1">
+      <c r="F15" s="61"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="62"/>
+      <c r="M15" s="138"/>
+      <c r="N15" s="139"/>
+      <c r="O15" s="138"/>
+      <c r="P15" s="139"/>
+      <c r="Q15" s="138"/>
+      <c r="R15" s="139"/>
+    </row>
+    <row r="16" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
-      <c r="F16" s="62" t="s">
+      <c r="F16" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="63"/>
-      <c r="H16" s="106" t="s">
+      <c r="G16" s="64"/>
+      <c r="H16" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="107"/>
-      <c r="J16" s="62" t="s">
+      <c r="I16" s="108"/>
+      <c r="J16" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="63"/>
-      <c r="M16" s="151" t="s">
+      <c r="K16" s="64"/>
+      <c r="M16" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="N16" s="152"/>
-      <c r="O16" s="145" t="s">
+      <c r="N16" s="153"/>
+      <c r="O16" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="P16" s="146"/>
-      <c r="Q16" s="151" t="s">
+      <c r="P16" s="147"/>
+      <c r="Q16" s="152" t="s">
         <v>32</v>
       </c>
-      <c r="R16" s="152"/>
-    </row>
-    <row r="17" spans="1:18" ht="33" customHeight="1">
+      <c r="R16" s="153"/>
+    </row>
+    <row r="17" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="121"/>
-      <c r="K17" s="122"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="122"/>
+      <c r="K17" s="123"/>
       <c r="L17" s="23"/>
-      <c r="M17" s="135"/>
-      <c r="N17" s="136"/>
-      <c r="O17" s="147"/>
-      <c r="P17" s="148"/>
-      <c r="Q17" s="135"/>
-      <c r="R17" s="136"/>
-    </row>
-    <row r="18" spans="1:18" ht="33" customHeight="1">
+      <c r="M17" s="136"/>
+      <c r="N17" s="137"/>
+      <c r="O17" s="148"/>
+      <c r="P17" s="149"/>
+      <c r="Q17" s="136"/>
+      <c r="R17" s="137"/>
+    </row>
+    <row r="18" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="123"/>
-      <c r="K18" s="124"/>
-      <c r="M18" s="137"/>
-      <c r="N18" s="138"/>
-      <c r="O18" s="149"/>
-      <c r="P18" s="150"/>
-      <c r="Q18" s="137"/>
-      <c r="R18" s="138"/>
-    </row>
-    <row r="19" spans="1:18" ht="33" customHeight="1">
+      <c r="F18" s="61"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="125"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="139"/>
+      <c r="O18" s="150"/>
+      <c r="P18" s="151"/>
+      <c r="Q18" s="138"/>
+      <c r="R18" s="139"/>
+    </row>
+    <row r="19" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
-      <c r="F19" s="62" t="s">
+      <c r="F19" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="63"/>
-      <c r="H19" s="62" t="s">
+      <c r="G19" s="64"/>
+      <c r="H19" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="63"/>
-      <c r="J19" s="62" t="s">
+      <c r="I19" s="64"/>
+      <c r="J19" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="K19" s="63"/>
-      <c r="M19" s="151" t="s">
+      <c r="K19" s="64"/>
+      <c r="M19" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="N19" s="152"/>
-      <c r="O19" s="151" t="s">
+      <c r="N19" s="153"/>
+      <c r="O19" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="P19" s="152"/>
-      <c r="Q19" s="151" t="s">
+      <c r="P19" s="153"/>
+      <c r="Q19" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="R19" s="152"/>
-    </row>
-    <row r="20" spans="1:18" ht="33" customHeight="1">
-      <c r="A20" s="160" t="s">
+      <c r="R19" s="153"/>
+    </row>
+    <row r="20" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="160"/>
-      <c r="C20" s="160"/>
-      <c r="D20" s="160"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
-      <c r="M20" s="135"/>
-      <c r="N20" s="136"/>
-      <c r="O20" s="135"/>
-      <c r="P20" s="136"/>
-      <c r="Q20" s="135"/>
-      <c r="R20" s="136"/>
-    </row>
-    <row r="21" spans="1:18" ht="33" customHeight="1">
+      <c r="B20" s="161"/>
+      <c r="C20" s="161"/>
+      <c r="D20" s="161"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="60"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="137"/>
+      <c r="O20" s="136"/>
+      <c r="P20" s="137"/>
+      <c r="Q20" s="136"/>
+      <c r="R20" s="137"/>
+    </row>
+    <row r="21" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>1</v>
       </c>
-      <c r="B21" s="141"/>
-      <c r="C21" s="142"/>
-      <c r="D21" s="143"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="61"/>
-      <c r="M21" s="137"/>
-      <c r="N21" s="138"/>
-      <c r="O21" s="137"/>
-      <c r="P21" s="138"/>
-      <c r="Q21" s="137"/>
-      <c r="R21" s="138"/>
-    </row>
-    <row r="22" spans="1:18" ht="33" customHeight="1">
+      <c r="B21" s="142"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="144"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="62"/>
+      <c r="M21" s="138"/>
+      <c r="N21" s="139"/>
+      <c r="O21" s="138"/>
+      <c r="P21" s="139"/>
+      <c r="Q21" s="138"/>
+      <c r="R21" s="139"/>
+    </row>
+    <row r="22" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>2</v>
       </c>
-      <c r="B22" s="141"/>
-      <c r="C22" s="142"/>
-      <c r="D22" s="143"/>
-    </row>
-    <row r="23" spans="1:18" ht="33" customHeight="1">
+      <c r="B22" s="142"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="144"/>
+    </row>
+    <row r="23" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>3</v>
       </c>
-      <c r="B23" s="141"/>
-      <c r="C23" s="142"/>
-      <c r="D23" s="143"/>
-      <c r="F23" s="62" t="s">
+      <c r="B23" s="142"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="144"/>
+      <c r="F23" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="63"/>
-      <c r="H23" s="62" t="s">
+      <c r="G23" s="64"/>
+      <c r="H23" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="63"/>
-      <c r="J23" s="62" t="s">
+      <c r="I23" s="64"/>
+      <c r="J23" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="K23" s="63"/>
-      <c r="M23" s="62" t="s">
+      <c r="K23" s="64"/>
+      <c r="M23" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="63"/>
-      <c r="O23" s="62" t="s">
+      <c r="N23" s="64"/>
+      <c r="O23" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="62" t="s">
+      <c r="P23" s="64"/>
+      <c r="Q23" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="R23" s="63"/>
-    </row>
-    <row r="24" spans="1:18" ht="33" customHeight="1">
+      <c r="R23" s="64"/>
+    </row>
+    <row r="24" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>4</v>
       </c>
-      <c r="B24" s="141"/>
-      <c r="C24" s="142"/>
-      <c r="D24" s="143"/>
-      <c r="F24" s="58" t="s">
+      <c r="B24" s="142"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="144"/>
+      <c r="F24" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="59"/>
-      <c r="H24" s="58" t="s">
+      <c r="G24" s="60"/>
+      <c r="H24" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="I24" s="59"/>
-      <c r="J24" s="58" t="s">
+      <c r="I24" s="60"/>
+      <c r="J24" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="K24" s="59"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="58"/>
-      <c r="R24" s="59"/>
-    </row>
-    <row r="25" spans="1:18" ht="33" customHeight="1">
+      <c r="K24" s="60"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="60"/>
+    </row>
+    <row r="25" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>5</v>
       </c>
-      <c r="B25" s="141"/>
-      <c r="C25" s="142"/>
-      <c r="D25" s="143"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="61"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="60"/>
-      <c r="R25" s="61"/>
-    </row>
-    <row r="26" spans="1:18" ht="33" customHeight="1">
+      <c r="B25" s="142"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="144"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="62"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="62"/>
+    </row>
+    <row r="26" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>6</v>
       </c>
-      <c r="B26" s="141"/>
-      <c r="C26" s="142"/>
-      <c r="D26" s="143"/>
-      <c r="F26" s="62" t="s">
+      <c r="B26" s="142"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="144"/>
+      <c r="F26" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="63"/>
-      <c r="H26" s="106" t="s">
+      <c r="G26" s="64"/>
+      <c r="H26" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="I26" s="107"/>
-      <c r="J26" s="62" t="s">
+      <c r="I26" s="108"/>
+      <c r="J26" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="K26" s="63"/>
-      <c r="M26" s="62" t="s">
+      <c r="K26" s="64"/>
+      <c r="M26" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="N26" s="63"/>
-      <c r="O26" s="106" t="s">
+      <c r="N26" s="64"/>
+      <c r="O26" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="P26" s="107"/>
-      <c r="Q26" s="62" t="s">
+      <c r="P26" s="108"/>
+      <c r="Q26" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="R26" s="63"/>
-    </row>
-    <row r="27" spans="1:18" ht="33" customHeight="1">
+      <c r="R26" s="64"/>
+    </row>
+    <row r="27" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>7</v>
       </c>
-      <c r="B27" s="141"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="143"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="121"/>
-      <c r="K27" s="122"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="108"/>
-      <c r="P27" s="109"/>
-      <c r="Q27" s="121"/>
-      <c r="R27" s="122"/>
-    </row>
-    <row r="28" spans="1:18" ht="33" customHeight="1">
+      <c r="B27" s="142"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="144"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="122"/>
+      <c r="K27" s="123"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="109"/>
+      <c r="P27" s="110"/>
+      <c r="Q27" s="122"/>
+      <c r="R27" s="123"/>
+    </row>
+    <row r="28" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>8</v>
       </c>
-      <c r="B28" s="141"/>
-      <c r="C28" s="142"/>
-      <c r="D28" s="143"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="123"/>
-      <c r="K28" s="124"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="61"/>
-      <c r="O28" s="110"/>
-      <c r="P28" s="111"/>
-      <c r="Q28" s="123"/>
-      <c r="R28" s="124"/>
-    </row>
-    <row r="29" spans="1:18" ht="33" customHeight="1">
-      <c r="A29" s="144" t="s">
+      <c r="B28" s="142"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="144"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="124"/>
+      <c r="K28" s="125"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="112"/>
+      <c r="Q28" s="124"/>
+      <c r="R28" s="125"/>
+    </row>
+    <row r="29" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="144"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="144"/>
-      <c r="F29" s="62" t="s">
+      <c r="B29" s="145"/>
+      <c r="C29" s="145"/>
+      <c r="D29" s="145"/>
+      <c r="F29" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="63"/>
-      <c r="H29" s="62" t="s">
+      <c r="G29" s="64"/>
+      <c r="H29" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="I29" s="63"/>
-      <c r="J29" s="62" t="s">
+      <c r="I29" s="64"/>
+      <c r="J29" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="K29" s="63"/>
-      <c r="M29" s="62" t="s">
+      <c r="K29" s="64"/>
+      <c r="M29" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="N29" s="63"/>
-      <c r="O29" s="62" t="s">
+      <c r="N29" s="64"/>
+      <c r="O29" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="P29" s="63"/>
-      <c r="Q29" s="62" t="s">
+      <c r="P29" s="64"/>
+      <c r="Q29" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="R29" s="63"/>
-    </row>
-    <row r="30" spans="1:18" ht="33" customHeight="1">
-      <c r="A30" s="125"/>
-      <c r="B30" s="126"/>
-      <c r="C30" s="126"/>
-      <c r="D30" s="127"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="59"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="59"/>
-    </row>
-    <row r="31" spans="1:18" ht="33" customHeight="1">
-      <c r="A31" s="128"/>
-      <c r="B31" s="129"/>
-      <c r="C31" s="129"/>
-      <c r="D31" s="130"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="61"/>
-      <c r="M31" s="60"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="60"/>
-      <c r="R31" s="61"/>
-    </row>
-    <row r="32" spans="1:18" ht="33" customHeight="1">
-      <c r="A32" s="128"/>
-      <c r="B32" s="129"/>
-      <c r="C32" s="129"/>
-      <c r="D32" s="130"/>
-    </row>
-    <row r="33" spans="1:20" ht="33" customHeight="1">
-      <c r="A33" s="128"/>
-      <c r="B33" s="129"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="130"/>
-      <c r="F33" s="62" t="s">
+      <c r="R29" s="64"/>
+    </row>
+    <row r="30" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="126"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="128"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="60"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="60"/>
+    </row>
+    <row r="31" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="129"/>
+      <c r="B31" s="130"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="131"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="62"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="62"/>
+    </row>
+    <row r="32" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="129"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="131"/>
+    </row>
+    <row r="33" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="129"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="131"/>
+      <c r="F33" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="63"/>
-      <c r="H33" s="62" t="s">
+      <c r="G33" s="64"/>
+      <c r="H33" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="I33" s="63"/>
-      <c r="J33" s="62" t="s">
+      <c r="I33" s="64"/>
+      <c r="J33" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="K33" s="63"/>
-      <c r="M33" s="51" t="s">
+      <c r="K33" s="64"/>
+      <c r="M33" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="52"/>
-      <c r="O33" s="51" t="s">
+      <c r="N33" s="53"/>
+      <c r="O33" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="51" t="s">
+      <c r="P33" s="53"/>
+      <c r="Q33" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="R33" s="52"/>
-    </row>
-    <row r="34" spans="1:20" ht="33" customHeight="1">
-      <c r="A34" s="128"/>
-      <c r="B34" s="129"/>
-      <c r="C34" s="129"/>
-      <c r="D34" s="130"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="59"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="54"/>
-    </row>
-    <row r="35" spans="1:20" ht="33" customHeight="1">
-      <c r="A35" s="128"/>
-      <c r="B35" s="129"/>
-      <c r="C35" s="129"/>
-      <c r="D35" s="130"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="61"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="56"/>
-    </row>
-    <row r="36" spans="1:20" ht="33" customHeight="1">
-      <c r="A36" s="131"/>
-      <c r="B36" s="132"/>
-      <c r="C36" s="132"/>
-      <c r="D36" s="133"/>
-      <c r="F36" s="62" t="s">
+      <c r="R33" s="53"/>
+    </row>
+    <row r="34" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="129"/>
+      <c r="B34" s="130"/>
+      <c r="C34" s="130"/>
+      <c r="D34" s="131"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="60"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="55"/>
+    </row>
+    <row r="35" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="129"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="131"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="62"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="57"/>
+    </row>
+    <row r="36" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="132"/>
+      <c r="B36" s="133"/>
+      <c r="C36" s="133"/>
+      <c r="D36" s="134"/>
+      <c r="F36" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="G36" s="63"/>
-      <c r="H36" s="106" t="s">
+      <c r="G36" s="64"/>
+      <c r="H36" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="I36" s="107"/>
-      <c r="J36" s="62" t="s">
+      <c r="I36" s="108"/>
+      <c r="J36" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="K36" s="63"/>
-      <c r="M36" s="51" t="s">
+      <c r="K36" s="64"/>
+      <c r="M36" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="N36" s="52"/>
-      <c r="O36" s="106" t="s">
+      <c r="N36" s="53"/>
+      <c r="O36" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="P36" s="107"/>
-      <c r="Q36" s="51" t="s">
+      <c r="P36" s="108"/>
+      <c r="Q36" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="R36" s="52"/>
-    </row>
-    <row r="37" spans="1:20" ht="33" customHeight="1">
+      <c r="R36" s="53"/>
+    </row>
+    <row r="37" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="58"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="108"/>
-      <c r="I37" s="109"/>
-      <c r="J37" s="121"/>
-      <c r="K37" s="122"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="54"/>
-      <c r="O37" s="108"/>
-      <c r="P37" s="109"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="54"/>
-    </row>
-    <row r="38" spans="1:20" ht="33" customHeight="1">
-      <c r="A38" s="134" t="s">
+      <c r="F37" s="59"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="109"/>
+      <c r="I37" s="110"/>
+      <c r="J37" s="122"/>
+      <c r="K37" s="123"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="109"/>
+      <c r="P37" s="110"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="55"/>
+    </row>
+    <row r="38" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="134"/>
-      <c r="C38" s="134"/>
-      <c r="D38" s="134"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="111"/>
-      <c r="J38" s="123"/>
-      <c r="K38" s="124"/>
-      <c r="M38" s="55"/>
-      <c r="N38" s="56"/>
-      <c r="O38" s="110"/>
-      <c r="P38" s="111"/>
-      <c r="Q38" s="55"/>
-      <c r="R38" s="56"/>
-    </row>
-    <row r="39" spans="1:20" ht="33" customHeight="1">
+      <c r="B38" s="135"/>
+      <c r="C38" s="135"/>
+      <c r="D38" s="135"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="111"/>
+      <c r="I38" s="112"/>
+      <c r="J38" s="124"/>
+      <c r="K38" s="125"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="111"/>
+      <c r="P38" s="112"/>
+      <c r="Q38" s="56"/>
+      <c r="R38" s="57"/>
+    </row>
+    <row r="39" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>1</v>
       </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="50"/>
-      <c r="F39" s="62" t="s">
+      <c r="B39" s="49"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="51"/>
+      <c r="F39" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="63"/>
-      <c r="H39" s="62" t="s">
+      <c r="G39" s="64"/>
+      <c r="H39" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="I39" s="63"/>
-      <c r="J39" s="62" t="s">
+      <c r="I39" s="64"/>
+      <c r="J39" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="K39" s="63"/>
-      <c r="M39" s="51" t="s">
+      <c r="K39" s="64"/>
+      <c r="M39" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="N39" s="52"/>
-      <c r="O39" s="51" t="s">
+      <c r="N39" s="53"/>
+      <c r="O39" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="51" t="s">
+      <c r="P39" s="53"/>
+      <c r="Q39" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="R39" s="52"/>
+      <c r="R39" s="53"/>
       <c r="T39" s="25"/>
     </row>
-    <row r="40" spans="1:20" ht="33" customHeight="1">
+    <row r="40" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>2</v>
       </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="50"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="59"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="54"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="53"/>
-      <c r="R40" s="54"/>
-    </row>
-    <row r="41" spans="1:20" ht="33" customHeight="1">
+      <c r="B40" s="49"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="51"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="60"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="55"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="55"/>
+    </row>
+    <row r="41" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>3</v>
       </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="50"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="61"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="56"/>
-      <c r="O41" s="55"/>
-      <c r="P41" s="56"/>
-      <c r="Q41" s="55"/>
-      <c r="R41" s="56"/>
-    </row>
-    <row r="42" spans="1:20" ht="33" customHeight="1">
+      <c r="B41" s="49"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="51"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="62"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="57"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="57"/>
+      <c r="Q41" s="56"/>
+      <c r="R41" s="57"/>
+    </row>
+    <row r="42" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>4</v>
       </c>
-      <c r="B42" s="48"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="50"/>
-    </row>
-    <row r="43" spans="1:20" ht="33" customHeight="1">
+      <c r="B42" s="49"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="51"/>
+    </row>
+    <row r="43" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>5</v>
       </c>
-      <c r="B43" s="48"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="50"/>
-      <c r="F43" s="51" t="s">
+      <c r="B43" s="49"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="51"/>
+      <c r="F43" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="G43" s="52"/>
-      <c r="H43" s="81" t="s">
+      <c r="G43" s="53"/>
+      <c r="H43" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="I43" s="82"/>
-      <c r="J43" s="112" t="s">
+      <c r="I43" s="83"/>
+      <c r="J43" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="K43" s="113"/>
-    </row>
-    <row r="44" spans="1:20" ht="33" customHeight="1">
+      <c r="K43" s="114"/>
+    </row>
+    <row r="44" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>6</v>
       </c>
-      <c r="B44" s="48"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="50"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="84"/>
-      <c r="J44" s="114"/>
-      <c r="K44" s="115"/>
-    </row>
-    <row r="45" spans="1:20" ht="33" customHeight="1">
+      <c r="B44" s="49"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="51"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="115"/>
+      <c r="K44" s="116"/>
+    </row>
+    <row r="45" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>7</v>
       </c>
-      <c r="B45" s="118"/>
-      <c r="C45" s="119"/>
-      <c r="D45" s="120"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="116"/>
-      <c r="K45" s="117"/>
-    </row>
-    <row r="46" spans="1:20" ht="33" customHeight="1">
+      <c r="B45" s="119"/>
+      <c r="C45" s="120"/>
+      <c r="D45" s="121"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="86"/>
+      <c r="I45" s="87"/>
+      <c r="J45" s="117"/>
+      <c r="K45" s="118"/>
+    </row>
+    <row r="46" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>8</v>
       </c>
-      <c r="B46" s="79"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
-      <c r="F46" s="81" t="s">
+      <c r="B46" s="80"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="81"/>
+      <c r="F46" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="G46" s="82"/>
-      <c r="H46" s="87" t="s">
+      <c r="G46" s="83"/>
+      <c r="H46" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="I46" s="88"/>
-      <c r="J46" s="93" t="s">
+      <c r="I46" s="89"/>
+      <c r="J46" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="K46" s="94"/>
-    </row>
-    <row r="47" spans="1:20" ht="33" customHeight="1">
-      <c r="F47" s="83"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="90"/>
-      <c r="J47" s="95"/>
-      <c r="K47" s="96"/>
-    </row>
-    <row r="48" spans="1:20" ht="33" customHeight="1">
-      <c r="F48" s="85"/>
-      <c r="G48" s="86"/>
-      <c r="H48" s="91"/>
-      <c r="I48" s="92"/>
-      <c r="J48" s="97"/>
-      <c r="K48" s="98"/>
-    </row>
-    <row r="49" spans="6:11" ht="33" customHeight="1">
-      <c r="F49" s="42" t="s">
+      <c r="K46" s="95"/>
+    </row>
+    <row r="47" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="84"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="90"/>
+      <c r="I47" s="91"/>
+      <c r="J47" s="96"/>
+      <c r="K47" s="97"/>
+    </row>
+    <row r="48" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F48" s="86"/>
+      <c r="G48" s="87"/>
+      <c r="H48" s="92"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="98"/>
+      <c r="K48" s="99"/>
+    </row>
+    <row r="49" spans="6:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F49" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="G49" s="43"/>
-      <c r="H49" s="64" t="s">
+      <c r="G49" s="44"/>
+      <c r="H49" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="I49" s="65"/>
-      <c r="J49" s="70" t="s">
+      <c r="I49" s="66"/>
+      <c r="J49" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="K49" s="71"/>
-    </row>
-    <row r="50" spans="6:11" ht="33" customHeight="1">
-      <c r="F50" s="44"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="66"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="72"/>
-      <c r="K50" s="73"/>
-    </row>
-    <row r="51" spans="6:11" ht="33" customHeight="1">
-      <c r="F51" s="46"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="68"/>
-      <c r="I51" s="69"/>
-      <c r="J51" s="74"/>
-      <c r="K51" s="75"/>
+      <c r="K49" s="72"/>
+    </row>
+    <row r="50" spans="6:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F50" s="45"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="73"/>
+      <c r="K50" s="74"/>
+    </row>
+    <row r="51" spans="6:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F51" s="47"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="70"/>
+      <c r="J51" s="75"/>
+      <c r="K51" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="137">
@@ -6068,17 +7540,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="20.6328125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="38.25" customHeight="1">
+    <row r="1" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>60</v>
       </c>
@@ -6098,17 +7570,17 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1">
-      <c r="A2" s="174" t="s">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="173" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="172">
+      <c r="C2" s="174">
         <v>1</v>
       </c>
-      <c r="D2" s="176">
+      <c r="D2" s="177">
         <v>12.24</v>
       </c>
       <c r="E2" s="30"/>
@@ -6116,50 +7588,50 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1">
-      <c r="A3" s="174"/>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="173"/>
       <c r="B3" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="173"/>
-      <c r="D3" s="177"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="178"/>
       <c r="E3" s="30"/>
       <c r="G3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1">
-      <c r="A4" s="174"/>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="173"/>
       <c r="B4" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="173"/>
-      <c r="D4" s="178"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="179"/>
       <c r="E4" s="30"/>
       <c r="G4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1">
-      <c r="A5" s="175"/>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="176"/>
       <c r="B5" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="173"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="28"/>
       <c r="E5" s="30"/>
       <c r="G5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1">
-      <c r="A6" s="179" t="s">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="180" t="s">
         <v>77</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="173">
+      <c r="C6" s="175">
         <v>2</v>
       </c>
       <c r="D6" s="28"/>
@@ -6168,24 +7640,24 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1">
-      <c r="A7" s="174"/>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="173"/>
       <c r="B7" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="173"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="28"/>
       <c r="E7" s="30"/>
       <c r="G7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1">
-      <c r="A8" s="174"/>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="173"/>
       <c r="B8" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="173">
+      <c r="C8" s="175">
         <v>3</v>
       </c>
       <c r="D8" s="28"/>
@@ -6194,188 +7666,188 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1">
-      <c r="A9" s="174"/>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="173"/>
       <c r="B9" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="173"/>
+      <c r="C9" s="175"/>
       <c r="D9" s="28"/>
       <c r="E9" s="30"/>
       <c r="G9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1">
-      <c r="A10" s="174"/>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="173"/>
       <c r="B10" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="175">
         <v>4</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="30"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1">
-      <c r="A11" s="174"/>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="173"/>
       <c r="B11" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="173"/>
+      <c r="C11" s="175"/>
       <c r="D11" s="28"/>
       <c r="E11" s="30"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1">
-      <c r="A12" s="174"/>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="173"/>
       <c r="B12" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="173">
+      <c r="C12" s="175">
         <v>5</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="30"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1">
-      <c r="A13" s="174"/>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="173"/>
       <c r="B13" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="173"/>
+      <c r="C13" s="175"/>
       <c r="D13" s="28"/>
       <c r="E13" s="30"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1">
-      <c r="A14" s="174"/>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="173"/>
       <c r="B14" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="173" t="s">
+      <c r="C14" s="175" t="s">
         <v>113</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="30"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1">
-      <c r="A15" s="174"/>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="173"/>
       <c r="B15" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="173"/>
+      <c r="C15" s="175"/>
       <c r="D15" s="28"/>
       <c r="E15" s="30"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1">
-      <c r="A16" s="175"/>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="176"/>
       <c r="B16" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="173"/>
+      <c r="C16" s="175"/>
       <c r="D16" s="28"/>
       <c r="E16" s="30"/>
     </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="174" t="s">
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="173" t="s">
         <v>112</v>
       </c>
       <c r="B17" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="173">
+      <c r="C17" s="175">
         <v>8</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="30"/>
     </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="174"/>
+    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="173"/>
       <c r="B18" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="173"/>
+      <c r="C18" s="175"/>
       <c r="D18" s="28"/>
       <c r="E18" s="30"/>
     </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="A19" s="174"/>
+    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="173"/>
       <c r="B19" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="173" t="s">
+      <c r="C19" s="175" t="s">
         <v>114</v>
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="30"/>
     </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1">
-      <c r="A20" s="174"/>
+    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="173"/>
       <c r="B20" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="173"/>
+      <c r="C20" s="175"/>
       <c r="D20" s="28"/>
       <c r="E20" s="30"/>
     </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1">
-      <c r="A21" s="174"/>
+    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="173"/>
       <c r="B21" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="173"/>
+      <c r="C21" s="175"/>
       <c r="D21" s="28"/>
       <c r="E21" s="30"/>
     </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1">
-      <c r="A22" s="174" t="s">
+    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="173" t="s">
         <v>88</v>
       </c>
       <c r="B22" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="173" t="s">
+      <c r="C22" s="175" t="s">
         <v>115</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="30"/>
     </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1">
-      <c r="A23" s="174"/>
+    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="173"/>
       <c r="B23" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="173"/>
+      <c r="C23" s="175"/>
       <c r="D23" s="28"/>
       <c r="E23" s="30"/>
     </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1">
-      <c r="A24" s="174"/>
+    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="173"/>
       <c r="B24" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="173"/>
+      <c r="C24" s="175"/>
       <c r="D24" s="28"/>
       <c r="E24" s="30"/>
     </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1">
-      <c r="A25" s="174"/>
+    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="173"/>
       <c r="B25" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="173"/>
+      <c r="C25" s="175"/>
       <c r="D25" s="28"/>
       <c r="E25" s="30"/>
     </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1">
-      <c r="A26" s="174"/>
+    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="173"/>
       <c r="B26" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="173"/>
+      <c r="C26" s="175"/>
       <c r="D26" s="28"/>
       <c r="E26" s="30"/>
     </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1">
+    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29"/>
       <c r="B27" s="28" t="s">
         <v>89</v>
@@ -6383,8 +7855,8 @@
       <c r="D27" s="28"/>
       <c r="E27" s="30"/>
     </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1">
-      <c r="A28" s="174" t="s">
+    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="173" t="s">
         <v>102</v>
       </c>
       <c r="B28" s="28" t="s">
@@ -6393,96 +7865,96 @@
       <c r="D28" s="28"/>
       <c r="E28" s="30"/>
     </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1">
-      <c r="A29" s="174"/>
+    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="173"/>
       <c r="B29" s="28" t="s">
         <v>91</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="30"/>
     </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1">
-      <c r="A30" s="174"/>
+    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="173"/>
       <c r="B30" s="28" t="s">
         <v>92</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="30"/>
     </row>
-    <row r="31" spans="1:5" ht="30" customHeight="1">
-      <c r="A31" s="174"/>
+    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="173"/>
       <c r="B31" s="28" t="s">
         <v>93</v>
       </c>
       <c r="D31" s="28"/>
       <c r="E31" s="30"/>
     </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1">
-      <c r="A32" s="174"/>
+    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="173"/>
       <c r="B32" s="28" t="s">
         <v>94</v>
       </c>
       <c r="D32" s="28"/>
       <c r="E32" s="30"/>
     </row>
-    <row r="33" spans="1:5" ht="30" customHeight="1">
-      <c r="A33" s="174"/>
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="173"/>
       <c r="B33" s="28" t="s">
         <v>95</v>
       </c>
       <c r="D33" s="28"/>
       <c r="E33" s="30"/>
     </row>
-    <row r="34" spans="1:5" ht="30" customHeight="1">
-      <c r="A34" s="174"/>
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="173"/>
       <c r="B34" s="28" t="s">
         <v>96</v>
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="30"/>
     </row>
-    <row r="35" spans="1:5" ht="30" customHeight="1">
-      <c r="A35" s="174"/>
+    <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="173"/>
       <c r="B35" s="28" t="s">
         <v>97</v>
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="30"/>
     </row>
-    <row r="36" spans="1:5" ht="30" customHeight="1">
-      <c r="A36" s="174"/>
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="173"/>
       <c r="B36" s="28" t="s">
         <v>98</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="30"/>
     </row>
-    <row r="37" spans="1:5" ht="30" customHeight="1">
-      <c r="A37" s="174"/>
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="173"/>
       <c r="B37" s="28" t="s">
         <v>99</v>
       </c>
       <c r="D37" s="28"/>
       <c r="E37" s="30"/>
     </row>
-    <row r="38" spans="1:5" ht="30" customHeight="1">
-      <c r="A38" s="174"/>
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="173"/>
       <c r="B38" s="28" t="s">
         <v>100</v>
       </c>
       <c r="D38" s="28"/>
       <c r="E38" s="30"/>
     </row>
-    <row r="39" spans="1:5" ht="30" customHeight="1">
-      <c r="A39" s="174"/>
+    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="173"/>
       <c r="B39" s="28" t="s">
         <v>101</v>
       </c>
       <c r="D39" s="28"/>
       <c r="E39" s="30"/>
     </row>
-    <row r="40" spans="1:5" ht="30" customHeight="1">
-      <c r="A40" s="174" t="s">
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="173" t="s">
         <v>108</v>
       </c>
       <c r="B40" s="28" t="s">
@@ -6491,31 +7963,31 @@
       <c r="D40" s="28"/>
       <c r="E40" s="30"/>
     </row>
-    <row r="41" spans="1:5" ht="30" customHeight="1">
-      <c r="A41" s="174"/>
+    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="173"/>
       <c r="B41" s="28" t="s">
         <v>104</v>
       </c>
       <c r="D41" s="28"/>
       <c r="E41" s="30"/>
     </row>
-    <row r="42" spans="1:5" ht="30" customHeight="1">
-      <c r="A42" s="174"/>
+    <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="173"/>
       <c r="B42" s="28" t="s">
         <v>105</v>
       </c>
       <c r="D42" s="28"/>
       <c r="E42" s="30"/>
     </row>
-    <row r="43" spans="1:5" ht="30" customHeight="1">
-      <c r="A43" s="174"/>
+    <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="173"/>
       <c r="B43" s="28" t="s">
         <v>106</v>
       </c>
       <c r="D43" s="28"/>
       <c r="E43" s="30"/>
     </row>
-    <row r="44" spans="1:5" ht="30" customHeight="1">
+    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="29"/>
       <c r="B44" s="28" t="s">
         <v>107</v>
@@ -6523,7 +7995,7 @@
       <c r="D44" s="28"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" ht="30" customHeight="1">
+    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="29"/>
       <c r="B45" s="28" t="s">
         <v>109</v>
@@ -6531,7 +8003,7 @@
       <c r="D45" s="28"/>
       <c r="E45" s="30"/>
     </row>
-    <row r="46" spans="1:5" ht="30" customHeight="1">
+    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
       <c r="B46" s="28" t="s">
         <v>110</v>
@@ -6539,7 +8011,7 @@
       <c r="D46" s="28"/>
       <c r="E46" s="30"/>
     </row>
-    <row r="47" spans="1:5" ht="30" customHeight="1">
+    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="29"/>
       <c r="B47" s="28" t="s">
         <v>111</v>
@@ -6549,10 +8021,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="D2:D4"/>
     <mergeCell ref="A40:A43"/>
     <mergeCell ref="A33:A39"/>
     <mergeCell ref="A28:A32"/>
@@ -6566,6 +8034,10 @@
     <mergeCell ref="C19:C21"/>
     <mergeCell ref="C22:C26"/>
     <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="D2:D4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2019年计划/9-11季度计划.xlsx
+++ b/2019年计划/9-11季度计划.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="226">
   <si>
     <t>月份\目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1076,6 +1076,10 @@
   </si>
   <si>
     <t>洗漱 + 打扫卫生+吃饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2392,6 +2396,363 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2410,366 +2771,9 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2785,15 +2789,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2801,9 +2808,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3280,8 +3284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T97"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:D37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3308,36 +3312,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="166"/>
-      <c r="F1" s="167" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47"/>
+      <c r="F1" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
     </row>
     <row r="2" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="163"/>
+      <c r="C2" s="44"/>
       <c r="D2" s="34" t="s">
         <v>215</v>
       </c>
@@ -3378,10 +3382,10 @@
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="162" t="s">
+      <c r="B3" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="163"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="34" t="s">
         <v>210</v>
       </c>
@@ -3417,10 +3421,10 @@
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="163"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="34"/>
       <c r="F4" s="17" t="s">
         <v>15</v>
@@ -3458,10 +3462,10 @@
       <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="162" t="s">
+      <c r="B5" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="C5" s="163"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="34" t="s">
         <v>211</v>
       </c>
@@ -3499,8 +3503,8 @@
       <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="162"/>
-      <c r="C6" s="163"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="34"/>
       <c r="F6" s="17" t="s">
         <v>17</v>
@@ -3536,8 +3540,8 @@
       <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="162"/>
-      <c r="C7" s="163"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
       <c r="D7" s="34"/>
       <c r="F7" s="17" t="s">
         <v>18</v>
@@ -3557,8 +3561,8 @@
       <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="162"/>
-      <c r="C8" s="163"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="34"/>
       <c r="R8" s="16"/>
     </row>
@@ -3566,8 +3570,8 @@
       <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="162"/>
-      <c r="C9" s="163"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="34"/>
       <c r="F9" s="10"/>
       <c r="G9" s="12" t="s">
@@ -3601,10 +3605,10 @@
       <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10" s="162" t="s">
+      <c r="B10" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="C10" s="163"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="34" t="s">
         <v>212</v>
       </c>
@@ -3627,10 +3631,10 @@
       <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="162" t="s">
+      <c r="B11" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="163"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="34"/>
       <c r="F11" s="15" t="s">
         <v>20</v>
@@ -3648,543 +3652,543 @@
       <c r="Q11" s="16"/>
     </row>
     <row r="12" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="154" t="s">
+      <c r="A12" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="154"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
     </row>
     <row r="13" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="B13" s="158" t="s">
+      <c r="B13" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="C13" s="159"/>
-      <c r="D13" s="160"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
     </row>
     <row r="14" spans="1:18" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="158"/>
-      <c r="C14" s="159"/>
-      <c r="D14" s="160"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60"/>
     </row>
     <row r="15" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="158" t="s">
+      <c r="B15" s="58" t="s">
         <v>216</v>
       </c>
-      <c r="C15" s="159"/>
-      <c r="D15" s="160"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
     </row>
     <row r="16" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="158"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="160"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
     </row>
     <row r="17" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="158" t="s">
+      <c r="B17" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="C17" s="159"/>
-      <c r="D17" s="160"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
     </row>
     <row r="18" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="158"/>
-      <c r="C18" s="159"/>
-      <c r="D18" s="160"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
     </row>
     <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="158"/>
-      <c r="C19" s="159"/>
-      <c r="D19" s="160"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="161" t="s">
+      <c r="A20" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="B20" s="161"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
     </row>
     <row r="21" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>1</v>
       </c>
-      <c r="B21" s="142"/>
-      <c r="C21" s="143"/>
-      <c r="D21" s="144"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="64"/>
     </row>
     <row r="22" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>2</v>
       </c>
-      <c r="B22" s="142"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="144"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="64"/>
     </row>
     <row r="23" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>3</v>
       </c>
-      <c r="B23" s="142"/>
-      <c r="C23" s="143"/>
-      <c r="D23" s="144"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
     </row>
     <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>4</v>
       </c>
-      <c r="B24" s="142"/>
-      <c r="C24" s="143"/>
-      <c r="D24" s="144"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="64"/>
     </row>
     <row r="25" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>5</v>
       </c>
-      <c r="B25" s="142"/>
-      <c r="C25" s="143"/>
-      <c r="D25" s="144"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="64"/>
     </row>
     <row r="26" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>6</v>
       </c>
-      <c r="B26" s="142"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="144"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="64"/>
     </row>
     <row r="27" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>7</v>
       </c>
-      <c r="B27" s="142"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="144"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="64"/>
     </row>
     <row r="28" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>8</v>
       </c>
-      <c r="B28" s="142"/>
-      <c r="C28" s="143"/>
-      <c r="D28" s="144"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="64"/>
     </row>
     <row r="29" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="145" t="s">
+      <c r="A29" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="B29" s="145"/>
-      <c r="C29" s="145"/>
-      <c r="D29" s="145"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
     </row>
     <row r="30" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="126" t="s">
+      <c r="A30" s="90" t="s">
         <v>219</v>
       </c>
-      <c r="B30" s="127"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="128"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="92"/>
     </row>
     <row r="31" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="129"/>
-      <c r="B31" s="130"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="131"/>
+      <c r="A31" s="93"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="95"/>
     </row>
     <row r="32" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="129"/>
-      <c r="B32" s="130"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="131"/>
+      <c r="A32" s="93"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="95"/>
     </row>
     <row r="33" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="129"/>
-      <c r="B33" s="130"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="131"/>
+      <c r="A33" s="93"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="95"/>
     </row>
     <row r="34" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="129"/>
-      <c r="B34" s="130"/>
-      <c r="C34" s="130"/>
-      <c r="D34" s="131"/>
+      <c r="A34" s="93"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="95"/>
     </row>
     <row r="35" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="129"/>
-      <c r="B35" s="130"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="131"/>
+      <c r="A35" s="93"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="95"/>
     </row>
     <row r="36" spans="1:20" ht="257" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="132"/>
-      <c r="B36" s="133"/>
-      <c r="C36" s="133"/>
-      <c r="D36" s="134"/>
+      <c r="A36" s="96"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="98"/>
     </row>
     <row r="37" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="58" t="s">
+      <c r="A37" s="168" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
     </row>
     <row r="38" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="135" t="s">
+      <c r="A38" s="99" t="s">
         <v>153</v>
       </c>
-      <c r="B38" s="135"/>
-      <c r="C38" s="135"/>
-      <c r="D38" s="135"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
     </row>
     <row r="39" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>1</v>
       </c>
-      <c r="B39" s="49"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="51"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="102"/>
       <c r="T39" s="25"/>
     </row>
     <row r="40" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>2</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="51"/>
+      <c r="B40" s="100"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="102"/>
     </row>
     <row r="41" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>3</v>
       </c>
-      <c r="B41" s="49"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="51"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="102"/>
     </row>
     <row r="42" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>4</v>
       </c>
-      <c r="B42" s="49"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="51"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="102"/>
     </row>
     <row r="43" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>5</v>
       </c>
-      <c r="B43" s="49"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="51"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="102"/>
     </row>
     <row r="44" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>6</v>
       </c>
-      <c r="B44" s="49"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="51"/>
+      <c r="B44" s="100"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="102"/>
     </row>
     <row r="45" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>7</v>
       </c>
-      <c r="B45" s="119"/>
-      <c r="C45" s="120"/>
-      <c r="D45" s="121"/>
+      <c r="B45" s="123"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="125"/>
     </row>
     <row r="46" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>8</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="81"/>
+      <c r="B46" s="141"/>
+      <c r="C46" s="142"/>
+      <c r="D46" s="142"/>
     </row>
     <row r="47" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="100"/>
-      <c r="B47" s="100"/>
-      <c r="C47" s="100"/>
-      <c r="D47" s="100"/>
+      <c r="A47" s="155"/>
+      <c r="B47" s="155"/>
+      <c r="C47" s="155"/>
+      <c r="D47" s="155"/>
     </row>
     <row r="48" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="101" t="s">
+      <c r="A48" s="156" t="s">
         <v>127</v>
       </c>
-      <c r="B48" s="101"/>
-      <c r="C48" s="101"/>
-      <c r="D48" s="101"/>
+      <c r="B48" s="156"/>
+      <c r="C48" s="156"/>
+      <c r="D48" s="156"/>
     </row>
     <row r="49" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="32">
         <v>1</v>
       </c>
-      <c r="B49" s="77"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="79"/>
+      <c r="B49" s="138"/>
+      <c r="C49" s="139"/>
+      <c r="D49" s="140"/>
     </row>
     <row r="50" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="32">
         <v>2</v>
       </c>
-      <c r="B50" s="77"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="79"/>
+      <c r="B50" s="138"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="140"/>
     </row>
     <row r="51" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="32">
         <v>3</v>
       </c>
-      <c r="B51" s="77"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="79"/>
+      <c r="B51" s="138"/>
+      <c r="C51" s="139"/>
+      <c r="D51" s="140"/>
     </row>
     <row r="52" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>4</v>
       </c>
-      <c r="B52" s="102"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="103"/>
+      <c r="B52" s="157"/>
+      <c r="C52" s="139"/>
+      <c r="D52" s="158"/>
     </row>
     <row r="53" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="32">
         <v>5</v>
       </c>
-      <c r="B53" s="77"/>
-      <c r="C53" s="78"/>
-      <c r="D53" s="79"/>
+      <c r="B53" s="138"/>
+      <c r="C53" s="139"/>
+      <c r="D53" s="140"/>
     </row>
     <row r="54" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32">
         <v>6</v>
       </c>
-      <c r="B54" s="77"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="79"/>
+      <c r="B54" s="138"/>
+      <c r="C54" s="139"/>
+      <c r="D54" s="140"/>
     </row>
     <row r="55" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32">
         <v>7</v>
       </c>
-      <c r="B55" s="77"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="79"/>
+      <c r="B55" s="138"/>
+      <c r="C55" s="139"/>
+      <c r="D55" s="140"/>
     </row>
     <row r="56" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="32">
         <v>8</v>
       </c>
-      <c r="B56" s="104"/>
-      <c r="C56" s="105"/>
-      <c r="D56" s="106"/>
+      <c r="B56" s="159"/>
+      <c r="C56" s="160"/>
+      <c r="D56" s="161"/>
     </row>
     <row r="58" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="155" t="s">
+      <c r="A58" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="B58" s="155"/>
-      <c r="C58" s="155"/>
-      <c r="D58" s="155"/>
-      <c r="E58" s="155"/>
-      <c r="F58" s="155"/>
-      <c r="G58" s="155"/>
-      <c r="H58" s="155"/>
-      <c r="I58" s="155"/>
-      <c r="J58" s="155"/>
-      <c r="K58" s="155"/>
-      <c r="L58" s="155"/>
-      <c r="M58" s="155"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="51"/>
+      <c r="K58" s="51"/>
+      <c r="L58" s="51"/>
+      <c r="M58" s="51"/>
     </row>
     <row r="59" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="63" t="s">
+      <c r="A59" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="B59" s="64"/>
-      <c r="C59" s="63" t="s">
+      <c r="B59" s="53"/>
+      <c r="C59" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="D59" s="64"/>
-      <c r="E59" s="63" t="s">
+      <c r="D59" s="53"/>
+      <c r="E59" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="F59" s="64"/>
-      <c r="H59" s="152" t="s">
+      <c r="F59" s="53"/>
+      <c r="H59" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="I59" s="153"/>
-      <c r="J59" s="152" t="s">
+      <c r="I59" s="55"/>
+      <c r="J59" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="K59" s="153"/>
-      <c r="L59" s="156" t="s">
+      <c r="K59" s="55"/>
+      <c r="L59" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="M59" s="157"/>
+      <c r="M59" s="57"/>
     </row>
     <row r="60" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="59" t="s">
+      <c r="A60" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="60"/>
-      <c r="C60" s="59" t="s">
+      <c r="B60" s="66"/>
+      <c r="C60" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="D60" s="60"/>
-      <c r="E60" s="59" t="s">
+      <c r="D60" s="66"/>
+      <c r="E60" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="F60" s="60"/>
-      <c r="H60" s="136"/>
-      <c r="I60" s="137"/>
-      <c r="J60" s="136"/>
-      <c r="K60" s="137"/>
-      <c r="L60" s="140"/>
-      <c r="M60" s="141"/>
+      <c r="F60" s="66"/>
+      <c r="H60" s="69"/>
+      <c r="I60" s="70"/>
+      <c r="J60" s="69"/>
+      <c r="K60" s="70"/>
+      <c r="L60" s="103"/>
+      <c r="M60" s="104"/>
     </row>
     <row r="61" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="61"/>
-      <c r="B61" s="62"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="62"/>
-      <c r="H61" s="138"/>
-      <c r="I61" s="139"/>
-      <c r="J61" s="138"/>
-      <c r="K61" s="139"/>
-      <c r="L61" s="138"/>
-      <c r="M61" s="139"/>
+      <c r="A61" s="67"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="68"/>
+      <c r="H61" s="71"/>
+      <c r="I61" s="72"/>
+      <c r="J61" s="71"/>
+      <c r="K61" s="72"/>
+      <c r="L61" s="71"/>
+      <c r="M61" s="72"/>
     </row>
     <row r="62" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="63" t="s">
+      <c r="A62" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="B62" s="64"/>
-      <c r="C62" s="107" t="s">
+      <c r="B62" s="53"/>
+      <c r="C62" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="108"/>
-      <c r="E62" s="63" t="s">
+      <c r="D62" s="74"/>
+      <c r="E62" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="F62" s="64"/>
-      <c r="H62" s="152" t="s">
+      <c r="F62" s="53"/>
+      <c r="H62" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="I62" s="153"/>
-      <c r="J62" s="146" t="s">
+      <c r="I62" s="55"/>
+      <c r="J62" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="K62" s="147"/>
-      <c r="L62" s="152" t="s">
+      <c r="K62" s="85"/>
+      <c r="L62" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="M62" s="153"/>
+      <c r="M62" s="55"/>
     </row>
     <row r="63" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="59"/>
-      <c r="B63" s="60"/>
-      <c r="C63" s="109"/>
-      <c r="D63" s="110"/>
-      <c r="E63" s="122"/>
-      <c r="F63" s="123"/>
+      <c r="A63" s="65"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="75"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="80"/>
       <c r="G63" s="23"/>
-      <c r="H63" s="136"/>
-      <c r="I63" s="137"/>
-      <c r="J63" s="148"/>
-      <c r="K63" s="149"/>
-      <c r="L63" s="136"/>
-      <c r="M63" s="137"/>
+      <c r="H63" s="69"/>
+      <c r="I63" s="70"/>
+      <c r="J63" s="86"/>
+      <c r="K63" s="87"/>
+      <c r="L63" s="69"/>
+      <c r="M63" s="70"/>
     </row>
     <row r="64" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="61"/>
-      <c r="B64" s="62"/>
-      <c r="C64" s="111"/>
-      <c r="D64" s="112"/>
-      <c r="E64" s="124"/>
-      <c r="F64" s="125"/>
-      <c r="H64" s="138"/>
-      <c r="I64" s="139"/>
-      <c r="J64" s="150"/>
-      <c r="K64" s="151"/>
-      <c r="L64" s="138"/>
-      <c r="M64" s="139"/>
+      <c r="A64" s="67"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="77"/>
+      <c r="D64" s="78"/>
+      <c r="E64" s="81"/>
+      <c r="F64" s="82"/>
+      <c r="H64" s="71"/>
+      <c r="I64" s="72"/>
+      <c r="J64" s="88"/>
+      <c r="K64" s="89"/>
+      <c r="L64" s="71"/>
+      <c r="M64" s="72"/>
     </row>
     <row r="65" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="63" t="s">
+      <c r="A65" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="B65" s="64"/>
-      <c r="C65" s="63" t="s">
+      <c r="B65" s="53"/>
+      <c r="C65" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="D65" s="64"/>
-      <c r="E65" s="63" t="s">
+      <c r="D65" s="53"/>
+      <c r="E65" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="F65" s="64"/>
-      <c r="H65" s="152" t="s">
+      <c r="F65" s="53"/>
+      <c r="H65" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="I65" s="153"/>
-      <c r="J65" s="152" t="s">
+      <c r="I65" s="55"/>
+      <c r="J65" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="K65" s="153"/>
-      <c r="L65" s="152" t="s">
+      <c r="K65" s="55"/>
+      <c r="L65" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="M65" s="153"/>
+      <c r="M65" s="55"/>
     </row>
     <row r="66" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="59"/>
-      <c r="B66" s="60"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="60"/>
-      <c r="H66" s="136"/>
-      <c r="I66" s="137"/>
-      <c r="J66" s="136"/>
-      <c r="K66" s="137"/>
-      <c r="L66" s="136"/>
-      <c r="M66" s="137"/>
+      <c r="A66" s="65"/>
+      <c r="B66" s="66"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="66"/>
+      <c r="H66" s="69"/>
+      <c r="I66" s="70"/>
+      <c r="J66" s="69"/>
+      <c r="K66" s="70"/>
+      <c r="L66" s="69"/>
+      <c r="M66" s="70"/>
     </row>
     <row r="67" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="61"/>
-      <c r="B67" s="62"/>
-      <c r="C67" s="61"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="62"/>
-      <c r="H67" s="138"/>
-      <c r="I67" s="139"/>
-      <c r="J67" s="138"/>
-      <c r="K67" s="139"/>
-      <c r="L67" s="138"/>
-      <c r="M67" s="139"/>
+      <c r="A67" s="67"/>
+      <c r="B67" s="68"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="68"/>
+      <c r="E67" s="67"/>
+      <c r="F67" s="68"/>
+      <c r="H67" s="71"/>
+      <c r="I67" s="72"/>
+      <c r="J67" s="71"/>
+      <c r="K67" s="72"/>
+      <c r="L67" s="71"/>
+      <c r="M67" s="72"/>
     </row>
     <row r="68" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
@@ -4192,172 +4196,172 @@
       <c r="D68" s="8"/>
     </row>
     <row r="69" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="63" t="s">
+      <c r="A69" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="64"/>
-      <c r="C69" s="63" t="s">
+      <c r="B69" s="53"/>
+      <c r="C69" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="D69" s="64"/>
-      <c r="E69" s="63" t="s">
+      <c r="D69" s="53"/>
+      <c r="E69" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="F69" s="64"/>
-      <c r="H69" s="63" t="s">
+      <c r="F69" s="53"/>
+      <c r="H69" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="I69" s="64"/>
-      <c r="J69" s="63" t="s">
+      <c r="I69" s="53"/>
+      <c r="J69" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="K69" s="64"/>
-      <c r="L69" s="63" t="s">
+      <c r="K69" s="53"/>
+      <c r="L69" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="M69" s="64"/>
+      <c r="M69" s="53"/>
     </row>
     <row r="70" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="59" t="s">
+      <c r="A70" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="B70" s="60"/>
-      <c r="C70" s="59" t="s">
+      <c r="B70" s="66"/>
+      <c r="C70" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="D70" s="60"/>
-      <c r="E70" s="59" t="s">
+      <c r="D70" s="66"/>
+      <c r="E70" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="F70" s="60"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="60"/>
-      <c r="J70" s="59"/>
-      <c r="K70" s="60"/>
-      <c r="L70" s="59"/>
-      <c r="M70" s="60"/>
+      <c r="F70" s="66"/>
+      <c r="H70" s="65"/>
+      <c r="I70" s="66"/>
+      <c r="J70" s="65"/>
+      <c r="K70" s="66"/>
+      <c r="L70" s="65"/>
+      <c r="M70" s="66"/>
     </row>
     <row r="71" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="61"/>
-      <c r="B71" s="62"/>
-      <c r="C71" s="61"/>
-      <c r="D71" s="62"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="62"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="62"/>
-      <c r="J71" s="61"/>
-      <c r="K71" s="62"/>
-      <c r="L71" s="61"/>
-      <c r="M71" s="62"/>
+      <c r="A71" s="67"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="68"/>
+      <c r="H71" s="67"/>
+      <c r="I71" s="68"/>
+      <c r="J71" s="67"/>
+      <c r="K71" s="68"/>
+      <c r="L71" s="67"/>
+      <c r="M71" s="68"/>
     </row>
     <row r="72" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="63" t="s">
+      <c r="A72" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="B72" s="64"/>
-      <c r="C72" s="107" t="s">
+      <c r="B72" s="53"/>
+      <c r="C72" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="D72" s="108"/>
-      <c r="E72" s="63" t="s">
+      <c r="D72" s="74"/>
+      <c r="E72" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="F72" s="64"/>
-      <c r="H72" s="63" t="s">
+      <c r="F72" s="53"/>
+      <c r="H72" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="I72" s="64"/>
-      <c r="J72" s="107" t="s">
+      <c r="I72" s="53"/>
+      <c r="J72" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="K72" s="108"/>
-      <c r="L72" s="63" t="s">
+      <c r="K72" s="74"/>
+      <c r="L72" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="M72" s="64"/>
+      <c r="M72" s="53"/>
     </row>
     <row r="73" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="59"/>
-      <c r="B73" s="60"/>
-      <c r="C73" s="109"/>
-      <c r="D73" s="110"/>
-      <c r="E73" s="122"/>
-      <c r="F73" s="123"/>
-      <c r="H73" s="59"/>
-      <c r="I73" s="60"/>
-      <c r="J73" s="109"/>
-      <c r="K73" s="110"/>
-      <c r="L73" s="122"/>
-      <c r="M73" s="123"/>
+      <c r="A73" s="65"/>
+      <c r="B73" s="66"/>
+      <c r="C73" s="75"/>
+      <c r="D73" s="76"/>
+      <c r="E73" s="79"/>
+      <c r="F73" s="80"/>
+      <c r="H73" s="65"/>
+      <c r="I73" s="66"/>
+      <c r="J73" s="75"/>
+      <c r="K73" s="76"/>
+      <c r="L73" s="79"/>
+      <c r="M73" s="80"/>
     </row>
     <row r="74" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="61"/>
-      <c r="B74" s="62"/>
-      <c r="C74" s="111"/>
-      <c r="D74" s="112"/>
-      <c r="E74" s="124"/>
-      <c r="F74" s="125"/>
-      <c r="H74" s="61"/>
-      <c r="I74" s="62"/>
-      <c r="J74" s="111"/>
-      <c r="K74" s="112"/>
-      <c r="L74" s="124"/>
-      <c r="M74" s="125"/>
+      <c r="A74" s="67"/>
+      <c r="B74" s="68"/>
+      <c r="C74" s="77"/>
+      <c r="D74" s="78"/>
+      <c r="E74" s="81"/>
+      <c r="F74" s="82"/>
+      <c r="H74" s="67"/>
+      <c r="I74" s="68"/>
+      <c r="J74" s="77"/>
+      <c r="K74" s="78"/>
+      <c r="L74" s="81"/>
+      <c r="M74" s="82"/>
     </row>
     <row r="75" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="63" t="s">
+      <c r="A75" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="B75" s="64"/>
-      <c r="C75" s="63" t="s">
+      <c r="B75" s="53"/>
+      <c r="C75" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="D75" s="64"/>
-      <c r="E75" s="63" t="s">
+      <c r="D75" s="53"/>
+      <c r="E75" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="F75" s="64"/>
-      <c r="H75" s="63" t="s">
+      <c r="F75" s="53"/>
+      <c r="H75" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="I75" s="64"/>
-      <c r="J75" s="63" t="s">
+      <c r="I75" s="53"/>
+      <c r="J75" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="K75" s="64"/>
-      <c r="L75" s="63" t="s">
+      <c r="K75" s="53"/>
+      <c r="L75" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="M75" s="64"/>
+      <c r="M75" s="53"/>
     </row>
     <row r="76" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="59"/>
-      <c r="B76" s="60"/>
-      <c r="C76" s="59"/>
-      <c r="D76" s="60"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="60"/>
-      <c r="H76" s="59"/>
-      <c r="I76" s="60"/>
-      <c r="J76" s="59"/>
-      <c r="K76" s="60"/>
-      <c r="L76" s="59"/>
-      <c r="M76" s="60"/>
+      <c r="A76" s="65"/>
+      <c r="B76" s="66"/>
+      <c r="C76" s="65"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="66"/>
+      <c r="H76" s="65"/>
+      <c r="I76" s="66"/>
+      <c r="J76" s="65"/>
+      <c r="K76" s="66"/>
+      <c r="L76" s="65"/>
+      <c r="M76" s="66"/>
     </row>
     <row r="77" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="61"/>
-      <c r="B77" s="62"/>
-      <c r="C77" s="61"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="62"/>
-      <c r="H77" s="61"/>
-      <c r="I77" s="62"/>
-      <c r="J77" s="61"/>
-      <c r="K77" s="62"/>
-      <c r="L77" s="61"/>
-      <c r="M77" s="62"/>
+      <c r="A77" s="67"/>
+      <c r="B77" s="68"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="68"/>
+      <c r="H77" s="67"/>
+      <c r="I77" s="68"/>
+      <c r="J77" s="67"/>
+      <c r="K77" s="68"/>
+      <c r="L77" s="67"/>
+      <c r="M77" s="68"/>
     </row>
     <row r="78" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
@@ -4365,166 +4369,166 @@
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="63" t="s">
+      <c r="A79" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="B79" s="64"/>
-      <c r="C79" s="63" t="s">
+      <c r="B79" s="53"/>
+      <c r="C79" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="D79" s="64"/>
-      <c r="E79" s="63" t="s">
+      <c r="D79" s="53"/>
+      <c r="E79" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="F79" s="64"/>
-      <c r="H79" s="52" t="s">
+      <c r="F79" s="53"/>
+      <c r="H79" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="I79" s="53"/>
-      <c r="J79" s="52" t="s">
+      <c r="I79" s="106"/>
+      <c r="J79" s="105" t="s">
         <v>116</v>
       </c>
-      <c r="K79" s="53"/>
-      <c r="L79" s="52" t="s">
+      <c r="K79" s="106"/>
+      <c r="L79" s="105" t="s">
         <v>138</v>
       </c>
-      <c r="M79" s="53"/>
+      <c r="M79" s="106"/>
     </row>
     <row r="80" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="59"/>
-      <c r="B80" s="60"/>
-      <c r="C80" s="59"/>
-      <c r="D80" s="60"/>
-      <c r="E80" s="59"/>
-      <c r="F80" s="60"/>
-      <c r="H80" s="54"/>
-      <c r="I80" s="55"/>
-      <c r="J80" s="54"/>
-      <c r="K80" s="55"/>
-      <c r="L80" s="54"/>
-      <c r="M80" s="55"/>
+      <c r="A80" s="65"/>
+      <c r="B80" s="66"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="66"/>
+      <c r="H80" s="107"/>
+      <c r="I80" s="108"/>
+      <c r="J80" s="107"/>
+      <c r="K80" s="108"/>
+      <c r="L80" s="107"/>
+      <c r="M80" s="108"/>
     </row>
     <row r="81" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="61"/>
-      <c r="B81" s="62"/>
-      <c r="C81" s="61"/>
-      <c r="D81" s="62"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="62"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="57"/>
-      <c r="J81" s="56"/>
-      <c r="K81" s="57"/>
-      <c r="L81" s="56"/>
-      <c r="M81" s="57"/>
+      <c r="A81" s="67"/>
+      <c r="B81" s="68"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="68"/>
+      <c r="E81" s="67"/>
+      <c r="F81" s="68"/>
+      <c r="H81" s="109"/>
+      <c r="I81" s="110"/>
+      <c r="J81" s="109"/>
+      <c r="K81" s="110"/>
+      <c r="L81" s="109"/>
+      <c r="M81" s="110"/>
     </row>
     <row r="82" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="63" t="s">
+      <c r="A82" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="B82" s="64"/>
-      <c r="C82" s="107" t="s">
+      <c r="B82" s="53"/>
+      <c r="C82" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="D82" s="108"/>
-      <c r="E82" s="63" t="s">
+      <c r="D82" s="74"/>
+      <c r="E82" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="F82" s="64"/>
-      <c r="H82" s="52" t="s">
+      <c r="F82" s="53"/>
+      <c r="H82" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="I82" s="53"/>
-      <c r="J82" s="107" t="s">
+      <c r="I82" s="106"/>
+      <c r="J82" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="K82" s="108"/>
-      <c r="L82" s="52" t="s">
+      <c r="K82" s="74"/>
+      <c r="L82" s="105" t="s">
         <v>148</v>
       </c>
-      <c r="M82" s="53"/>
+      <c r="M82" s="106"/>
     </row>
     <row r="83" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="59"/>
-      <c r="B83" s="60"/>
-      <c r="C83" s="109"/>
-      <c r="D83" s="110"/>
-      <c r="E83" s="122"/>
-      <c r="F83" s="123"/>
-      <c r="H83" s="54"/>
-      <c r="I83" s="55"/>
-      <c r="J83" s="109"/>
-      <c r="K83" s="110"/>
-      <c r="L83" s="54"/>
-      <c r="M83" s="55"/>
+      <c r="A83" s="65"/>
+      <c r="B83" s="66"/>
+      <c r="C83" s="75"/>
+      <c r="D83" s="76"/>
+      <c r="E83" s="79"/>
+      <c r="F83" s="80"/>
+      <c r="H83" s="107"/>
+      <c r="I83" s="108"/>
+      <c r="J83" s="75"/>
+      <c r="K83" s="76"/>
+      <c r="L83" s="107"/>
+      <c r="M83" s="108"/>
     </row>
     <row r="84" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="61"/>
-      <c r="B84" s="62"/>
-      <c r="C84" s="111"/>
-      <c r="D84" s="112"/>
-      <c r="E84" s="124"/>
-      <c r="F84" s="125"/>
-      <c r="H84" s="56"/>
-      <c r="I84" s="57"/>
-      <c r="J84" s="111"/>
-      <c r="K84" s="112"/>
-      <c r="L84" s="56"/>
-      <c r="M84" s="57"/>
+      <c r="A84" s="67"/>
+      <c r="B84" s="68"/>
+      <c r="C84" s="77"/>
+      <c r="D84" s="78"/>
+      <c r="E84" s="81"/>
+      <c r="F84" s="82"/>
+      <c r="H84" s="109"/>
+      <c r="I84" s="110"/>
+      <c r="J84" s="77"/>
+      <c r="K84" s="78"/>
+      <c r="L84" s="109"/>
+      <c r="M84" s="110"/>
     </row>
     <row r="85" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="63" t="s">
+      <c r="A85" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="B85" s="64"/>
-      <c r="C85" s="63" t="s">
+      <c r="B85" s="53"/>
+      <c r="C85" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="64"/>
-      <c r="E85" s="63" t="s">
+      <c r="D85" s="53"/>
+      <c r="E85" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="F85" s="64"/>
-      <c r="H85" s="52" t="s">
+      <c r="F85" s="53"/>
+      <c r="H85" s="105" t="s">
         <v>154</v>
       </c>
-      <c r="I85" s="53"/>
-      <c r="J85" s="52" t="s">
+      <c r="I85" s="106"/>
+      <c r="J85" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="K85" s="53"/>
-      <c r="L85" s="52" t="s">
+      <c r="K85" s="106"/>
+      <c r="L85" s="105" t="s">
         <v>145</v>
       </c>
-      <c r="M85" s="53"/>
+      <c r="M85" s="106"/>
     </row>
     <row r="86" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="59"/>
-      <c r="B86" s="60"/>
-      <c r="C86" s="59"/>
-      <c r="D86" s="60"/>
-      <c r="E86" s="59"/>
-      <c r="F86" s="60"/>
-      <c r="H86" s="54"/>
-      <c r="I86" s="55"/>
-      <c r="J86" s="54"/>
-      <c r="K86" s="55"/>
-      <c r="L86" s="54"/>
-      <c r="M86" s="55"/>
+      <c r="A86" s="65"/>
+      <c r="B86" s="66"/>
+      <c r="C86" s="65"/>
+      <c r="D86" s="66"/>
+      <c r="E86" s="65"/>
+      <c r="F86" s="66"/>
+      <c r="H86" s="107"/>
+      <c r="I86" s="108"/>
+      <c r="J86" s="107"/>
+      <c r="K86" s="108"/>
+      <c r="L86" s="107"/>
+      <c r="M86" s="108"/>
     </row>
     <row r="87" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="61"/>
-      <c r="B87" s="62"/>
-      <c r="C87" s="61"/>
-      <c r="D87" s="62"/>
-      <c r="E87" s="61"/>
-      <c r="F87" s="62"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="57"/>
-      <c r="J87" s="56"/>
-      <c r="K87" s="57"/>
-      <c r="L87" s="56"/>
-      <c r="M87" s="57"/>
+      <c r="A87" s="67"/>
+      <c r="B87" s="68"/>
+      <c r="C87" s="67"/>
+      <c r="D87" s="68"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="68"/>
+      <c r="H87" s="109"/>
+      <c r="I87" s="110"/>
+      <c r="J87" s="109"/>
+      <c r="K87" s="110"/>
+      <c r="L87" s="109"/>
+      <c r="M87" s="110"/>
     </row>
     <row r="88" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
@@ -4532,143 +4536,182 @@
       <c r="D88" s="8"/>
     </row>
     <row r="89" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="52" t="s">
+      <c r="A89" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="B89" s="53"/>
-      <c r="C89" s="82" t="s">
+      <c r="B89" s="106"/>
+      <c r="C89" s="111" t="s">
         <v>116</v>
       </c>
-      <c r="D89" s="83"/>
-      <c r="E89" s="113" t="s">
+      <c r="D89" s="112"/>
+      <c r="E89" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="F89" s="114"/>
+      <c r="F89" s="118"/>
     </row>
     <row r="90" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="54"/>
-      <c r="B90" s="55"/>
-      <c r="C90" s="84"/>
-      <c r="D90" s="85"/>
-      <c r="E90" s="115"/>
-      <c r="F90" s="116"/>
+      <c r="A90" s="107"/>
+      <c r="B90" s="108"/>
+      <c r="C90" s="113"/>
+      <c r="D90" s="114"/>
+      <c r="E90" s="119"/>
+      <c r="F90" s="120"/>
     </row>
     <row r="91" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="56"/>
-      <c r="B91" s="57"/>
-      <c r="C91" s="86"/>
-      <c r="D91" s="87"/>
-      <c r="E91" s="117"/>
-      <c r="F91" s="118"/>
+      <c r="A91" s="109"/>
+      <c r="B91" s="110"/>
+      <c r="C91" s="115"/>
+      <c r="D91" s="116"/>
+      <c r="E91" s="121"/>
+      <c r="F91" s="122"/>
     </row>
     <row r="92" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="82" t="s">
+      <c r="A92" s="111" t="s">
         <v>139</v>
       </c>
-      <c r="B92" s="83"/>
-      <c r="C92" s="88" t="s">
+      <c r="B92" s="112"/>
+      <c r="C92" s="143" t="s">
         <v>155</v>
       </c>
-      <c r="D92" s="89"/>
-      <c r="E92" s="94" t="s">
+      <c r="D92" s="144"/>
+      <c r="E92" s="149" t="s">
         <v>148</v>
       </c>
-      <c r="F92" s="95"/>
+      <c r="F92" s="150"/>
     </row>
     <row r="93" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="84"/>
-      <c r="B93" s="85"/>
-      <c r="C93" s="90"/>
-      <c r="D93" s="91"/>
-      <c r="E93" s="96"/>
-      <c r="F93" s="97"/>
+      <c r="A93" s="113"/>
+      <c r="B93" s="114"/>
+      <c r="C93" s="145"/>
+      <c r="D93" s="146"/>
+      <c r="E93" s="151"/>
+      <c r="F93" s="152"/>
     </row>
     <row r="94" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="86"/>
-      <c r="B94" s="87"/>
-      <c r="C94" s="92"/>
-      <c r="D94" s="93"/>
-      <c r="E94" s="98"/>
-      <c r="F94" s="99"/>
+      <c r="A94" s="115"/>
+      <c r="B94" s="116"/>
+      <c r="C94" s="147"/>
+      <c r="D94" s="148"/>
+      <c r="E94" s="153"/>
+      <c r="F94" s="154"/>
     </row>
     <row r="95" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="43" t="s">
+      <c r="A95" s="162" t="s">
         <v>154</v>
       </c>
-      <c r="B95" s="44"/>
-      <c r="C95" s="65" t="s">
+      <c r="B95" s="163"/>
+      <c r="C95" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="D95" s="66"/>
-      <c r="E95" s="71" t="s">
+      <c r="D95" s="127"/>
+      <c r="E95" s="132" t="s">
         <v>145</v>
       </c>
-      <c r="F95" s="72"/>
+      <c r="F95" s="133"/>
     </row>
     <row r="96" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="45"/>
-      <c r="B96" s="46"/>
-      <c r="C96" s="67"/>
-      <c r="D96" s="68"/>
-      <c r="E96" s="73"/>
-      <c r="F96" s="74"/>
+      <c r="A96" s="164"/>
+      <c r="B96" s="165"/>
+      <c r="C96" s="128"/>
+      <c r="D96" s="129"/>
+      <c r="E96" s="134"/>
+      <c r="F96" s="135"/>
     </row>
     <row r="97" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="47"/>
-      <c r="B97" s="48"/>
-      <c r="C97" s="69"/>
-      <c r="D97" s="70"/>
-      <c r="E97" s="75"/>
-      <c r="F97" s="76"/>
+      <c r="A97" s="166"/>
+      <c r="B97" s="167"/>
+      <c r="C97" s="130"/>
+      <c r="D97" s="131"/>
+      <c r="E97" s="136"/>
+      <c r="F97" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="155">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:R1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A58:M58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="A66:B67"/>
-    <mergeCell ref="C66:D67"/>
-    <mergeCell ref="E66:F67"/>
-    <mergeCell ref="H66:I67"/>
-    <mergeCell ref="J66:K67"/>
+    <mergeCell ref="A95:B97"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A89:B91"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A83:B84"/>
+    <mergeCell ref="A73:B74"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A60:B61"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="H85:I87"/>
+    <mergeCell ref="J85:K87"/>
+    <mergeCell ref="L85:M87"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A86:B87"/>
+    <mergeCell ref="C86:D87"/>
+    <mergeCell ref="E86:F87"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="C95:D97"/>
+    <mergeCell ref="E95:F97"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:D94"/>
+    <mergeCell ref="E92:F94"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D84"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="C89:D91"/>
+    <mergeCell ref="E89:F91"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="C62:D64"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="H82:I84"/>
+    <mergeCell ref="J82:K84"/>
+    <mergeCell ref="L82:M84"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="H79:I81"/>
+    <mergeCell ref="J79:K81"/>
+    <mergeCell ref="L79:M81"/>
+    <mergeCell ref="A80:B81"/>
+    <mergeCell ref="C80:D81"/>
+    <mergeCell ref="E80:F81"/>
+    <mergeCell ref="E83:F84"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="A30:D36"/>
+    <mergeCell ref="A76:B77"/>
+    <mergeCell ref="C76:D77"/>
+    <mergeCell ref="E76:F77"/>
+    <mergeCell ref="H76:I77"/>
+    <mergeCell ref="J76:K77"/>
+    <mergeCell ref="L76:M77"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="L70:M71"/>
+    <mergeCell ref="H63:I64"/>
+    <mergeCell ref="L63:M64"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="E60:F61"/>
+    <mergeCell ref="H60:I61"/>
+    <mergeCell ref="J60:K61"/>
+    <mergeCell ref="L60:M61"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D74"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="H72:I72"/>
     <mergeCell ref="J72:K74"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="B27:D27"/>
@@ -4693,91 +4736,52 @@
     <mergeCell ref="J65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="A62:B62"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="A30:D36"/>
-    <mergeCell ref="A76:B77"/>
-    <mergeCell ref="C76:D77"/>
-    <mergeCell ref="E76:F77"/>
-    <mergeCell ref="H76:I77"/>
-    <mergeCell ref="J76:K77"/>
-    <mergeCell ref="L76:M77"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="L70:M71"/>
-    <mergeCell ref="H63:I64"/>
-    <mergeCell ref="L63:M64"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="E60:F61"/>
-    <mergeCell ref="H60:I61"/>
-    <mergeCell ref="J60:K61"/>
-    <mergeCell ref="L60:M61"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D74"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H82:I84"/>
-    <mergeCell ref="J82:K84"/>
-    <mergeCell ref="L82:M84"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="H79:I81"/>
-    <mergeCell ref="J79:K81"/>
-    <mergeCell ref="L79:M81"/>
-    <mergeCell ref="A80:B81"/>
-    <mergeCell ref="C80:D81"/>
-    <mergeCell ref="E80:F81"/>
-    <mergeCell ref="E83:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D84"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="C89:D91"/>
-    <mergeCell ref="E89:F91"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="C62:D64"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="H85:I87"/>
-    <mergeCell ref="J85:K87"/>
-    <mergeCell ref="L85:M87"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A86:B87"/>
-    <mergeCell ref="C86:D87"/>
-    <mergeCell ref="E86:F87"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="C95:D97"/>
-    <mergeCell ref="E95:F97"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:D94"/>
-    <mergeCell ref="E92:F94"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="A95:B97"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A89:B91"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A83:B84"/>
-    <mergeCell ref="A73:B74"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A60:B61"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="A66:B67"/>
+    <mergeCell ref="C66:D67"/>
+    <mergeCell ref="E66:F67"/>
+    <mergeCell ref="H66:I67"/>
+    <mergeCell ref="J66:K67"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A58:M58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:R1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4788,7 +4792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B14" sqref="B14:D14"/>
     </sheetView>
   </sheetViews>
@@ -4816,36 +4820,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="166"/>
-      <c r="F1" s="167" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47"/>
+      <c r="F1" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
     </row>
     <row r="2" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="C2" s="163"/>
+      <c r="C2" s="44"/>
       <c r="D2" s="34"/>
       <c r="F2" s="10"/>
       <c r="G2" s="12" t="s">
@@ -4884,22 +4888,38 @@
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="162" t="s">
+      <c r="B3" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="163"/>
-      <c r="D3" s="34"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="34" t="s">
+        <v>224</v>
+      </c>
       <c r="F3" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="16"/>
+      <c r="G3" s="16" t="s">
+        <v>196</v>
+      </c>
       <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
+      <c r="I3" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>196</v>
+      </c>
       <c r="O3" s="16"/>
       <c r="R3" s="16"/>
     </row>
@@ -4907,20 +4927,32 @@
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="163"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="34"/>
       <c r="F4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+      <c r="G4" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>196</v>
+      </c>
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
@@ -4930,15 +4962,21 @@
       <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="34"/>
       <c r="F5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="G5" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>196</v>
+      </c>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
@@ -4951,8 +4989,8 @@
       <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="162"/>
-      <c r="C6" s="163"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="34"/>
       <c r="F6" s="17" t="s">
         <v>17</v>
@@ -4972,8 +5010,8 @@
       <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="162"/>
-      <c r="C7" s="163"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
       <c r="D7" s="34"/>
       <c r="F7" s="17" t="s">
         <v>18</v>
@@ -4993,8 +5031,8 @@
       <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="162"/>
-      <c r="C8" s="163"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="34"/>
       <c r="R8" s="16"/>
     </row>
@@ -5002,8 +5040,8 @@
       <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="162"/>
-      <c r="C9" s="163"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="34"/>
       <c r="F9" s="10"/>
       <c r="G9" s="12" t="s">
@@ -5037,8 +5075,8 @@
       <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10" s="162"/>
-      <c r="C10" s="163"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="34"/>
       <c r="F10" s="17" t="s">
         <v>19</v>
@@ -5059,8 +5097,8 @@
       <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="162"/>
-      <c r="C11" s="163"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="34"/>
       <c r="F11" s="15" t="s">
         <v>20</v>
@@ -5078,537 +5116,537 @@
       <c r="Q11" s="16"/>
     </row>
     <row r="12" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="154" t="s">
+      <c r="A12" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="154"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
     </row>
     <row r="13" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="B13" s="158" t="s">
-        <v>224</v>
-      </c>
-      <c r="C13" s="159"/>
-      <c r="D13" s="160"/>
+      <c r="B13" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
     </row>
     <row r="14" spans="1:18" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="158"/>
-      <c r="C14" s="159"/>
-      <c r="D14" s="160"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60"/>
     </row>
     <row r="15" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="158"/>
-      <c r="C15" s="159"/>
-      <c r="D15" s="160"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
     </row>
     <row r="16" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="158"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="160"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
     </row>
     <row r="17" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="158"/>
-      <c r="C17" s="159"/>
-      <c r="D17" s="160"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
     </row>
     <row r="18" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="158"/>
-      <c r="C18" s="159"/>
-      <c r="D18" s="160"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
     </row>
     <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="158"/>
-      <c r="C19" s="159"/>
-      <c r="D19" s="160"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="161" t="s">
+      <c r="A20" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="B20" s="161"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
     </row>
     <row r="21" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>1</v>
       </c>
-      <c r="B21" s="142"/>
-      <c r="C21" s="143"/>
-      <c r="D21" s="144"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="64"/>
     </row>
     <row r="22" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>2</v>
       </c>
-      <c r="B22" s="142"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="144"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="64"/>
     </row>
     <row r="23" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>3</v>
       </c>
-      <c r="B23" s="142"/>
-      <c r="C23" s="143"/>
-      <c r="D23" s="144"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
     </row>
     <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>4</v>
       </c>
-      <c r="B24" s="142"/>
-      <c r="C24" s="143"/>
-      <c r="D24" s="144"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="64"/>
     </row>
     <row r="25" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>5</v>
       </c>
-      <c r="B25" s="142"/>
-      <c r="C25" s="143"/>
-      <c r="D25" s="144"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="64"/>
     </row>
     <row r="26" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>6</v>
       </c>
-      <c r="B26" s="142"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="144"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="64"/>
     </row>
     <row r="27" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>7</v>
       </c>
-      <c r="B27" s="142"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="144"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="64"/>
     </row>
     <row r="28" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>8</v>
       </c>
-      <c r="B28" s="142"/>
-      <c r="C28" s="143"/>
-      <c r="D28" s="144"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="64"/>
     </row>
     <row r="29" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="145" t="s">
+      <c r="A29" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="B29" s="145"/>
-      <c r="C29" s="145"/>
-      <c r="D29" s="145"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
     </row>
     <row r="30" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="126"/>
-      <c r="B30" s="127"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="128"/>
+      <c r="A30" s="90"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="92"/>
     </row>
     <row r="31" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="129"/>
-      <c r="B31" s="130"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="131"/>
+      <c r="A31" s="93"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="95"/>
     </row>
     <row r="32" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="129"/>
-      <c r="B32" s="130"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="131"/>
+      <c r="A32" s="93"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="95"/>
     </row>
     <row r="33" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="129"/>
-      <c r="B33" s="130"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="131"/>
+      <c r="A33" s="93"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="95"/>
     </row>
     <row r="34" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="129"/>
-      <c r="B34" s="130"/>
-      <c r="C34" s="130"/>
-      <c r="D34" s="131"/>
+      <c r="A34" s="93"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="95"/>
     </row>
     <row r="35" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="129"/>
-      <c r="B35" s="130"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="131"/>
+      <c r="A35" s="93"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="95"/>
     </row>
     <row r="36" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="132"/>
-      <c r="B36" s="133"/>
-      <c r="C36" s="133"/>
-      <c r="D36" s="134"/>
+      <c r="A36" s="96"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="98"/>
     </row>
     <row r="37" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="58" t="s">
+      <c r="A37" s="168" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
     </row>
     <row r="38" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="135" t="s">
+      <c r="A38" s="99" t="s">
         <v>153</v>
       </c>
-      <c r="B38" s="135"/>
-      <c r="C38" s="135"/>
-      <c r="D38" s="135"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
     </row>
     <row r="39" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>1</v>
       </c>
-      <c r="B39" s="49"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="51"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="102"/>
       <c r="T39" s="25"/>
     </row>
     <row r="40" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>2</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="51"/>
+      <c r="B40" s="100"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="102"/>
     </row>
     <row r="41" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>3</v>
       </c>
-      <c r="B41" s="49"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="51"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="102"/>
     </row>
     <row r="42" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>4</v>
       </c>
-      <c r="B42" s="49"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="51"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="102"/>
     </row>
     <row r="43" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>5</v>
       </c>
-      <c r="B43" s="49"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="51"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="102"/>
     </row>
     <row r="44" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>6</v>
       </c>
-      <c r="B44" s="49"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="51"/>
+      <c r="B44" s="100"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="102"/>
     </row>
     <row r="45" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>7</v>
       </c>
-      <c r="B45" s="119"/>
-      <c r="C45" s="120"/>
-      <c r="D45" s="121"/>
+      <c r="B45" s="123"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="125"/>
     </row>
     <row r="46" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>8</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="81"/>
+      <c r="B46" s="141"/>
+      <c r="C46" s="142"/>
+      <c r="D46" s="142"/>
     </row>
     <row r="47" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="100"/>
-      <c r="B47" s="100"/>
-      <c r="C47" s="100"/>
-      <c r="D47" s="100"/>
+      <c r="A47" s="155"/>
+      <c r="B47" s="155"/>
+      <c r="C47" s="155"/>
+      <c r="D47" s="155"/>
     </row>
     <row r="48" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="101" t="s">
+      <c r="A48" s="156" t="s">
         <v>127</v>
       </c>
-      <c r="B48" s="101"/>
-      <c r="C48" s="101"/>
-      <c r="D48" s="101"/>
+      <c r="B48" s="156"/>
+      <c r="C48" s="156"/>
+      <c r="D48" s="156"/>
     </row>
     <row r="49" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="32">
         <v>1</v>
       </c>
-      <c r="B49" s="77"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="79"/>
+      <c r="B49" s="138"/>
+      <c r="C49" s="139"/>
+      <c r="D49" s="140"/>
     </row>
     <row r="50" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="32">
         <v>2</v>
       </c>
-      <c r="B50" s="77"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="79"/>
+      <c r="B50" s="138"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="140"/>
     </row>
     <row r="51" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="32">
         <v>3</v>
       </c>
-      <c r="B51" s="77"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="79"/>
+      <c r="B51" s="138"/>
+      <c r="C51" s="139"/>
+      <c r="D51" s="140"/>
     </row>
     <row r="52" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>4</v>
       </c>
-      <c r="B52" s="102"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="103"/>
+      <c r="B52" s="157"/>
+      <c r="C52" s="139"/>
+      <c r="D52" s="158"/>
     </row>
     <row r="53" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="32">
         <v>5</v>
       </c>
-      <c r="B53" s="77"/>
-      <c r="C53" s="78"/>
-      <c r="D53" s="79"/>
+      <c r="B53" s="138"/>
+      <c r="C53" s="139"/>
+      <c r="D53" s="140"/>
     </row>
     <row r="54" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32">
         <v>6</v>
       </c>
-      <c r="B54" s="77"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="79"/>
+      <c r="B54" s="138"/>
+      <c r="C54" s="139"/>
+      <c r="D54" s="140"/>
     </row>
     <row r="55" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32">
         <v>7</v>
       </c>
-      <c r="B55" s="77"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="79"/>
+      <c r="B55" s="138"/>
+      <c r="C55" s="139"/>
+      <c r="D55" s="140"/>
     </row>
     <row r="56" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="32">
         <v>8</v>
       </c>
-      <c r="B56" s="104"/>
-      <c r="C56" s="105"/>
-      <c r="D56" s="106"/>
+      <c r="B56" s="159"/>
+      <c r="C56" s="160"/>
+      <c r="D56" s="161"/>
     </row>
     <row r="58" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="155" t="s">
+      <c r="A58" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="B58" s="155"/>
-      <c r="C58" s="155"/>
-      <c r="D58" s="155"/>
-      <c r="E58" s="155"/>
-      <c r="F58" s="155"/>
-      <c r="G58" s="155"/>
-      <c r="H58" s="155"/>
-      <c r="I58" s="155"/>
-      <c r="J58" s="155"/>
-      <c r="K58" s="155"/>
-      <c r="L58" s="155"/>
-      <c r="M58" s="155"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="51"/>
+      <c r="K58" s="51"/>
+      <c r="L58" s="51"/>
+      <c r="M58" s="51"/>
     </row>
     <row r="59" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="63" t="s">
+      <c r="A59" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="B59" s="64"/>
-      <c r="C59" s="63" t="s">
+      <c r="B59" s="53"/>
+      <c r="C59" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="D59" s="64"/>
-      <c r="E59" s="63" t="s">
+      <c r="D59" s="53"/>
+      <c r="E59" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="F59" s="64"/>
-      <c r="H59" s="152" t="s">
+      <c r="F59" s="53"/>
+      <c r="H59" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="I59" s="153"/>
-      <c r="J59" s="152" t="s">
+      <c r="I59" s="55"/>
+      <c r="J59" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="K59" s="153"/>
-      <c r="L59" s="156" t="s">
+      <c r="K59" s="55"/>
+      <c r="L59" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="M59" s="157"/>
+      <c r="M59" s="57"/>
     </row>
     <row r="60" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="59" t="s">
+      <c r="A60" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="60"/>
-      <c r="C60" s="59" t="s">
+      <c r="B60" s="66"/>
+      <c r="C60" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="D60" s="60"/>
-      <c r="E60" s="59" t="s">
+      <c r="D60" s="66"/>
+      <c r="E60" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="F60" s="60"/>
-      <c r="H60" s="136"/>
-      <c r="I60" s="137"/>
-      <c r="J60" s="136"/>
-      <c r="K60" s="137"/>
-      <c r="L60" s="140"/>
-      <c r="M60" s="141"/>
+      <c r="F60" s="66"/>
+      <c r="H60" s="69"/>
+      <c r="I60" s="70"/>
+      <c r="J60" s="69"/>
+      <c r="K60" s="70"/>
+      <c r="L60" s="103"/>
+      <c r="M60" s="104"/>
     </row>
     <row r="61" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="61"/>
-      <c r="B61" s="62"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="62"/>
-      <c r="H61" s="138"/>
-      <c r="I61" s="139"/>
-      <c r="J61" s="138"/>
-      <c r="K61" s="139"/>
-      <c r="L61" s="138"/>
-      <c r="M61" s="139"/>
+      <c r="A61" s="67"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="68"/>
+      <c r="H61" s="71"/>
+      <c r="I61" s="72"/>
+      <c r="J61" s="71"/>
+      <c r="K61" s="72"/>
+      <c r="L61" s="71"/>
+      <c r="M61" s="72"/>
     </row>
     <row r="62" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="63" t="s">
+      <c r="A62" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="B62" s="64"/>
-      <c r="C62" s="107" t="s">
+      <c r="B62" s="53"/>
+      <c r="C62" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="108"/>
-      <c r="E62" s="63" t="s">
+      <c r="D62" s="74"/>
+      <c r="E62" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="F62" s="64"/>
-      <c r="H62" s="152" t="s">
+      <c r="F62" s="53"/>
+      <c r="H62" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="I62" s="153"/>
-      <c r="J62" s="146" t="s">
+      <c r="I62" s="55"/>
+      <c r="J62" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="K62" s="147"/>
-      <c r="L62" s="152" t="s">
+      <c r="K62" s="85"/>
+      <c r="L62" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="M62" s="153"/>
+      <c r="M62" s="55"/>
     </row>
     <row r="63" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="59"/>
-      <c r="B63" s="60"/>
-      <c r="C63" s="109"/>
-      <c r="D63" s="110"/>
-      <c r="E63" s="122"/>
-      <c r="F63" s="123"/>
+      <c r="A63" s="65"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="75"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="80"/>
       <c r="G63" s="23"/>
-      <c r="H63" s="136"/>
-      <c r="I63" s="137"/>
-      <c r="J63" s="148"/>
-      <c r="K63" s="149"/>
-      <c r="L63" s="136"/>
-      <c r="M63" s="137"/>
+      <c r="H63" s="69"/>
+      <c r="I63" s="70"/>
+      <c r="J63" s="86"/>
+      <c r="K63" s="87"/>
+      <c r="L63" s="69"/>
+      <c r="M63" s="70"/>
     </row>
     <row r="64" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="61"/>
-      <c r="B64" s="62"/>
-      <c r="C64" s="111"/>
-      <c r="D64" s="112"/>
-      <c r="E64" s="124"/>
-      <c r="F64" s="125"/>
-      <c r="H64" s="138"/>
-      <c r="I64" s="139"/>
-      <c r="J64" s="150"/>
-      <c r="K64" s="151"/>
-      <c r="L64" s="138"/>
-      <c r="M64" s="139"/>
+      <c r="A64" s="67"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="77"/>
+      <c r="D64" s="78"/>
+      <c r="E64" s="81"/>
+      <c r="F64" s="82"/>
+      <c r="H64" s="71"/>
+      <c r="I64" s="72"/>
+      <c r="J64" s="88"/>
+      <c r="K64" s="89"/>
+      <c r="L64" s="71"/>
+      <c r="M64" s="72"/>
     </row>
     <row r="65" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="63" t="s">
+      <c r="A65" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="B65" s="64"/>
-      <c r="C65" s="63" t="s">
+      <c r="B65" s="53"/>
+      <c r="C65" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="D65" s="64"/>
-      <c r="E65" s="63" t="s">
+      <c r="D65" s="53"/>
+      <c r="E65" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="F65" s="64"/>
-      <c r="H65" s="152" t="s">
+      <c r="F65" s="53"/>
+      <c r="H65" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="I65" s="153"/>
-      <c r="J65" s="152" t="s">
+      <c r="I65" s="55"/>
+      <c r="J65" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="K65" s="153"/>
-      <c r="L65" s="152" t="s">
+      <c r="K65" s="55"/>
+      <c r="L65" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="M65" s="153"/>
+      <c r="M65" s="55"/>
     </row>
     <row r="66" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="59"/>
-      <c r="B66" s="60"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="60"/>
-      <c r="H66" s="136"/>
-      <c r="I66" s="137"/>
-      <c r="J66" s="136"/>
-      <c r="K66" s="137"/>
-      <c r="L66" s="136"/>
-      <c r="M66" s="137"/>
+      <c r="A66" s="65"/>
+      <c r="B66" s="66"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="66"/>
+      <c r="H66" s="69"/>
+      <c r="I66" s="70"/>
+      <c r="J66" s="69"/>
+      <c r="K66" s="70"/>
+      <c r="L66" s="69"/>
+      <c r="M66" s="70"/>
     </row>
     <row r="67" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="61"/>
-      <c r="B67" s="62"/>
-      <c r="C67" s="61"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="62"/>
-      <c r="H67" s="138"/>
-      <c r="I67" s="139"/>
-      <c r="J67" s="138"/>
-      <c r="K67" s="139"/>
-      <c r="L67" s="138"/>
-      <c r="M67" s="139"/>
+      <c r="A67" s="67"/>
+      <c r="B67" s="68"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="68"/>
+      <c r="E67" s="67"/>
+      <c r="F67" s="68"/>
+      <c r="H67" s="71"/>
+      <c r="I67" s="72"/>
+      <c r="J67" s="71"/>
+      <c r="K67" s="72"/>
+      <c r="L67" s="71"/>
+      <c r="M67" s="72"/>
     </row>
     <row r="68" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
@@ -5616,172 +5654,172 @@
       <c r="D68" s="8"/>
     </row>
     <row r="69" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="63" t="s">
+      <c r="A69" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="64"/>
-      <c r="C69" s="63" t="s">
+      <c r="B69" s="53"/>
+      <c r="C69" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="D69" s="64"/>
-      <c r="E69" s="63" t="s">
+      <c r="D69" s="53"/>
+      <c r="E69" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="F69" s="64"/>
-      <c r="H69" s="63" t="s">
+      <c r="F69" s="53"/>
+      <c r="H69" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="I69" s="64"/>
-      <c r="J69" s="63" t="s">
+      <c r="I69" s="53"/>
+      <c r="J69" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="K69" s="64"/>
-      <c r="L69" s="63" t="s">
+      <c r="K69" s="53"/>
+      <c r="L69" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="M69" s="64"/>
+      <c r="M69" s="53"/>
     </row>
     <row r="70" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="59" t="s">
+      <c r="A70" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="B70" s="60"/>
-      <c r="C70" s="59" t="s">
+      <c r="B70" s="66"/>
+      <c r="C70" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="D70" s="60"/>
-      <c r="E70" s="59" t="s">
+      <c r="D70" s="66"/>
+      <c r="E70" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="F70" s="60"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="60"/>
-      <c r="J70" s="59"/>
-      <c r="K70" s="60"/>
-      <c r="L70" s="59"/>
-      <c r="M70" s="60"/>
+      <c r="F70" s="66"/>
+      <c r="H70" s="65"/>
+      <c r="I70" s="66"/>
+      <c r="J70" s="65"/>
+      <c r="K70" s="66"/>
+      <c r="L70" s="65"/>
+      <c r="M70" s="66"/>
     </row>
     <row r="71" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="61"/>
-      <c r="B71" s="62"/>
-      <c r="C71" s="61"/>
-      <c r="D71" s="62"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="62"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="62"/>
-      <c r="J71" s="61"/>
-      <c r="K71" s="62"/>
-      <c r="L71" s="61"/>
-      <c r="M71" s="62"/>
+      <c r="A71" s="67"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="68"/>
+      <c r="H71" s="67"/>
+      <c r="I71" s="68"/>
+      <c r="J71" s="67"/>
+      <c r="K71" s="68"/>
+      <c r="L71" s="67"/>
+      <c r="M71" s="68"/>
     </row>
     <row r="72" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="63" t="s">
+      <c r="A72" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="B72" s="64"/>
-      <c r="C72" s="107" t="s">
+      <c r="B72" s="53"/>
+      <c r="C72" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="D72" s="108"/>
-      <c r="E72" s="63" t="s">
+      <c r="D72" s="74"/>
+      <c r="E72" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="F72" s="64"/>
-      <c r="H72" s="63" t="s">
+      <c r="F72" s="53"/>
+      <c r="H72" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="I72" s="64"/>
-      <c r="J72" s="107" t="s">
+      <c r="I72" s="53"/>
+      <c r="J72" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="K72" s="108"/>
-      <c r="L72" s="63" t="s">
+      <c r="K72" s="74"/>
+      <c r="L72" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="M72" s="64"/>
+      <c r="M72" s="53"/>
     </row>
     <row r="73" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="59"/>
-      <c r="B73" s="60"/>
-      <c r="C73" s="109"/>
-      <c r="D73" s="110"/>
-      <c r="E73" s="122"/>
-      <c r="F73" s="123"/>
-      <c r="H73" s="59"/>
-      <c r="I73" s="60"/>
-      <c r="J73" s="109"/>
-      <c r="K73" s="110"/>
-      <c r="L73" s="122"/>
-      <c r="M73" s="123"/>
+      <c r="A73" s="65"/>
+      <c r="B73" s="66"/>
+      <c r="C73" s="75"/>
+      <c r="D73" s="76"/>
+      <c r="E73" s="79"/>
+      <c r="F73" s="80"/>
+      <c r="H73" s="65"/>
+      <c r="I73" s="66"/>
+      <c r="J73" s="75"/>
+      <c r="K73" s="76"/>
+      <c r="L73" s="79"/>
+      <c r="M73" s="80"/>
     </row>
     <row r="74" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="61"/>
-      <c r="B74" s="62"/>
-      <c r="C74" s="111"/>
-      <c r="D74" s="112"/>
-      <c r="E74" s="124"/>
-      <c r="F74" s="125"/>
-      <c r="H74" s="61"/>
-      <c r="I74" s="62"/>
-      <c r="J74" s="111"/>
-      <c r="K74" s="112"/>
-      <c r="L74" s="124"/>
-      <c r="M74" s="125"/>
+      <c r="A74" s="67"/>
+      <c r="B74" s="68"/>
+      <c r="C74" s="77"/>
+      <c r="D74" s="78"/>
+      <c r="E74" s="81"/>
+      <c r="F74" s="82"/>
+      <c r="H74" s="67"/>
+      <c r="I74" s="68"/>
+      <c r="J74" s="77"/>
+      <c r="K74" s="78"/>
+      <c r="L74" s="81"/>
+      <c r="M74" s="82"/>
     </row>
     <row r="75" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="63" t="s">
+      <c r="A75" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="B75" s="64"/>
-      <c r="C75" s="63" t="s">
+      <c r="B75" s="53"/>
+      <c r="C75" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="D75" s="64"/>
-      <c r="E75" s="63" t="s">
+      <c r="D75" s="53"/>
+      <c r="E75" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="F75" s="64"/>
-      <c r="H75" s="63" t="s">
+      <c r="F75" s="53"/>
+      <c r="H75" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="I75" s="64"/>
-      <c r="J75" s="63" t="s">
+      <c r="I75" s="53"/>
+      <c r="J75" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="K75" s="64"/>
-      <c r="L75" s="63" t="s">
+      <c r="K75" s="53"/>
+      <c r="L75" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="M75" s="64"/>
+      <c r="M75" s="53"/>
     </row>
     <row r="76" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="59"/>
-      <c r="B76" s="60"/>
-      <c r="C76" s="59"/>
-      <c r="D76" s="60"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="60"/>
-      <c r="H76" s="59"/>
-      <c r="I76" s="60"/>
-      <c r="J76" s="59"/>
-      <c r="K76" s="60"/>
-      <c r="L76" s="59"/>
-      <c r="M76" s="60"/>
+      <c r="A76" s="65"/>
+      <c r="B76" s="66"/>
+      <c r="C76" s="65"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="66"/>
+      <c r="H76" s="65"/>
+      <c r="I76" s="66"/>
+      <c r="J76" s="65"/>
+      <c r="K76" s="66"/>
+      <c r="L76" s="65"/>
+      <c r="M76" s="66"/>
     </row>
     <row r="77" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="61"/>
-      <c r="B77" s="62"/>
-      <c r="C77" s="61"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="62"/>
-      <c r="H77" s="61"/>
-      <c r="I77" s="62"/>
-      <c r="J77" s="61"/>
-      <c r="K77" s="62"/>
-      <c r="L77" s="61"/>
-      <c r="M77" s="62"/>
+      <c r="A77" s="67"/>
+      <c r="B77" s="68"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="68"/>
+      <c r="H77" s="67"/>
+      <c r="I77" s="68"/>
+      <c r="J77" s="67"/>
+      <c r="K77" s="68"/>
+      <c r="L77" s="67"/>
+      <c r="M77" s="68"/>
     </row>
     <row r="78" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
@@ -5789,166 +5827,166 @@
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="63" t="s">
+      <c r="A79" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="B79" s="64"/>
-      <c r="C79" s="63" t="s">
+      <c r="B79" s="53"/>
+      <c r="C79" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="D79" s="64"/>
-      <c r="E79" s="63" t="s">
+      <c r="D79" s="53"/>
+      <c r="E79" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="F79" s="64"/>
-      <c r="H79" s="52" t="s">
+      <c r="F79" s="53"/>
+      <c r="H79" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="I79" s="53"/>
-      <c r="J79" s="52" t="s">
+      <c r="I79" s="106"/>
+      <c r="J79" s="105" t="s">
         <v>116</v>
       </c>
-      <c r="K79" s="53"/>
-      <c r="L79" s="52" t="s">
+      <c r="K79" s="106"/>
+      <c r="L79" s="105" t="s">
         <v>138</v>
       </c>
-      <c r="M79" s="53"/>
+      <c r="M79" s="106"/>
     </row>
     <row r="80" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="59"/>
-      <c r="B80" s="60"/>
-      <c r="C80" s="59"/>
-      <c r="D80" s="60"/>
-      <c r="E80" s="59"/>
-      <c r="F80" s="60"/>
-      <c r="H80" s="54"/>
-      <c r="I80" s="55"/>
-      <c r="J80" s="54"/>
-      <c r="K80" s="55"/>
-      <c r="L80" s="54"/>
-      <c r="M80" s="55"/>
+      <c r="A80" s="65"/>
+      <c r="B80" s="66"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="66"/>
+      <c r="H80" s="107"/>
+      <c r="I80" s="108"/>
+      <c r="J80" s="107"/>
+      <c r="K80" s="108"/>
+      <c r="L80" s="107"/>
+      <c r="M80" s="108"/>
     </row>
     <row r="81" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="61"/>
-      <c r="B81" s="62"/>
-      <c r="C81" s="61"/>
-      <c r="D81" s="62"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="62"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="57"/>
-      <c r="J81" s="56"/>
-      <c r="K81" s="57"/>
-      <c r="L81" s="56"/>
-      <c r="M81" s="57"/>
+      <c r="A81" s="67"/>
+      <c r="B81" s="68"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="68"/>
+      <c r="E81" s="67"/>
+      <c r="F81" s="68"/>
+      <c r="H81" s="109"/>
+      <c r="I81" s="110"/>
+      <c r="J81" s="109"/>
+      <c r="K81" s="110"/>
+      <c r="L81" s="109"/>
+      <c r="M81" s="110"/>
     </row>
     <row r="82" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="63" t="s">
+      <c r="A82" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="B82" s="64"/>
-      <c r="C82" s="107" t="s">
+      <c r="B82" s="53"/>
+      <c r="C82" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="D82" s="108"/>
-      <c r="E82" s="63" t="s">
+      <c r="D82" s="74"/>
+      <c r="E82" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="F82" s="64"/>
-      <c r="H82" s="52" t="s">
+      <c r="F82" s="53"/>
+      <c r="H82" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="I82" s="53"/>
-      <c r="J82" s="107" t="s">
+      <c r="I82" s="106"/>
+      <c r="J82" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="K82" s="108"/>
-      <c r="L82" s="52" t="s">
+      <c r="K82" s="74"/>
+      <c r="L82" s="105" t="s">
         <v>148</v>
       </c>
-      <c r="M82" s="53"/>
+      <c r="M82" s="106"/>
     </row>
     <row r="83" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="59"/>
-      <c r="B83" s="60"/>
-      <c r="C83" s="109"/>
-      <c r="D83" s="110"/>
-      <c r="E83" s="122"/>
-      <c r="F83" s="123"/>
-      <c r="H83" s="54"/>
-      <c r="I83" s="55"/>
-      <c r="J83" s="109"/>
-      <c r="K83" s="110"/>
-      <c r="L83" s="54"/>
-      <c r="M83" s="55"/>
+      <c r="A83" s="65"/>
+      <c r="B83" s="66"/>
+      <c r="C83" s="75"/>
+      <c r="D83" s="76"/>
+      <c r="E83" s="79"/>
+      <c r="F83" s="80"/>
+      <c r="H83" s="107"/>
+      <c r="I83" s="108"/>
+      <c r="J83" s="75"/>
+      <c r="K83" s="76"/>
+      <c r="L83" s="107"/>
+      <c r="M83" s="108"/>
     </row>
     <row r="84" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="61"/>
-      <c r="B84" s="62"/>
-      <c r="C84" s="111"/>
-      <c r="D84" s="112"/>
-      <c r="E84" s="124"/>
-      <c r="F84" s="125"/>
-      <c r="H84" s="56"/>
-      <c r="I84" s="57"/>
-      <c r="J84" s="111"/>
-      <c r="K84" s="112"/>
-      <c r="L84" s="56"/>
-      <c r="M84" s="57"/>
+      <c r="A84" s="67"/>
+      <c r="B84" s="68"/>
+      <c r="C84" s="77"/>
+      <c r="D84" s="78"/>
+      <c r="E84" s="81"/>
+      <c r="F84" s="82"/>
+      <c r="H84" s="109"/>
+      <c r="I84" s="110"/>
+      <c r="J84" s="77"/>
+      <c r="K84" s="78"/>
+      <c r="L84" s="109"/>
+      <c r="M84" s="110"/>
     </row>
     <row r="85" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="63" t="s">
+      <c r="A85" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="B85" s="64"/>
-      <c r="C85" s="63" t="s">
+      <c r="B85" s="53"/>
+      <c r="C85" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="64"/>
-      <c r="E85" s="63" t="s">
+      <c r="D85" s="53"/>
+      <c r="E85" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="F85" s="64"/>
-      <c r="H85" s="52" t="s">
+      <c r="F85" s="53"/>
+      <c r="H85" s="105" t="s">
         <v>154</v>
       </c>
-      <c r="I85" s="53"/>
-      <c r="J85" s="52" t="s">
+      <c r="I85" s="106"/>
+      <c r="J85" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="K85" s="53"/>
-      <c r="L85" s="52" t="s">
+      <c r="K85" s="106"/>
+      <c r="L85" s="105" t="s">
         <v>145</v>
       </c>
-      <c r="M85" s="53"/>
+      <c r="M85" s="106"/>
     </row>
     <row r="86" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="59"/>
-      <c r="B86" s="60"/>
-      <c r="C86" s="59"/>
-      <c r="D86" s="60"/>
-      <c r="E86" s="59"/>
-      <c r="F86" s="60"/>
-      <c r="H86" s="54"/>
-      <c r="I86" s="55"/>
-      <c r="J86" s="54"/>
-      <c r="K86" s="55"/>
-      <c r="L86" s="54"/>
-      <c r="M86" s="55"/>
+      <c r="A86" s="65"/>
+      <c r="B86" s="66"/>
+      <c r="C86" s="65"/>
+      <c r="D86" s="66"/>
+      <c r="E86" s="65"/>
+      <c r="F86" s="66"/>
+      <c r="H86" s="107"/>
+      <c r="I86" s="108"/>
+      <c r="J86" s="107"/>
+      <c r="K86" s="108"/>
+      <c r="L86" s="107"/>
+      <c r="M86" s="108"/>
     </row>
     <row r="87" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="61"/>
-      <c r="B87" s="62"/>
-      <c r="C87" s="61"/>
-      <c r="D87" s="62"/>
-      <c r="E87" s="61"/>
-      <c r="F87" s="62"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="57"/>
-      <c r="J87" s="56"/>
-      <c r="K87" s="57"/>
-      <c r="L87" s="56"/>
-      <c r="M87" s="57"/>
+      <c r="A87" s="67"/>
+      <c r="B87" s="68"/>
+      <c r="C87" s="67"/>
+      <c r="D87" s="68"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="68"/>
+      <c r="H87" s="109"/>
+      <c r="I87" s="110"/>
+      <c r="J87" s="109"/>
+      <c r="K87" s="110"/>
+      <c r="L87" s="109"/>
+      <c r="M87" s="110"/>
     </row>
     <row r="88" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
@@ -5956,217 +5994,115 @@
       <c r="D88" s="8"/>
     </row>
     <row r="89" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="52" t="s">
+      <c r="A89" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="B89" s="53"/>
-      <c r="C89" s="82" t="s">
+      <c r="B89" s="106"/>
+      <c r="C89" s="111" t="s">
         <v>116</v>
       </c>
-      <c r="D89" s="83"/>
-      <c r="E89" s="113" t="s">
+      <c r="D89" s="112"/>
+      <c r="E89" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="F89" s="114"/>
+      <c r="F89" s="118"/>
     </row>
     <row r="90" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="54"/>
-      <c r="B90" s="55"/>
-      <c r="C90" s="84"/>
-      <c r="D90" s="85"/>
-      <c r="E90" s="115"/>
-      <c r="F90" s="116"/>
+      <c r="A90" s="107"/>
+      <c r="B90" s="108"/>
+      <c r="C90" s="113"/>
+      <c r="D90" s="114"/>
+      <c r="E90" s="119"/>
+      <c r="F90" s="120"/>
     </row>
     <row r="91" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="56"/>
-      <c r="B91" s="57"/>
-      <c r="C91" s="86"/>
-      <c r="D91" s="87"/>
-      <c r="E91" s="117"/>
-      <c r="F91" s="118"/>
+      <c r="A91" s="109"/>
+      <c r="B91" s="110"/>
+      <c r="C91" s="115"/>
+      <c r="D91" s="116"/>
+      <c r="E91" s="121"/>
+      <c r="F91" s="122"/>
     </row>
     <row r="92" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="82" t="s">
+      <c r="A92" s="111" t="s">
         <v>139</v>
       </c>
-      <c r="B92" s="83"/>
-      <c r="C92" s="88" t="s">
+      <c r="B92" s="112"/>
+      <c r="C92" s="143" t="s">
         <v>155</v>
       </c>
-      <c r="D92" s="89"/>
-      <c r="E92" s="94" t="s">
+      <c r="D92" s="144"/>
+      <c r="E92" s="149" t="s">
         <v>148</v>
       </c>
-      <c r="F92" s="95"/>
+      <c r="F92" s="150"/>
     </row>
     <row r="93" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="84"/>
-      <c r="B93" s="85"/>
-      <c r="C93" s="90"/>
-      <c r="D93" s="91"/>
-      <c r="E93" s="96"/>
-      <c r="F93" s="97"/>
+      <c r="A93" s="113"/>
+      <c r="B93" s="114"/>
+      <c r="C93" s="145"/>
+      <c r="D93" s="146"/>
+      <c r="E93" s="151"/>
+      <c r="F93" s="152"/>
     </row>
     <row r="94" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="86"/>
-      <c r="B94" s="87"/>
-      <c r="C94" s="92"/>
-      <c r="D94" s="93"/>
-      <c r="E94" s="98"/>
-      <c r="F94" s="99"/>
+      <c r="A94" s="115"/>
+      <c r="B94" s="116"/>
+      <c r="C94" s="147"/>
+      <c r="D94" s="148"/>
+      <c r="E94" s="153"/>
+      <c r="F94" s="154"/>
     </row>
     <row r="95" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="43" t="s">
+      <c r="A95" s="162" t="s">
         <v>154</v>
       </c>
-      <c r="B95" s="44"/>
-      <c r="C95" s="65" t="s">
+      <c r="B95" s="163"/>
+      <c r="C95" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="D95" s="66"/>
-      <c r="E95" s="71" t="s">
+      <c r="D95" s="127"/>
+      <c r="E95" s="132" t="s">
         <v>145</v>
       </c>
-      <c r="F95" s="72"/>
+      <c r="F95" s="133"/>
     </row>
     <row r="96" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="45"/>
-      <c r="B96" s="46"/>
-      <c r="C96" s="67"/>
-      <c r="D96" s="68"/>
-      <c r="E96" s="73"/>
-      <c r="F96" s="74"/>
+      <c r="A96" s="164"/>
+      <c r="B96" s="165"/>
+      <c r="C96" s="128"/>
+      <c r="D96" s="129"/>
+      <c r="E96" s="134"/>
+      <c r="F96" s="135"/>
     </row>
     <row r="97" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="47"/>
-      <c r="B97" s="48"/>
-      <c r="C97" s="69"/>
-      <c r="D97" s="70"/>
-      <c r="E97" s="75"/>
-      <c r="F97" s="76"/>
+      <c r="A97" s="166"/>
+      <c r="B97" s="167"/>
+      <c r="C97" s="130"/>
+      <c r="D97" s="131"/>
+      <c r="E97" s="136"/>
+      <c r="F97" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="155">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:R1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A30:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A60:B61"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="E60:F61"/>
-    <mergeCell ref="H60:I61"/>
-    <mergeCell ref="J60:K61"/>
-    <mergeCell ref="L60:M61"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="A58:M58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D64"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="J62:K64"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="A63:B64"/>
-    <mergeCell ref="E63:F64"/>
-    <mergeCell ref="H63:I64"/>
-    <mergeCell ref="L63:M64"/>
-    <mergeCell ref="A66:B67"/>
-    <mergeCell ref="C66:D67"/>
-    <mergeCell ref="E66:F67"/>
-    <mergeCell ref="H66:I67"/>
-    <mergeCell ref="J66:K67"/>
-    <mergeCell ref="L66:M67"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="A70:B71"/>
-    <mergeCell ref="C70:D71"/>
-    <mergeCell ref="E70:F71"/>
-    <mergeCell ref="H70:I71"/>
-    <mergeCell ref="J70:K71"/>
-    <mergeCell ref="L70:M71"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D74"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="J72:K74"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="A73:B74"/>
-    <mergeCell ref="E73:F74"/>
-    <mergeCell ref="H73:I74"/>
-    <mergeCell ref="L73:M74"/>
-    <mergeCell ref="A76:B77"/>
-    <mergeCell ref="C76:D77"/>
-    <mergeCell ref="E76:F77"/>
-    <mergeCell ref="H76:I77"/>
-    <mergeCell ref="J76:K77"/>
-    <mergeCell ref="L76:M77"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="A95:B97"/>
+    <mergeCell ref="C95:D97"/>
+    <mergeCell ref="E95:F97"/>
+    <mergeCell ref="A89:B91"/>
+    <mergeCell ref="C89:D91"/>
+    <mergeCell ref="E89:F91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:D94"/>
+    <mergeCell ref="E92:F94"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="H85:I87"/>
+    <mergeCell ref="J85:K87"/>
+    <mergeCell ref="L85:M87"/>
+    <mergeCell ref="A86:B87"/>
+    <mergeCell ref="C86:D87"/>
+    <mergeCell ref="E86:F87"/>
     <mergeCell ref="A82:B82"/>
     <mergeCell ref="C82:D84"/>
     <mergeCell ref="E82:F82"/>
@@ -6184,24 +6120,126 @@
     <mergeCell ref="A80:B81"/>
     <mergeCell ref="C80:D81"/>
     <mergeCell ref="E80:F81"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="H85:I87"/>
-    <mergeCell ref="J85:K87"/>
-    <mergeCell ref="L85:M87"/>
-    <mergeCell ref="A86:B87"/>
-    <mergeCell ref="C86:D87"/>
-    <mergeCell ref="E86:F87"/>
-    <mergeCell ref="A95:B97"/>
-    <mergeCell ref="C95:D97"/>
-    <mergeCell ref="E95:F97"/>
-    <mergeCell ref="A89:B91"/>
-    <mergeCell ref="C89:D91"/>
-    <mergeCell ref="E89:F91"/>
-    <mergeCell ref="A92:B94"/>
-    <mergeCell ref="C92:D94"/>
-    <mergeCell ref="E92:F94"/>
+    <mergeCell ref="A76:B77"/>
+    <mergeCell ref="C76:D77"/>
+    <mergeCell ref="E76:F77"/>
+    <mergeCell ref="H76:I77"/>
+    <mergeCell ref="J76:K77"/>
+    <mergeCell ref="L76:M77"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D74"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="J72:K74"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="A73:B74"/>
+    <mergeCell ref="E73:F74"/>
+    <mergeCell ref="H73:I74"/>
+    <mergeCell ref="L73:M74"/>
+    <mergeCell ref="A70:B71"/>
+    <mergeCell ref="C70:D71"/>
+    <mergeCell ref="E70:F71"/>
+    <mergeCell ref="H70:I71"/>
+    <mergeCell ref="J70:K71"/>
+    <mergeCell ref="L70:M71"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="A66:B67"/>
+    <mergeCell ref="C66:D67"/>
+    <mergeCell ref="E66:F67"/>
+    <mergeCell ref="H66:I67"/>
+    <mergeCell ref="J66:K67"/>
+    <mergeCell ref="L66:M67"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D64"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="J62:K64"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="A63:B64"/>
+    <mergeCell ref="E63:F64"/>
+    <mergeCell ref="H63:I64"/>
+    <mergeCell ref="L63:M64"/>
+    <mergeCell ref="A60:B61"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="E60:F61"/>
+    <mergeCell ref="H60:I61"/>
+    <mergeCell ref="J60:K61"/>
+    <mergeCell ref="L60:M61"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="A58:M58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A30:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:R1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6354,12 +6392,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="166"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47"/>
       <c r="F1" s="170" t="s">
         <v>3</v>
       </c>
@@ -6379,8 +6417,8 @@
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="163"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
       <c r="D2" s="169"/>
       <c r="F2" s="10"/>
       <c r="G2" s="11" t="s">
@@ -6421,8 +6459,8 @@
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="163"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="169"/>
       <c r="F3" s="15" t="s">
         <v>14</v>
@@ -6443,8 +6481,8 @@
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="162"/>
-      <c r="C4" s="163"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="169"/>
       <c r="F4" s="17" t="s">
         <v>15</v>
@@ -6465,8 +6503,8 @@
       <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="162"/>
-      <c r="C5" s="163"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="169"/>
       <c r="F5" s="17" t="s">
         <v>16</v>
@@ -6487,8 +6525,8 @@
       <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="162"/>
-      <c r="C6" s="163"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="169"/>
       <c r="F6" s="17" t="s">
         <v>17</v>
@@ -6509,8 +6547,8 @@
       <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="162"/>
-      <c r="C7" s="163"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
       <c r="D7" s="169"/>
       <c r="F7" s="17" t="s">
         <v>18</v>
@@ -6531,8 +6569,8 @@
       <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="162"/>
-      <c r="C8" s="163"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="169"/>
       <c r="F8" s="17" t="s">
         <v>19</v>
@@ -6553,8 +6591,8 @@
       <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="162"/>
-      <c r="C9" s="163"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="169"/>
       <c r="F9" s="15" t="s">
         <v>20</v>
@@ -6575,41 +6613,41 @@
       <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10" s="162"/>
-      <c r="C10" s="163"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="169"/>
     </row>
     <row r="11" spans="1:18" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="162"/>
-      <c r="C11" s="163"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="169"/>
       <c r="P11" s="16"/>
     </row>
     <row r="12" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="154" t="s">
+      <c r="A12" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="154"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
-      <c r="F12" s="155" t="s">
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="F12" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="155"/>
-      <c r="K12" s="155"/>
-      <c r="L12" s="155"/>
-      <c r="M12" s="155"/>
-      <c r="N12" s="155"/>
-      <c r="O12" s="155"/>
-      <c r="P12" s="155"/>
-      <c r="Q12" s="155"/>
-      <c r="R12" s="155"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
     </row>
     <row r="13" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
@@ -6618,30 +6656,30 @@
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
-      <c r="F13" s="63" t="s">
+      <c r="F13" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="63" t="s">
+      <c r="G13" s="53"/>
+      <c r="H13" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="64"/>
-      <c r="J13" s="63" t="s">
+      <c r="I13" s="53"/>
+      <c r="J13" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="64"/>
-      <c r="M13" s="152" t="s">
+      <c r="K13" s="53"/>
+      <c r="M13" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="153"/>
-      <c r="O13" s="152" t="s">
+      <c r="N13" s="55"/>
+      <c r="O13" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="P13" s="153"/>
-      <c r="Q13" s="156" t="s">
+      <c r="P13" s="55"/>
+      <c r="Q13" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="R13" s="157"/>
+      <c r="R13" s="57"/>
     </row>
     <row r="14" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
@@ -6650,24 +6688,24 @@
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
-      <c r="F14" s="59" t="s">
+      <c r="F14" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="59" t="s">
+      <c r="G14" s="66"/>
+      <c r="H14" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="60"/>
-      <c r="J14" s="59" t="s">
+      <c r="I14" s="66"/>
+      <c r="J14" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="60"/>
-      <c r="M14" s="136"/>
-      <c r="N14" s="137"/>
-      <c r="O14" s="136"/>
-      <c r="P14" s="137"/>
-      <c r="Q14" s="140"/>
-      <c r="R14" s="141"/>
+      <c r="K14" s="66"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="103"/>
+      <c r="R14" s="104"/>
     </row>
     <row r="15" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
@@ -6676,18 +6714,18 @@
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="62"/>
-      <c r="M15" s="138"/>
-      <c r="N15" s="139"/>
-      <c r="O15" s="138"/>
-      <c r="P15" s="139"/>
-      <c r="Q15" s="138"/>
-      <c r="R15" s="139"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="68"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="72"/>
     </row>
     <row r="16" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
@@ -6696,30 +6734,30 @@
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
-      <c r="F16" s="63" t="s">
+      <c r="F16" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="64"/>
-      <c r="H16" s="107" t="s">
+      <c r="G16" s="53"/>
+      <c r="H16" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="108"/>
-      <c r="J16" s="63" t="s">
+      <c r="I16" s="74"/>
+      <c r="J16" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="64"/>
-      <c r="M16" s="152" t="s">
+      <c r="K16" s="53"/>
+      <c r="M16" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="N16" s="153"/>
-      <c r="O16" s="146" t="s">
+      <c r="N16" s="55"/>
+      <c r="O16" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="P16" s="147"/>
-      <c r="Q16" s="152" t="s">
+      <c r="P16" s="85"/>
+      <c r="Q16" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="R16" s="153"/>
+      <c r="R16" s="55"/>
     </row>
     <row r="17" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
@@ -6728,19 +6766,19 @@
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="122"/>
-      <c r="K17" s="123"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="80"/>
       <c r="L17" s="23"/>
-      <c r="M17" s="136"/>
-      <c r="N17" s="137"/>
-      <c r="O17" s="148"/>
-      <c r="P17" s="149"/>
-      <c r="Q17" s="136"/>
-      <c r="R17" s="137"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="70"/>
     </row>
     <row r="18" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
@@ -6749,18 +6787,18 @@
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="125"/>
-      <c r="M18" s="138"/>
-      <c r="N18" s="139"/>
-      <c r="O18" s="150"/>
-      <c r="P18" s="151"/>
-      <c r="Q18" s="138"/>
-      <c r="R18" s="139"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="82"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="88"/>
+      <c r="P18" s="89"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="72"/>
     </row>
     <row r="19" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
@@ -6769,712 +6807,667 @@
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
-      <c r="F19" s="63" t="s">
+      <c r="F19" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="64"/>
-      <c r="H19" s="63" t="s">
+      <c r="G19" s="53"/>
+      <c r="H19" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="64"/>
-      <c r="J19" s="63" t="s">
+      <c r="I19" s="53"/>
+      <c r="J19" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="K19" s="64"/>
-      <c r="M19" s="152" t="s">
+      <c r="K19" s="53"/>
+      <c r="M19" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="N19" s="153"/>
-      <c r="O19" s="152" t="s">
+      <c r="N19" s="55"/>
+      <c r="O19" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="P19" s="153"/>
-      <c r="Q19" s="152" t="s">
+      <c r="P19" s="55"/>
+      <c r="Q19" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="R19" s="153"/>
+      <c r="R19" s="55"/>
     </row>
     <row r="20" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="161" t="s">
+      <c r="A20" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="161"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="60"/>
-      <c r="M20" s="136"/>
-      <c r="N20" s="137"/>
-      <c r="O20" s="136"/>
-      <c r="P20" s="137"/>
-      <c r="Q20" s="136"/>
-      <c r="R20" s="137"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="66"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="70"/>
     </row>
     <row r="21" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>1</v>
       </c>
-      <c r="B21" s="142"/>
-      <c r="C21" s="143"/>
-      <c r="D21" s="144"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="62"/>
-      <c r="M21" s="138"/>
-      <c r="N21" s="139"/>
-      <c r="O21" s="138"/>
-      <c r="P21" s="139"/>
-      <c r="Q21" s="138"/>
-      <c r="R21" s="139"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="64"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="68"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="72"/>
     </row>
     <row r="22" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>2</v>
       </c>
-      <c r="B22" s="142"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="144"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="64"/>
     </row>
     <row r="23" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>3</v>
       </c>
-      <c r="B23" s="142"/>
-      <c r="C23" s="143"/>
-      <c r="D23" s="144"/>
-      <c r="F23" s="63" t="s">
+      <c r="B23" s="62"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
+      <c r="F23" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="64"/>
-      <c r="H23" s="63" t="s">
+      <c r="G23" s="53"/>
+      <c r="H23" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="64"/>
-      <c r="J23" s="63" t="s">
+      <c r="I23" s="53"/>
+      <c r="J23" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="K23" s="64"/>
-      <c r="M23" s="63" t="s">
+      <c r="K23" s="53"/>
+      <c r="M23" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="64"/>
-      <c r="O23" s="63" t="s">
+      <c r="N23" s="53"/>
+      <c r="O23" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="63" t="s">
+      <c r="P23" s="53"/>
+      <c r="Q23" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="R23" s="64"/>
+      <c r="R23" s="53"/>
     </row>
     <row r="24" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>4</v>
       </c>
-      <c r="B24" s="142"/>
-      <c r="C24" s="143"/>
-      <c r="D24" s="144"/>
-      <c r="F24" s="59" t="s">
+      <c r="B24" s="62"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="64"/>
+      <c r="F24" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="60"/>
-      <c r="H24" s="59" t="s">
+      <c r="G24" s="66"/>
+      <c r="H24" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="I24" s="60"/>
-      <c r="J24" s="59" t="s">
+      <c r="I24" s="66"/>
+      <c r="J24" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="K24" s="60"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="60"/>
+      <c r="K24" s="66"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="66"/>
     </row>
     <row r="25" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>5</v>
       </c>
-      <c r="B25" s="142"/>
-      <c r="C25" s="143"/>
-      <c r="D25" s="144"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="62"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="62"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="64"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="68"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="68"/>
     </row>
     <row r="26" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>6</v>
       </c>
-      <c r="B26" s="142"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="144"/>
-      <c r="F26" s="63" t="s">
+      <c r="B26" s="62"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="64"/>
+      <c r="F26" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="64"/>
-      <c r="H26" s="107" t="s">
+      <c r="G26" s="53"/>
+      <c r="H26" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="I26" s="108"/>
-      <c r="J26" s="63" t="s">
+      <c r="I26" s="74"/>
+      <c r="J26" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="K26" s="64"/>
-      <c r="M26" s="63" t="s">
+      <c r="K26" s="53"/>
+      <c r="M26" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="N26" s="64"/>
-      <c r="O26" s="107" t="s">
+      <c r="N26" s="53"/>
+      <c r="O26" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="P26" s="108"/>
-      <c r="Q26" s="63" t="s">
+      <c r="P26" s="74"/>
+      <c r="Q26" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="R26" s="64"/>
+      <c r="R26" s="53"/>
     </row>
     <row r="27" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>7</v>
       </c>
-      <c r="B27" s="142"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="144"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="122"/>
-      <c r="K27" s="123"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="109"/>
-      <c r="P27" s="110"/>
-      <c r="Q27" s="122"/>
-      <c r="R27" s="123"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="64"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="80"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="79"/>
+      <c r="R27" s="80"/>
     </row>
     <row r="28" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>8</v>
       </c>
-      <c r="B28" s="142"/>
-      <c r="C28" s="143"/>
-      <c r="D28" s="144"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="125"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="111"/>
-      <c r="P28" s="112"/>
-      <c r="Q28" s="124"/>
-      <c r="R28" s="125"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="64"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="82"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="81"/>
+      <c r="R28" s="82"/>
     </row>
     <row r="29" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="145" t="s">
+      <c r="A29" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="145"/>
-      <c r="C29" s="145"/>
-      <c r="D29" s="145"/>
-      <c r="F29" s="63" t="s">
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="F29" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="64"/>
-      <c r="H29" s="63" t="s">
+      <c r="G29" s="53"/>
+      <c r="H29" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="I29" s="64"/>
-      <c r="J29" s="63" t="s">
+      <c r="I29" s="53"/>
+      <c r="J29" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="K29" s="64"/>
-      <c r="M29" s="63" t="s">
+      <c r="K29" s="53"/>
+      <c r="M29" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="N29" s="64"/>
-      <c r="O29" s="63" t="s">
+      <c r="N29" s="53"/>
+      <c r="O29" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="63" t="s">
+      <c r="P29" s="53"/>
+      <c r="Q29" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="R29" s="64"/>
+      <c r="R29" s="53"/>
     </row>
     <row r="30" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="126"/>
-      <c r="B30" s="127"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="128"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="60"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="60"/>
+      <c r="A30" s="90"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="92"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="66"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="65"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="65"/>
+      <c r="R30" s="66"/>
     </row>
     <row r="31" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="129"/>
-      <c r="B31" s="130"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="131"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="62"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="61"/>
-      <c r="R31" s="62"/>
+      <c r="A31" s="93"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="95"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="68"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="68"/>
+      <c r="Q31" s="67"/>
+      <c r="R31" s="68"/>
     </row>
     <row r="32" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="129"/>
-      <c r="B32" s="130"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="131"/>
+      <c r="A32" s="93"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="95"/>
     </row>
     <row r="33" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="129"/>
-      <c r="B33" s="130"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="131"/>
-      <c r="F33" s="63" t="s">
+      <c r="A33" s="93"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="95"/>
+      <c r="F33" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="64"/>
-      <c r="H33" s="63" t="s">
+      <c r="G33" s="53"/>
+      <c r="H33" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="I33" s="64"/>
-      <c r="J33" s="63" t="s">
+      <c r="I33" s="53"/>
+      <c r="J33" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="K33" s="64"/>
-      <c r="M33" s="52" t="s">
+      <c r="K33" s="53"/>
+      <c r="M33" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="53"/>
-      <c r="O33" s="52" t="s">
+      <c r="N33" s="106"/>
+      <c r="O33" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="52" t="s">
+      <c r="P33" s="106"/>
+      <c r="Q33" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="R33" s="53"/>
+      <c r="R33" s="106"/>
     </row>
     <row r="34" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="129"/>
-      <c r="B34" s="130"/>
-      <c r="C34" s="130"/>
-      <c r="D34" s="131"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="60"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="54"/>
-      <c r="R34" s="55"/>
+      <c r="A34" s="93"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="95"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="66"/>
+      <c r="M34" s="107"/>
+      <c r="N34" s="108"/>
+      <c r="O34" s="107"/>
+      <c r="P34" s="108"/>
+      <c r="Q34" s="107"/>
+      <c r="R34" s="108"/>
     </row>
     <row r="35" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="129"/>
-      <c r="B35" s="130"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="131"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="62"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="57"/>
+      <c r="A35" s="93"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="95"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="68"/>
+      <c r="M35" s="109"/>
+      <c r="N35" s="110"/>
+      <c r="O35" s="109"/>
+      <c r="P35" s="110"/>
+      <c r="Q35" s="109"/>
+      <c r="R35" s="110"/>
     </row>
     <row r="36" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="132"/>
-      <c r="B36" s="133"/>
-      <c r="C36" s="133"/>
-      <c r="D36" s="134"/>
-      <c r="F36" s="63" t="s">
+      <c r="A36" s="96"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="98"/>
+      <c r="F36" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="G36" s="64"/>
-      <c r="H36" s="107" t="s">
+      <c r="G36" s="53"/>
+      <c r="H36" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="I36" s="108"/>
-      <c r="J36" s="63" t="s">
+      <c r="I36" s="74"/>
+      <c r="J36" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="K36" s="64"/>
-      <c r="M36" s="52" t="s">
+      <c r="K36" s="53"/>
+      <c r="M36" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="N36" s="53"/>
-      <c r="O36" s="107" t="s">
+      <c r="N36" s="106"/>
+      <c r="O36" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="P36" s="108"/>
-      <c r="Q36" s="52" t="s">
+      <c r="P36" s="74"/>
+      <c r="Q36" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="R36" s="53"/>
+      <c r="R36" s="106"/>
     </row>
     <row r="37" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="59"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="109"/>
-      <c r="I37" s="110"/>
-      <c r="J37" s="122"/>
-      <c r="K37" s="123"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="55"/>
-      <c r="O37" s="109"/>
-      <c r="P37" s="110"/>
-      <c r="Q37" s="54"/>
-      <c r="R37" s="55"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="80"/>
+      <c r="M37" s="107"/>
+      <c r="N37" s="108"/>
+      <c r="O37" s="75"/>
+      <c r="P37" s="76"/>
+      <c r="Q37" s="107"/>
+      <c r="R37" s="108"/>
     </row>
     <row r="38" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="135" t="s">
+      <c r="A38" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="135"/>
-      <c r="C38" s="135"/>
-      <c r="D38" s="135"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="111"/>
-      <c r="I38" s="112"/>
-      <c r="J38" s="124"/>
-      <c r="K38" s="125"/>
-      <c r="M38" s="56"/>
-      <c r="N38" s="57"/>
-      <c r="O38" s="111"/>
-      <c r="P38" s="112"/>
-      <c r="Q38" s="56"/>
-      <c r="R38" s="57"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="82"/>
+      <c r="M38" s="109"/>
+      <c r="N38" s="110"/>
+      <c r="O38" s="77"/>
+      <c r="P38" s="78"/>
+      <c r="Q38" s="109"/>
+      <c r="R38" s="110"/>
     </row>
     <row r="39" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>1</v>
       </c>
-      <c r="B39" s="49"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="51"/>
-      <c r="F39" s="63" t="s">
+      <c r="B39" s="100"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="102"/>
+      <c r="F39" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="64"/>
-      <c r="H39" s="63" t="s">
+      <c r="G39" s="53"/>
+      <c r="H39" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="I39" s="64"/>
-      <c r="J39" s="63" t="s">
+      <c r="I39" s="53"/>
+      <c r="J39" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="K39" s="64"/>
-      <c r="M39" s="52" t="s">
+      <c r="K39" s="53"/>
+      <c r="M39" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="N39" s="53"/>
-      <c r="O39" s="52" t="s">
+      <c r="N39" s="106"/>
+      <c r="O39" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="52" t="s">
+      <c r="P39" s="106"/>
+      <c r="Q39" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="R39" s="53"/>
+      <c r="R39" s="106"/>
       <c r="T39" s="25"/>
     </row>
     <row r="40" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>2</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="51"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="60"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="55"/>
-      <c r="O40" s="54"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="54"/>
-      <c r="R40" s="55"/>
+      <c r="B40" s="100"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="102"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="66"/>
+      <c r="M40" s="107"/>
+      <c r="N40" s="108"/>
+      <c r="O40" s="107"/>
+      <c r="P40" s="108"/>
+      <c r="Q40" s="107"/>
+      <c r="R40" s="108"/>
     </row>
     <row r="41" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>3</v>
       </c>
-      <c r="B41" s="49"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="51"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="62"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="57"/>
-      <c r="O41" s="56"/>
-      <c r="P41" s="57"/>
-      <c r="Q41" s="56"/>
-      <c r="R41" s="57"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="102"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="68"/>
+      <c r="M41" s="109"/>
+      <c r="N41" s="110"/>
+      <c r="O41" s="109"/>
+      <c r="P41" s="110"/>
+      <c r="Q41" s="109"/>
+      <c r="R41" s="110"/>
     </row>
     <row r="42" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>4</v>
       </c>
-      <c r="B42" s="49"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="51"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="102"/>
     </row>
     <row r="43" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>5</v>
       </c>
-      <c r="B43" s="49"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="51"/>
-      <c r="F43" s="52" t="s">
+      <c r="B43" s="100"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="102"/>
+      <c r="F43" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="G43" s="53"/>
-      <c r="H43" s="82" t="s">
+      <c r="G43" s="106"/>
+      <c r="H43" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="I43" s="83"/>
-      <c r="J43" s="113" t="s">
+      <c r="I43" s="112"/>
+      <c r="J43" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="K43" s="114"/>
+      <c r="K43" s="118"/>
     </row>
     <row r="44" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>6</v>
       </c>
-      <c r="B44" s="49"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="51"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="115"/>
-      <c r="K44" s="116"/>
+      <c r="B44" s="100"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="102"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="113"/>
+      <c r="I44" s="114"/>
+      <c r="J44" s="119"/>
+      <c r="K44" s="120"/>
     </row>
     <row r="45" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>7</v>
       </c>
-      <c r="B45" s="119"/>
-      <c r="C45" s="120"/>
-      <c r="D45" s="121"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="117"/>
-      <c r="K45" s="118"/>
+      <c r="B45" s="123"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="125"/>
+      <c r="F45" s="109"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="115"/>
+      <c r="I45" s="116"/>
+      <c r="J45" s="121"/>
+      <c r="K45" s="122"/>
     </row>
     <row r="46" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>8</v>
       </c>
-      <c r="B46" s="80"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="81"/>
-      <c r="F46" s="82" t="s">
+      <c r="B46" s="141"/>
+      <c r="C46" s="142"/>
+      <c r="D46" s="142"/>
+      <c r="F46" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="G46" s="83"/>
-      <c r="H46" s="88" t="s">
+      <c r="G46" s="112"/>
+      <c r="H46" s="143" t="s">
         <v>54</v>
       </c>
-      <c r="I46" s="89"/>
-      <c r="J46" s="94" t="s">
+      <c r="I46" s="144"/>
+      <c r="J46" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="K46" s="95"/>
+      <c r="K46" s="150"/>
     </row>
     <row r="47" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F47" s="84"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="90"/>
-      <c r="I47" s="91"/>
-      <c r="J47" s="96"/>
-      <c r="K47" s="97"/>
+      <c r="F47" s="113"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="145"/>
+      <c r="I47" s="146"/>
+      <c r="J47" s="151"/>
+      <c r="K47" s="152"/>
     </row>
     <row r="48" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F48" s="86"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="92"/>
-      <c r="I48" s="93"/>
-      <c r="J48" s="98"/>
-      <c r="K48" s="99"/>
+      <c r="F48" s="115"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="147"/>
+      <c r="I48" s="148"/>
+      <c r="J48" s="153"/>
+      <c r="K48" s="154"/>
     </row>
     <row r="49" spans="6:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F49" s="43" t="s">
+      <c r="F49" s="162" t="s">
         <v>52</v>
       </c>
-      <c r="G49" s="44"/>
-      <c r="H49" s="65" t="s">
+      <c r="G49" s="163"/>
+      <c r="H49" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="I49" s="66"/>
-      <c r="J49" s="71" t="s">
+      <c r="I49" s="127"/>
+      <c r="J49" s="132" t="s">
         <v>37</v>
       </c>
-      <c r="K49" s="72"/>
+      <c r="K49" s="133"/>
     </row>
     <row r="50" spans="6:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F50" s="45"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="73"/>
-      <c r="K50" s="74"/>
+      <c r="F50" s="164"/>
+      <c r="G50" s="165"/>
+      <c r="H50" s="128"/>
+      <c r="I50" s="129"/>
+      <c r="J50" s="134"/>
+      <c r="K50" s="135"/>
     </row>
     <row r="51" spans="6:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F51" s="47"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="70"/>
-      <c r="J51" s="75"/>
-      <c r="K51" s="76"/>
+      <c r="F51" s="166"/>
+      <c r="G51" s="167"/>
+      <c r="H51" s="130"/>
+      <c r="I51" s="131"/>
+      <c r="J51" s="136"/>
+      <c r="K51" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:Q1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F14:G15"/>
-    <mergeCell ref="H14:I15"/>
-    <mergeCell ref="J14:K15"/>
-    <mergeCell ref="M14:N15"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="F12:R12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I18"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P18"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="F17:G18"/>
-    <mergeCell ref="J17:K18"/>
-    <mergeCell ref="M17:N18"/>
-    <mergeCell ref="Q17:R18"/>
-    <mergeCell ref="Q20:R21"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="F20:G21"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="J20:K21"/>
-    <mergeCell ref="M20:N21"/>
-    <mergeCell ref="O20:P21"/>
-    <mergeCell ref="Q24:R25"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I28"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P28"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="J24:K25"/>
-    <mergeCell ref="M24:N25"/>
-    <mergeCell ref="O24:P25"/>
-    <mergeCell ref="F27:G28"/>
-    <mergeCell ref="J27:K28"/>
-    <mergeCell ref="M27:N28"/>
-    <mergeCell ref="Q27:R28"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="F46:G48"/>
+    <mergeCell ref="H46:I48"/>
+    <mergeCell ref="J46:K48"/>
+    <mergeCell ref="F49:G51"/>
+    <mergeCell ref="H49:I51"/>
+    <mergeCell ref="J49:K51"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="F43:G45"/>
+    <mergeCell ref="H43:I45"/>
+    <mergeCell ref="J43:K45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="F40:G41"/>
+    <mergeCell ref="H40:I41"/>
+    <mergeCell ref="J40:K41"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M33:N35"/>
+    <mergeCell ref="O33:P35"/>
+    <mergeCell ref="Q33:R35"/>
+    <mergeCell ref="F34:G35"/>
+    <mergeCell ref="H34:I35"/>
+    <mergeCell ref="J34:K35"/>
+    <mergeCell ref="O39:P41"/>
+    <mergeCell ref="Q39:R41"/>
+    <mergeCell ref="M39:N41"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="H29:I29"/>
@@ -7499,40 +7492,85 @@
     <mergeCell ref="F37:G38"/>
     <mergeCell ref="J37:K38"/>
     <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M33:N35"/>
-    <mergeCell ref="O33:P35"/>
-    <mergeCell ref="Q33:R35"/>
-    <mergeCell ref="F34:G35"/>
-    <mergeCell ref="H34:I35"/>
-    <mergeCell ref="J34:K35"/>
-    <mergeCell ref="O39:P41"/>
-    <mergeCell ref="Q39:R41"/>
-    <mergeCell ref="M39:N41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="F40:G41"/>
-    <mergeCell ref="H40:I41"/>
-    <mergeCell ref="J40:K41"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="F46:G48"/>
-    <mergeCell ref="H46:I48"/>
-    <mergeCell ref="J46:K48"/>
-    <mergeCell ref="F49:G51"/>
-    <mergeCell ref="H49:I51"/>
-    <mergeCell ref="J49:K51"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="F43:G45"/>
-    <mergeCell ref="H43:I45"/>
-    <mergeCell ref="J43:K45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="Q24:R25"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I28"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P28"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="J24:K25"/>
+    <mergeCell ref="M24:N25"/>
+    <mergeCell ref="O24:P25"/>
+    <mergeCell ref="F27:G28"/>
+    <mergeCell ref="J27:K28"/>
+    <mergeCell ref="M27:N28"/>
+    <mergeCell ref="Q27:R28"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="Q20:R21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="F20:G21"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="J20:K21"/>
+    <mergeCell ref="M20:N21"/>
+    <mergeCell ref="O20:P21"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I18"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P18"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="F17:G18"/>
+    <mergeCell ref="J17:K18"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="Q17:R18"/>
+    <mergeCell ref="F14:G15"/>
+    <mergeCell ref="H14:I15"/>
+    <mergeCell ref="J14:K15"/>
+    <mergeCell ref="M14:N15"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="F12:R12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:Q1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7577,10 +7615,10 @@
       <c r="B2" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="174">
+      <c r="C2" s="177">
         <v>1</v>
       </c>
-      <c r="D2" s="177">
+      <c r="D2" s="178">
         <v>12.24</v>
       </c>
       <c r="E2" s="30"/>
@@ -7593,8 +7631,8 @@
       <c r="B3" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="175"/>
-      <c r="D3" s="178"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="179"/>
       <c r="E3" s="30"/>
       <c r="G3" t="s">
         <v>118</v>
@@ -7605,19 +7643,19 @@
       <c r="B4" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="175"/>
-      <c r="D4" s="179"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="180"/>
       <c r="E4" s="30"/>
       <c r="G4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="176"/>
+      <c r="A5" s="175"/>
       <c r="B5" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="175"/>
+      <c r="C5" s="176"/>
       <c r="D5" s="28"/>
       <c r="E5" s="30"/>
       <c r="G5" t="s">
@@ -7625,13 +7663,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="180" t="s">
+      <c r="A6" s="174" t="s">
         <v>77</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="175">
+      <c r="C6" s="176">
         <v>2</v>
       </c>
       <c r="D6" s="28"/>
@@ -7645,7 +7683,7 @@
       <c r="B7" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="175"/>
+      <c r="C7" s="176"/>
       <c r="D7" s="28"/>
       <c r="E7" s="30"/>
       <c r="G7" t="s">
@@ -7657,7 +7695,7 @@
       <c r="B8" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="175">
+      <c r="C8" s="176">
         <v>3</v>
       </c>
       <c r="D8" s="28"/>
@@ -7671,7 +7709,7 @@
       <c r="B9" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="175"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="28"/>
       <c r="E9" s="30"/>
       <c r="G9" t="s">
@@ -7683,7 +7721,7 @@
       <c r="B10" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="175">
+      <c r="C10" s="176">
         <v>4</v>
       </c>
       <c r="D10" s="28"/>
@@ -7694,7 +7732,7 @@
       <c r="B11" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="175"/>
+      <c r="C11" s="176"/>
       <c r="D11" s="28"/>
       <c r="E11" s="30"/>
     </row>
@@ -7703,7 +7741,7 @@
       <c r="B12" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="176">
         <v>5</v>
       </c>
       <c r="D12" s="28"/>
@@ -7714,7 +7752,7 @@
       <c r="B13" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="175"/>
+      <c r="C13" s="176"/>
       <c r="D13" s="28"/>
       <c r="E13" s="30"/>
     </row>
@@ -7723,7 +7761,7 @@
       <c r="B14" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="175" t="s">
+      <c r="C14" s="176" t="s">
         <v>113</v>
       </c>
       <c r="D14" s="28"/>
@@ -7734,16 +7772,16 @@
       <c r="B15" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="175"/>
+      <c r="C15" s="176"/>
       <c r="D15" s="28"/>
       <c r="E15" s="30"/>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="176"/>
+      <c r="A16" s="175"/>
       <c r="B16" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="175"/>
+      <c r="C16" s="176"/>
       <c r="D16" s="28"/>
       <c r="E16" s="30"/>
     </row>
@@ -7754,7 +7792,7 @@
       <c r="B17" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="175">
+      <c r="C17" s="176">
         <v>8</v>
       </c>
       <c r="D17" s="28"/>
@@ -7765,7 +7803,7 @@
       <c r="B18" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="175"/>
+      <c r="C18" s="176"/>
       <c r="D18" s="28"/>
       <c r="E18" s="30"/>
     </row>
@@ -7774,7 +7812,7 @@
       <c r="B19" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="175" t="s">
+      <c r="C19" s="176" t="s">
         <v>114</v>
       </c>
       <c r="D19" s="28"/>
@@ -7785,7 +7823,7 @@
       <c r="B20" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="175"/>
+      <c r="C20" s="176"/>
       <c r="D20" s="28"/>
       <c r="E20" s="30"/>
     </row>
@@ -7794,7 +7832,7 @@
       <c r="B21" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="175"/>
+      <c r="C21" s="176"/>
       <c r="D21" s="28"/>
       <c r="E21" s="30"/>
     </row>
@@ -7805,7 +7843,7 @@
       <c r="B22" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="175" t="s">
+      <c r="C22" s="176" t="s">
         <v>115</v>
       </c>
       <c r="D22" s="28"/>
@@ -7816,7 +7854,7 @@
       <c r="B23" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="175"/>
+      <c r="C23" s="176"/>
       <c r="D23" s="28"/>
       <c r="E23" s="30"/>
     </row>
@@ -7825,7 +7863,7 @@
       <c r="B24" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="175"/>
+      <c r="C24" s="176"/>
       <c r="D24" s="28"/>
       <c r="E24" s="30"/>
     </row>
@@ -7834,7 +7872,7 @@
       <c r="B25" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="175"/>
+      <c r="C25" s="176"/>
       <c r="D25" s="28"/>
       <c r="E25" s="30"/>
     </row>
@@ -7843,7 +7881,7 @@
       <c r="B26" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="175"/>
+      <c r="C26" s="176"/>
       <c r="D26" s="28"/>
       <c r="E26" s="30"/>
     </row>
@@ -8021,6 +8059,9 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="D2:D4"/>
     <mergeCell ref="A40:A43"/>
     <mergeCell ref="A33:A39"/>
     <mergeCell ref="A28:A32"/>
@@ -8035,9 +8076,6 @@
     <mergeCell ref="C22:C26"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A26"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="D2:D4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2019年计划/9-11季度计划.xlsx
+++ b/2019年计划/9-11季度计划.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="9-11月季度计划" sheetId="1" r:id="rId1"/>
     <sheet name="9.2-9.8周计划" sheetId="6" r:id="rId2"/>
     <sheet name="9.9-9.15" sheetId="8" r:id="rId3"/>
-    <sheet name="一天作息" sheetId="7" r:id="rId4"/>
-    <sheet name="模板" sheetId="3" r:id="rId5"/>
-    <sheet name="Angular学习挑战打卡表" sheetId="4" r:id="rId6"/>
+    <sheet name="9.16-9.22" sheetId="9" r:id="rId4"/>
+    <sheet name="一天作息" sheetId="7" r:id="rId5"/>
+    <sheet name="模板" sheetId="3" r:id="rId6"/>
+    <sheet name="Angular学习挑战打卡表" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="229">
   <si>
     <t>月份\目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1085,6 +1086,18 @@
   <si>
     <t>1 英语学习调整
 2 英语听力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语阅读10页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见付海灵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2266,7 +2279,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2384,6 +2397,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2396,6 +2412,363 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2417,363 +2790,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2786,21 +2802,18 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2808,6 +2821,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3133,15 +3149,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3223,48 +3239,48 @@
     </row>
     <row r="6" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
     </row>
     <row r="8" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
     </row>
     <row r="9" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
     </row>
     <row r="10" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
     </row>
     <row r="11" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
     </row>
     <row r="12" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
     </row>
     <row r="13" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
     </row>
     <row r="14" spans="1:7" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
     </row>
     <row r="15" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3312,36 +3328,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="165" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
-      <c r="F1" s="48" t="s">
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="167"/>
+      <c r="F1" s="168" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="169"/>
+      <c r="N1" s="169"/>
+      <c r="O1" s="169"/>
+      <c r="P1" s="169"/>
+      <c r="Q1" s="169"/>
+      <c r="R1" s="169"/>
     </row>
     <row r="2" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="163" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="44"/>
+      <c r="C2" s="164"/>
       <c r="D2" s="34" t="s">
         <v>215</v>
       </c>
@@ -3382,10 +3398,10 @@
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="163" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="44"/>
+      <c r="C3" s="164"/>
       <c r="D3" s="34" t="s">
         <v>210</v>
       </c>
@@ -3421,10 +3437,10 @@
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="163" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="44"/>
+      <c r="C4" s="164"/>
       <c r="D4" s="34"/>
       <c r="F4" s="17" t="s">
         <v>15</v>
@@ -3462,10 +3478,10 @@
       <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="163" t="s">
         <v>194</v>
       </c>
-      <c r="C5" s="44"/>
+      <c r="C5" s="164"/>
       <c r="D5" s="34" t="s">
         <v>211</v>
       </c>
@@ -3503,8 +3519,8 @@
       <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="164"/>
       <c r="D6" s="34"/>
       <c r="F6" s="17" t="s">
         <v>17</v>
@@ -3540,8 +3556,8 @@
       <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="164"/>
       <c r="D7" s="34"/>
       <c r="F7" s="17" t="s">
         <v>18</v>
@@ -3561,8 +3577,8 @@
       <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="164"/>
       <c r="D8" s="34"/>
       <c r="R8" s="16"/>
     </row>
@@ -3570,8 +3586,8 @@
       <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="164"/>
       <c r="D9" s="34"/>
       <c r="F9" s="10"/>
       <c r="G9" s="12" t="s">
@@ -3605,10 +3621,10 @@
       <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="163" t="s">
         <v>195</v>
       </c>
-      <c r="C10" s="44"/>
+      <c r="C10" s="164"/>
       <c r="D10" s="34" t="s">
         <v>212</v>
       </c>
@@ -3631,10 +3647,10 @@
       <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="C11" s="44"/>
+      <c r="C11" s="164"/>
       <c r="D11" s="34"/>
       <c r="F11" s="15" t="s">
         <v>20</v>
@@ -3652,543 +3668,543 @@
       <c r="Q11" s="16"/>
     </row>
     <row r="12" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="155" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
+      <c r="B12" s="155"/>
+      <c r="C12" s="155"/>
+      <c r="D12" s="155"/>
     </row>
     <row r="13" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="159" t="s">
         <v>213</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
+      <c r="C13" s="160"/>
+      <c r="D13" s="161"/>
     </row>
     <row r="14" spans="1:18" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
+      <c r="B14" s="159"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="161"/>
     </row>
     <row r="15" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="159" t="s">
         <v>216</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="161"/>
     </row>
     <row r="16" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="160"/>
+      <c r="D16" s="161"/>
     </row>
     <row r="17" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="159" t="s">
         <v>217</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
+      <c r="C17" s="160"/>
+      <c r="D17" s="161"/>
     </row>
     <row r="18" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
+      <c r="B18" s="159"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="161"/>
     </row>
     <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
+      <c r="B19" s="159"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="161"/>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="162" t="s">
         <v>146</v>
       </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
     </row>
     <row r="21" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>1</v>
       </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="64"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
     </row>
     <row r="22" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>2</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="64"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="145"/>
     </row>
     <row r="23" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>3</v>
       </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="145"/>
     </row>
     <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>4</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="64"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="145"/>
     </row>
     <row r="25" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>5</v>
       </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="64"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="145"/>
     </row>
     <row r="26" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>6</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="64"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="145"/>
     </row>
     <row r="27" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>7</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="64"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="145"/>
     </row>
     <row r="28" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>8</v>
       </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="64"/>
+      <c r="B28" s="143"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="145"/>
     </row>
     <row r="29" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="83" t="s">
+      <c r="A29" s="146" t="s">
         <v>150</v>
       </c>
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="146"/>
     </row>
     <row r="30" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="90" t="s">
+      <c r="A30" s="127" t="s">
         <v>219</v>
       </c>
-      <c r="B30" s="91"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="92"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="129"/>
     </row>
     <row r="31" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="93"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="95"/>
+      <c r="A31" s="130"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="132"/>
     </row>
     <row r="32" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="93"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="95"/>
+      <c r="A32" s="130"/>
+      <c r="B32" s="131"/>
+      <c r="C32" s="131"/>
+      <c r="D32" s="132"/>
     </row>
     <row r="33" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="93"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="95"/>
+      <c r="A33" s="130"/>
+      <c r="B33" s="131"/>
+      <c r="C33" s="131"/>
+      <c r="D33" s="132"/>
     </row>
     <row r="34" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="93"/>
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="95"/>
+      <c r="A34" s="130"/>
+      <c r="B34" s="131"/>
+      <c r="C34" s="131"/>
+      <c r="D34" s="132"/>
     </row>
     <row r="35" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="93"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="95"/>
+      <c r="A35" s="130"/>
+      <c r="B35" s="131"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="132"/>
     </row>
     <row r="36" spans="1:20" ht="257" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="96"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="98"/>
+      <c r="A36" s="133"/>
+      <c r="B36" s="134"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="135"/>
     </row>
     <row r="37" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="168" t="s">
+      <c r="A37" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="168"/>
-      <c r="C37" s="168"/>
-      <c r="D37" s="168"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
     </row>
     <row r="38" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="99" t="s">
+      <c r="A38" s="136" t="s">
         <v>153</v>
       </c>
-      <c r="B38" s="99"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="136"/>
+      <c r="D38" s="136"/>
     </row>
     <row r="39" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>1</v>
       </c>
-      <c r="B39" s="100"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="102"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="52"/>
       <c r="T39" s="25"/>
     </row>
     <row r="40" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>2</v>
       </c>
-      <c r="B40" s="100"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="102"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="52"/>
     </row>
     <row r="41" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>3</v>
       </c>
-      <c r="B41" s="100"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="102"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="52"/>
     </row>
     <row r="42" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>4</v>
       </c>
-      <c r="B42" s="100"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="102"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="52"/>
     </row>
     <row r="43" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>5</v>
       </c>
-      <c r="B43" s="100"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="102"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="52"/>
     </row>
     <row r="44" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>6</v>
       </c>
-      <c r="B44" s="100"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="102"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="52"/>
     </row>
     <row r="45" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>7</v>
       </c>
-      <c r="B45" s="123"/>
-      <c r="C45" s="124"/>
-      <c r="D45" s="125"/>
+      <c r="B45" s="120"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="122"/>
     </row>
     <row r="46" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>8</v>
       </c>
-      <c r="B46" s="141"/>
-      <c r="C46" s="142"/>
-      <c r="D46" s="142"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="82"/>
     </row>
     <row r="47" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="155"/>
-      <c r="B47" s="155"/>
-      <c r="C47" s="155"/>
-      <c r="D47" s="155"/>
+      <c r="A47" s="101"/>
+      <c r="B47" s="101"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="101"/>
     </row>
     <row r="48" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="156" t="s">
+      <c r="A48" s="102" t="s">
         <v>127</v>
       </c>
-      <c r="B48" s="156"/>
-      <c r="C48" s="156"/>
-      <c r="D48" s="156"/>
+      <c r="B48" s="102"/>
+      <c r="C48" s="102"/>
+      <c r="D48" s="102"/>
     </row>
     <row r="49" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="32">
         <v>1</v>
       </c>
-      <c r="B49" s="138"/>
-      <c r="C49" s="139"/>
-      <c r="D49" s="140"/>
+      <c r="B49" s="78"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="80"/>
     </row>
     <row r="50" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="32">
         <v>2</v>
       </c>
-      <c r="B50" s="138"/>
-      <c r="C50" s="139"/>
-      <c r="D50" s="140"/>
+      <c r="B50" s="78"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="80"/>
     </row>
     <row r="51" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="32">
         <v>3</v>
       </c>
-      <c r="B51" s="138"/>
-      <c r="C51" s="139"/>
-      <c r="D51" s="140"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="80"/>
     </row>
     <row r="52" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>4</v>
       </c>
-      <c r="B52" s="157"/>
-      <c r="C52" s="139"/>
-      <c r="D52" s="158"/>
+      <c r="B52" s="103"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="104"/>
     </row>
     <row r="53" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="32">
         <v>5</v>
       </c>
-      <c r="B53" s="138"/>
-      <c r="C53" s="139"/>
-      <c r="D53" s="140"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="80"/>
     </row>
     <row r="54" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32">
         <v>6</v>
       </c>
-      <c r="B54" s="138"/>
-      <c r="C54" s="139"/>
-      <c r="D54" s="140"/>
+      <c r="B54" s="78"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="80"/>
     </row>
     <row r="55" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32">
         <v>7</v>
       </c>
-      <c r="B55" s="138"/>
-      <c r="C55" s="139"/>
-      <c r="D55" s="140"/>
+      <c r="B55" s="78"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="80"/>
     </row>
     <row r="56" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="32">
         <v>8</v>
       </c>
-      <c r="B56" s="159"/>
-      <c r="C56" s="160"/>
-      <c r="D56" s="161"/>
+      <c r="B56" s="105"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="107"/>
     </row>
     <row r="58" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="51" t="s">
+      <c r="A58" s="156" t="s">
         <v>132</v>
       </c>
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="51"/>
-      <c r="J58" s="51"/>
-      <c r="K58" s="51"/>
-      <c r="L58" s="51"/>
-      <c r="M58" s="51"/>
+      <c r="B58" s="156"/>
+      <c r="C58" s="156"/>
+      <c r="D58" s="156"/>
+      <c r="E58" s="156"/>
+      <c r="F58" s="156"/>
+      <c r="G58" s="156"/>
+      <c r="H58" s="156"/>
+      <c r="I58" s="156"/>
+      <c r="J58" s="156"/>
+      <c r="K58" s="156"/>
+      <c r="L58" s="156"/>
+      <c r="M58" s="156"/>
     </row>
     <row r="59" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="52" t="s">
+      <c r="A59" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="B59" s="53"/>
-      <c r="C59" s="52" t="s">
+      <c r="B59" s="65"/>
+      <c r="C59" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="D59" s="53"/>
-      <c r="E59" s="52" t="s">
+      <c r="D59" s="65"/>
+      <c r="E59" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="F59" s="53"/>
-      <c r="H59" s="54" t="s">
+      <c r="F59" s="65"/>
+      <c r="H59" s="153" t="s">
         <v>136</v>
       </c>
-      <c r="I59" s="55"/>
-      <c r="J59" s="54" t="s">
+      <c r="I59" s="154"/>
+      <c r="J59" s="153" t="s">
         <v>137</v>
       </c>
-      <c r="K59" s="55"/>
-      <c r="L59" s="56" t="s">
+      <c r="K59" s="154"/>
+      <c r="L59" s="157" t="s">
         <v>138</v>
       </c>
-      <c r="M59" s="57"/>
+      <c r="M59" s="158"/>
     </row>
     <row r="60" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="65" t="s">
+      <c r="A60" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="66"/>
-      <c r="C60" s="65" t="s">
+      <c r="B60" s="61"/>
+      <c r="C60" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D60" s="66"/>
-      <c r="E60" s="65" t="s">
+      <c r="D60" s="61"/>
+      <c r="E60" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="F60" s="66"/>
-      <c r="H60" s="69"/>
-      <c r="I60" s="70"/>
-      <c r="J60" s="69"/>
-      <c r="K60" s="70"/>
-      <c r="L60" s="103"/>
-      <c r="M60" s="104"/>
+      <c r="F60" s="61"/>
+      <c r="H60" s="137"/>
+      <c r="I60" s="138"/>
+      <c r="J60" s="137"/>
+      <c r="K60" s="138"/>
+      <c r="L60" s="141"/>
+      <c r="M60" s="142"/>
     </row>
     <row r="61" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="67"/>
-      <c r="B61" s="68"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="68"/>
-      <c r="H61" s="71"/>
-      <c r="I61" s="72"/>
-      <c r="J61" s="71"/>
-      <c r="K61" s="72"/>
-      <c r="L61" s="71"/>
-      <c r="M61" s="72"/>
+      <c r="A61" s="62"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="62"/>
+      <c r="F61" s="63"/>
+      <c r="H61" s="139"/>
+      <c r="I61" s="140"/>
+      <c r="J61" s="139"/>
+      <c r="K61" s="140"/>
+      <c r="L61" s="139"/>
+      <c r="M61" s="140"/>
     </row>
     <row r="62" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="52" t="s">
+      <c r="A62" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="B62" s="53"/>
-      <c r="C62" s="73" t="s">
+      <c r="B62" s="65"/>
+      <c r="C62" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="74"/>
-      <c r="E62" s="52" t="s">
+      <c r="D62" s="109"/>
+      <c r="E62" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="F62" s="53"/>
-      <c r="H62" s="54" t="s">
+      <c r="F62" s="65"/>
+      <c r="H62" s="153" t="s">
         <v>141</v>
       </c>
-      <c r="I62" s="55"/>
-      <c r="J62" s="84" t="s">
+      <c r="I62" s="154"/>
+      <c r="J62" s="147" t="s">
         <v>142</v>
       </c>
-      <c r="K62" s="85"/>
-      <c r="L62" s="54" t="s">
+      <c r="K62" s="148"/>
+      <c r="L62" s="153" t="s">
         <v>140</v>
       </c>
-      <c r="M62" s="55"/>
+      <c r="M62" s="154"/>
     </row>
     <row r="63" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="65"/>
-      <c r="B63" s="66"/>
-      <c r="C63" s="75"/>
-      <c r="D63" s="76"/>
-      <c r="E63" s="79"/>
-      <c r="F63" s="80"/>
+      <c r="A63" s="60"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="110"/>
+      <c r="D63" s="111"/>
+      <c r="E63" s="123"/>
+      <c r="F63" s="124"/>
       <c r="G63" s="23"/>
-      <c r="H63" s="69"/>
-      <c r="I63" s="70"/>
-      <c r="J63" s="86"/>
-      <c r="K63" s="87"/>
-      <c r="L63" s="69"/>
-      <c r="M63" s="70"/>
+      <c r="H63" s="137"/>
+      <c r="I63" s="138"/>
+      <c r="J63" s="149"/>
+      <c r="K63" s="150"/>
+      <c r="L63" s="137"/>
+      <c r="M63" s="138"/>
     </row>
     <row r="64" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="67"/>
-      <c r="B64" s="68"/>
-      <c r="C64" s="77"/>
-      <c r="D64" s="78"/>
-      <c r="E64" s="81"/>
-      <c r="F64" s="82"/>
-      <c r="H64" s="71"/>
-      <c r="I64" s="72"/>
-      <c r="J64" s="88"/>
-      <c r="K64" s="89"/>
-      <c r="L64" s="71"/>
-      <c r="M64" s="72"/>
+      <c r="A64" s="62"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="112"/>
+      <c r="D64" s="113"/>
+      <c r="E64" s="125"/>
+      <c r="F64" s="126"/>
+      <c r="H64" s="139"/>
+      <c r="I64" s="140"/>
+      <c r="J64" s="151"/>
+      <c r="K64" s="152"/>
+      <c r="L64" s="139"/>
+      <c r="M64" s="140"/>
     </row>
     <row r="65" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="52" t="s">
+      <c r="A65" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="B65" s="53"/>
-      <c r="C65" s="52" t="s">
+      <c r="B65" s="65"/>
+      <c r="C65" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="D65" s="53"/>
-      <c r="E65" s="52" t="s">
+      <c r="D65" s="65"/>
+      <c r="E65" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="F65" s="53"/>
-      <c r="H65" s="54" t="s">
+      <c r="F65" s="65"/>
+      <c r="H65" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="I65" s="55"/>
-      <c r="J65" s="54" t="s">
+      <c r="I65" s="154"/>
+      <c r="J65" s="153" t="s">
         <v>144</v>
       </c>
-      <c r="K65" s="55"/>
-      <c r="L65" s="54" t="s">
+      <c r="K65" s="154"/>
+      <c r="L65" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="M65" s="55"/>
+      <c r="M65" s="154"/>
     </row>
     <row r="66" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="65"/>
-      <c r="B66" s="66"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="66"/>
-      <c r="H66" s="69"/>
-      <c r="I66" s="70"/>
-      <c r="J66" s="69"/>
-      <c r="K66" s="70"/>
-      <c r="L66" s="69"/>
-      <c r="M66" s="70"/>
+      <c r="A66" s="60"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="61"/>
+      <c r="H66" s="137"/>
+      <c r="I66" s="138"/>
+      <c r="J66" s="137"/>
+      <c r="K66" s="138"/>
+      <c r="L66" s="137"/>
+      <c r="M66" s="138"/>
     </row>
     <row r="67" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="67"/>
-      <c r="B67" s="68"/>
-      <c r="C67" s="67"/>
-      <c r="D67" s="68"/>
-      <c r="E67" s="67"/>
-      <c r="F67" s="68"/>
-      <c r="H67" s="71"/>
-      <c r="I67" s="72"/>
-      <c r="J67" s="71"/>
-      <c r="K67" s="72"/>
-      <c r="L67" s="71"/>
-      <c r="M67" s="72"/>
+      <c r="A67" s="62"/>
+      <c r="B67" s="63"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="62"/>
+      <c r="F67" s="63"/>
+      <c r="H67" s="139"/>
+      <c r="I67" s="140"/>
+      <c r="J67" s="139"/>
+      <c r="K67" s="140"/>
+      <c r="L67" s="139"/>
+      <c r="M67" s="140"/>
     </row>
     <row r="68" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
@@ -4196,172 +4212,172 @@
       <c r="D68" s="8"/>
     </row>
     <row r="69" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="52" t="s">
+      <c r="A69" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="53"/>
-      <c r="C69" s="52" t="s">
+      <c r="B69" s="65"/>
+      <c r="C69" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="D69" s="53"/>
-      <c r="E69" s="52" t="s">
+      <c r="D69" s="65"/>
+      <c r="E69" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="F69" s="53"/>
-      <c r="H69" s="52" t="s">
+      <c r="F69" s="65"/>
+      <c r="H69" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="I69" s="53"/>
-      <c r="J69" s="52" t="s">
+      <c r="I69" s="65"/>
+      <c r="J69" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="K69" s="53"/>
-      <c r="L69" s="52" t="s">
+      <c r="K69" s="65"/>
+      <c r="L69" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="M69" s="53"/>
+      <c r="M69" s="65"/>
     </row>
     <row r="70" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="65" t="s">
+      <c r="A70" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B70" s="66"/>
-      <c r="C70" s="65" t="s">
+      <c r="B70" s="61"/>
+      <c r="C70" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D70" s="66"/>
-      <c r="E70" s="65" t="s">
+      <c r="D70" s="61"/>
+      <c r="E70" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="F70" s="66"/>
-      <c r="H70" s="65"/>
-      <c r="I70" s="66"/>
-      <c r="J70" s="65"/>
-      <c r="K70" s="66"/>
-      <c r="L70" s="65"/>
-      <c r="M70" s="66"/>
+      <c r="F70" s="61"/>
+      <c r="H70" s="60"/>
+      <c r="I70" s="61"/>
+      <c r="J70" s="60"/>
+      <c r="K70" s="61"/>
+      <c r="L70" s="60"/>
+      <c r="M70" s="61"/>
     </row>
     <row r="71" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="67"/>
-      <c r="B71" s="68"/>
-      <c r="C71" s="67"/>
-      <c r="D71" s="68"/>
-      <c r="E71" s="67"/>
-      <c r="F71" s="68"/>
-      <c r="H71" s="67"/>
-      <c r="I71" s="68"/>
-      <c r="J71" s="67"/>
-      <c r="K71" s="68"/>
-      <c r="L71" s="67"/>
-      <c r="M71" s="68"/>
+      <c r="A71" s="62"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="62"/>
+      <c r="F71" s="63"/>
+      <c r="H71" s="62"/>
+      <c r="I71" s="63"/>
+      <c r="J71" s="62"/>
+      <c r="K71" s="63"/>
+      <c r="L71" s="62"/>
+      <c r="M71" s="63"/>
     </row>
     <row r="72" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="52" t="s">
+      <c r="A72" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="B72" s="53"/>
-      <c r="C72" s="73" t="s">
+      <c r="B72" s="65"/>
+      <c r="C72" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="D72" s="74"/>
-      <c r="E72" s="52" t="s">
+      <c r="D72" s="109"/>
+      <c r="E72" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="F72" s="53"/>
-      <c r="H72" s="52" t="s">
+      <c r="F72" s="65"/>
+      <c r="H72" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="I72" s="53"/>
-      <c r="J72" s="73" t="s">
+      <c r="I72" s="65"/>
+      <c r="J72" s="108" t="s">
         <v>149</v>
       </c>
-      <c r="K72" s="74"/>
-      <c r="L72" s="52" t="s">
+      <c r="K72" s="109"/>
+      <c r="L72" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="M72" s="53"/>
+      <c r="M72" s="65"/>
     </row>
     <row r="73" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="65"/>
-      <c r="B73" s="66"/>
-      <c r="C73" s="75"/>
-      <c r="D73" s="76"/>
-      <c r="E73" s="79"/>
-      <c r="F73" s="80"/>
-      <c r="H73" s="65"/>
-      <c r="I73" s="66"/>
-      <c r="J73" s="75"/>
-      <c r="K73" s="76"/>
-      <c r="L73" s="79"/>
-      <c r="M73" s="80"/>
+      <c r="A73" s="60"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="110"/>
+      <c r="D73" s="111"/>
+      <c r="E73" s="123"/>
+      <c r="F73" s="124"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="61"/>
+      <c r="J73" s="110"/>
+      <c r="K73" s="111"/>
+      <c r="L73" s="123"/>
+      <c r="M73" s="124"/>
     </row>
     <row r="74" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="67"/>
-      <c r="B74" s="68"/>
-      <c r="C74" s="77"/>
-      <c r="D74" s="78"/>
-      <c r="E74" s="81"/>
-      <c r="F74" s="82"/>
-      <c r="H74" s="67"/>
-      <c r="I74" s="68"/>
-      <c r="J74" s="77"/>
-      <c r="K74" s="78"/>
-      <c r="L74" s="81"/>
-      <c r="M74" s="82"/>
+      <c r="A74" s="62"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="112"/>
+      <c r="D74" s="113"/>
+      <c r="E74" s="125"/>
+      <c r="F74" s="126"/>
+      <c r="H74" s="62"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="112"/>
+      <c r="K74" s="113"/>
+      <c r="L74" s="125"/>
+      <c r="M74" s="126"/>
     </row>
     <row r="75" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="52" t="s">
+      <c r="A75" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="B75" s="53"/>
-      <c r="C75" s="52" t="s">
+      <c r="B75" s="65"/>
+      <c r="C75" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="D75" s="53"/>
-      <c r="E75" s="52" t="s">
+      <c r="D75" s="65"/>
+      <c r="E75" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F75" s="53"/>
-      <c r="H75" s="52" t="s">
+      <c r="F75" s="65"/>
+      <c r="H75" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="I75" s="53"/>
-      <c r="J75" s="52" t="s">
+      <c r="I75" s="65"/>
+      <c r="J75" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="K75" s="53"/>
-      <c r="L75" s="52" t="s">
+      <c r="K75" s="65"/>
+      <c r="L75" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="M75" s="53"/>
+      <c r="M75" s="65"/>
     </row>
     <row r="76" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="65"/>
-      <c r="B76" s="66"/>
-      <c r="C76" s="65"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="65"/>
-      <c r="F76" s="66"/>
-      <c r="H76" s="65"/>
-      <c r="I76" s="66"/>
-      <c r="J76" s="65"/>
-      <c r="K76" s="66"/>
-      <c r="L76" s="65"/>
-      <c r="M76" s="66"/>
+      <c r="A76" s="60"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="61"/>
+      <c r="H76" s="60"/>
+      <c r="I76" s="61"/>
+      <c r="J76" s="60"/>
+      <c r="K76" s="61"/>
+      <c r="L76" s="60"/>
+      <c r="M76" s="61"/>
     </row>
     <row r="77" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="67"/>
-      <c r="B77" s="68"/>
-      <c r="C77" s="67"/>
-      <c r="D77" s="68"/>
-      <c r="E77" s="67"/>
-      <c r="F77" s="68"/>
-      <c r="H77" s="67"/>
-      <c r="I77" s="68"/>
-      <c r="J77" s="67"/>
-      <c r="K77" s="68"/>
-      <c r="L77" s="67"/>
-      <c r="M77" s="68"/>
+      <c r="A77" s="62"/>
+      <c r="B77" s="63"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="63"/>
+      <c r="H77" s="62"/>
+      <c r="I77" s="63"/>
+      <c r="J77" s="62"/>
+      <c r="K77" s="63"/>
+      <c r="L77" s="62"/>
+      <c r="M77" s="63"/>
     </row>
     <row r="78" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
@@ -4369,166 +4385,166 @@
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="52" t="s">
+      <c r="A79" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="B79" s="53"/>
-      <c r="C79" s="52" t="s">
+      <c r="B79" s="65"/>
+      <c r="C79" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="D79" s="53"/>
-      <c r="E79" s="52" t="s">
+      <c r="D79" s="65"/>
+      <c r="E79" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="F79" s="53"/>
-      <c r="H79" s="105" t="s">
+      <c r="F79" s="65"/>
+      <c r="H79" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="I79" s="106"/>
-      <c r="J79" s="105" t="s">
+      <c r="I79" s="54"/>
+      <c r="J79" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="K79" s="106"/>
-      <c r="L79" s="105" t="s">
+      <c r="K79" s="54"/>
+      <c r="L79" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="M79" s="106"/>
+      <c r="M79" s="54"/>
     </row>
     <row r="80" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="65"/>
-      <c r="B80" s="66"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="66"/>
-      <c r="E80" s="65"/>
-      <c r="F80" s="66"/>
-      <c r="H80" s="107"/>
-      <c r="I80" s="108"/>
-      <c r="J80" s="107"/>
-      <c r="K80" s="108"/>
-      <c r="L80" s="107"/>
-      <c r="M80" s="108"/>
+      <c r="A80" s="60"/>
+      <c r="B80" s="61"/>
+      <c r="C80" s="60"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="61"/>
+      <c r="H80" s="55"/>
+      <c r="I80" s="56"/>
+      <c r="J80" s="55"/>
+      <c r="K80" s="56"/>
+      <c r="L80" s="55"/>
+      <c r="M80" s="56"/>
     </row>
     <row r="81" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="67"/>
-      <c r="B81" s="68"/>
-      <c r="C81" s="67"/>
-      <c r="D81" s="68"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="68"/>
-      <c r="H81" s="109"/>
-      <c r="I81" s="110"/>
-      <c r="J81" s="109"/>
-      <c r="K81" s="110"/>
-      <c r="L81" s="109"/>
-      <c r="M81" s="110"/>
+      <c r="A81" s="62"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="62"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="62"/>
+      <c r="F81" s="63"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="58"/>
+      <c r="J81" s="57"/>
+      <c r="K81" s="58"/>
+      <c r="L81" s="57"/>
+      <c r="M81" s="58"/>
     </row>
     <row r="82" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="52" t="s">
+      <c r="A82" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="B82" s="53"/>
-      <c r="C82" s="73" t="s">
+      <c r="B82" s="65"/>
+      <c r="C82" s="108" t="s">
         <v>152</v>
       </c>
-      <c r="D82" s="74"/>
-      <c r="E82" s="52" t="s">
+      <c r="D82" s="109"/>
+      <c r="E82" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="F82" s="53"/>
-      <c r="H82" s="105" t="s">
+      <c r="F82" s="65"/>
+      <c r="H82" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="I82" s="106"/>
-      <c r="J82" s="73" t="s">
+      <c r="I82" s="54"/>
+      <c r="J82" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="K82" s="74"/>
-      <c r="L82" s="105" t="s">
+      <c r="K82" s="109"/>
+      <c r="L82" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="M82" s="106"/>
+      <c r="M82" s="54"/>
     </row>
     <row r="83" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="65"/>
-      <c r="B83" s="66"/>
-      <c r="C83" s="75"/>
-      <c r="D83" s="76"/>
-      <c r="E83" s="79"/>
-      <c r="F83" s="80"/>
-      <c r="H83" s="107"/>
-      <c r="I83" s="108"/>
-      <c r="J83" s="75"/>
-      <c r="K83" s="76"/>
-      <c r="L83" s="107"/>
-      <c r="M83" s="108"/>
+      <c r="A83" s="60"/>
+      <c r="B83" s="61"/>
+      <c r="C83" s="110"/>
+      <c r="D83" s="111"/>
+      <c r="E83" s="123"/>
+      <c r="F83" s="124"/>
+      <c r="H83" s="55"/>
+      <c r="I83" s="56"/>
+      <c r="J83" s="110"/>
+      <c r="K83" s="111"/>
+      <c r="L83" s="55"/>
+      <c r="M83" s="56"/>
     </row>
     <row r="84" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="67"/>
-      <c r="B84" s="68"/>
-      <c r="C84" s="77"/>
-      <c r="D84" s="78"/>
-      <c r="E84" s="81"/>
-      <c r="F84" s="82"/>
-      <c r="H84" s="109"/>
-      <c r="I84" s="110"/>
-      <c r="J84" s="77"/>
-      <c r="K84" s="78"/>
-      <c r="L84" s="109"/>
-      <c r="M84" s="110"/>
+      <c r="A84" s="62"/>
+      <c r="B84" s="63"/>
+      <c r="C84" s="112"/>
+      <c r="D84" s="113"/>
+      <c r="E84" s="125"/>
+      <c r="F84" s="126"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="58"/>
+      <c r="J84" s="112"/>
+      <c r="K84" s="113"/>
+      <c r="L84" s="57"/>
+      <c r="M84" s="58"/>
     </row>
     <row r="85" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="52" t="s">
+      <c r="A85" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="B85" s="53"/>
-      <c r="C85" s="52" t="s">
+      <c r="B85" s="65"/>
+      <c r="C85" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="53"/>
-      <c r="E85" s="52" t="s">
+      <c r="D85" s="65"/>
+      <c r="E85" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="F85" s="53"/>
-      <c r="H85" s="105" t="s">
+      <c r="F85" s="65"/>
+      <c r="H85" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="I85" s="106"/>
-      <c r="J85" s="105" t="s">
+      <c r="I85" s="54"/>
+      <c r="J85" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="K85" s="106"/>
-      <c r="L85" s="105" t="s">
+      <c r="K85" s="54"/>
+      <c r="L85" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="M85" s="106"/>
+      <c r="M85" s="54"/>
     </row>
     <row r="86" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="65"/>
-      <c r="B86" s="66"/>
-      <c r="C86" s="65"/>
-      <c r="D86" s="66"/>
-      <c r="E86" s="65"/>
-      <c r="F86" s="66"/>
-      <c r="H86" s="107"/>
-      <c r="I86" s="108"/>
-      <c r="J86" s="107"/>
-      <c r="K86" s="108"/>
-      <c r="L86" s="107"/>
-      <c r="M86" s="108"/>
+      <c r="A86" s="60"/>
+      <c r="B86" s="61"/>
+      <c r="C86" s="60"/>
+      <c r="D86" s="61"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="61"/>
+      <c r="H86" s="55"/>
+      <c r="I86" s="56"/>
+      <c r="J86" s="55"/>
+      <c r="K86" s="56"/>
+      <c r="L86" s="55"/>
+      <c r="M86" s="56"/>
     </row>
     <row r="87" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="67"/>
-      <c r="B87" s="68"/>
-      <c r="C87" s="67"/>
-      <c r="D87" s="68"/>
-      <c r="E87" s="67"/>
-      <c r="F87" s="68"/>
-      <c r="H87" s="109"/>
-      <c r="I87" s="110"/>
-      <c r="J87" s="109"/>
-      <c r="K87" s="110"/>
-      <c r="L87" s="109"/>
-      <c r="M87" s="110"/>
+      <c r="A87" s="62"/>
+      <c r="B87" s="63"/>
+      <c r="C87" s="62"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="63"/>
+      <c r="H87" s="57"/>
+      <c r="I87" s="58"/>
+      <c r="J87" s="57"/>
+      <c r="K87" s="58"/>
+      <c r="L87" s="57"/>
+      <c r="M87" s="58"/>
     </row>
     <row r="88" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
@@ -4536,109 +4552,216 @@
       <c r="D88" s="8"/>
     </row>
     <row r="89" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="105" t="s">
+      <c r="A89" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="B89" s="106"/>
-      <c r="C89" s="111" t="s">
+      <c r="B89" s="54"/>
+      <c r="C89" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="D89" s="112"/>
-      <c r="E89" s="117" t="s">
+      <c r="D89" s="84"/>
+      <c r="E89" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="F89" s="118"/>
+      <c r="F89" s="115"/>
     </row>
     <row r="90" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="107"/>
-      <c r="B90" s="108"/>
-      <c r="C90" s="113"/>
-      <c r="D90" s="114"/>
-      <c r="E90" s="119"/>
-      <c r="F90" s="120"/>
+      <c r="A90" s="55"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="85"/>
+      <c r="D90" s="86"/>
+      <c r="E90" s="116"/>
+      <c r="F90" s="117"/>
     </row>
     <row r="91" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="109"/>
-      <c r="B91" s="110"/>
-      <c r="C91" s="115"/>
-      <c r="D91" s="116"/>
-      <c r="E91" s="121"/>
-      <c r="F91" s="122"/>
+      <c r="A91" s="57"/>
+      <c r="B91" s="58"/>
+      <c r="C91" s="87"/>
+      <c r="D91" s="88"/>
+      <c r="E91" s="118"/>
+      <c r="F91" s="119"/>
     </row>
     <row r="92" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="111" t="s">
+      <c r="A92" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="B92" s="112"/>
-      <c r="C92" s="143" t="s">
+      <c r="B92" s="84"/>
+      <c r="C92" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="D92" s="144"/>
-      <c r="E92" s="149" t="s">
+      <c r="D92" s="90"/>
+      <c r="E92" s="95" t="s">
         <v>148</v>
       </c>
-      <c r="F92" s="150"/>
+      <c r="F92" s="96"/>
     </row>
     <row r="93" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="113"/>
-      <c r="B93" s="114"/>
-      <c r="C93" s="145"/>
-      <c r="D93" s="146"/>
-      <c r="E93" s="151"/>
-      <c r="F93" s="152"/>
+      <c r="A93" s="85"/>
+      <c r="B93" s="86"/>
+      <c r="C93" s="91"/>
+      <c r="D93" s="92"/>
+      <c r="E93" s="97"/>
+      <c r="F93" s="98"/>
     </row>
     <row r="94" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="115"/>
-      <c r="B94" s="116"/>
-      <c r="C94" s="147"/>
-      <c r="D94" s="148"/>
-      <c r="E94" s="153"/>
-      <c r="F94" s="154"/>
+      <c r="A94" s="87"/>
+      <c r="B94" s="88"/>
+      <c r="C94" s="93"/>
+      <c r="D94" s="94"/>
+      <c r="E94" s="99"/>
+      <c r="F94" s="100"/>
     </row>
     <row r="95" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="162" t="s">
+      <c r="A95" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="B95" s="163"/>
-      <c r="C95" s="126" t="s">
+      <c r="B95" s="45"/>
+      <c r="C95" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="D95" s="127"/>
-      <c r="E95" s="132" t="s">
+      <c r="D95" s="67"/>
+      <c r="E95" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="F95" s="133"/>
+      <c r="F95" s="73"/>
     </row>
     <row r="96" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="164"/>
-      <c r="B96" s="165"/>
-      <c r="C96" s="128"/>
-      <c r="D96" s="129"/>
-      <c r="E96" s="134"/>
-      <c r="F96" s="135"/>
+      <c r="A96" s="46"/>
+      <c r="B96" s="47"/>
+      <c r="C96" s="68"/>
+      <c r="D96" s="69"/>
+      <c r="E96" s="74"/>
+      <c r="F96" s="75"/>
     </row>
     <row r="97" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="166"/>
-      <c r="B97" s="167"/>
-      <c r="C97" s="130"/>
-      <c r="D97" s="131"/>
-      <c r="E97" s="136"/>
-      <c r="F97" s="137"/>
+      <c r="A97" s="48"/>
+      <c r="B97" s="49"/>
+      <c r="C97" s="70"/>
+      <c r="D97" s="71"/>
+      <c r="E97" s="76"/>
+      <c r="F97" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="155">
-    <mergeCell ref="A95:B97"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A89:B91"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A83:B84"/>
-    <mergeCell ref="A73:B74"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A60:B61"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:R1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A58:M58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="A66:B67"/>
+    <mergeCell ref="C66:D67"/>
+    <mergeCell ref="E66:F67"/>
+    <mergeCell ref="H66:I67"/>
+    <mergeCell ref="J66:K67"/>
+    <mergeCell ref="J72:K74"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A70:B71"/>
+    <mergeCell ref="C70:D71"/>
+    <mergeCell ref="E70:F71"/>
+    <mergeCell ref="H70:I71"/>
+    <mergeCell ref="J70:K71"/>
+    <mergeCell ref="E73:F74"/>
+    <mergeCell ref="H73:I74"/>
+    <mergeCell ref="L73:M74"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="L66:M67"/>
+    <mergeCell ref="J62:K64"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="A63:B64"/>
+    <mergeCell ref="E63:F64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="A30:D36"/>
+    <mergeCell ref="A76:B77"/>
+    <mergeCell ref="C76:D77"/>
+    <mergeCell ref="E76:F77"/>
+    <mergeCell ref="H76:I77"/>
+    <mergeCell ref="J76:K77"/>
+    <mergeCell ref="L76:M77"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="L70:M71"/>
+    <mergeCell ref="H63:I64"/>
+    <mergeCell ref="L63:M64"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="E60:F61"/>
+    <mergeCell ref="H60:I61"/>
+    <mergeCell ref="J60:K61"/>
+    <mergeCell ref="L60:M61"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D74"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H82:I84"/>
+    <mergeCell ref="J82:K84"/>
+    <mergeCell ref="L82:M84"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="H79:I81"/>
+    <mergeCell ref="J79:K81"/>
+    <mergeCell ref="L79:M81"/>
+    <mergeCell ref="A80:B81"/>
+    <mergeCell ref="C80:D81"/>
+    <mergeCell ref="E80:F81"/>
+    <mergeCell ref="E83:F84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D84"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="C89:D91"/>
+    <mergeCell ref="E89:F91"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="C62:D64"/>
+    <mergeCell ref="E62:F62"/>
     <mergeCell ref="H85:I87"/>
     <mergeCell ref="J85:K87"/>
     <mergeCell ref="L85:M87"/>
@@ -4663,125 +4786,18 @@
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D84"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="C89:D91"/>
-    <mergeCell ref="E89:F91"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="C62:D64"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="H82:I84"/>
-    <mergeCell ref="J82:K84"/>
-    <mergeCell ref="L82:M84"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="H79:I81"/>
-    <mergeCell ref="J79:K81"/>
-    <mergeCell ref="L79:M81"/>
-    <mergeCell ref="A80:B81"/>
-    <mergeCell ref="C80:D81"/>
-    <mergeCell ref="E80:F81"/>
-    <mergeCell ref="E83:F84"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="A30:D36"/>
-    <mergeCell ref="A76:B77"/>
-    <mergeCell ref="C76:D77"/>
-    <mergeCell ref="E76:F77"/>
-    <mergeCell ref="H76:I77"/>
-    <mergeCell ref="J76:K77"/>
-    <mergeCell ref="L76:M77"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="L70:M71"/>
-    <mergeCell ref="H63:I64"/>
-    <mergeCell ref="L63:M64"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="E60:F61"/>
-    <mergeCell ref="H60:I61"/>
-    <mergeCell ref="J60:K61"/>
-    <mergeCell ref="L60:M61"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D74"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="J72:K74"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A70:B71"/>
-    <mergeCell ref="C70:D71"/>
-    <mergeCell ref="E70:F71"/>
-    <mergeCell ref="H70:I71"/>
-    <mergeCell ref="J70:K71"/>
-    <mergeCell ref="E73:F74"/>
-    <mergeCell ref="H73:I74"/>
-    <mergeCell ref="L73:M74"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="L66:M67"/>
-    <mergeCell ref="J62:K64"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="A63:B64"/>
-    <mergeCell ref="E63:F64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="A66:B67"/>
-    <mergeCell ref="C66:D67"/>
-    <mergeCell ref="E66:F67"/>
-    <mergeCell ref="H66:I67"/>
-    <mergeCell ref="J66:K67"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A58:M58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:R1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A95:B97"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A89:B91"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A83:B84"/>
+    <mergeCell ref="A73:B74"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A60:B61"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4792,8 +4808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4820,37 +4836,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="165" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
-      <c r="F1" s="48" t="s">
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="167"/>
+      <c r="F1" s="168" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="169"/>
+      <c r="N1" s="169"/>
+      <c r="O1" s="169"/>
+      <c r="P1" s="169"/>
+      <c r="Q1" s="169"/>
+      <c r="R1" s="169"/>
     </row>
     <row r="2" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="163" t="s">
         <v>218</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="34"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="34" t="s">
+        <v>226</v>
+      </c>
       <c r="F2" s="10"/>
       <c r="G2" s="12" t="s">
         <v>161</v>
@@ -4888,10 +4906,10 @@
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="163" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="44"/>
+      <c r="C3" s="164"/>
       <c r="D3" s="34" t="s">
         <v>224</v>
       </c>
@@ -4927,10 +4945,10 @@
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="163" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="44"/>
+      <c r="C4" s="164"/>
       <c r="D4" s="34"/>
       <c r="F4" s="17" t="s">
         <v>15</v>
@@ -4962,8 +4980,8 @@
       <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="164"/>
       <c r="D5" s="34"/>
       <c r="F5" s="17" t="s">
         <v>16</v>
@@ -4989,8 +5007,8 @@
       <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="164"/>
       <c r="D6" s="34"/>
       <c r="F6" s="17" t="s">
         <v>17</v>
@@ -5010,8 +5028,8 @@
       <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="164"/>
       <c r="D7" s="34"/>
       <c r="F7" s="17" t="s">
         <v>18</v>
@@ -5031,8 +5049,8 @@
       <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="164"/>
       <c r="D8" s="34"/>
       <c r="R8" s="16"/>
     </row>
@@ -5040,8 +5058,8 @@
       <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="164"/>
       <c r="D9" s="34"/>
       <c r="F9" s="10"/>
       <c r="G9" s="12" t="s">
@@ -5075,8 +5093,8 @@
       <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="164"/>
       <c r="D10" s="34"/>
       <c r="F10" s="17" t="s">
         <v>19</v>
@@ -5097,8 +5115,8 @@
       <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
+      <c r="B11" s="163"/>
+      <c r="C11" s="164"/>
       <c r="D11" s="34"/>
       <c r="F11" s="15" t="s">
         <v>20</v>
@@ -5116,537 +5134,537 @@
       <c r="Q11" s="16"/>
     </row>
     <row r="12" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="155" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
+      <c r="B12" s="155"/>
+      <c r="C12" s="155"/>
+      <c r="D12" s="155"/>
     </row>
     <row r="13" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="159" t="s">
         <v>225</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
+      <c r="C13" s="160"/>
+      <c r="D13" s="161"/>
     </row>
     <row r="14" spans="1:18" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
+      <c r="B14" s="159"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="161"/>
     </row>
     <row r="15" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
+      <c r="B15" s="159"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="161"/>
     </row>
     <row r="16" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="160"/>
+      <c r="D16" s="161"/>
     </row>
     <row r="17" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
+      <c r="B17" s="159"/>
+      <c r="C17" s="160"/>
+      <c r="D17" s="161"/>
     </row>
     <row r="18" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
+      <c r="B18" s="159"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="161"/>
     </row>
     <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
+      <c r="B19" s="159"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="161"/>
     </row>
     <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="162" t="s">
         <v>146</v>
       </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
     </row>
     <row r="21" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>1</v>
       </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="64"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
     </row>
     <row r="22" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>2</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="64"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="145"/>
     </row>
     <row r="23" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>3</v>
       </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="145"/>
     </row>
     <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>4</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="64"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="145"/>
     </row>
     <row r="25" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>5</v>
       </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="64"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="145"/>
     </row>
     <row r="26" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>6</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="64"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="145"/>
     </row>
     <row r="27" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>7</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="64"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="145"/>
     </row>
     <row r="28" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>8</v>
       </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="64"/>
+      <c r="B28" s="143"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="145"/>
     </row>
     <row r="29" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="83" t="s">
+      <c r="A29" s="146" t="s">
         <v>150</v>
       </c>
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="146"/>
     </row>
     <row r="30" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="90"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="92"/>
+      <c r="A30" s="127"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="129"/>
     </row>
     <row r="31" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="93"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="95"/>
+      <c r="A31" s="130"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="132"/>
     </row>
     <row r="32" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="93"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="95"/>
+      <c r="A32" s="130"/>
+      <c r="B32" s="131"/>
+      <c r="C32" s="131"/>
+      <c r="D32" s="132"/>
     </row>
     <row r="33" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="93"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="95"/>
+      <c r="A33" s="130"/>
+      <c r="B33" s="131"/>
+      <c r="C33" s="131"/>
+      <c r="D33" s="132"/>
     </row>
     <row r="34" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="93"/>
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="95"/>
+      <c r="A34" s="130"/>
+      <c r="B34" s="131"/>
+      <c r="C34" s="131"/>
+      <c r="D34" s="132"/>
     </row>
     <row r="35" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="93"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="95"/>
+      <c r="A35" s="130"/>
+      <c r="B35" s="131"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="132"/>
     </row>
     <row r="36" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="96"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="98"/>
+      <c r="A36" s="133"/>
+      <c r="B36" s="134"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="135"/>
     </row>
     <row r="37" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="168" t="s">
+      <c r="A37" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="168"/>
-      <c r="C37" s="168"/>
-      <c r="D37" s="168"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
     </row>
     <row r="38" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="99" t="s">
+      <c r="A38" s="136" t="s">
         <v>153</v>
       </c>
-      <c r="B38" s="99"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="136"/>
+      <c r="D38" s="136"/>
     </row>
     <row r="39" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>1</v>
       </c>
-      <c r="B39" s="100"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="102"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="52"/>
       <c r="T39" s="25"/>
     </row>
     <row r="40" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>2</v>
       </c>
-      <c r="B40" s="100"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="102"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="52"/>
     </row>
     <row r="41" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>3</v>
       </c>
-      <c r="B41" s="100"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="102"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="52"/>
     </row>
     <row r="42" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>4</v>
       </c>
-      <c r="B42" s="100"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="102"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="52"/>
     </row>
     <row r="43" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>5</v>
       </c>
-      <c r="B43" s="100"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="102"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="52"/>
     </row>
     <row r="44" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>6</v>
       </c>
-      <c r="B44" s="100"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="102"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="52"/>
     </row>
     <row r="45" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>7</v>
       </c>
-      <c r="B45" s="123"/>
-      <c r="C45" s="124"/>
-      <c r="D45" s="125"/>
+      <c r="B45" s="120"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="122"/>
     </row>
     <row r="46" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>8</v>
       </c>
-      <c r="B46" s="141"/>
-      <c r="C46" s="142"/>
-      <c r="D46" s="142"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="82"/>
     </row>
     <row r="47" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="155"/>
-      <c r="B47" s="155"/>
-      <c r="C47" s="155"/>
-      <c r="D47" s="155"/>
+      <c r="A47" s="101"/>
+      <c r="B47" s="101"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="101"/>
     </row>
     <row r="48" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="156" t="s">
+      <c r="A48" s="102" t="s">
         <v>127</v>
       </c>
-      <c r="B48" s="156"/>
-      <c r="C48" s="156"/>
-      <c r="D48" s="156"/>
+      <c r="B48" s="102"/>
+      <c r="C48" s="102"/>
+      <c r="D48" s="102"/>
     </row>
     <row r="49" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="32">
         <v>1</v>
       </c>
-      <c r="B49" s="138"/>
-      <c r="C49" s="139"/>
-      <c r="D49" s="140"/>
+      <c r="B49" s="78"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="80"/>
     </row>
     <row r="50" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="32">
         <v>2</v>
       </c>
-      <c r="B50" s="138"/>
-      <c r="C50" s="139"/>
-      <c r="D50" s="140"/>
+      <c r="B50" s="78"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="80"/>
     </row>
     <row r="51" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="32">
         <v>3</v>
       </c>
-      <c r="B51" s="138"/>
-      <c r="C51" s="139"/>
-      <c r="D51" s="140"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="80"/>
     </row>
     <row r="52" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>4</v>
       </c>
-      <c r="B52" s="157"/>
-      <c r="C52" s="139"/>
-      <c r="D52" s="158"/>
+      <c r="B52" s="103"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="104"/>
     </row>
     <row r="53" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="32">
         <v>5</v>
       </c>
-      <c r="B53" s="138"/>
-      <c r="C53" s="139"/>
-      <c r="D53" s="140"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="80"/>
     </row>
     <row r="54" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32">
         <v>6</v>
       </c>
-      <c r="B54" s="138"/>
-      <c r="C54" s="139"/>
-      <c r="D54" s="140"/>
+      <c r="B54" s="78"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="80"/>
     </row>
     <row r="55" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32">
         <v>7</v>
       </c>
-      <c r="B55" s="138"/>
-      <c r="C55" s="139"/>
-      <c r="D55" s="140"/>
+      <c r="B55" s="78"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="80"/>
     </row>
     <row r="56" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="32">
         <v>8</v>
       </c>
-      <c r="B56" s="159"/>
-      <c r="C56" s="160"/>
-      <c r="D56" s="161"/>
+      <c r="B56" s="105"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="107"/>
     </row>
     <row r="58" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="51" t="s">
+      <c r="A58" s="156" t="s">
         <v>132</v>
       </c>
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="51"/>
-      <c r="J58" s="51"/>
-      <c r="K58" s="51"/>
-      <c r="L58" s="51"/>
-      <c r="M58" s="51"/>
+      <c r="B58" s="156"/>
+      <c r="C58" s="156"/>
+      <c r="D58" s="156"/>
+      <c r="E58" s="156"/>
+      <c r="F58" s="156"/>
+      <c r="G58" s="156"/>
+      <c r="H58" s="156"/>
+      <c r="I58" s="156"/>
+      <c r="J58" s="156"/>
+      <c r="K58" s="156"/>
+      <c r="L58" s="156"/>
+      <c r="M58" s="156"/>
     </row>
     <row r="59" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="52" t="s">
+      <c r="A59" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="B59" s="53"/>
-      <c r="C59" s="52" t="s">
+      <c r="B59" s="65"/>
+      <c r="C59" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="D59" s="53"/>
-      <c r="E59" s="52" t="s">
+      <c r="D59" s="65"/>
+      <c r="E59" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="F59" s="53"/>
-      <c r="H59" s="54" t="s">
+      <c r="F59" s="65"/>
+      <c r="H59" s="153" t="s">
         <v>136</v>
       </c>
-      <c r="I59" s="55"/>
-      <c r="J59" s="54" t="s">
+      <c r="I59" s="154"/>
+      <c r="J59" s="153" t="s">
         <v>137</v>
       </c>
-      <c r="K59" s="55"/>
-      <c r="L59" s="56" t="s">
+      <c r="K59" s="154"/>
+      <c r="L59" s="157" t="s">
         <v>138</v>
       </c>
-      <c r="M59" s="57"/>
+      <c r="M59" s="158"/>
     </row>
     <row r="60" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="65" t="s">
+      <c r="A60" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="66"/>
-      <c r="C60" s="65" t="s">
+      <c r="B60" s="61"/>
+      <c r="C60" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D60" s="66"/>
-      <c r="E60" s="65" t="s">
+      <c r="D60" s="61"/>
+      <c r="E60" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="F60" s="66"/>
-      <c r="H60" s="69"/>
-      <c r="I60" s="70"/>
-      <c r="J60" s="69"/>
-      <c r="K60" s="70"/>
-      <c r="L60" s="103"/>
-      <c r="M60" s="104"/>
+      <c r="F60" s="61"/>
+      <c r="H60" s="137"/>
+      <c r="I60" s="138"/>
+      <c r="J60" s="137"/>
+      <c r="K60" s="138"/>
+      <c r="L60" s="141"/>
+      <c r="M60" s="142"/>
     </row>
     <row r="61" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="67"/>
-      <c r="B61" s="68"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="68"/>
-      <c r="H61" s="71"/>
-      <c r="I61" s="72"/>
-      <c r="J61" s="71"/>
-      <c r="K61" s="72"/>
-      <c r="L61" s="71"/>
-      <c r="M61" s="72"/>
+      <c r="A61" s="62"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="62"/>
+      <c r="F61" s="63"/>
+      <c r="H61" s="139"/>
+      <c r="I61" s="140"/>
+      <c r="J61" s="139"/>
+      <c r="K61" s="140"/>
+      <c r="L61" s="139"/>
+      <c r="M61" s="140"/>
     </row>
     <row r="62" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="52" t="s">
+      <c r="A62" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="B62" s="53"/>
-      <c r="C62" s="73" t="s">
+      <c r="B62" s="65"/>
+      <c r="C62" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="74"/>
-      <c r="E62" s="52" t="s">
+      <c r="D62" s="109"/>
+      <c r="E62" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="F62" s="53"/>
-      <c r="H62" s="54" t="s">
+      <c r="F62" s="65"/>
+      <c r="H62" s="153" t="s">
         <v>141</v>
       </c>
-      <c r="I62" s="55"/>
-      <c r="J62" s="84" t="s">
+      <c r="I62" s="154"/>
+      <c r="J62" s="147" t="s">
         <v>142</v>
       </c>
-      <c r="K62" s="85"/>
-      <c r="L62" s="54" t="s">
+      <c r="K62" s="148"/>
+      <c r="L62" s="153" t="s">
         <v>140</v>
       </c>
-      <c r="M62" s="55"/>
+      <c r="M62" s="154"/>
     </row>
     <row r="63" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="65"/>
-      <c r="B63" s="66"/>
-      <c r="C63" s="75"/>
-      <c r="D63" s="76"/>
-      <c r="E63" s="79"/>
-      <c r="F63" s="80"/>
+      <c r="A63" s="60"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="110"/>
+      <c r="D63" s="111"/>
+      <c r="E63" s="123"/>
+      <c r="F63" s="124"/>
       <c r="G63" s="23"/>
-      <c r="H63" s="69"/>
-      <c r="I63" s="70"/>
-      <c r="J63" s="86"/>
-      <c r="K63" s="87"/>
-      <c r="L63" s="69"/>
-      <c r="M63" s="70"/>
+      <c r="H63" s="137"/>
+      <c r="I63" s="138"/>
+      <c r="J63" s="149"/>
+      <c r="K63" s="150"/>
+      <c r="L63" s="137"/>
+      <c r="M63" s="138"/>
     </row>
     <row r="64" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="67"/>
-      <c r="B64" s="68"/>
-      <c r="C64" s="77"/>
-      <c r="D64" s="78"/>
-      <c r="E64" s="81"/>
-      <c r="F64" s="82"/>
-      <c r="H64" s="71"/>
-      <c r="I64" s="72"/>
-      <c r="J64" s="88"/>
-      <c r="K64" s="89"/>
-      <c r="L64" s="71"/>
-      <c r="M64" s="72"/>
+      <c r="A64" s="62"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="112"/>
+      <c r="D64" s="113"/>
+      <c r="E64" s="125"/>
+      <c r="F64" s="126"/>
+      <c r="H64" s="139"/>
+      <c r="I64" s="140"/>
+      <c r="J64" s="151"/>
+      <c r="K64" s="152"/>
+      <c r="L64" s="139"/>
+      <c r="M64" s="140"/>
     </row>
     <row r="65" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="52" t="s">
+      <c r="A65" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="B65" s="53"/>
-      <c r="C65" s="52" t="s">
+      <c r="B65" s="65"/>
+      <c r="C65" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="D65" s="53"/>
-      <c r="E65" s="52" t="s">
+      <c r="D65" s="65"/>
+      <c r="E65" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="F65" s="53"/>
-      <c r="H65" s="54" t="s">
+      <c r="F65" s="65"/>
+      <c r="H65" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="I65" s="55"/>
-      <c r="J65" s="54" t="s">
+      <c r="I65" s="154"/>
+      <c r="J65" s="153" t="s">
         <v>144</v>
       </c>
-      <c r="K65" s="55"/>
-      <c r="L65" s="54" t="s">
+      <c r="K65" s="154"/>
+      <c r="L65" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="M65" s="55"/>
+      <c r="M65" s="154"/>
     </row>
     <row r="66" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="65"/>
-      <c r="B66" s="66"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="66"/>
-      <c r="H66" s="69"/>
-      <c r="I66" s="70"/>
-      <c r="J66" s="69"/>
-      <c r="K66" s="70"/>
-      <c r="L66" s="69"/>
-      <c r="M66" s="70"/>
+      <c r="A66" s="60"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="61"/>
+      <c r="H66" s="137"/>
+      <c r="I66" s="138"/>
+      <c r="J66" s="137"/>
+      <c r="K66" s="138"/>
+      <c r="L66" s="137"/>
+      <c r="M66" s="138"/>
     </row>
     <row r="67" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="67"/>
-      <c r="B67" s="68"/>
-      <c r="C67" s="67"/>
-      <c r="D67" s="68"/>
-      <c r="E67" s="67"/>
-      <c r="F67" s="68"/>
-      <c r="H67" s="71"/>
-      <c r="I67" s="72"/>
-      <c r="J67" s="71"/>
-      <c r="K67" s="72"/>
-      <c r="L67" s="71"/>
-      <c r="M67" s="72"/>
+      <c r="A67" s="62"/>
+      <c r="B67" s="63"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="62"/>
+      <c r="F67" s="63"/>
+      <c r="H67" s="139"/>
+      <c r="I67" s="140"/>
+      <c r="J67" s="139"/>
+      <c r="K67" s="140"/>
+      <c r="L67" s="139"/>
+      <c r="M67" s="140"/>
     </row>
     <row r="68" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
@@ -5654,172 +5672,172 @@
       <c r="D68" s="8"/>
     </row>
     <row r="69" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="52" t="s">
+      <c r="A69" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="53"/>
-      <c r="C69" s="52" t="s">
+      <c r="B69" s="65"/>
+      <c r="C69" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="D69" s="53"/>
-      <c r="E69" s="52" t="s">
+      <c r="D69" s="65"/>
+      <c r="E69" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="F69" s="53"/>
-      <c r="H69" s="52" t="s">
+      <c r="F69" s="65"/>
+      <c r="H69" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="I69" s="53"/>
-      <c r="J69" s="52" t="s">
+      <c r="I69" s="65"/>
+      <c r="J69" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="K69" s="53"/>
-      <c r="L69" s="52" t="s">
+      <c r="K69" s="65"/>
+      <c r="L69" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="M69" s="53"/>
+      <c r="M69" s="65"/>
     </row>
     <row r="70" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="65" t="s">
+      <c r="A70" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B70" s="66"/>
-      <c r="C70" s="65" t="s">
+      <c r="B70" s="61"/>
+      <c r="C70" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D70" s="66"/>
-      <c r="E70" s="65" t="s">
+      <c r="D70" s="61"/>
+      <c r="E70" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="F70" s="66"/>
-      <c r="H70" s="65"/>
-      <c r="I70" s="66"/>
-      <c r="J70" s="65"/>
-      <c r="K70" s="66"/>
-      <c r="L70" s="65"/>
-      <c r="M70" s="66"/>
+      <c r="F70" s="61"/>
+      <c r="H70" s="60"/>
+      <c r="I70" s="61"/>
+      <c r="J70" s="60"/>
+      <c r="K70" s="61"/>
+      <c r="L70" s="60"/>
+      <c r="M70" s="61"/>
     </row>
     <row r="71" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="67"/>
-      <c r="B71" s="68"/>
-      <c r="C71" s="67"/>
-      <c r="D71" s="68"/>
-      <c r="E71" s="67"/>
-      <c r="F71" s="68"/>
-      <c r="H71" s="67"/>
-      <c r="I71" s="68"/>
-      <c r="J71" s="67"/>
-      <c r="K71" s="68"/>
-      <c r="L71" s="67"/>
-      <c r="M71" s="68"/>
+      <c r="A71" s="62"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="62"/>
+      <c r="F71" s="63"/>
+      <c r="H71" s="62"/>
+      <c r="I71" s="63"/>
+      <c r="J71" s="62"/>
+      <c r="K71" s="63"/>
+      <c r="L71" s="62"/>
+      <c r="M71" s="63"/>
     </row>
     <row r="72" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="52" t="s">
+      <c r="A72" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="B72" s="53"/>
-      <c r="C72" s="73" t="s">
+      <c r="B72" s="65"/>
+      <c r="C72" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="D72" s="74"/>
-      <c r="E72" s="52" t="s">
+      <c r="D72" s="109"/>
+      <c r="E72" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="F72" s="53"/>
-      <c r="H72" s="52" t="s">
+      <c r="F72" s="65"/>
+      <c r="H72" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="I72" s="53"/>
-      <c r="J72" s="73" t="s">
+      <c r="I72" s="65"/>
+      <c r="J72" s="108" t="s">
         <v>149</v>
       </c>
-      <c r="K72" s="74"/>
-      <c r="L72" s="52" t="s">
+      <c r="K72" s="109"/>
+      <c r="L72" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="M72" s="53"/>
+      <c r="M72" s="65"/>
     </row>
     <row r="73" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="65"/>
-      <c r="B73" s="66"/>
-      <c r="C73" s="75"/>
-      <c r="D73" s="76"/>
-      <c r="E73" s="79"/>
-      <c r="F73" s="80"/>
-      <c r="H73" s="65"/>
-      <c r="I73" s="66"/>
-      <c r="J73" s="75"/>
-      <c r="K73" s="76"/>
-      <c r="L73" s="79"/>
-      <c r="M73" s="80"/>
+      <c r="A73" s="60"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="110"/>
+      <c r="D73" s="111"/>
+      <c r="E73" s="123"/>
+      <c r="F73" s="124"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="61"/>
+      <c r="J73" s="110"/>
+      <c r="K73" s="111"/>
+      <c r="L73" s="123"/>
+      <c r="M73" s="124"/>
     </row>
     <row r="74" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="67"/>
-      <c r="B74" s="68"/>
-      <c r="C74" s="77"/>
-      <c r="D74" s="78"/>
-      <c r="E74" s="81"/>
-      <c r="F74" s="82"/>
-      <c r="H74" s="67"/>
-      <c r="I74" s="68"/>
-      <c r="J74" s="77"/>
-      <c r="K74" s="78"/>
-      <c r="L74" s="81"/>
-      <c r="M74" s="82"/>
+      <c r="A74" s="62"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="112"/>
+      <c r="D74" s="113"/>
+      <c r="E74" s="125"/>
+      <c r="F74" s="126"/>
+      <c r="H74" s="62"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="112"/>
+      <c r="K74" s="113"/>
+      <c r="L74" s="125"/>
+      <c r="M74" s="126"/>
     </row>
     <row r="75" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="52" t="s">
+      <c r="A75" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="B75" s="53"/>
-      <c r="C75" s="52" t="s">
+      <c r="B75" s="65"/>
+      <c r="C75" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="D75" s="53"/>
-      <c r="E75" s="52" t="s">
+      <c r="D75" s="65"/>
+      <c r="E75" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="F75" s="53"/>
-      <c r="H75" s="52" t="s">
+      <c r="F75" s="65"/>
+      <c r="H75" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="I75" s="53"/>
-      <c r="J75" s="52" t="s">
+      <c r="I75" s="65"/>
+      <c r="J75" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="K75" s="53"/>
-      <c r="L75" s="52" t="s">
+      <c r="K75" s="65"/>
+      <c r="L75" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="M75" s="53"/>
+      <c r="M75" s="65"/>
     </row>
     <row r="76" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="65"/>
-      <c r="B76" s="66"/>
-      <c r="C76" s="65"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="65"/>
-      <c r="F76" s="66"/>
-      <c r="H76" s="65"/>
-      <c r="I76" s="66"/>
-      <c r="J76" s="65"/>
-      <c r="K76" s="66"/>
-      <c r="L76" s="65"/>
-      <c r="M76" s="66"/>
+      <c r="A76" s="60"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="61"/>
+      <c r="H76" s="60"/>
+      <c r="I76" s="61"/>
+      <c r="J76" s="60"/>
+      <c r="K76" s="61"/>
+      <c r="L76" s="60"/>
+      <c r="M76" s="61"/>
     </row>
     <row r="77" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="67"/>
-      <c r="B77" s="68"/>
-      <c r="C77" s="67"/>
-      <c r="D77" s="68"/>
-      <c r="E77" s="67"/>
-      <c r="F77" s="68"/>
-      <c r="H77" s="67"/>
-      <c r="I77" s="68"/>
-      <c r="J77" s="67"/>
-      <c r="K77" s="68"/>
-      <c r="L77" s="67"/>
-      <c r="M77" s="68"/>
+      <c r="A77" s="62"/>
+      <c r="B77" s="63"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="63"/>
+      <c r="H77" s="62"/>
+      <c r="I77" s="63"/>
+      <c r="J77" s="62"/>
+      <c r="K77" s="63"/>
+      <c r="L77" s="62"/>
+      <c r="M77" s="63"/>
     </row>
     <row r="78" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
@@ -5827,166 +5845,166 @@
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="52" t="s">
+      <c r="A79" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="B79" s="53"/>
-      <c r="C79" s="52" t="s">
+      <c r="B79" s="65"/>
+      <c r="C79" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="D79" s="53"/>
-      <c r="E79" s="52" t="s">
+      <c r="D79" s="65"/>
+      <c r="E79" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="F79" s="53"/>
-      <c r="H79" s="105" t="s">
+      <c r="F79" s="65"/>
+      <c r="H79" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="I79" s="106"/>
-      <c r="J79" s="105" t="s">
+      <c r="I79" s="54"/>
+      <c r="J79" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="K79" s="106"/>
-      <c r="L79" s="105" t="s">
+      <c r="K79" s="54"/>
+      <c r="L79" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="M79" s="106"/>
+      <c r="M79" s="54"/>
     </row>
     <row r="80" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="65"/>
-      <c r="B80" s="66"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="66"/>
-      <c r="E80" s="65"/>
-      <c r="F80" s="66"/>
-      <c r="H80" s="107"/>
-      <c r="I80" s="108"/>
-      <c r="J80" s="107"/>
-      <c r="K80" s="108"/>
-      <c r="L80" s="107"/>
-      <c r="M80" s="108"/>
+      <c r="A80" s="60"/>
+      <c r="B80" s="61"/>
+      <c r="C80" s="60"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="61"/>
+      <c r="H80" s="55"/>
+      <c r="I80" s="56"/>
+      <c r="J80" s="55"/>
+      <c r="K80" s="56"/>
+      <c r="L80" s="55"/>
+      <c r="M80" s="56"/>
     </row>
     <row r="81" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="67"/>
-      <c r="B81" s="68"/>
-      <c r="C81" s="67"/>
-      <c r="D81" s="68"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="68"/>
-      <c r="H81" s="109"/>
-      <c r="I81" s="110"/>
-      <c r="J81" s="109"/>
-      <c r="K81" s="110"/>
-      <c r="L81" s="109"/>
-      <c r="M81" s="110"/>
+      <c r="A81" s="62"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="62"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="62"/>
+      <c r="F81" s="63"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="58"/>
+      <c r="J81" s="57"/>
+      <c r="K81" s="58"/>
+      <c r="L81" s="57"/>
+      <c r="M81" s="58"/>
     </row>
     <row r="82" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="52" t="s">
+      <c r="A82" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="B82" s="53"/>
-      <c r="C82" s="73" t="s">
+      <c r="B82" s="65"/>
+      <c r="C82" s="108" t="s">
         <v>152</v>
       </c>
-      <c r="D82" s="74"/>
-      <c r="E82" s="52" t="s">
+      <c r="D82" s="109"/>
+      <c r="E82" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="F82" s="53"/>
-      <c r="H82" s="105" t="s">
+      <c r="F82" s="65"/>
+      <c r="H82" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="I82" s="106"/>
-      <c r="J82" s="73" t="s">
+      <c r="I82" s="54"/>
+      <c r="J82" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="K82" s="74"/>
-      <c r="L82" s="105" t="s">
+      <c r="K82" s="109"/>
+      <c r="L82" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="M82" s="106"/>
+      <c r="M82" s="54"/>
     </row>
     <row r="83" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="65"/>
-      <c r="B83" s="66"/>
-      <c r="C83" s="75"/>
-      <c r="D83" s="76"/>
-      <c r="E83" s="79"/>
-      <c r="F83" s="80"/>
-      <c r="H83" s="107"/>
-      <c r="I83" s="108"/>
-      <c r="J83" s="75"/>
-      <c r="K83" s="76"/>
-      <c r="L83" s="107"/>
-      <c r="M83" s="108"/>
+      <c r="A83" s="60"/>
+      <c r="B83" s="61"/>
+      <c r="C83" s="110"/>
+      <c r="D83" s="111"/>
+      <c r="E83" s="123"/>
+      <c r="F83" s="124"/>
+      <c r="H83" s="55"/>
+      <c r="I83" s="56"/>
+      <c r="J83" s="110"/>
+      <c r="K83" s="111"/>
+      <c r="L83" s="55"/>
+      <c r="M83" s="56"/>
     </row>
     <row r="84" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="67"/>
-      <c r="B84" s="68"/>
-      <c r="C84" s="77"/>
-      <c r="D84" s="78"/>
-      <c r="E84" s="81"/>
-      <c r="F84" s="82"/>
-      <c r="H84" s="109"/>
-      <c r="I84" s="110"/>
-      <c r="J84" s="77"/>
-      <c r="K84" s="78"/>
-      <c r="L84" s="109"/>
-      <c r="M84" s="110"/>
+      <c r="A84" s="62"/>
+      <c r="B84" s="63"/>
+      <c r="C84" s="112"/>
+      <c r="D84" s="113"/>
+      <c r="E84" s="125"/>
+      <c r="F84" s="126"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="58"/>
+      <c r="J84" s="112"/>
+      <c r="K84" s="113"/>
+      <c r="L84" s="57"/>
+      <c r="M84" s="58"/>
     </row>
     <row r="85" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="52" t="s">
+      <c r="A85" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="B85" s="53"/>
-      <c r="C85" s="52" t="s">
+      <c r="B85" s="65"/>
+      <c r="C85" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="53"/>
-      <c r="E85" s="52" t="s">
+      <c r="D85" s="65"/>
+      <c r="E85" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="F85" s="53"/>
-      <c r="H85" s="105" t="s">
+      <c r="F85" s="65"/>
+      <c r="H85" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="I85" s="106"/>
-      <c r="J85" s="105" t="s">
+      <c r="I85" s="54"/>
+      <c r="J85" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="K85" s="106"/>
-      <c r="L85" s="105" t="s">
+      <c r="K85" s="54"/>
+      <c r="L85" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="M85" s="106"/>
+      <c r="M85" s="54"/>
     </row>
     <row r="86" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="65"/>
-      <c r="B86" s="66"/>
-      <c r="C86" s="65"/>
-      <c r="D86" s="66"/>
-      <c r="E86" s="65"/>
-      <c r="F86" s="66"/>
-      <c r="H86" s="107"/>
-      <c r="I86" s="108"/>
-      <c r="J86" s="107"/>
-      <c r="K86" s="108"/>
-      <c r="L86" s="107"/>
-      <c r="M86" s="108"/>
+      <c r="A86" s="60"/>
+      <c r="B86" s="61"/>
+      <c r="C86" s="60"/>
+      <c r="D86" s="61"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="61"/>
+      <c r="H86" s="55"/>
+      <c r="I86" s="56"/>
+      <c r="J86" s="55"/>
+      <c r="K86" s="56"/>
+      <c r="L86" s="55"/>
+      <c r="M86" s="56"/>
     </row>
     <row r="87" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="67"/>
-      <c r="B87" s="68"/>
-      <c r="C87" s="67"/>
-      <c r="D87" s="68"/>
-      <c r="E87" s="67"/>
-      <c r="F87" s="68"/>
-      <c r="H87" s="109"/>
-      <c r="I87" s="110"/>
-      <c r="J87" s="109"/>
-      <c r="K87" s="110"/>
-      <c r="L87" s="109"/>
-      <c r="M87" s="110"/>
+      <c r="A87" s="62"/>
+      <c r="B87" s="63"/>
+      <c r="C87" s="62"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="63"/>
+      <c r="H87" s="57"/>
+      <c r="I87" s="58"/>
+      <c r="J87" s="57"/>
+      <c r="K87" s="58"/>
+      <c r="L87" s="57"/>
+      <c r="M87" s="58"/>
     </row>
     <row r="88" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
@@ -5994,94 +6012,1518 @@
       <c r="D88" s="8"/>
     </row>
     <row r="89" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="105" t="s">
+      <c r="A89" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="B89" s="106"/>
-      <c r="C89" s="111" t="s">
+      <c r="B89" s="54"/>
+      <c r="C89" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="D89" s="112"/>
-      <c r="E89" s="117" t="s">
+      <c r="D89" s="84"/>
+      <c r="E89" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="F89" s="118"/>
+      <c r="F89" s="115"/>
     </row>
     <row r="90" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="107"/>
-      <c r="B90" s="108"/>
-      <c r="C90" s="113"/>
-      <c r="D90" s="114"/>
-      <c r="E90" s="119"/>
-      <c r="F90" s="120"/>
+      <c r="A90" s="55"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="85"/>
+      <c r="D90" s="86"/>
+      <c r="E90" s="116"/>
+      <c r="F90" s="117"/>
     </row>
     <row r="91" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="109"/>
-      <c r="B91" s="110"/>
-      <c r="C91" s="115"/>
-      <c r="D91" s="116"/>
-      <c r="E91" s="121"/>
-      <c r="F91" s="122"/>
+      <c r="A91" s="57"/>
+      <c r="B91" s="58"/>
+      <c r="C91" s="87"/>
+      <c r="D91" s="88"/>
+      <c r="E91" s="118"/>
+      <c r="F91" s="119"/>
     </row>
     <row r="92" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="111" t="s">
+      <c r="A92" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="B92" s="112"/>
-      <c r="C92" s="143" t="s">
+      <c r="B92" s="84"/>
+      <c r="C92" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="D92" s="144"/>
-      <c r="E92" s="149" t="s">
+      <c r="D92" s="90"/>
+      <c r="E92" s="95" t="s">
         <v>148</v>
       </c>
-      <c r="F92" s="150"/>
+      <c r="F92" s="96"/>
     </row>
     <row r="93" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="113"/>
-      <c r="B93" s="114"/>
-      <c r="C93" s="145"/>
-      <c r="D93" s="146"/>
-      <c r="E93" s="151"/>
-      <c r="F93" s="152"/>
+      <c r="A93" s="85"/>
+      <c r="B93" s="86"/>
+      <c r="C93" s="91"/>
+      <c r="D93" s="92"/>
+      <c r="E93" s="97"/>
+      <c r="F93" s="98"/>
     </row>
     <row r="94" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="115"/>
-      <c r="B94" s="116"/>
-      <c r="C94" s="147"/>
-      <c r="D94" s="148"/>
-      <c r="E94" s="153"/>
-      <c r="F94" s="154"/>
+      <c r="A94" s="87"/>
+      <c r="B94" s="88"/>
+      <c r="C94" s="93"/>
+      <c r="D94" s="94"/>
+      <c r="E94" s="99"/>
+      <c r="F94" s="100"/>
     </row>
     <row r="95" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="162" t="s">
+      <c r="A95" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="B95" s="163"/>
-      <c r="C95" s="126" t="s">
+      <c r="B95" s="45"/>
+      <c r="C95" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="D95" s="127"/>
-      <c r="E95" s="132" t="s">
+      <c r="D95" s="67"/>
+      <c r="E95" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="F95" s="133"/>
+      <c r="F95" s="73"/>
     </row>
     <row r="96" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="164"/>
-      <c r="B96" s="165"/>
-      <c r="C96" s="128"/>
-      <c r="D96" s="129"/>
-      <c r="E96" s="134"/>
-      <c r="F96" s="135"/>
+      <c r="A96" s="46"/>
+      <c r="B96" s="47"/>
+      <c r="C96" s="68"/>
+      <c r="D96" s="69"/>
+      <c r="E96" s="74"/>
+      <c r="F96" s="75"/>
     </row>
     <row r="97" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="166"/>
-      <c r="B97" s="167"/>
-      <c r="C97" s="130"/>
-      <c r="D97" s="131"/>
-      <c r="E97" s="136"/>
-      <c r="F97" s="137"/>
+      <c r="A97" s="48"/>
+      <c r="B97" s="49"/>
+      <c r="C97" s="70"/>
+      <c r="D97" s="71"/>
+      <c r="E97" s="76"/>
+      <c r="F97" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="155">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:R1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A30:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A60:B61"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="E60:F61"/>
+    <mergeCell ref="H60:I61"/>
+    <mergeCell ref="J60:K61"/>
+    <mergeCell ref="L60:M61"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="A58:M58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D64"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="J62:K64"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="A63:B64"/>
+    <mergeCell ref="E63:F64"/>
+    <mergeCell ref="H63:I64"/>
+    <mergeCell ref="L63:M64"/>
+    <mergeCell ref="A66:B67"/>
+    <mergeCell ref="C66:D67"/>
+    <mergeCell ref="E66:F67"/>
+    <mergeCell ref="H66:I67"/>
+    <mergeCell ref="J66:K67"/>
+    <mergeCell ref="L66:M67"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="A70:B71"/>
+    <mergeCell ref="C70:D71"/>
+    <mergeCell ref="E70:F71"/>
+    <mergeCell ref="H70:I71"/>
+    <mergeCell ref="J70:K71"/>
+    <mergeCell ref="L70:M71"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D74"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="J72:K74"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="A73:B74"/>
+    <mergeCell ref="E73:F74"/>
+    <mergeCell ref="H73:I74"/>
+    <mergeCell ref="L73:M74"/>
+    <mergeCell ref="A76:B77"/>
+    <mergeCell ref="C76:D77"/>
+    <mergeCell ref="E76:F77"/>
+    <mergeCell ref="H76:I77"/>
+    <mergeCell ref="J76:K77"/>
+    <mergeCell ref="L76:M77"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D84"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="H82:I84"/>
+    <mergeCell ref="J82:K84"/>
+    <mergeCell ref="L82:M84"/>
+    <mergeCell ref="A83:B84"/>
+    <mergeCell ref="E83:F84"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="H79:I81"/>
+    <mergeCell ref="J79:K81"/>
+    <mergeCell ref="L79:M81"/>
+    <mergeCell ref="A80:B81"/>
+    <mergeCell ref="C80:D81"/>
+    <mergeCell ref="E80:F81"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="H85:I87"/>
+    <mergeCell ref="J85:K87"/>
+    <mergeCell ref="L85:M87"/>
+    <mergeCell ref="A86:B87"/>
+    <mergeCell ref="C86:D87"/>
+    <mergeCell ref="E86:F87"/>
+    <mergeCell ref="A95:B97"/>
+    <mergeCell ref="C95:D97"/>
+    <mergeCell ref="E95:F97"/>
+    <mergeCell ref="A89:B91"/>
+    <mergeCell ref="C89:D91"/>
+    <mergeCell ref="E89:F91"/>
+    <mergeCell ref="A92:B94"/>
+    <mergeCell ref="C92:D94"/>
+    <mergeCell ref="E92:F94"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" style="39" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="23.90625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.26953125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="9.90625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="10.6328125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="13.08984375" style="8" customWidth="1"/>
+    <col min="14" max="14" width="10.90625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="10.36328125" style="8" customWidth="1"/>
+    <col min="16" max="16" width="12" style="8" customWidth="1"/>
+    <col min="17" max="17" width="11" style="8" customWidth="1"/>
+    <col min="18" max="18" width="11.08984375" style="8" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="165" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="167"/>
+      <c r="F1" s="168" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="169"/>
+      <c r="N1" s="169"/>
+      <c r="O1" s="169"/>
+      <c r="P1" s="169"/>
+      <c r="Q1" s="169"/>
+      <c r="R1" s="169"/>
+    </row>
+    <row r="2" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="163" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="164"/>
+      <c r="D2" s="34"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="R2" s="13"/>
+    </row>
+    <row r="3" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="163" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="164"/>
+      <c r="D3" s="34"/>
+      <c r="F3" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="R3" s="16"/>
+    </row>
+    <row r="4" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="163" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="164"/>
+      <c r="D4" s="34"/>
+      <c r="F4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="R4" s="16"/>
+    </row>
+    <row r="5" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="163" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="164"/>
+      <c r="D5" s="34"/>
+      <c r="F5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="R5" s="16"/>
+    </row>
+    <row r="6" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="163"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="34"/>
+      <c r="F6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="R6" s="16"/>
+    </row>
+    <row r="7" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="163"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="34"/>
+      <c r="F7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="R7" s="16"/>
+    </row>
+    <row r="8" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="163"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="34"/>
+      <c r="R8" s="16"/>
+    </row>
+    <row r="9" spans="1:18" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="163"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="34"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="16"/>
+    </row>
+    <row r="10" spans="1:18" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>9</v>
+      </c>
+      <c r="B10" s="163"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="34"/>
+      <c r="F10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="8"/>
+    </row>
+    <row r="11" spans="1:18" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
+        <v>10</v>
+      </c>
+      <c r="B11" s="163"/>
+      <c r="C11" s="164"/>
+      <c r="D11" s="34"/>
+      <c r="F11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="16"/>
+    </row>
+    <row r="12" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="155" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="155"/>
+      <c r="C12" s="155"/>
+      <c r="D12" s="155"/>
+    </row>
+    <row r="13" spans="1:18" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="159"/>
+      <c r="C13" s="160"/>
+      <c r="D13" s="161"/>
+    </row>
+    <row r="14" spans="1:18" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="159"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="161"/>
+    </row>
+    <row r="15" spans="1:18" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="159"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="161"/>
+    </row>
+    <row r="16" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="159"/>
+      <c r="C16" s="160"/>
+      <c r="D16" s="161"/>
+    </row>
+    <row r="17" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="159"/>
+      <c r="C17" s="160"/>
+      <c r="D17" s="161"/>
+    </row>
+    <row r="18" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="159"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="161"/>
+    </row>
+    <row r="19" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="159"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="161"/>
+    </row>
+    <row r="20" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="162" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="162"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
+    </row>
+    <row r="21" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>1</v>
+      </c>
+      <c r="B21" s="143"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+    </row>
+    <row r="22" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>2</v>
+      </c>
+      <c r="B22" s="143"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="145"/>
+    </row>
+    <row r="23" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>3</v>
+      </c>
+      <c r="B23" s="143"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="145"/>
+    </row>
+    <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>4</v>
+      </c>
+      <c r="B24" s="143"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="145"/>
+    </row>
+    <row r="25" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>5</v>
+      </c>
+      <c r="B25" s="143"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="145"/>
+    </row>
+    <row r="26" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>6</v>
+      </c>
+      <c r="B26" s="143"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="145"/>
+    </row>
+    <row r="27" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>7</v>
+      </c>
+      <c r="B27" s="143"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="145"/>
+    </row>
+    <row r="28" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>8</v>
+      </c>
+      <c r="B28" s="143"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="145"/>
+    </row>
+    <row r="29" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="146" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="146"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="146"/>
+    </row>
+    <row r="30" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="127"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="129"/>
+    </row>
+    <row r="31" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="130"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="132"/>
+    </row>
+    <row r="32" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="130"/>
+      <c r="B32" s="131"/>
+      <c r="C32" s="131"/>
+      <c r="D32" s="132"/>
+    </row>
+    <row r="33" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="130"/>
+      <c r="B33" s="131"/>
+      <c r="C33" s="131"/>
+      <c r="D33" s="132"/>
+    </row>
+    <row r="34" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="130"/>
+      <c r="B34" s="131"/>
+      <c r="C34" s="131"/>
+      <c r="D34" s="132"/>
+    </row>
+    <row r="35" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="130"/>
+      <c r="B35" s="131"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="132"/>
+    </row>
+    <row r="36" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="133"/>
+      <c r="B36" s="134"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="135"/>
+    </row>
+    <row r="37" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+    </row>
+    <row r="38" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="136" t="s">
+        <v>153</v>
+      </c>
+      <c r="B38" s="136"/>
+      <c r="C38" s="136"/>
+      <c r="D38" s="136"/>
+    </row>
+    <row r="39" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>1</v>
+      </c>
+      <c r="B39" s="50"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="52"/>
+      <c r="T39" s="25"/>
+    </row>
+    <row r="40" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>2</v>
+      </c>
+      <c r="B40" s="50"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="52"/>
+    </row>
+    <row r="41" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>3</v>
+      </c>
+      <c r="B41" s="50"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="52"/>
+    </row>
+    <row r="42" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>4</v>
+      </c>
+      <c r="B42" s="50"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="52"/>
+    </row>
+    <row r="43" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>5</v>
+      </c>
+      <c r="B43" s="50"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="52"/>
+    </row>
+    <row r="44" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>6</v>
+      </c>
+      <c r="B44" s="50"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="52"/>
+    </row>
+    <row r="45" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>7</v>
+      </c>
+      <c r="B45" s="120"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="122"/>
+    </row>
+    <row r="46" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>8</v>
+      </c>
+      <c r="B46" s="81"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="82"/>
+    </row>
+    <row r="47" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="101"/>
+      <c r="B47" s="101"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="101"/>
+    </row>
+    <row r="48" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="102" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="102"/>
+      <c r="C48" s="102"/>
+      <c r="D48" s="102"/>
+    </row>
+    <row r="49" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="32">
+        <v>1</v>
+      </c>
+      <c r="B49" s="78"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="80"/>
+    </row>
+    <row r="50" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="32">
+        <v>2</v>
+      </c>
+      <c r="B50" s="78"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="80"/>
+    </row>
+    <row r="51" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="32">
+        <v>3</v>
+      </c>
+      <c r="B51" s="78"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="80"/>
+    </row>
+    <row r="52" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>4</v>
+      </c>
+      <c r="B52" s="103"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="104"/>
+    </row>
+    <row r="53" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="32">
+        <v>5</v>
+      </c>
+      <c r="B53" s="78"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="80"/>
+    </row>
+    <row r="54" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="32">
+        <v>6</v>
+      </c>
+      <c r="B54" s="78"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="80"/>
+    </row>
+    <row r="55" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="32">
+        <v>7</v>
+      </c>
+      <c r="B55" s="78"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="80"/>
+    </row>
+    <row r="56" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="32">
+        <v>8</v>
+      </c>
+      <c r="B56" s="105"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="107"/>
+    </row>
+    <row r="58" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="156" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="156"/>
+      <c r="C58" s="156"/>
+      <c r="D58" s="156"/>
+      <c r="E58" s="156"/>
+      <c r="F58" s="156"/>
+      <c r="G58" s="156"/>
+      <c r="H58" s="156"/>
+      <c r="I58" s="156"/>
+      <c r="J58" s="156"/>
+      <c r="K58" s="156"/>
+      <c r="L58" s="156"/>
+      <c r="M58" s="156"/>
+    </row>
+    <row r="59" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="65"/>
+      <c r="C59" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" s="65"/>
+      <c r="E59" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="F59" s="65"/>
+      <c r="H59" s="153" t="s">
+        <v>136</v>
+      </c>
+      <c r="I59" s="154"/>
+      <c r="J59" s="153" t="s">
+        <v>137</v>
+      </c>
+      <c r="K59" s="154"/>
+      <c r="L59" s="157" t="s">
+        <v>138</v>
+      </c>
+      <c r="M59" s="158"/>
+    </row>
+    <row r="60" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="61"/>
+      <c r="C60" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="61"/>
+      <c r="E60" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" s="61"/>
+      <c r="H60" s="137"/>
+      <c r="I60" s="138"/>
+      <c r="J60" s="137"/>
+      <c r="K60" s="138"/>
+      <c r="L60" s="141"/>
+      <c r="M60" s="142"/>
+    </row>
+    <row r="61" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="62"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="62"/>
+      <c r="F61" s="63"/>
+      <c r="H61" s="139"/>
+      <c r="I61" s="140"/>
+      <c r="J61" s="139"/>
+      <c r="K61" s="140"/>
+      <c r="L61" s="139"/>
+      <c r="M61" s="140"/>
+    </row>
+    <row r="62" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" s="65"/>
+      <c r="C62" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="109"/>
+      <c r="E62" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="F62" s="65"/>
+      <c r="H62" s="153" t="s">
+        <v>141</v>
+      </c>
+      <c r="I62" s="154"/>
+      <c r="J62" s="147" t="s">
+        <v>142</v>
+      </c>
+      <c r="K62" s="148"/>
+      <c r="L62" s="153" t="s">
+        <v>140</v>
+      </c>
+      <c r="M62" s="154"/>
+    </row>
+    <row r="63" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="60"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="110"/>
+      <c r="D63" s="111"/>
+      <c r="E63" s="123"/>
+      <c r="F63" s="124"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="137"/>
+      <c r="I63" s="138"/>
+      <c r="J63" s="149"/>
+      <c r="K63" s="150"/>
+      <c r="L63" s="137"/>
+      <c r="M63" s="138"/>
+    </row>
+    <row r="64" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="62"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="112"/>
+      <c r="D64" s="113"/>
+      <c r="E64" s="125"/>
+      <c r="F64" s="126"/>
+      <c r="H64" s="139"/>
+      <c r="I64" s="140"/>
+      <c r="J64" s="151"/>
+      <c r="K64" s="152"/>
+      <c r="L64" s="139"/>
+      <c r="M64" s="140"/>
+    </row>
+    <row r="65" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" s="65"/>
+      <c r="C65" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" s="65"/>
+      <c r="E65" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="F65" s="65"/>
+      <c r="H65" s="153" t="s">
+        <v>38</v>
+      </c>
+      <c r="I65" s="154"/>
+      <c r="J65" s="153" t="s">
+        <v>144</v>
+      </c>
+      <c r="K65" s="154"/>
+      <c r="L65" s="153" t="s">
+        <v>39</v>
+      </c>
+      <c r="M65" s="154"/>
+    </row>
+    <row r="66" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="60"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="61"/>
+      <c r="H66" s="137"/>
+      <c r="I66" s="138"/>
+      <c r="J66" s="137"/>
+      <c r="K66" s="138"/>
+      <c r="L66" s="137"/>
+      <c r="M66" s="138"/>
+    </row>
+    <row r="67" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="62"/>
+      <c r="B67" s="63"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="62"/>
+      <c r="F67" s="63"/>
+      <c r="H67" s="139"/>
+      <c r="I67" s="140"/>
+      <c r="J67" s="139"/>
+      <c r="K67" s="140"/>
+      <c r="L67" s="139"/>
+      <c r="M67" s="140"/>
+    </row>
+    <row r="68" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="D68" s="8"/>
+    </row>
+    <row r="69" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="65"/>
+      <c r="C69" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="D69" s="65"/>
+      <c r="E69" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="F69" s="65"/>
+      <c r="H69" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="I69" s="65"/>
+      <c r="J69" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="K69" s="65"/>
+      <c r="L69" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="M69" s="65"/>
+    </row>
+    <row r="70" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B70" s="61"/>
+      <c r="C70" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="61"/>
+      <c r="E70" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="61"/>
+      <c r="H70" s="60"/>
+      <c r="I70" s="61"/>
+      <c r="J70" s="60"/>
+      <c r="K70" s="61"/>
+      <c r="L70" s="60"/>
+      <c r="M70" s="61"/>
+    </row>
+    <row r="71" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="62"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="62"/>
+      <c r="F71" s="63"/>
+      <c r="H71" s="62"/>
+      <c r="I71" s="63"/>
+      <c r="J71" s="62"/>
+      <c r="K71" s="63"/>
+      <c r="L71" s="62"/>
+      <c r="M71" s="63"/>
+    </row>
+    <row r="72" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" s="65"/>
+      <c r="C72" s="108" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72" s="109"/>
+      <c r="E72" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="F72" s="65"/>
+      <c r="H72" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="I72" s="65"/>
+      <c r="J72" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="K72" s="109"/>
+      <c r="L72" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="M72" s="65"/>
+    </row>
+    <row r="73" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="60"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="110"/>
+      <c r="D73" s="111"/>
+      <c r="E73" s="123"/>
+      <c r="F73" s="124"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="61"/>
+      <c r="J73" s="110"/>
+      <c r="K73" s="111"/>
+      <c r="L73" s="123"/>
+      <c r="M73" s="124"/>
+    </row>
+    <row r="74" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="62"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="112"/>
+      <c r="D74" s="113"/>
+      <c r="E74" s="125"/>
+      <c r="F74" s="126"/>
+      <c r="H74" s="62"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="112"/>
+      <c r="K74" s="113"/>
+      <c r="L74" s="125"/>
+      <c r="M74" s="126"/>
+    </row>
+    <row r="75" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" s="65"/>
+      <c r="C75" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="D75" s="65"/>
+      <c r="E75" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="F75" s="65"/>
+      <c r="H75" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="I75" s="65"/>
+      <c r="J75" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="K75" s="65"/>
+      <c r="L75" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="M75" s="65"/>
+    </row>
+    <row r="76" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="60"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="61"/>
+      <c r="H76" s="60"/>
+      <c r="I76" s="61"/>
+      <c r="J76" s="60"/>
+      <c r="K76" s="61"/>
+      <c r="L76" s="60"/>
+      <c r="M76" s="61"/>
+    </row>
+    <row r="77" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="62"/>
+      <c r="B77" s="63"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="63"/>
+      <c r="H77" s="62"/>
+      <c r="I77" s="63"/>
+      <c r="J77" s="62"/>
+      <c r="K77" s="63"/>
+      <c r="L77" s="62"/>
+      <c r="M77" s="63"/>
+    </row>
+    <row r="78" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="D78" s="8"/>
+    </row>
+    <row r="79" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="B79" s="65"/>
+      <c r="C79" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="D79" s="65"/>
+      <c r="E79" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="F79" s="65"/>
+      <c r="H79" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="I79" s="54"/>
+      <c r="J79" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="K79" s="54"/>
+      <c r="L79" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="M79" s="54"/>
+    </row>
+    <row r="80" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="60"/>
+      <c r="B80" s="61"/>
+      <c r="C80" s="60"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="61"/>
+      <c r="H80" s="55"/>
+      <c r="I80" s="56"/>
+      <c r="J80" s="55"/>
+      <c r="K80" s="56"/>
+      <c r="L80" s="55"/>
+      <c r="M80" s="56"/>
+    </row>
+    <row r="81" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="62"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="62"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="62"/>
+      <c r="F81" s="63"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="58"/>
+      <c r="J81" s="57"/>
+      <c r="K81" s="58"/>
+      <c r="L81" s="57"/>
+      <c r="M81" s="58"/>
+    </row>
+    <row r="82" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82" s="65"/>
+      <c r="C82" s="108" t="s">
+        <v>152</v>
+      </c>
+      <c r="D82" s="109"/>
+      <c r="E82" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="F82" s="65"/>
+      <c r="H82" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="I82" s="54"/>
+      <c r="J82" s="108" t="s">
+        <v>49</v>
+      </c>
+      <c r="K82" s="109"/>
+      <c r="L82" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="M82" s="54"/>
+    </row>
+    <row r="83" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="60"/>
+      <c r="B83" s="61"/>
+      <c r="C83" s="110"/>
+      <c r="D83" s="111"/>
+      <c r="E83" s="123"/>
+      <c r="F83" s="124"/>
+      <c r="H83" s="55"/>
+      <c r="I83" s="56"/>
+      <c r="J83" s="110"/>
+      <c r="K83" s="111"/>
+      <c r="L83" s="55"/>
+      <c r="M83" s="56"/>
+    </row>
+    <row r="84" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="62"/>
+      <c r="B84" s="63"/>
+      <c r="C84" s="112"/>
+      <c r="D84" s="113"/>
+      <c r="E84" s="125"/>
+      <c r="F84" s="126"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="58"/>
+      <c r="J84" s="112"/>
+      <c r="K84" s="113"/>
+      <c r="L84" s="57"/>
+      <c r="M84" s="58"/>
+    </row>
+    <row r="85" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" s="65"/>
+      <c r="C85" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="D85" s="65"/>
+      <c r="E85" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="F85" s="65"/>
+      <c r="H85" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="I85" s="54"/>
+      <c r="J85" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="K85" s="54"/>
+      <c r="L85" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="M85" s="54"/>
+    </row>
+    <row r="86" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="60"/>
+      <c r="B86" s="61"/>
+      <c r="C86" s="60"/>
+      <c r="D86" s="61"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="61"/>
+      <c r="H86" s="55"/>
+      <c r="I86" s="56"/>
+      <c r="J86" s="55"/>
+      <c r="K86" s="56"/>
+      <c r="L86" s="55"/>
+      <c r="M86" s="56"/>
+    </row>
+    <row r="87" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="62"/>
+      <c r="B87" s="63"/>
+      <c r="C87" s="62"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="63"/>
+      <c r="H87" s="57"/>
+      <c r="I87" s="58"/>
+      <c r="J87" s="57"/>
+      <c r="K87" s="58"/>
+      <c r="L87" s="57"/>
+      <c r="M87" s="58"/>
+    </row>
+    <row r="88" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="D88" s="8"/>
+    </row>
+    <row r="89" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="B89" s="54"/>
+      <c r="C89" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="D89" s="84"/>
+      <c r="E89" s="114" t="s">
+        <v>138</v>
+      </c>
+      <c r="F89" s="115"/>
+    </row>
+    <row r="90" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="55"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="85"/>
+      <c r="D90" s="86"/>
+      <c r="E90" s="116"/>
+      <c r="F90" s="117"/>
+    </row>
+    <row r="91" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="57"/>
+      <c r="B91" s="58"/>
+      <c r="C91" s="87"/>
+      <c r="D91" s="88"/>
+      <c r="E91" s="118"/>
+      <c r="F91" s="119"/>
+    </row>
+    <row r="92" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92" s="84"/>
+      <c r="C92" s="89" t="s">
+        <v>155</v>
+      </c>
+      <c r="D92" s="90"/>
+      <c r="E92" s="95" t="s">
+        <v>148</v>
+      </c>
+      <c r="F92" s="96"/>
+    </row>
+    <row r="93" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="85"/>
+      <c r="B93" s="86"/>
+      <c r="C93" s="91"/>
+      <c r="D93" s="92"/>
+      <c r="E93" s="97"/>
+      <c r="F93" s="98"/>
+    </row>
+    <row r="94" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="87"/>
+      <c r="B94" s="88"/>
+      <c r="C94" s="93"/>
+      <c r="D94" s="94"/>
+      <c r="E94" s="99"/>
+      <c r="F94" s="100"/>
+    </row>
+    <row r="95" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="B95" s="45"/>
+      <c r="C95" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="D95" s="67"/>
+      <c r="E95" s="72" t="s">
+        <v>145</v>
+      </c>
+      <c r="F95" s="73"/>
+    </row>
+    <row r="96" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="46"/>
+      <c r="B96" s="47"/>
+      <c r="C96" s="68"/>
+      <c r="D96" s="69"/>
+      <c r="E96" s="74"/>
+      <c r="F96" s="75"/>
+    </row>
+    <row r="97" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="48"/>
+      <c r="B97" s="49"/>
+      <c r="C97" s="70"/>
+      <c r="D97" s="71"/>
+      <c r="E97" s="76"/>
+      <c r="F97" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="155">
@@ -6243,10 +7685,11 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -6365,7 +7808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T51"/>
   <sheetViews>
@@ -6392,34 +7835,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
-      <c r="F1" s="170" t="s">
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="167"/>
+      <c r="F1" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="171"/>
-      <c r="L1" s="171"/>
-      <c r="M1" s="171"/>
-      <c r="N1" s="171"/>
-      <c r="O1" s="171"/>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="172"/>
+      <c r="L1" s="172"/>
+      <c r="M1" s="172"/>
+      <c r="N1" s="172"/>
+      <c r="O1" s="172"/>
+      <c r="P1" s="172"/>
+      <c r="Q1" s="173"/>
     </row>
     <row r="2" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="169"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="170"/>
       <c r="F2" s="10"/>
       <c r="G2" s="11" t="s">
         <v>175</v>
@@ -6459,9 +7902,9 @@
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="169"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="164"/>
+      <c r="D3" s="170"/>
       <c r="F3" s="15" t="s">
         <v>14</v>
       </c>
@@ -6481,9 +7924,9 @@
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="169"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="170"/>
       <c r="F4" s="17" t="s">
         <v>15</v>
       </c>
@@ -6503,9 +7946,9 @@
       <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="169"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="170"/>
       <c r="F5" s="17" t="s">
         <v>16</v>
       </c>
@@ -6525,9 +7968,9 @@
       <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="169"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="170"/>
       <c r="F6" s="17" t="s">
         <v>17</v>
       </c>
@@ -6547,9 +7990,9 @@
       <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="169"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="170"/>
       <c r="F7" s="17" t="s">
         <v>18</v>
       </c>
@@ -6569,9 +8012,9 @@
       <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="169"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="170"/>
       <c r="F8" s="17" t="s">
         <v>19</v>
       </c>
@@ -6591,9 +8034,9 @@
       <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="169"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="170"/>
       <c r="F9" s="15" t="s">
         <v>20</v>
       </c>
@@ -6613,41 +8056,41 @@
       <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="169"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="170"/>
     </row>
     <row r="11" spans="1:18" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="169"/>
+      <c r="B11" s="163"/>
+      <c r="C11" s="164"/>
+      <c r="D11" s="170"/>
       <c r="P11" s="16"/>
     </row>
     <row r="12" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="F12" s="51" t="s">
+      <c r="B12" s="155"/>
+      <c r="C12" s="155"/>
+      <c r="D12" s="155"/>
+      <c r="F12" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="156"/>
+      <c r="M12" s="156"/>
+      <c r="N12" s="156"/>
+      <c r="O12" s="156"/>
+      <c r="P12" s="156"/>
+      <c r="Q12" s="156"/>
+      <c r="R12" s="156"/>
     </row>
     <row r="13" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
@@ -6656,30 +8099,30 @@
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
-      <c r="F13" s="52" t="s">
+      <c r="F13" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="53"/>
-      <c r="H13" s="52" t="s">
+      <c r="G13" s="65"/>
+      <c r="H13" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="52" t="s">
+      <c r="I13" s="65"/>
+      <c r="J13" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="53"/>
-      <c r="M13" s="54" t="s">
+      <c r="K13" s="65"/>
+      <c r="M13" s="153" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="55"/>
-      <c r="O13" s="54" t="s">
+      <c r="N13" s="154"/>
+      <c r="O13" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="56" t="s">
+      <c r="P13" s="154"/>
+      <c r="Q13" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="R13" s="57"/>
+      <c r="R13" s="158"/>
     </row>
     <row r="14" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
@@ -6688,24 +8131,24 @@
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
-      <c r="F14" s="65" t="s">
+      <c r="F14" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="66"/>
-      <c r="H14" s="65" t="s">
+      <c r="G14" s="61"/>
+      <c r="H14" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="66"/>
-      <c r="J14" s="65" t="s">
+      <c r="I14" s="61"/>
+      <c r="J14" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="66"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="103"/>
-      <c r="R14" s="104"/>
+      <c r="K14" s="61"/>
+      <c r="M14" s="137"/>
+      <c r="N14" s="138"/>
+      <c r="O14" s="137"/>
+      <c r="P14" s="138"/>
+      <c r="Q14" s="141"/>
+      <c r="R14" s="142"/>
     </row>
     <row r="15" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
@@ -6714,18 +8157,18 @@
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="68"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="72"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="63"/>
+      <c r="M15" s="139"/>
+      <c r="N15" s="140"/>
+      <c r="O15" s="139"/>
+      <c r="P15" s="140"/>
+      <c r="Q15" s="139"/>
+      <c r="R15" s="140"/>
     </row>
     <row r="16" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
@@ -6734,30 +8177,30 @@
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
-      <c r="F16" s="52" t="s">
+      <c r="F16" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="53"/>
-      <c r="H16" s="73" t="s">
+      <c r="G16" s="65"/>
+      <c r="H16" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="74"/>
-      <c r="J16" s="52" t="s">
+      <c r="I16" s="109"/>
+      <c r="J16" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="53"/>
-      <c r="M16" s="54" t="s">
+      <c r="K16" s="65"/>
+      <c r="M16" s="153" t="s">
         <v>33</v>
       </c>
-      <c r="N16" s="55"/>
-      <c r="O16" s="84" t="s">
+      <c r="N16" s="154"/>
+      <c r="O16" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="54" t="s">
+      <c r="P16" s="148"/>
+      <c r="Q16" s="153" t="s">
         <v>32</v>
       </c>
-      <c r="R16" s="55"/>
+      <c r="R16" s="154"/>
     </row>
     <row r="17" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
@@ -6766,19 +8209,19 @@
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="80"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="124"/>
       <c r="L17" s="23"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="69"/>
-      <c r="R17" s="70"/>
+      <c r="M17" s="137"/>
+      <c r="N17" s="138"/>
+      <c r="O17" s="149"/>
+      <c r="P17" s="150"/>
+      <c r="Q17" s="137"/>
+      <c r="R17" s="138"/>
     </row>
     <row r="18" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
@@ -6787,18 +8230,18 @@
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="82"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="88"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="72"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="126"/>
+      <c r="M18" s="139"/>
+      <c r="N18" s="140"/>
+      <c r="O18" s="151"/>
+      <c r="P18" s="152"/>
+      <c r="Q18" s="139"/>
+      <c r="R18" s="140"/>
     </row>
     <row r="19" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
@@ -6807,667 +8250,712 @@
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
-      <c r="F19" s="52" t="s">
+      <c r="F19" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="53"/>
-      <c r="H19" s="52" t="s">
+      <c r="G19" s="65"/>
+      <c r="H19" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="53"/>
-      <c r="J19" s="52" t="s">
+      <c r="I19" s="65"/>
+      <c r="J19" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="K19" s="53"/>
-      <c r="M19" s="54" t="s">
+      <c r="K19" s="65"/>
+      <c r="M19" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="N19" s="55"/>
-      <c r="O19" s="54" t="s">
+      <c r="N19" s="154"/>
+      <c r="O19" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="54" t="s">
+      <c r="P19" s="154"/>
+      <c r="Q19" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="R19" s="55"/>
+      <c r="R19" s="154"/>
     </row>
     <row r="20" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="162" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="66"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="70"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="61"/>
+      <c r="M20" s="137"/>
+      <c r="N20" s="138"/>
+      <c r="O20" s="137"/>
+      <c r="P20" s="138"/>
+      <c r="Q20" s="137"/>
+      <c r="R20" s="138"/>
     </row>
     <row r="21" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>1</v>
       </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="64"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="68"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="72"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="63"/>
+      <c r="M21" s="139"/>
+      <c r="N21" s="140"/>
+      <c r="O21" s="139"/>
+      <c r="P21" s="140"/>
+      <c r="Q21" s="139"/>
+      <c r="R21" s="140"/>
     </row>
     <row r="22" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>2</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="64"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="145"/>
     </row>
     <row r="23" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>3</v>
       </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
-      <c r="F23" s="52" t="s">
+      <c r="B23" s="143"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="145"/>
+      <c r="F23" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="53"/>
-      <c r="H23" s="52" t="s">
+      <c r="G23" s="65"/>
+      <c r="H23" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="53"/>
-      <c r="J23" s="52" t="s">
+      <c r="I23" s="65"/>
+      <c r="J23" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="K23" s="53"/>
-      <c r="M23" s="52" t="s">
+      <c r="K23" s="65"/>
+      <c r="M23" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="53"/>
-      <c r="O23" s="52" t="s">
+      <c r="N23" s="65"/>
+      <c r="O23" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="52" t="s">
+      <c r="P23" s="65"/>
+      <c r="Q23" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="R23" s="53"/>
+      <c r="R23" s="65"/>
     </row>
     <row r="24" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>4</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="64"/>
-      <c r="F24" s="65" t="s">
+      <c r="B24" s="143"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="145"/>
+      <c r="F24" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="66"/>
-      <c r="H24" s="65" t="s">
+      <c r="G24" s="61"/>
+      <c r="H24" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="I24" s="66"/>
-      <c r="J24" s="65" t="s">
+      <c r="I24" s="61"/>
+      <c r="J24" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="K24" s="66"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="66"/>
+      <c r="K24" s="61"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="61"/>
     </row>
     <row r="25" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>5</v>
       </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="64"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="68"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="68"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="145"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="63"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="63"/>
     </row>
     <row r="26" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>6</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="64"/>
-      <c r="F26" s="52" t="s">
+      <c r="B26" s="143"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="145"/>
+      <c r="F26" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="53"/>
-      <c r="H26" s="73" t="s">
+      <c r="G26" s="65"/>
+      <c r="H26" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="I26" s="74"/>
-      <c r="J26" s="52" t="s">
+      <c r="I26" s="109"/>
+      <c r="J26" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="K26" s="53"/>
-      <c r="M26" s="52" t="s">
+      <c r="K26" s="65"/>
+      <c r="M26" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="N26" s="53"/>
-      <c r="O26" s="73" t="s">
+      <c r="N26" s="65"/>
+      <c r="O26" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="P26" s="74"/>
-      <c r="Q26" s="52" t="s">
+      <c r="P26" s="109"/>
+      <c r="Q26" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="R26" s="53"/>
+      <c r="R26" s="65"/>
     </row>
     <row r="27" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>7</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="64"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="80"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="80"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="145"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="124"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="110"/>
+      <c r="P27" s="111"/>
+      <c r="Q27" s="123"/>
+      <c r="R27" s="124"/>
     </row>
     <row r="28" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>8</v>
       </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="64"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="82"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="78"/>
-      <c r="Q28" s="81"/>
-      <c r="R28" s="82"/>
+      <c r="B28" s="143"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="145"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="125"/>
+      <c r="K28" s="126"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="112"/>
+      <c r="P28" s="113"/>
+      <c r="Q28" s="125"/>
+      <c r="R28" s="126"/>
     </row>
     <row r="29" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="83" t="s">
+      <c r="A29" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
-      <c r="F29" s="52" t="s">
+      <c r="B29" s="146"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="146"/>
+      <c r="F29" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="53"/>
-      <c r="H29" s="52" t="s">
+      <c r="G29" s="65"/>
+      <c r="H29" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="I29" s="53"/>
-      <c r="J29" s="52" t="s">
+      <c r="I29" s="65"/>
+      <c r="J29" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="K29" s="53"/>
-      <c r="M29" s="52" t="s">
+      <c r="K29" s="65"/>
+      <c r="M29" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="N29" s="53"/>
-      <c r="O29" s="52" t="s">
+      <c r="N29" s="65"/>
+      <c r="O29" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="52" t="s">
+      <c r="P29" s="65"/>
+      <c r="Q29" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="R29" s="53"/>
+      <c r="R29" s="65"/>
     </row>
     <row r="30" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="90"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="92"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="66"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="65"/>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="65"/>
-      <c r="R30" s="66"/>
+      <c r="A30" s="127"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="129"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="61"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="60"/>
+      <c r="R30" s="61"/>
     </row>
     <row r="31" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="93"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="95"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="68"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="67"/>
-      <c r="P31" s="68"/>
-      <c r="Q31" s="67"/>
-      <c r="R31" s="68"/>
+      <c r="A31" s="130"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="132"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="63"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="62"/>
+      <c r="R31" s="63"/>
     </row>
     <row r="32" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="93"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="95"/>
+      <c r="A32" s="130"/>
+      <c r="B32" s="131"/>
+      <c r="C32" s="131"/>
+      <c r="D32" s="132"/>
     </row>
     <row r="33" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="93"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="95"/>
-      <c r="F33" s="52" t="s">
+      <c r="A33" s="130"/>
+      <c r="B33" s="131"/>
+      <c r="C33" s="131"/>
+      <c r="D33" s="132"/>
+      <c r="F33" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="53"/>
-      <c r="H33" s="52" t="s">
+      <c r="G33" s="65"/>
+      <c r="H33" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="I33" s="53"/>
-      <c r="J33" s="52" t="s">
+      <c r="I33" s="65"/>
+      <c r="J33" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="K33" s="53"/>
-      <c r="M33" s="105" t="s">
+      <c r="K33" s="65"/>
+      <c r="M33" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="106"/>
-      <c r="O33" s="105" t="s">
+      <c r="N33" s="54"/>
+      <c r="O33" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="P33" s="106"/>
-      <c r="Q33" s="105" t="s">
+      <c r="P33" s="54"/>
+      <c r="Q33" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="R33" s="106"/>
+      <c r="R33" s="54"/>
     </row>
     <row r="34" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="93"/>
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="95"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="66"/>
-      <c r="M34" s="107"/>
-      <c r="N34" s="108"/>
-      <c r="O34" s="107"/>
-      <c r="P34" s="108"/>
-      <c r="Q34" s="107"/>
-      <c r="R34" s="108"/>
+      <c r="A34" s="130"/>
+      <c r="B34" s="131"/>
+      <c r="C34" s="131"/>
+      <c r="D34" s="132"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="61"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="56"/>
     </row>
     <row r="35" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="93"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="95"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="68"/>
-      <c r="M35" s="109"/>
-      <c r="N35" s="110"/>
-      <c r="O35" s="109"/>
-      <c r="P35" s="110"/>
-      <c r="Q35" s="109"/>
-      <c r="R35" s="110"/>
+      <c r="A35" s="130"/>
+      <c r="B35" s="131"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="132"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="63"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="58"/>
     </row>
     <row r="36" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="96"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="98"/>
-      <c r="F36" s="52" t="s">
+      <c r="A36" s="133"/>
+      <c r="B36" s="134"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="135"/>
+      <c r="F36" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="G36" s="53"/>
-      <c r="H36" s="73" t="s">
+      <c r="G36" s="65"/>
+      <c r="H36" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="I36" s="74"/>
-      <c r="J36" s="52" t="s">
+      <c r="I36" s="109"/>
+      <c r="J36" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="K36" s="53"/>
-      <c r="M36" s="105" t="s">
+      <c r="K36" s="65"/>
+      <c r="M36" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="N36" s="106"/>
-      <c r="O36" s="73" t="s">
+      <c r="N36" s="54"/>
+      <c r="O36" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="P36" s="74"/>
-      <c r="Q36" s="105" t="s">
+      <c r="P36" s="109"/>
+      <c r="Q36" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="R36" s="106"/>
+      <c r="R36" s="54"/>
     </row>
     <row r="37" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="65"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="80"/>
-      <c r="M37" s="107"/>
-      <c r="N37" s="108"/>
-      <c r="O37" s="75"/>
-      <c r="P37" s="76"/>
-      <c r="Q37" s="107"/>
-      <c r="R37" s="108"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="110"/>
+      <c r="I37" s="111"/>
+      <c r="J37" s="123"/>
+      <c r="K37" s="124"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="110"/>
+      <c r="P37" s="111"/>
+      <c r="Q37" s="55"/>
+      <c r="R37" s="56"/>
     </row>
     <row r="38" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="99" t="s">
+      <c r="A38" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="99"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="78"/>
-      <c r="J38" s="81"/>
-      <c r="K38" s="82"/>
-      <c r="M38" s="109"/>
-      <c r="N38" s="110"/>
-      <c r="O38" s="77"/>
-      <c r="P38" s="78"/>
-      <c r="Q38" s="109"/>
-      <c r="R38" s="110"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="136"/>
+      <c r="D38" s="136"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="112"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="125"/>
+      <c r="K38" s="126"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="58"/>
+      <c r="O38" s="112"/>
+      <c r="P38" s="113"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="58"/>
     </row>
     <row r="39" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>1</v>
       </c>
-      <c r="B39" s="100"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="102"/>
-      <c r="F39" s="52" t="s">
+      <c r="B39" s="50"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="52"/>
+      <c r="F39" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="53"/>
-      <c r="H39" s="52" t="s">
+      <c r="G39" s="65"/>
+      <c r="H39" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="I39" s="53"/>
-      <c r="J39" s="52" t="s">
+      <c r="I39" s="65"/>
+      <c r="J39" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="K39" s="53"/>
-      <c r="M39" s="105" t="s">
+      <c r="K39" s="65"/>
+      <c r="M39" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="N39" s="106"/>
-      <c r="O39" s="105" t="s">
+      <c r="N39" s="54"/>
+      <c r="O39" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="P39" s="106"/>
-      <c r="Q39" s="105" t="s">
+      <c r="P39" s="54"/>
+      <c r="Q39" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="R39" s="106"/>
+      <c r="R39" s="54"/>
       <c r="T39" s="25"/>
     </row>
     <row r="40" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>2</v>
       </c>
-      <c r="B40" s="100"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="102"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="66"/>
-      <c r="M40" s="107"/>
-      <c r="N40" s="108"/>
-      <c r="O40" s="107"/>
-      <c r="P40" s="108"/>
-      <c r="Q40" s="107"/>
-      <c r="R40" s="108"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="52"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="61"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="55"/>
+      <c r="P40" s="56"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="56"/>
     </row>
     <row r="41" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>3</v>
       </c>
-      <c r="B41" s="100"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="102"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="68"/>
-      <c r="M41" s="109"/>
-      <c r="N41" s="110"/>
-      <c r="O41" s="109"/>
-      <c r="P41" s="110"/>
-      <c r="Q41" s="109"/>
-      <c r="R41" s="110"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="52"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="63"/>
+      <c r="M41" s="57"/>
+      <c r="N41" s="58"/>
+      <c r="O41" s="57"/>
+      <c r="P41" s="58"/>
+      <c r="Q41" s="57"/>
+      <c r="R41" s="58"/>
     </row>
     <row r="42" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>4</v>
       </c>
-      <c r="B42" s="100"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="102"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="52"/>
     </row>
     <row r="43" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>5</v>
       </c>
-      <c r="B43" s="100"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="102"/>
-      <c r="F43" s="105" t="s">
+      <c r="B43" s="50"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="52"/>
+      <c r="F43" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="G43" s="106"/>
-      <c r="H43" s="111" t="s">
+      <c r="G43" s="54"/>
+      <c r="H43" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="I43" s="112"/>
-      <c r="J43" s="117" t="s">
+      <c r="I43" s="84"/>
+      <c r="J43" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="K43" s="118"/>
+      <c r="K43" s="115"/>
     </row>
     <row r="44" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>6</v>
       </c>
-      <c r="B44" s="100"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="102"/>
-      <c r="F44" s="107"/>
-      <c r="G44" s="108"/>
-      <c r="H44" s="113"/>
-      <c r="I44" s="114"/>
-      <c r="J44" s="119"/>
-      <c r="K44" s="120"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="52"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="86"/>
+      <c r="J44" s="116"/>
+      <c r="K44" s="117"/>
     </row>
     <row r="45" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>7</v>
       </c>
-      <c r="B45" s="123"/>
-      <c r="C45" s="124"/>
-      <c r="D45" s="125"/>
-      <c r="F45" s="109"/>
-      <c r="G45" s="110"/>
-      <c r="H45" s="115"/>
-      <c r="I45" s="116"/>
-      <c r="J45" s="121"/>
-      <c r="K45" s="122"/>
+      <c r="B45" s="120"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="122"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="87"/>
+      <c r="I45" s="88"/>
+      <c r="J45" s="118"/>
+      <c r="K45" s="119"/>
     </row>
     <row r="46" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>8</v>
       </c>
-      <c r="B46" s="141"/>
-      <c r="C46" s="142"/>
-      <c r="D46" s="142"/>
-      <c r="F46" s="111" t="s">
+      <c r="B46" s="81"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="82"/>
+      <c r="F46" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="G46" s="112"/>
-      <c r="H46" s="143" t="s">
+      <c r="G46" s="84"/>
+      <c r="H46" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="I46" s="144"/>
-      <c r="J46" s="149" t="s">
+      <c r="I46" s="90"/>
+      <c r="J46" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="K46" s="150"/>
+      <c r="K46" s="96"/>
     </row>
     <row r="47" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F47" s="113"/>
-      <c r="G47" s="114"/>
-      <c r="H47" s="145"/>
-      <c r="I47" s="146"/>
-      <c r="J47" s="151"/>
-      <c r="K47" s="152"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="91"/>
+      <c r="I47" s="92"/>
+      <c r="J47" s="97"/>
+      <c r="K47" s="98"/>
     </row>
     <row r="48" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F48" s="115"/>
-      <c r="G48" s="116"/>
-      <c r="H48" s="147"/>
-      <c r="I48" s="148"/>
-      <c r="J48" s="153"/>
-      <c r="K48" s="154"/>
+      <c r="F48" s="87"/>
+      <c r="G48" s="88"/>
+      <c r="H48" s="93"/>
+      <c r="I48" s="94"/>
+      <c r="J48" s="99"/>
+      <c r="K48" s="100"/>
     </row>
     <row r="49" spans="6:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F49" s="162" t="s">
+      <c r="F49" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="G49" s="163"/>
-      <c r="H49" s="126" t="s">
+      <c r="G49" s="45"/>
+      <c r="H49" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="I49" s="127"/>
-      <c r="J49" s="132" t="s">
+      <c r="I49" s="67"/>
+      <c r="J49" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="K49" s="133"/>
+      <c r="K49" s="73"/>
     </row>
     <row r="50" spans="6:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F50" s="164"/>
-      <c r="G50" s="165"/>
-      <c r="H50" s="128"/>
-      <c r="I50" s="129"/>
-      <c r="J50" s="134"/>
-      <c r="K50" s="135"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="75"/>
     </row>
     <row r="51" spans="6:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F51" s="166"/>
-      <c r="G51" s="167"/>
-      <c r="H51" s="130"/>
-      <c r="I51" s="131"/>
-      <c r="J51" s="136"/>
-      <c r="K51" s="137"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="76"/>
+      <c r="K51" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="F46:G48"/>
-    <mergeCell ref="H46:I48"/>
-    <mergeCell ref="J46:K48"/>
-    <mergeCell ref="F49:G51"/>
-    <mergeCell ref="H49:I51"/>
-    <mergeCell ref="J49:K51"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="F43:G45"/>
-    <mergeCell ref="H43:I45"/>
-    <mergeCell ref="J43:K45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="F40:G41"/>
-    <mergeCell ref="H40:I41"/>
-    <mergeCell ref="J40:K41"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M33:N35"/>
-    <mergeCell ref="O33:P35"/>
-    <mergeCell ref="Q33:R35"/>
-    <mergeCell ref="F34:G35"/>
-    <mergeCell ref="H34:I35"/>
-    <mergeCell ref="J34:K35"/>
-    <mergeCell ref="O39:P41"/>
-    <mergeCell ref="Q39:R41"/>
-    <mergeCell ref="M39:N41"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:Q1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F14:G15"/>
+    <mergeCell ref="H14:I15"/>
+    <mergeCell ref="J14:K15"/>
+    <mergeCell ref="M14:N15"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="F12:R12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I18"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P18"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="F17:G18"/>
+    <mergeCell ref="J17:K18"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="Q17:R18"/>
+    <mergeCell ref="Q20:R21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="F20:G21"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="J20:K21"/>
+    <mergeCell ref="M20:N21"/>
+    <mergeCell ref="O20:P21"/>
+    <mergeCell ref="Q24:R25"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I28"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P28"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="J24:K25"/>
+    <mergeCell ref="M24:N25"/>
+    <mergeCell ref="O24:P25"/>
+    <mergeCell ref="F27:G28"/>
+    <mergeCell ref="J27:K28"/>
+    <mergeCell ref="M27:N28"/>
+    <mergeCell ref="Q27:R28"/>
+    <mergeCell ref="B28:D28"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="H29:I29"/>
@@ -7492,85 +8980,40 @@
     <mergeCell ref="F37:G38"/>
     <mergeCell ref="J37:K38"/>
     <mergeCell ref="H33:I33"/>
-    <mergeCell ref="Q24:R25"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I28"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P28"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="J24:K25"/>
-    <mergeCell ref="M24:N25"/>
-    <mergeCell ref="O24:P25"/>
-    <mergeCell ref="F27:G28"/>
-    <mergeCell ref="J27:K28"/>
-    <mergeCell ref="M27:N28"/>
-    <mergeCell ref="Q27:R28"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="Q20:R21"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="F20:G21"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="J20:K21"/>
-    <mergeCell ref="M20:N21"/>
-    <mergeCell ref="O20:P21"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I18"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P18"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="F17:G18"/>
-    <mergeCell ref="J17:K18"/>
-    <mergeCell ref="M17:N18"/>
-    <mergeCell ref="Q17:R18"/>
-    <mergeCell ref="F14:G15"/>
-    <mergeCell ref="H14:I15"/>
-    <mergeCell ref="J14:K15"/>
-    <mergeCell ref="M14:N15"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="F12:R12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:Q1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M33:N35"/>
+    <mergeCell ref="O33:P35"/>
+    <mergeCell ref="Q33:R35"/>
+    <mergeCell ref="F34:G35"/>
+    <mergeCell ref="H34:I35"/>
+    <mergeCell ref="J34:K35"/>
+    <mergeCell ref="O39:P41"/>
+    <mergeCell ref="Q39:R41"/>
+    <mergeCell ref="M39:N41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="F40:G41"/>
+    <mergeCell ref="H40:I41"/>
+    <mergeCell ref="J40:K41"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="F46:G48"/>
+    <mergeCell ref="H46:I48"/>
+    <mergeCell ref="J46:K48"/>
+    <mergeCell ref="F49:G51"/>
+    <mergeCell ref="H49:I51"/>
+    <mergeCell ref="J49:K51"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="F43:G45"/>
+    <mergeCell ref="H43:I45"/>
+    <mergeCell ref="J43:K45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7578,7 +9021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
@@ -7609,13 +9052,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="176" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="177">
+      <c r="C2" s="174">
         <v>1</v>
       </c>
       <c r="D2" s="178">
@@ -7627,11 +9070,11 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="173"/>
+      <c r="A3" s="176"/>
       <c r="B3" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="176"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="179"/>
       <c r="E3" s="30"/>
       <c r="G3" t="s">
@@ -7639,11 +9082,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="173"/>
+      <c r="A4" s="176"/>
       <c r="B4" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="176"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="180"/>
       <c r="E4" s="30"/>
       <c r="G4" t="s">
@@ -7651,11 +9094,11 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="175"/>
+      <c r="A5" s="177"/>
       <c r="B5" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="176"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="28"/>
       <c r="E5" s="30"/>
       <c r="G5" t="s">
@@ -7663,13 +9106,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="174" t="s">
+      <c r="A6" s="181" t="s">
         <v>77</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="176">
+      <c r="C6" s="175">
         <v>2</v>
       </c>
       <c r="D6" s="28"/>
@@ -7679,11 +9122,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="173"/>
+      <c r="A7" s="176"/>
       <c r="B7" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="176"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="28"/>
       <c r="E7" s="30"/>
       <c r="G7" t="s">
@@ -7691,11 +9134,11 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="173"/>
+      <c r="A8" s="176"/>
       <c r="B8" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="176">
+      <c r="C8" s="175">
         <v>3</v>
       </c>
       <c r="D8" s="28"/>
@@ -7705,11 +9148,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="173"/>
+      <c r="A9" s="176"/>
       <c r="B9" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="176"/>
+      <c r="C9" s="175"/>
       <c r="D9" s="28"/>
       <c r="E9" s="30"/>
       <c r="G9" t="s">
@@ -7717,171 +9160,171 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="173"/>
+      <c r="A10" s="176"/>
       <c r="B10" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="176">
+      <c r="C10" s="175">
         <v>4</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="30"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="173"/>
+      <c r="A11" s="176"/>
       <c r="B11" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="176"/>
+      <c r="C11" s="175"/>
       <c r="D11" s="28"/>
       <c r="E11" s="30"/>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="173"/>
+      <c r="A12" s="176"/>
       <c r="B12" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="176">
+      <c r="C12" s="175">
         <v>5</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="30"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="173"/>
+      <c r="A13" s="176"/>
       <c r="B13" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="176"/>
+      <c r="C13" s="175"/>
       <c r="D13" s="28"/>
       <c r="E13" s="30"/>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="173"/>
+      <c r="A14" s="176"/>
       <c r="B14" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="176" t="s">
+      <c r="C14" s="175" t="s">
         <v>113</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="30"/>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="173"/>
+      <c r="A15" s="176"/>
       <c r="B15" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="176"/>
+      <c r="C15" s="175"/>
       <c r="D15" s="28"/>
       <c r="E15" s="30"/>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="175"/>
+      <c r="A16" s="177"/>
       <c r="B16" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="176"/>
+      <c r="C16" s="175"/>
       <c r="D16" s="28"/>
       <c r="E16" s="30"/>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="173" t="s">
+      <c r="A17" s="176" t="s">
         <v>112</v>
       </c>
       <c r="B17" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="176">
+      <c r="C17" s="175">
         <v>8</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="30"/>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="173"/>
+      <c r="A18" s="176"/>
       <c r="B18" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="176"/>
+      <c r="C18" s="175"/>
       <c r="D18" s="28"/>
       <c r="E18" s="30"/>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="173"/>
+      <c r="A19" s="176"/>
       <c r="B19" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="176" t="s">
+      <c r="C19" s="175" t="s">
         <v>114</v>
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="30"/>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="173"/>
+      <c r="A20" s="176"/>
       <c r="B20" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="176"/>
+      <c r="C20" s="175"/>
       <c r="D20" s="28"/>
       <c r="E20" s="30"/>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="173"/>
+      <c r="A21" s="176"/>
       <c r="B21" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="176"/>
+      <c r="C21" s="175"/>
       <c r="D21" s="28"/>
       <c r="E21" s="30"/>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="173" t="s">
+      <c r="A22" s="176" t="s">
         <v>88</v>
       </c>
       <c r="B22" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="176" t="s">
+      <c r="C22" s="175" t="s">
         <v>115</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="30"/>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="173"/>
+      <c r="A23" s="176"/>
       <c r="B23" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="176"/>
+      <c r="C23" s="175"/>
       <c r="D23" s="28"/>
       <c r="E23" s="30"/>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="173"/>
+      <c r="A24" s="176"/>
       <c r="B24" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="176"/>
+      <c r="C24" s="175"/>
       <c r="D24" s="28"/>
       <c r="E24" s="30"/>
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="173"/>
+      <c r="A25" s="176"/>
       <c r="B25" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="176"/>
+      <c r="C25" s="175"/>
       <c r="D25" s="28"/>
       <c r="E25" s="30"/>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="173"/>
+      <c r="A26" s="176"/>
       <c r="B26" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="176"/>
+      <c r="C26" s="175"/>
       <c r="D26" s="28"/>
       <c r="E26" s="30"/>
     </row>
@@ -7894,7 +9337,7 @@
       <c r="E27" s="30"/>
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="173" t="s">
+      <c r="A28" s="176" t="s">
         <v>102</v>
       </c>
       <c r="B28" s="28" t="s">
@@ -7904,7 +9347,7 @@
       <c r="E28" s="30"/>
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="173"/>
+      <c r="A29" s="176"/>
       <c r="B29" s="28" t="s">
         <v>91</v>
       </c>
@@ -7912,7 +9355,7 @@
       <c r="E29" s="30"/>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="173"/>
+      <c r="A30" s="176"/>
       <c r="B30" s="28" t="s">
         <v>92</v>
       </c>
@@ -7920,7 +9363,7 @@
       <c r="E30" s="30"/>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="173"/>
+      <c r="A31" s="176"/>
       <c r="B31" s="28" t="s">
         <v>93</v>
       </c>
@@ -7928,7 +9371,7 @@
       <c r="E31" s="30"/>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="173"/>
+      <c r="A32" s="176"/>
       <c r="B32" s="28" t="s">
         <v>94</v>
       </c>
@@ -7936,7 +9379,7 @@
       <c r="E32" s="30"/>
     </row>
     <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="173"/>
+      <c r="A33" s="176"/>
       <c r="B33" s="28" t="s">
         <v>95</v>
       </c>
@@ -7944,7 +9387,7 @@
       <c r="E33" s="30"/>
     </row>
     <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="173"/>
+      <c r="A34" s="176"/>
       <c r="B34" s="28" t="s">
         <v>96</v>
       </c>
@@ -7952,7 +9395,7 @@
       <c r="E34" s="30"/>
     </row>
     <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="173"/>
+      <c r="A35" s="176"/>
       <c r="B35" s="28" t="s">
         <v>97</v>
       </c>
@@ -7960,7 +9403,7 @@
       <c r="E35" s="30"/>
     </row>
     <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="173"/>
+      <c r="A36" s="176"/>
       <c r="B36" s="28" t="s">
         <v>98</v>
       </c>
@@ -7968,7 +9411,7 @@
       <c r="E36" s="30"/>
     </row>
     <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="173"/>
+      <c r="A37" s="176"/>
       <c r="B37" s="28" t="s">
         <v>99</v>
       </c>
@@ -7976,7 +9419,7 @@
       <c r="E37" s="30"/>
     </row>
     <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="173"/>
+      <c r="A38" s="176"/>
       <c r="B38" s="28" t="s">
         <v>100</v>
       </c>
@@ -7984,7 +9427,7 @@
       <c r="E38" s="30"/>
     </row>
     <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="173"/>
+      <c r="A39" s="176"/>
       <c r="B39" s="28" t="s">
         <v>101</v>
       </c>
@@ -7992,7 +9435,7 @@
       <c r="E39" s="30"/>
     </row>
     <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="173" t="s">
+      <c r="A40" s="176" t="s">
         <v>108</v>
       </c>
       <c r="B40" s="28" t="s">
@@ -8002,7 +9445,7 @@
       <c r="E40" s="30"/>
     </row>
     <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="173"/>
+      <c r="A41" s="176"/>
       <c r="B41" s="28" t="s">
         <v>104</v>
       </c>
@@ -8010,7 +9453,7 @@
       <c r="E41" s="30"/>
     </row>
     <row r="42" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="173"/>
+      <c r="A42" s="176"/>
       <c r="B42" s="28" t="s">
         <v>105</v>
       </c>
@@ -8018,7 +9461,7 @@
       <c r="E42" s="30"/>
     </row>
     <row r="43" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="173"/>
+      <c r="A43" s="176"/>
       <c r="B43" s="28" t="s">
         <v>106</v>
       </c>
@@ -8059,6 +9502,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A22:A26"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="D2:D4"/>
@@ -8075,7 +9519,6 @@
     <mergeCell ref="C19:C21"/>
     <mergeCell ref="C22:C26"/>
     <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2019年计划/9-11季度计划.xlsx
+++ b/2019年计划/9-11季度计划.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="249">
   <si>
     <t>月份\目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7841,8 +7841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:D15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7969,7 +7969,9 @@
       <c r="N3" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="O3" s="16"/>
+      <c r="O3" s="16" t="s">
+        <v>247</v>
+      </c>
       <c r="R3" s="16"/>
     </row>
     <row r="4" spans="1:18" ht="33" customHeight="1">
